--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="291">
   <si>
     <t>ARMOR</t>
   </si>
@@ -884,13 +884,19 @@
   </si>
   <si>
     <t>This sheet is a check-list of the items that have been checked and whose text has been rearranged to meet the item ingame</t>
+  </si>
+  <si>
+    <t>XVc checked</t>
+  </si>
+  <si>
+    <t>SS checked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1025,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1042,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1372,21 +1396,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1423,12 +1432,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,13 +2306,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2427,13 +2467,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2594,13 +2634,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2749,13 +2789,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -2904,13 +2944,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4219,11 +4259,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="58"/>
-      <c r="L132" s="58"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="78"/>
+      <c r="L132" s="78"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -5389,87 +5429,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" thickBot="1">
-      <c r="A5" s="66"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -5481,11 +5521,11 @@
       <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -5497,10 +5537,10 @@
       <c r="L5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5548,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="19" t="s">
         <v>149</v>
       </c>
@@ -5516,10 +5556,10 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
@@ -5527,7 +5567,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="19" t="s">
         <v>150</v>
       </c>
@@ -5535,10 +5575,10 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
@@ -5546,7 +5586,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="66"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="19" t="s">
         <v>151</v>
       </c>
@@ -5554,10 +5594,10 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5605,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="19" t="s">
         <v>152</v>
       </c>
@@ -5573,10 +5613,10 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="66"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
@@ -5584,7 +5624,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="66"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="19" t="s">
         <v>153</v>
       </c>
@@ -5592,10 +5632,10 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
@@ -5603,7 +5643,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="66"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="19" t="s">
         <v>154</v>
       </c>
@@ -5611,10 +5651,10 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="66"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
@@ -5622,7 +5662,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="66"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="19" t="s">
         <v>155</v>
       </c>
@@ -5630,10 +5670,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="66"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
@@ -5641,7 +5681,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="66"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="19" t="s">
         <v>156</v>
       </c>
@@ -5649,10 +5689,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="66"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
@@ -5660,7 +5700,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="66"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="19" t="s">
         <v>157</v>
       </c>
@@ -5668,10 +5708,10 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="66"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
@@ -5679,7 +5719,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="66"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="19" t="s">
         <v>158</v>
       </c>
@@ -5687,10 +5727,10 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="66"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
@@ -5698,7 +5738,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="19" t="s">
         <v>159</v>
       </c>
@@ -5706,10 +5746,10 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="66"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
@@ -5717,7 +5757,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="66"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="19" t="s">
         <v>160</v>
       </c>
@@ -5725,10 +5765,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="66"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
@@ -5736,7 +5776,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="66"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="19" t="s">
         <v>161</v>
       </c>
@@ -5744,10 +5784,10 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="66"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
@@ -5755,7 +5795,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="66"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="19" t="s">
         <v>162</v>
       </c>
@@ -5763,10 +5803,10 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="66"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
@@ -5774,7 +5814,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="66"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="19" t="s">
         <v>163</v>
       </c>
@@ -5782,10 +5822,10 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="66"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
@@ -5793,7 +5833,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="66"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="19" t="s">
         <v>164</v>
       </c>
@@ -5801,10 +5841,10 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="66"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -5812,7 +5852,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="66"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="19" t="s">
         <v>165</v>
       </c>
@@ -5820,10 +5860,10 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="66"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
@@ -5831,7 +5871,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="66"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="19" t="s">
         <v>166</v>
       </c>
@@ -5839,10 +5879,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="66"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
@@ -5850,7 +5890,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="19" t="s">
         <v>167</v>
       </c>
@@ -5858,10 +5898,10 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="66"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
@@ -5869,7 +5909,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="66"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="19" t="s">
         <v>168</v>
       </c>
@@ -5877,16 +5917,16 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="66"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -5894,14 +5934,14 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="66"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -5913,7 +5953,7 @@
       <c r="F27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="66"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="19" t="s">
         <v>170</v>
       </c>
@@ -5921,10 +5961,10 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="66"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
@@ -5932,18 +5972,18 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="66"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="19" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="66"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
@@ -5951,16 +5991,16 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
@@ -5968,18 +6008,18 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="61"/>
+      <c r="H30" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="66"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
@@ -5987,16 +6027,16 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="66"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
@@ -6004,35 +6044,35 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="66"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="66"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:13" ht="18" thickBot="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -6044,16 +6084,16 @@
       <c r="F34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="66"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
@@ -6061,16 +6101,16 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="66"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="66"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6078,16 +6118,16 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="66"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="66"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="19" t="s">
         <v>33</v>
       </c>
@@ -6095,16 +6135,16 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="66"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="66"/>
+      <c r="M37" s="61"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
@@ -6112,54 +6152,54 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="66"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="66"/>
+      <c r="M38" s="61"/>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="60" t="s">
+      <c r="F39" s="65"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="66"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="66"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="61"/>
     </row>
     <row r="41" spans="1:13" ht="18" thickBot="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -6171,16 +6211,16 @@
       <c r="F41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="66"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="61"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
@@ -6188,16 +6228,16 @@
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="66"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="66"/>
+      <c r="M42" s="61"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="19" t="s">
         <v>38</v>
       </c>
@@ -6205,16 +6245,16 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="66"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="66"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
@@ -6222,16 +6262,16 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="66"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="66"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
@@ -6239,52 +6279,52 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="66"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="66"/>
+      <c r="M45" s="61"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="66"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="66"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -6296,18 +6336,18 @@
       <c r="F48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="63" t="s">
+      <c r="G48" s="61"/>
+      <c r="H48" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="66"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="61"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
@@ -6315,16 +6355,16 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="66"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
@@ -6332,16 +6372,16 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="66"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="61"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
@@ -6349,16 +6389,16 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="66"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="66"/>
+      <c r="M51" s="61"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
@@ -6366,16 +6406,16 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="66"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="66"/>
+      <c r="M52" s="61"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
@@ -6383,16 +6423,16 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="66"/>
+      <c r="M53" s="61"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
@@ -6400,16 +6440,16 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="66"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="66"/>
+      <c r="M54" s="61"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="19" t="s">
         <v>49</v>
       </c>
@@ -6417,16 +6457,16 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="66"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="66"/>
+      <c r="M55" s="61"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="19" t="s">
         <v>50</v>
       </c>
@@ -6434,16 +6474,16 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
     </row>
     <row r="57" spans="1:13" ht="18" thickBot="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
@@ -6451,18 +6491,18 @@
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="63" t="s">
+      <c r="G57" s="61"/>
+      <c r="H57" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="66"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="61"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="19" t="s">
         <v>52</v>
       </c>
@@ -6470,16 +6510,16 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="66"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="61"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="38" t="s">
         <v>53</v>
       </c>
@@ -6487,16 +6527,16 @@
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="66"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="61"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
@@ -6504,16 +6544,16 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="66"/>
+      <c r="M60" s="61"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="19" t="s">
         <v>55</v>
       </c>
@@ -6521,16 +6561,16 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="66"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="66"/>
+      <c r="M61" s="61"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="19" t="s">
         <v>56</v>
       </c>
@@ -6538,16 +6578,16 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="66"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="66"/>
+      <c r="M62" s="61"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
@@ -6555,16 +6595,16 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="66"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="66"/>
+      <c r="M63" s="61"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="19" t="s">
         <v>58</v>
       </c>
@@ -6572,16 +6612,16 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="66"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="66"/>
+      <c r="M64" s="61"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
@@ -6589,16 +6629,16 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="19" t="s">
         <v>60</v>
       </c>
@@ -6606,18 +6646,18 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="63" t="s">
+      <c r="G66" s="61"/>
+      <c r="H66" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="66"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
@@ -6625,16 +6665,16 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="66"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="19" t="s">
         <v>62</v>
       </c>
@@ -6642,16 +6682,16 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="66"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="19" t="s">
         <v>63</v>
       </c>
@@ -6659,16 +6699,16 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="66"/>
+      <c r="G69" s="61"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="66"/>
+      <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="19" t="s">
         <v>64</v>
       </c>
@@ -6676,16 +6716,16 @@
       <c r="D70" s="20"/>
       <c r="E70" s="40"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="66"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="66"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
@@ -6693,16 +6733,16 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="66"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="66"/>
+      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
@@ -6710,16 +6750,16 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="66"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="66"/>
+      <c r="M72" s="61"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
@@ -6727,16 +6767,16 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
     </row>
     <row r="74" spans="1:13" ht="18" thickBot="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="19" t="s">
         <v>68</v>
       </c>
@@ -6744,11 +6784,11 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="66"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J74" s="14" t="s">
@@ -6760,10 +6800,10 @@
       <c r="L74" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="66"/>
+      <c r="M74" s="61"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="19" t="s">
         <v>69</v>
       </c>
@@ -6771,7 +6811,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="66"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="19" t="s">
         <v>178</v>
       </c>
@@ -6779,10 +6819,10 @@
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="66"/>
+      <c r="M75" s="61"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="19" t="s">
         <v>70</v>
       </c>
@@ -6790,7 +6830,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="66"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="19" t="s">
         <v>179</v>
       </c>
@@ -6798,10 +6838,10 @@
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="66"/>
+      <c r="M76" s="61"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
@@ -6809,7 +6849,7 @@
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="66"/>
+      <c r="G77" s="61"/>
       <c r="H77" s="19" t="s">
         <v>180</v>
       </c>
@@ -6817,10 +6857,10 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="66"/>
+      <c r="M77" s="61"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="19" t="s">
         <v>72</v>
       </c>
@@ -6828,7 +6868,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="66"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="19" t="s">
         <v>181</v>
       </c>
@@ -6836,10 +6876,10 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="66"/>
+      <c r="M78" s="61"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="19" t="s">
         <v>73</v>
       </c>
@@ -6847,7 +6887,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="66"/>
+      <c r="G79" s="61"/>
       <c r="H79" s="19" t="s">
         <v>182</v>
       </c>
@@ -6855,10 +6895,10 @@
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
-      <c r="M79" s="66"/>
+      <c r="M79" s="61"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="19" t="s">
         <v>74</v>
       </c>
@@ -6866,7 +6906,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="66"/>
+      <c r="G80" s="61"/>
       <c r="H80" s="19" t="s">
         <v>183</v>
       </c>
@@ -6874,10 +6914,10 @@
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
-      <c r="M80" s="66"/>
+      <c r="M80" s="61"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="19" t="s">
         <v>75</v>
       </c>
@@ -6885,7 +6925,7 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="66"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="19" t="s">
         <v>184</v>
       </c>
@@ -6893,10 +6933,10 @@
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="66"/>
+      <c r="M81" s="61"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
@@ -6904,7 +6944,7 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="66"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="19" t="s">
         <v>185</v>
       </c>
@@ -6912,10 +6952,10 @@
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
-      <c r="M82" s="66"/>
+      <c r="M82" s="61"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="19" t="s">
         <v>77</v>
       </c>
@@ -6923,7 +6963,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="66"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="19" t="s">
         <v>186</v>
       </c>
@@ -6931,10 +6971,10 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
-      <c r="M83" s="66"/>
+      <c r="M83" s="61"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
@@ -6942,7 +6982,7 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="66"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="19" t="s">
         <v>187</v>
       </c>
@@ -6950,10 +6990,10 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="66"/>
+      <c r="M84" s="61"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="19" t="s">
         <v>79</v>
       </c>
@@ -6961,7 +7001,7 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="66"/>
+      <c r="G85" s="61"/>
       <c r="H85" s="19" t="s">
         <v>188</v>
       </c>
@@ -6969,10 +7009,10 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="66"/>
+      <c r="M85" s="61"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
@@ -6980,7 +7020,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="66"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="19" t="s">
         <v>189</v>
       </c>
@@ -6988,10 +7028,10 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
-      <c r="M86" s="66"/>
+      <c r="M86" s="61"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
@@ -6999,7 +7039,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="66"/>
+      <c r="G87" s="61"/>
       <c r="H87" s="19" t="s">
         <v>190</v>
       </c>
@@ -7007,10 +7047,10 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="66"/>
+      <c r="M87" s="61"/>
     </row>
     <row r="88" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
@@ -7018,7 +7058,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="66"/>
+      <c r="G88" s="61"/>
       <c r="H88" s="19" t="s">
         <v>191</v>
       </c>
@@ -7026,10 +7066,10 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="66"/>
+      <c r="M88" s="61"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="19" t="s">
         <v>83</v>
       </c>
@@ -7037,7 +7077,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="66"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="19" t="s">
         <v>192</v>
       </c>
@@ -7045,10 +7085,10 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="66"/>
+      <c r="M89" s="61"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
@@ -7056,7 +7096,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
       <c r="F90" s="41"/>
-      <c r="G90" s="66"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="19" t="s">
         <v>193</v>
       </c>
@@ -7064,10 +7104,10 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
-      <c r="M90" s="66"/>
+      <c r="M90" s="61"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="19" t="s">
         <v>85</v>
       </c>
@@ -7075,7 +7115,7 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="66"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="19" t="s">
         <v>194</v>
       </c>
@@ -7083,10 +7123,10 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
-      <c r="M91" s="66"/>
+      <c r="M91" s="61"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="19" t="s">
         <v>86</v>
       </c>
@@ -7094,7 +7134,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="66"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="19" t="s">
         <v>195</v>
       </c>
@@ -7102,10 +7142,10 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="66"/>
+      <c r="M92" s="61"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
@@ -7113,7 +7153,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="66"/>
+      <c r="G93" s="61"/>
       <c r="H93" s="19" t="s">
         <v>196</v>
       </c>
@@ -7121,10 +7161,10 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="66"/>
+      <c r="M93" s="61"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
@@ -7132,7 +7172,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="66"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="19" t="s">
         <v>197</v>
       </c>
@@ -7140,10 +7180,10 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="66"/>
+      <c r="M94" s="61"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="19" t="s">
         <v>89</v>
       </c>
@@ -7151,7 +7191,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="66"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="19" t="s">
         <v>198</v>
       </c>
@@ -7159,10 +7199,10 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
-      <c r="M95" s="66"/>
+      <c r="M95" s="61"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="19" t="s">
         <v>90</v>
       </c>
@@ -7170,7 +7210,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="66"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="19" t="s">
         <v>199</v>
       </c>
@@ -7178,10 +7218,10 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
-      <c r="M96" s="66"/>
+      <c r="M96" s="61"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="19" t="s">
         <v>91</v>
       </c>
@@ -7189,7 +7229,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="66"/>
+      <c r="G97" s="61"/>
       <c r="H97" s="19" t="s">
         <v>200</v>
       </c>
@@ -7197,10 +7237,10 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
-      <c r="M97" s="66"/>
+      <c r="M97" s="61"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -7208,7 +7248,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="66"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="19" t="s">
         <v>197</v>
       </c>
@@ -7216,10 +7256,10 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
-      <c r="M98" s="66"/>
+      <c r="M98" s="61"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="19" t="s">
         <v>93</v>
       </c>
@@ -7227,7 +7267,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="66"/>
+      <c r="G99" s="61"/>
       <c r="H99" s="19" t="s">
         <v>201</v>
       </c>
@@ -7235,10 +7275,10 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
-      <c r="M99" s="66"/>
+      <c r="M99" s="61"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="38" t="s">
         <v>94</v>
       </c>
@@ -7246,7 +7286,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="66"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="19" t="s">
         <v>202</v>
       </c>
@@ -7254,10 +7294,10 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
-      <c r="M100" s="66"/>
+      <c r="M100" s="61"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="19" t="s">
         <v>95</v>
       </c>
@@ -7265,7 +7305,7 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="66"/>
+      <c r="G101" s="61"/>
       <c r="H101" s="19" t="s">
         <v>203</v>
       </c>
@@ -7273,10 +7313,10 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
-      <c r="M101" s="66"/>
+      <c r="M101" s="61"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="19" t="s">
         <v>96</v>
       </c>
@@ -7284,7 +7324,7 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="66"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="19" t="s">
         <v>204</v>
       </c>
@@ -7292,48 +7332,48 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
-      <c r="M102" s="66"/>
+      <c r="M102" s="61"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="66"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="19" t="s">
         <v>205</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="66"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="61"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
     </row>
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -7345,11 +7385,11 @@
       <c r="F105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="61"/>
       <c r="H105" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I105" s="67" t="s">
+      <c r="I105" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -7361,10 +7401,10 @@
       <c r="L105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M105" s="66"/>
+      <c r="M105" s="61"/>
     </row>
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="19" t="s">
         <v>99</v>
       </c>
@@ -7372,7 +7412,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="66"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="19" t="s">
         <v>206</v>
       </c>
@@ -7380,10 +7420,10 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
-      <c r="M106" s="66"/>
+      <c r="M106" s="61"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="19" t="s">
         <v>100</v>
       </c>
@@ -7391,7 +7431,7 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="66"/>
+      <c r="G107" s="61"/>
       <c r="H107" s="19" t="s">
         <v>207</v>
       </c>
@@ -7399,10 +7439,10 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
-      <c r="M107" s="66"/>
+      <c r="M107" s="61"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="19" t="s">
         <v>101</v>
       </c>
@@ -7410,7 +7450,7 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="66"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="19" t="s">
         <v>208</v>
       </c>
@@ -7418,10 +7458,10 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
-      <c r="M108" s="66"/>
+      <c r="M108" s="61"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="19" t="s">
         <v>102</v>
       </c>
@@ -7429,7 +7469,7 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="66"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="19" t="s">
         <v>209</v>
       </c>
@@ -7437,10 +7477,10 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
-      <c r="M109" s="66"/>
+      <c r="M109" s="61"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="19" t="s">
         <v>103</v>
       </c>
@@ -7448,7 +7488,7 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="66"/>
+      <c r="G110" s="61"/>
       <c r="H110" s="19" t="s">
         <v>210</v>
       </c>
@@ -7456,10 +7496,10 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
-      <c r="M110" s="66"/>
+      <c r="M110" s="61"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="19" t="s">
         <v>104</v>
       </c>
@@ -7467,7 +7507,7 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="66"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="19" t="s">
         <v>211</v>
       </c>
@@ -7475,10 +7515,10 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
-      <c r="M111" s="66"/>
+      <c r="M111" s="61"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="19" t="s">
         <v>105</v>
       </c>
@@ -7486,7 +7526,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="66"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="19" t="s">
         <v>212</v>
       </c>
@@ -7494,10 +7534,10 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
-      <c r="M112" s="66"/>
+      <c r="M112" s="61"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="19" t="s">
         <v>106</v>
       </c>
@@ -7505,7 +7545,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="66"/>
+      <c r="G113" s="61"/>
       <c r="H113" s="19" t="s">
         <v>213</v>
       </c>
@@ -7513,10 +7553,10 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
-      <c r="M113" s="66"/>
+      <c r="M113" s="61"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="19" t="s">
         <v>107</v>
       </c>
@@ -7524,7 +7564,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="66"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="19" t="s">
         <v>214</v>
       </c>
@@ -7532,10 +7572,10 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
-      <c r="M114" s="66"/>
+      <c r="M114" s="61"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="19" t="s">
         <v>108</v>
       </c>
@@ -7543,7 +7583,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="66"/>
+      <c r="G115" s="61"/>
       <c r="H115" s="19" t="s">
         <v>215</v>
       </c>
@@ -7551,10 +7591,10 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="66"/>
+      <c r="M115" s="61"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="19" t="s">
         <v>109</v>
       </c>
@@ -7562,7 +7602,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="66"/>
+      <c r="G116" s="61"/>
       <c r="H116" s="19" t="s">
         <v>216</v>
       </c>
@@ -7570,10 +7610,10 @@
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
-      <c r="M116" s="66"/>
+      <c r="M116" s="61"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="38" t="s">
         <v>110</v>
       </c>
@@ -7581,7 +7621,7 @@
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="66"/>
+      <c r="G117" s="61"/>
       <c r="H117" s="19" t="s">
         <v>217</v>
       </c>
@@ -7589,10 +7629,10 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
-      <c r="M117" s="66"/>
+      <c r="M117" s="61"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="19" t="s">
         <v>111</v>
       </c>
@@ -7600,7 +7640,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="66"/>
+      <c r="G118" s="61"/>
       <c r="H118" s="19" t="s">
         <v>218</v>
       </c>
@@ -7608,10 +7648,10 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
-      <c r="M118" s="66"/>
+      <c r="M118" s="61"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="19" t="s">
         <v>112</v>
       </c>
@@ -7619,7 +7659,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="66"/>
+      <c r="G119" s="61"/>
       <c r="H119" s="19" t="s">
         <v>219</v>
       </c>
@@ -7627,10 +7667,10 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
-      <c r="M119" s="66"/>
+      <c r="M119" s="61"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="19" t="s">
         <v>113</v>
       </c>
@@ -7638,7 +7678,7 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="66"/>
+      <c r="G120" s="61"/>
       <c r="H120" s="19" t="s">
         <v>220</v>
       </c>
@@ -7646,10 +7686,10 @@
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
-      <c r="M120" s="66"/>
+      <c r="M120" s="61"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="19" t="s">
         <v>114</v>
       </c>
@@ -7657,7 +7697,7 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="66"/>
+      <c r="G121" s="61"/>
       <c r="H121" s="19" t="s">
         <v>221</v>
       </c>
@@ -7665,10 +7705,10 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
-      <c r="M121" s="66"/>
+      <c r="M121" s="61"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="19" t="s">
         <v>115</v>
       </c>
@@ -7676,7 +7716,7 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="66"/>
+      <c r="G122" s="61"/>
       <c r="H122" s="19" t="s">
         <v>222</v>
       </c>
@@ -7684,10 +7724,10 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
-      <c r="M122" s="66"/>
+      <c r="M122" s="61"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="19" t="s">
         <v>116</v>
       </c>
@@ -7695,7 +7735,7 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="66"/>
+      <c r="G123" s="61"/>
       <c r="H123" s="19" t="s">
         <v>223</v>
       </c>
@@ -7703,10 +7743,10 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
-      <c r="M123" s="66"/>
+      <c r="M123" s="61"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="61"/>
       <c r="B124" s="19" t="s">
         <v>117</v>
       </c>
@@ -7714,7 +7754,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="66"/>
+      <c r="G124" s="61"/>
       <c r="H124" s="19" t="s">
         <v>224</v>
       </c>
@@ -7722,10 +7762,10 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
-      <c r="M124" s="66"/>
+      <c r="M124" s="61"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="19" t="s">
         <v>118</v>
       </c>
@@ -7733,7 +7773,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="66"/>
+      <c r="G125" s="61"/>
       <c r="H125" s="19" t="s">
         <v>225</v>
       </c>
@@ -7741,10 +7781,10 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
-      <c r="M125" s="66"/>
+      <c r="M125" s="61"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="19" t="s">
         <v>119</v>
       </c>
@@ -7752,7 +7792,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="66"/>
+      <c r="G126" s="61"/>
       <c r="H126" s="19" t="s">
         <v>226</v>
       </c>
@@ -7760,10 +7800,10 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
-      <c r="M126" s="66"/>
+      <c r="M126" s="61"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="19" t="s">
         <v>120</v>
       </c>
@@ -7771,7 +7811,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="66"/>
+      <c r="G127" s="61"/>
       <c r="H127" s="19" t="s">
         <v>227</v>
       </c>
@@ -7779,10 +7819,10 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
-      <c r="M127" s="66"/>
+      <c r="M127" s="61"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="38" t="s">
         <v>121</v>
       </c>
@@ -7790,7 +7830,7 @@
       <c r="D128" s="41"/>
       <c r="E128" s="39"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="66"/>
+      <c r="G128" s="61"/>
       <c r="H128" s="19" t="s">
         <v>228</v>
       </c>
@@ -7798,10 +7838,10 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
-      <c r="M128" s="66"/>
+      <c r="M128" s="61"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="19" t="s">
         <v>122</v>
       </c>
@@ -7809,7 +7849,7 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="66"/>
+      <c r="G129" s="61"/>
       <c r="H129" s="19" t="s">
         <v>229</v>
       </c>
@@ -7817,10 +7857,10 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="66"/>
+      <c r="M129" s="61"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="19" t="s">
         <v>123</v>
       </c>
@@ -7828,7 +7868,7 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="66"/>
+      <c r="G130" s="61"/>
       <c r="H130" s="19" t="s">
         <v>230</v>
       </c>
@@ -7836,10 +7876,10 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
-      <c r="M130" s="66"/>
+      <c r="M130" s="61"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="38" t="s">
         <v>124</v>
       </c>
@@ -7847,7 +7887,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="41"/>
-      <c r="G131" s="66"/>
+      <c r="G131" s="61"/>
       <c r="H131" s="19" t="s">
         <v>231</v>
       </c>
@@ -7855,10 +7895,10 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
-      <c r="M131" s="66"/>
+      <c r="M131" s="61"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="19" t="s">
         <v>125</v>
       </c>
@@ -7866,7 +7906,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="66"/>
+      <c r="G132" s="61"/>
       <c r="H132" s="19" t="s">
         <v>232</v>
       </c>
@@ -7874,10 +7914,10 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
-      <c r="M132" s="66"/>
+      <c r="M132" s="61"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="61"/>
       <c r="B133" s="19" t="s">
         <v>126</v>
       </c>
@@ -7885,18 +7925,18 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="66"/>
+      <c r="G133" s="61"/>
       <c r="H133" s="19" t="s">
         <v>233</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="70"/>
-      <c r="M133" s="66"/>
+      <c r="L133" s="65"/>
+      <c r="M133" s="61"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="61"/>
       <c r="B134" s="19" t="s">
         <v>127</v>
       </c>
@@ -7914,7 +7954,7 @@
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="19" t="s">
         <v>128</v>
       </c>
@@ -7944,7 +7984,7 @@
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="61"/>
       <c r="B136" s="19" t="s">
         <v>129</v>
       </c>
@@ -7964,7 +8004,7 @@
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="19" t="s">
         <v>130</v>
       </c>
@@ -7984,7 +8024,7 @@
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="19" t="s">
         <v>131</v>
       </c>
@@ -8004,7 +8044,7 @@
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="19" t="s">
         <v>132</v>
       </c>
@@ -8024,7 +8064,7 @@
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="19" t="s">
         <v>133</v>
       </c>
@@ -8044,7 +8084,7 @@
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="19" t="s">
         <v>134</v>
       </c>
@@ -8062,14 +8102,14 @@
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="70"/>
+      <c r="F142" s="65"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>247</v>
@@ -8092,12 +8132,12 @@
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A143" s="66"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
         <v>241</v>
@@ -8110,11 +8150,11 @@
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="67" t="s">
+      <c r="C144" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -8138,7 +8178,7 @@
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="19" t="s">
         <v>137</v>
       </c>
@@ -8158,7 +8198,7 @@
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="19" t="s">
         <v>138</v>
       </c>
@@ -8178,7 +8218,7 @@
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="19" t="s">
         <v>139</v>
       </c>
@@ -8198,7 +8238,7 @@
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="61"/>
       <c r="B148" s="19" t="s">
         <v>140</v>
       </c>
@@ -8216,7 +8256,7 @@
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="19" t="s">
         <v>141</v>
       </c>
@@ -8246,7 +8286,7 @@
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="19" t="s">
         <v>142</v>
       </c>
@@ -8266,7 +8306,7 @@
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="61"/>
       <c r="B151" s="19" t="s">
         <v>143</v>
       </c>
@@ -8286,7 +8326,7 @@
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="19" t="s">
         <v>144</v>
       </c>
@@ -8306,7 +8346,7 @@
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="19" t="s">
         <v>145</v>
       </c>
@@ -8326,7 +8366,7 @@
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="61"/>
       <c r="B154" s="19" t="s">
         <v>146</v>
       </c>
@@ -8346,14 +8386,14 @@
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="70"/>
+      <c r="F155" s="65"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -8364,12 +8404,12 @@
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A156" s="66"/>
-      <c r="B156" s="66"/>
-      <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="61"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="61"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
         <v>259</v>
@@ -8824,134 +8864,134 @@
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:14">
-      <c r="G178" s="76"/>
-      <c r="H178" s="76"/>
-      <c r="I178" s="76"/>
-      <c r="J178" s="76"/>
-      <c r="K178" s="76"/>
-      <c r="L178" s="76"/>
-      <c r="M178" s="76"/>
-      <c r="N178" s="76"/>
+      <c r="G178" s="70"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="70"/>
+      <c r="J178" s="70"/>
+      <c r="K178" s="70"/>
+      <c r="L178" s="70"/>
+      <c r="M178" s="70"/>
+      <c r="N178" s="70"/>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="76"/>
-      <c r="H179" s="76"/>
-      <c r="I179" s="76"/>
-      <c r="J179" s="76"/>
-      <c r="K179" s="76"/>
-      <c r="L179" s="76"/>
-      <c r="M179" s="76"/>
-      <c r="N179" s="76"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
+      <c r="J179" s="70"/>
+      <c r="K179" s="70"/>
+      <c r="L179" s="70"/>
+      <c r="M179" s="70"/>
+      <c r="N179" s="70"/>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="76"/>
-      <c r="H180" s="76"/>
-      <c r="I180" s="76"/>
-      <c r="J180" s="76"/>
-      <c r="K180" s="76"/>
-      <c r="L180" s="76"/>
-      <c r="M180" s="76"/>
-      <c r="N180" s="76"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="70"/>
+      <c r="L180" s="70"/>
+      <c r="M180" s="70"/>
+      <c r="N180" s="70"/>
     </row>
     <row r="181" spans="1:14">
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="76"/>
-      <c r="K181" s="76"/>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76"/>
-      <c r="N181" s="76"/>
+      <c r="G181" s="70"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="70"/>
+      <c r="J181" s="70"/>
+      <c r="K181" s="70"/>
+      <c r="L181" s="70"/>
+      <c r="M181" s="70"/>
+      <c r="N181" s="70"/>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="76"/>
-      <c r="H182" s="76"/>
-      <c r="I182" s="76"/>
-      <c r="J182" s="76"/>
-      <c r="K182" s="76"/>
-      <c r="L182" s="76"/>
-      <c r="M182" s="76"/>
-      <c r="N182" s="76"/>
+      <c r="G182" s="70"/>
+      <c r="H182" s="70"/>
+      <c r="I182" s="70"/>
+      <c r="J182" s="70"/>
+      <c r="K182" s="70"/>
+      <c r="L182" s="70"/>
+      <c r="M182" s="70"/>
+      <c r="N182" s="70"/>
     </row>
     <row r="183" spans="1:14">
-      <c r="G183" s="76"/>
-      <c r="H183" s="76"/>
-      <c r="I183" s="76"/>
-      <c r="J183" s="76"/>
-      <c r="K183" s="76"/>
-      <c r="L183" s="76"/>
-      <c r="M183" s="76"/>
-      <c r="N183" s="76"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="70"/>
+      <c r="L183" s="70"/>
+      <c r="M183" s="70"/>
+      <c r="N183" s="70"/>
     </row>
     <row r="184" spans="1:14">
-      <c r="G184" s="76"/>
-      <c r="H184" s="76"/>
-      <c r="I184" s="76"/>
-      <c r="J184" s="76"/>
-      <c r="K184" s="76"/>
-      <c r="L184" s="76"/>
-      <c r="M184" s="76"/>
-      <c r="N184" s="76"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+      <c r="J184" s="70"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="70"/>
+      <c r="M184" s="70"/>
+      <c r="N184" s="70"/>
     </row>
     <row r="185" spans="1:14">
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
-      <c r="K185" s="76"/>
-      <c r="L185" s="76"/>
-      <c r="M185" s="76"/>
-      <c r="N185" s="76"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="70"/>
+      <c r="M185" s="70"/>
+      <c r="N185" s="70"/>
     </row>
     <row r="186" spans="1:14">
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
-      <c r="K186" s="76"/>
-      <c r="L186" s="76"/>
-      <c r="M186" s="76"/>
-      <c r="N186" s="76"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70"/>
+      <c r="K186" s="70"/>
+      <c r="L186" s="70"/>
+      <c r="M186" s="70"/>
+      <c r="N186" s="70"/>
     </row>
     <row r="187" spans="1:14">
-      <c r="G187" s="76"/>
-      <c r="H187" s="76"/>
-      <c r="I187" s="76"/>
-      <c r="J187" s="76"/>
-      <c r="K187" s="76"/>
-      <c r="L187" s="76"/>
-      <c r="M187" s="76"/>
-      <c r="N187" s="76"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
+      <c r="N187" s="70"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="G188" s="76"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="76"/>
-      <c r="J188" s="76"/>
-      <c r="K188" s="76"/>
-      <c r="L188" s="76"/>
-      <c r="M188" s="76"/>
-      <c r="N188" s="76"/>
+      <c r="G188" s="70"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="70"/>
+      <c r="J188" s="70"/>
+      <c r="K188" s="70"/>
+      <c r="L188" s="70"/>
+      <c r="M188" s="70"/>
+      <c r="N188" s="70"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="G189" s="76"/>
-      <c r="H189" s="76"/>
-      <c r="I189" s="76"/>
-      <c r="J189" s="76"/>
-      <c r="K189" s="76"/>
-      <c r="L189" s="76"/>
-      <c r="M189" s="76"/>
-      <c r="N189" s="76"/>
+      <c r="G189" s="70"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="70"/>
+      <c r="J189" s="70"/>
+      <c r="K189" s="70"/>
+      <c r="L189" s="70"/>
+      <c r="M189" s="70"/>
+      <c r="N189" s="70"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="G190" s="76"/>
-      <c r="H190" s="76"/>
-      <c r="I190" s="76"/>
-      <c r="J190" s="76"/>
-      <c r="K190" s="76"/>
-      <c r="L190" s="76"/>
-      <c r="M190" s="76"/>
-      <c r="N190" s="76"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="70"/>
+      <c r="K190" s="70"/>
+      <c r="L190" s="70"/>
+      <c r="M190" s="70"/>
+      <c r="N190" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8967,8 +9007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8979,92 +9019,97 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73" t="s">
+        <v>289</v>
+      </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="74"/>
+      <c r="P4" t="s">
+        <v>290</v>
+      </c>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" thickBot="1">
-      <c r="A5" s="66"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -9076,11 +9121,11 @@
       <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -9092,18 +9137,18 @@
       <c r="L5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="19" t="s">
         <v>149</v>
       </c>
@@ -9111,18 +9156,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="19" t="s">
         <v>150</v>
       </c>
@@ -9130,18 +9175,18 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="66"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="19" t="s">
         <v>151</v>
       </c>
@@ -9149,18 +9194,18 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="19" t="s">
         <v>152</v>
       </c>
@@ -9168,10 +9213,10 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="66"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
@@ -9179,7 +9224,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="66"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="19" t="s">
         <v>153</v>
       </c>
@@ -9187,18 +9232,18 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="66"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="19" t="s">
         <v>154</v>
       </c>
@@ -9206,18 +9251,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="66"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="66"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="19" t="s">
         <v>155</v>
       </c>
@@ -9225,10 +9270,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="66"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
@@ -9236,7 +9281,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="66"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="19" t="s">
         <v>156</v>
       </c>
@@ -9244,18 +9289,18 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="66"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="66"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="19" t="s">
         <v>157</v>
       </c>
@@ -9263,10 +9308,10 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="66"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
@@ -9274,7 +9319,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="66"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="19" t="s">
         <v>158</v>
       </c>
@@ -9282,10 +9327,10 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="66"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
@@ -9293,7 +9338,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="19" t="s">
         <v>159</v>
       </c>
@@ -9301,10 +9346,10 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="66"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
@@ -9312,7 +9357,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="66"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="19" t="s">
         <v>160</v>
       </c>
@@ -9320,10 +9365,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="66"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
@@ -9331,7 +9376,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="66"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="19" t="s">
         <v>161</v>
       </c>
@@ -9339,10 +9384,10 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="66"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9395,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="66"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="19" t="s">
         <v>162</v>
       </c>
@@ -9358,10 +9403,10 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="66"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
@@ -9369,7 +9414,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="66"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="19" t="s">
         <v>163</v>
       </c>
@@ -9377,10 +9422,10 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="66"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
@@ -9388,7 +9433,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="66"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="19" t="s">
         <v>164</v>
       </c>
@@ -9396,18 +9441,18 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="66"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="66"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="19" t="s">
         <v>165</v>
       </c>
@@ -9415,10 +9460,10 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="66"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
@@ -9426,7 +9471,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="66"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="19" t="s">
         <v>166</v>
       </c>
@@ -9434,10 +9479,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="66"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
@@ -9445,7 +9490,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="19" t="s">
         <v>167</v>
       </c>
@@ -9453,10 +9498,10 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="66"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
@@ -9464,7 +9509,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="66"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="19" t="s">
         <v>168</v>
       </c>
@@ -9472,16 +9517,16 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="66"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -9489,14 +9534,14 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="66"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -9508,7 +9553,7 @@
       <c r="F27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="66"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="19" t="s">
         <v>170</v>
       </c>
@@ -9516,10 +9561,10 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="66"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
@@ -9527,18 +9572,18 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="66"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="19" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="66"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
@@ -9546,16 +9591,16 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
@@ -9563,18 +9608,18 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="61"/>
+      <c r="H30" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="66"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
@@ -9582,16 +9627,16 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="66"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
@@ -9599,35 +9644,35 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="66"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="66"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:13" ht="18" thickBot="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -9639,16 +9684,16 @@
       <c r="F34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="66"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
@@ -9656,16 +9701,16 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="66"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="66"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
@@ -9673,16 +9718,16 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="66"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="66"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="19" t="s">
         <v>33</v>
       </c>
@@ -9690,16 +9735,16 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="66"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="66"/>
+      <c r="M37" s="61"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
@@ -9707,54 +9752,54 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="66"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="66"/>
+      <c r="M38" s="61"/>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="60" t="s">
+      <c r="F39" s="65"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="66"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="66"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="61"/>
     </row>
     <row r="41" spans="1:13" ht="18" thickBot="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -9766,16 +9811,16 @@
       <c r="F41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="66"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="61"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
@@ -9783,16 +9828,16 @@
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="66"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="66"/>
+      <c r="M42" s="61"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="19" t="s">
         <v>38</v>
       </c>
@@ -9800,16 +9845,16 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="66"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="66"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
@@ -9817,16 +9862,16 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="66"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="66"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
@@ -9834,52 +9879,52 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="66"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="66"/>
+      <c r="M45" s="61"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="66"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="66"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-    </row>
-    <row r="48" spans="1:13" ht="69.75" thickBot="1">
-      <c r="A48" s="66"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+    </row>
+    <row r="48" spans="1:13" ht="35.25" thickBot="1">
+      <c r="A48" s="61"/>
       <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -9891,18 +9936,18 @@
       <c r="F48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="63" t="s">
+      <c r="G48" s="61"/>
+      <c r="H48" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="66"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="61"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
@@ -9910,16 +9955,16 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="66"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
@@ -9927,16 +9972,16 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="66"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="61"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
@@ -9944,16 +9989,16 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="66"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="66"/>
+      <c r="M51" s="61"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
@@ -9961,16 +10006,16 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="66"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="66"/>
+      <c r="M52" s="61"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
@@ -9978,16 +10023,16 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="66"/>
+      <c r="M53" s="61"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
@@ -9995,16 +10040,16 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="66"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="66"/>
+      <c r="M54" s="61"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="19" t="s">
         <v>49</v>
       </c>
@@ -10012,16 +10057,16 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="66"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="66"/>
+      <c r="M55" s="61"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="19" t="s">
         <v>50</v>
       </c>
@@ -10029,16 +10074,16 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
     </row>
     <row r="57" spans="1:13" ht="18" thickBot="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
@@ -10046,18 +10091,18 @@
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="63" t="s">
+      <c r="G57" s="61"/>
+      <c r="H57" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="66"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="61"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="19" t="s">
         <v>52</v>
       </c>
@@ -10065,16 +10110,16 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="66"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="61"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="38" t="s">
         <v>53</v>
       </c>
@@ -10082,16 +10127,16 @@
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="66"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="61"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
@@ -10099,16 +10144,16 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="66"/>
+      <c r="M60" s="61"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="19" t="s">
         <v>55</v>
       </c>
@@ -10116,16 +10161,16 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="66"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="66"/>
+      <c r="M61" s="61"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="19" t="s">
         <v>56</v>
       </c>
@@ -10133,16 +10178,16 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="66"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="66"/>
+      <c r="M62" s="61"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
@@ -10150,16 +10195,16 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="66"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="66"/>
+      <c r="M63" s="61"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="19" t="s">
         <v>58</v>
       </c>
@@ -10167,16 +10212,16 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="66"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="66"/>
+      <c r="M64" s="61"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
@@ -10184,16 +10229,16 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="19" t="s">
         <v>60</v>
       </c>
@@ -10201,18 +10246,18 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="63" t="s">
+      <c r="G66" s="61"/>
+      <c r="H66" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="66"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
@@ -10220,16 +10265,16 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="66"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="19" t="s">
         <v>62</v>
       </c>
@@ -10237,16 +10282,16 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="66"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="19" t="s">
         <v>63</v>
       </c>
@@ -10254,16 +10299,16 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="66"/>
+      <c r="G69" s="61"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="66"/>
+      <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="19" t="s">
         <v>64</v>
       </c>
@@ -10271,16 +10316,16 @@
       <c r="D70" s="20"/>
       <c r="E70" s="40"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="66"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="66"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
@@ -10288,16 +10333,16 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="66"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="66"/>
+      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
@@ -10305,16 +10350,16 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="66"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="66"/>
+      <c r="M72" s="61"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
@@ -10322,16 +10367,16 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
     </row>
     <row r="74" spans="1:13" ht="18" thickBot="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="19" t="s">
         <v>68</v>
       </c>
@@ -10339,11 +10384,11 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="66"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I74" s="67" t="s">
+      <c r="I74" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J74" s="14" t="s">
@@ -10355,10 +10400,10 @@
       <c r="L74" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="66"/>
+      <c r="M74" s="61"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="19" t="s">
         <v>69</v>
       </c>
@@ -10366,7 +10411,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="66"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="19" t="s">
         <v>178</v>
       </c>
@@ -10374,10 +10419,10 @@
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="66"/>
+      <c r="M75" s="61"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="19" t="s">
         <v>70</v>
       </c>
@@ -10385,7 +10430,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="66"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="19" t="s">
         <v>179</v>
       </c>
@@ -10393,10 +10438,10 @@
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="66"/>
+      <c r="M76" s="61"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
@@ -10404,7 +10449,7 @@
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="66"/>
+      <c r="G77" s="61"/>
       <c r="H77" s="19" t="s">
         <v>180</v>
       </c>
@@ -10412,10 +10457,10 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="66"/>
+      <c r="M77" s="61"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="19" t="s">
         <v>72</v>
       </c>
@@ -10423,7 +10468,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="66"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="19" t="s">
         <v>181</v>
       </c>
@@ -10431,10 +10476,10 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="66"/>
+      <c r="M78" s="61"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="19" t="s">
         <v>73</v>
       </c>
@@ -10442,7 +10487,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="66"/>
+      <c r="G79" s="61"/>
       <c r="H79" s="19" t="s">
         <v>182</v>
       </c>
@@ -10450,10 +10495,10 @@
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
-      <c r="M79" s="66"/>
+      <c r="M79" s="61"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="19" t="s">
         <v>74</v>
       </c>
@@ -10461,7 +10506,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="66"/>
+      <c r="G80" s="61"/>
       <c r="H80" s="19" t="s">
         <v>183</v>
       </c>
@@ -10469,10 +10514,10 @@
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
-      <c r="M80" s="66"/>
+      <c r="M80" s="61"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="19" t="s">
         <v>75</v>
       </c>
@@ -10480,7 +10525,7 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="66"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="19" t="s">
         <v>184</v>
       </c>
@@ -10488,10 +10533,10 @@
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="66"/>
+      <c r="M81" s="61"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
@@ -10499,7 +10544,7 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="66"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="19" t="s">
         <v>185</v>
       </c>
@@ -10507,10 +10552,10 @@
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
-      <c r="M82" s="66"/>
+      <c r="M82" s="61"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="19" t="s">
         <v>77</v>
       </c>
@@ -10518,7 +10563,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="66"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="19" t="s">
         <v>186</v>
       </c>
@@ -10526,10 +10571,10 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
-      <c r="M83" s="66"/>
+      <c r="M83" s="61"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
@@ -10537,7 +10582,7 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="66"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="19" t="s">
         <v>187</v>
       </c>
@@ -10545,10 +10590,10 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="66"/>
+      <c r="M84" s="61"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="19" t="s">
         <v>79</v>
       </c>
@@ -10556,7 +10601,7 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="66"/>
+      <c r="G85" s="61"/>
       <c r="H85" s="19" t="s">
         <v>188</v>
       </c>
@@ -10564,10 +10609,10 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="66"/>
+      <c r="M85" s="61"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
@@ -10575,7 +10620,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="66"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="19" t="s">
         <v>189</v>
       </c>
@@ -10583,10 +10628,10 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
-      <c r="M86" s="66"/>
+      <c r="M86" s="61"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
@@ -10594,7 +10639,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="66"/>
+      <c r="G87" s="61"/>
       <c r="H87" s="19" t="s">
         <v>190</v>
       </c>
@@ -10602,10 +10647,10 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="66"/>
+      <c r="M87" s="61"/>
     </row>
     <row r="88" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
@@ -10613,7 +10658,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="66"/>
+      <c r="G88" s="61"/>
       <c r="H88" s="19" t="s">
         <v>191</v>
       </c>
@@ -10621,10 +10666,10 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="66"/>
+      <c r="M88" s="61"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="19" t="s">
         <v>83</v>
       </c>
@@ -10632,7 +10677,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="66"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="19" t="s">
         <v>192</v>
       </c>
@@ -10640,10 +10685,10 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="66"/>
+      <c r="M89" s="61"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
@@ -10651,7 +10696,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
       <c r="F90" s="41"/>
-      <c r="G90" s="66"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="19" t="s">
         <v>193</v>
       </c>
@@ -10659,10 +10704,10 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
-      <c r="M90" s="66"/>
+      <c r="M90" s="61"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="19" t="s">
         <v>85</v>
       </c>
@@ -10670,7 +10715,7 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="66"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="19" t="s">
         <v>194</v>
       </c>
@@ -10678,10 +10723,10 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
-      <c r="M91" s="66"/>
+      <c r="M91" s="61"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="19" t="s">
         <v>86</v>
       </c>
@@ -10689,7 +10734,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="66"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="19" t="s">
         <v>195</v>
       </c>
@@ -10697,10 +10742,10 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="66"/>
+      <c r="M92" s="61"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
@@ -10708,7 +10753,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="66"/>
+      <c r="G93" s="61"/>
       <c r="H93" s="19" t="s">
         <v>196</v>
       </c>
@@ -10716,10 +10761,10 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="66"/>
+      <c r="M93" s="61"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
@@ -10727,7 +10772,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="66"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="19" t="s">
         <v>197</v>
       </c>
@@ -10735,10 +10780,10 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="66"/>
+      <c r="M94" s="61"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="19" t="s">
         <v>89</v>
       </c>
@@ -10746,7 +10791,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="66"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="19" t="s">
         <v>198</v>
       </c>
@@ -10754,10 +10799,10 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
-      <c r="M95" s="66"/>
+      <c r="M95" s="61"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="19" t="s">
         <v>90</v>
       </c>
@@ -10765,7 +10810,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="66"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="19" t="s">
         <v>199</v>
       </c>
@@ -10773,10 +10818,10 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
-      <c r="M96" s="66"/>
+      <c r="M96" s="61"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="19" t="s">
         <v>91</v>
       </c>
@@ -10784,7 +10829,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="66"/>
+      <c r="G97" s="61"/>
       <c r="H97" s="19" t="s">
         <v>200</v>
       </c>
@@ -10792,10 +10837,10 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
-      <c r="M97" s="66"/>
+      <c r="M97" s="61"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -10803,7 +10848,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="66"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="19" t="s">
         <v>197</v>
       </c>
@@ -10811,10 +10856,10 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
-      <c r="M98" s="66"/>
+      <c r="M98" s="61"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="19" t="s">
         <v>93</v>
       </c>
@@ -10822,7 +10867,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="66"/>
+      <c r="G99" s="61"/>
       <c r="H99" s="19" t="s">
         <v>201</v>
       </c>
@@ -10830,10 +10875,10 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
-      <c r="M99" s="66"/>
+      <c r="M99" s="61"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="38" t="s">
         <v>94</v>
       </c>
@@ -10841,7 +10886,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="66"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="19" t="s">
         <v>202</v>
       </c>
@@ -10849,10 +10894,10 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
-      <c r="M100" s="66"/>
+      <c r="M100" s="61"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="19" t="s">
         <v>95</v>
       </c>
@@ -10860,7 +10905,7 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="66"/>
+      <c r="G101" s="61"/>
       <c r="H101" s="19" t="s">
         <v>203</v>
       </c>
@@ -10868,10 +10913,10 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
-      <c r="M101" s="66"/>
+      <c r="M101" s="61"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="19" t="s">
         <v>96</v>
       </c>
@@ -10879,7 +10924,7 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="66"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="19" t="s">
         <v>204</v>
       </c>
@@ -10887,48 +10932,48 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
-      <c r="M102" s="66"/>
+      <c r="M102" s="61"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="66"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="19" t="s">
         <v>205</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="66"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="61"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-    </row>
-    <row r="105" spans="1:13" ht="69.75" thickBot="1">
-      <c r="A105" s="66"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
+    </row>
+    <row r="105" spans="1:13" ht="35.25" thickBot="1">
+      <c r="A105" s="61"/>
       <c r="B105" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -10940,11 +10985,11 @@
       <c r="F105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="61"/>
       <c r="H105" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I105" s="67" t="s">
+      <c r="I105" s="62" t="s">
         <v>246</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -10956,10 +11001,10 @@
       <c r="L105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M105" s="66"/>
+      <c r="M105" s="61"/>
     </row>
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="19" t="s">
         <v>99</v>
       </c>
@@ -10967,7 +11012,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="66"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="19" t="s">
         <v>206</v>
       </c>
@@ -10975,10 +11020,10 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
-      <c r="M106" s="66"/>
+      <c r="M106" s="61"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="19" t="s">
         <v>100</v>
       </c>
@@ -10986,7 +11031,7 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="66"/>
+      <c r="G107" s="61"/>
       <c r="H107" s="19" t="s">
         <v>207</v>
       </c>
@@ -10994,10 +11039,10 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
-      <c r="M107" s="66"/>
+      <c r="M107" s="61"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="19" t="s">
         <v>101</v>
       </c>
@@ -11005,7 +11050,7 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="66"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="19" t="s">
         <v>208</v>
       </c>
@@ -11013,10 +11058,10 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
-      <c r="M108" s="66"/>
+      <c r="M108" s="61"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="19" t="s">
         <v>102</v>
       </c>
@@ -11024,7 +11069,7 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="66"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="19" t="s">
         <v>209</v>
       </c>
@@ -11032,10 +11077,10 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
-      <c r="M109" s="66"/>
+      <c r="M109" s="61"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="19" t="s">
         <v>103</v>
       </c>
@@ -11043,7 +11088,7 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="66"/>
+      <c r="G110" s="61"/>
       <c r="H110" s="19" t="s">
         <v>210</v>
       </c>
@@ -11051,10 +11096,10 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
-      <c r="M110" s="66"/>
+      <c r="M110" s="61"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="19" t="s">
         <v>104</v>
       </c>
@@ -11062,7 +11107,7 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="66"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="19" t="s">
         <v>211</v>
       </c>
@@ -11070,10 +11115,10 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
-      <c r="M111" s="66"/>
+      <c r="M111" s="61"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="19" t="s">
         <v>105</v>
       </c>
@@ -11081,7 +11126,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="66"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="19" t="s">
         <v>212</v>
       </c>
@@ -11089,10 +11134,10 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
-      <c r="M112" s="66"/>
+      <c r="M112" s="61"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="19" t="s">
         <v>106</v>
       </c>
@@ -11100,7 +11145,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="66"/>
+      <c r="G113" s="61"/>
       <c r="H113" s="19" t="s">
         <v>213</v>
       </c>
@@ -11108,10 +11153,10 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
-      <c r="M113" s="66"/>
+      <c r="M113" s="61"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="19" t="s">
         <v>107</v>
       </c>
@@ -11119,7 +11164,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="66"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="19" t="s">
         <v>214</v>
       </c>
@@ -11127,10 +11172,10 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
-      <c r="M114" s="66"/>
+      <c r="M114" s="61"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="19" t="s">
         <v>108</v>
       </c>
@@ -11138,7 +11183,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="66"/>
+      <c r="G115" s="61"/>
       <c r="H115" s="19" t="s">
         <v>215</v>
       </c>
@@ -11146,10 +11191,10 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="66"/>
+      <c r="M115" s="61"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="19" t="s">
         <v>109</v>
       </c>
@@ -11157,7 +11202,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="66"/>
+      <c r="G116" s="61"/>
       <c r="H116" s="19" t="s">
         <v>216</v>
       </c>
@@ -11165,10 +11210,10 @@
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
-      <c r="M116" s="66"/>
+      <c r="M116" s="61"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="38" t="s">
         <v>110</v>
       </c>
@@ -11176,7 +11221,7 @@
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="66"/>
+      <c r="G117" s="61"/>
       <c r="H117" s="19" t="s">
         <v>217</v>
       </c>
@@ -11184,10 +11229,10 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
-      <c r="M117" s="66"/>
+      <c r="M117" s="61"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="19" t="s">
         <v>111</v>
       </c>
@@ -11195,7 +11240,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="66"/>
+      <c r="G118" s="61"/>
       <c r="H118" s="19" t="s">
         <v>218</v>
       </c>
@@ -11203,10 +11248,10 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
-      <c r="M118" s="66"/>
+      <c r="M118" s="61"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="19" t="s">
         <v>112</v>
       </c>
@@ -11214,7 +11259,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="66"/>
+      <c r="G119" s="61"/>
       <c r="H119" s="19" t="s">
         <v>219</v>
       </c>
@@ -11222,10 +11267,10 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
-      <c r="M119" s="66"/>
+      <c r="M119" s="61"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="19" t="s">
         <v>113</v>
       </c>
@@ -11233,7 +11278,7 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="66"/>
+      <c r="G120" s="61"/>
       <c r="H120" s="19" t="s">
         <v>220</v>
       </c>
@@ -11241,10 +11286,10 @@
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
-      <c r="M120" s="66"/>
+      <c r="M120" s="61"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="19" t="s">
         <v>114</v>
       </c>
@@ -11252,7 +11297,7 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="66"/>
+      <c r="G121" s="61"/>
       <c r="H121" s="19" t="s">
         <v>221</v>
       </c>
@@ -11260,10 +11305,10 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
-      <c r="M121" s="66"/>
+      <c r="M121" s="61"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="19" t="s">
         <v>115</v>
       </c>
@@ -11271,7 +11316,7 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="66"/>
+      <c r="G122" s="61"/>
       <c r="H122" s="19" t="s">
         <v>222</v>
       </c>
@@ -11279,10 +11324,10 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
-      <c r="M122" s="66"/>
+      <c r="M122" s="61"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="19" t="s">
         <v>116</v>
       </c>
@@ -11290,7 +11335,7 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="66"/>
+      <c r="G123" s="61"/>
       <c r="H123" s="19" t="s">
         <v>223</v>
       </c>
@@ -11298,10 +11343,10 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
-      <c r="M123" s="66"/>
+      <c r="M123" s="61"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="61"/>
       <c r="B124" s="19" t="s">
         <v>117</v>
       </c>
@@ -11309,7 +11354,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="66"/>
+      <c r="G124" s="61"/>
       <c r="H124" s="19" t="s">
         <v>224</v>
       </c>
@@ -11317,10 +11362,10 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
-      <c r="M124" s="66"/>
+      <c r="M124" s="61"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="19" t="s">
         <v>118</v>
       </c>
@@ -11328,7 +11373,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="66"/>
+      <c r="G125" s="61"/>
       <c r="H125" s="19" t="s">
         <v>225</v>
       </c>
@@ -11336,10 +11381,10 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
-      <c r="M125" s="66"/>
+      <c r="M125" s="61"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="19" t="s">
         <v>119</v>
       </c>
@@ -11347,7 +11392,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="66"/>
+      <c r="G126" s="61"/>
       <c r="H126" s="19" t="s">
         <v>226</v>
       </c>
@@ -11355,10 +11400,10 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
-      <c r="M126" s="66"/>
+      <c r="M126" s="61"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="19" t="s">
         <v>120</v>
       </c>
@@ -11366,7 +11411,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="66"/>
+      <c r="G127" s="61"/>
       <c r="H127" s="19" t="s">
         <v>227</v>
       </c>
@@ -11374,10 +11419,10 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
-      <c r="M127" s="66"/>
+      <c r="M127" s="61"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="38" t="s">
         <v>121</v>
       </c>
@@ -11385,7 +11430,7 @@
       <c r="D128" s="41"/>
       <c r="E128" s="39"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="66"/>
+      <c r="G128" s="61"/>
       <c r="H128" s="19" t="s">
         <v>228</v>
       </c>
@@ -11393,10 +11438,10 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
-      <c r="M128" s="66"/>
+      <c r="M128" s="61"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="19" t="s">
         <v>122</v>
       </c>
@@ -11404,7 +11449,7 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="66"/>
+      <c r="G129" s="61"/>
       <c r="H129" s="19" t="s">
         <v>229</v>
       </c>
@@ -11412,10 +11457,10 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="66"/>
+      <c r="M129" s="61"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="19" t="s">
         <v>123</v>
       </c>
@@ -11423,7 +11468,7 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="66"/>
+      <c r="G130" s="61"/>
       <c r="H130" s="19" t="s">
         <v>230</v>
       </c>
@@ -11431,10 +11476,10 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
-      <c r="M130" s="66"/>
+      <c r="M130" s="61"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="38" t="s">
         <v>124</v>
       </c>
@@ -11442,7 +11487,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="41"/>
-      <c r="G131" s="66"/>
+      <c r="G131" s="61"/>
       <c r="H131" s="19" t="s">
         <v>231</v>
       </c>
@@ -11450,10 +11495,10 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
-      <c r="M131" s="66"/>
+      <c r="M131" s="61"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="19" t="s">
         <v>125</v>
       </c>
@@ -11461,7 +11506,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="66"/>
+      <c r="G132" s="61"/>
       <c r="H132" s="19" t="s">
         <v>232</v>
       </c>
@@ -11469,10 +11514,10 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
-      <c r="M132" s="66"/>
+      <c r="M132" s="61"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="61"/>
       <c r="B133" s="19" t="s">
         <v>126</v>
       </c>
@@ -11480,18 +11525,18 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="66"/>
+      <c r="G133" s="61"/>
       <c r="H133" s="19" t="s">
         <v>233</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="70"/>
-      <c r="M133" s="66"/>
+      <c r="L133" s="65"/>
+      <c r="M133" s="61"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="61"/>
       <c r="B134" s="19" t="s">
         <v>127</v>
       </c>
@@ -11509,7 +11554,7 @@
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="19" t="s">
         <v>128</v>
       </c>
@@ -11539,7 +11584,7 @@
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="61"/>
       <c r="B136" s="19" t="s">
         <v>129</v>
       </c>
@@ -11559,7 +11604,7 @@
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="19" t="s">
         <v>130</v>
       </c>
@@ -11579,7 +11624,7 @@
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="19" t="s">
         <v>131</v>
       </c>
@@ -11599,7 +11644,7 @@
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="19" t="s">
         <v>132</v>
       </c>
@@ -11619,7 +11664,7 @@
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="19" t="s">
         <v>133</v>
       </c>
@@ -11639,7 +11684,7 @@
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="19" t="s">
         <v>134</v>
       </c>
@@ -11657,14 +11702,14 @@
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="70"/>
+      <c r="F142" s="65"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>247</v>
@@ -11687,12 +11732,12 @@
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A143" s="66"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
         <v>241</v>
@@ -11705,11 +11750,11 @@
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="67" t="s">
+      <c r="C144" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -11733,7 +11778,7 @@
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="19" t="s">
         <v>137</v>
       </c>
@@ -11753,7 +11798,7 @@
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="19" t="s">
         <v>138</v>
       </c>
@@ -11773,7 +11818,7 @@
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="19" t="s">
         <v>139</v>
       </c>
@@ -11793,7 +11838,7 @@
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="61"/>
       <c r="B148" s="19" t="s">
         <v>140</v>
       </c>
@@ -11811,7 +11856,7 @@
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="19" t="s">
         <v>141</v>
       </c>
@@ -11841,7 +11886,7 @@
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="19" t="s">
         <v>142</v>
       </c>
@@ -11861,7 +11906,7 @@
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="61"/>
       <c r="B151" s="19" t="s">
         <v>143</v>
       </c>
@@ -11881,7 +11926,7 @@
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="19" t="s">
         <v>144</v>
       </c>
@@ -11901,7 +11946,7 @@
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="19" t="s">
         <v>145</v>
       </c>
@@ -11921,7 +11966,7 @@
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="61"/>
       <c r="B154" s="19" t="s">
         <v>146</v>
       </c>
@@ -11941,14 +11986,14 @@
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="70"/>
+      <c r="F155" s="65"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -11959,12 +12004,12 @@
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A156" s="66"/>
-      <c r="B156" s="66"/>
-      <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="61"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="61"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
         <v>259</v>
@@ -11986,7 +12031,7 @@
       </c>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="1:14" ht="52.5" thickBot="1">
+    <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
         <v>271</v>
       </c>
@@ -12419,134 +12464,134 @@
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:14">
-      <c r="G178" s="76"/>
-      <c r="H178" s="76"/>
-      <c r="I178" s="76"/>
-      <c r="J178" s="76"/>
-      <c r="K178" s="76"/>
-      <c r="L178" s="76"/>
-      <c r="M178" s="76"/>
-      <c r="N178" s="76"/>
+      <c r="G178" s="70"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="70"/>
+      <c r="J178" s="70"/>
+      <c r="K178" s="70"/>
+      <c r="L178" s="70"/>
+      <c r="M178" s="70"/>
+      <c r="N178" s="70"/>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="76"/>
-      <c r="H179" s="76"/>
-      <c r="I179" s="76"/>
-      <c r="J179" s="76"/>
-      <c r="K179" s="76"/>
-      <c r="L179" s="76"/>
-      <c r="M179" s="76"/>
-      <c r="N179" s="76"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
+      <c r="J179" s="70"/>
+      <c r="K179" s="70"/>
+      <c r="L179" s="70"/>
+      <c r="M179" s="70"/>
+      <c r="N179" s="70"/>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="76"/>
-      <c r="H180" s="76"/>
-      <c r="I180" s="76"/>
-      <c r="J180" s="76"/>
-      <c r="K180" s="76"/>
-      <c r="L180" s="76"/>
-      <c r="M180" s="76"/>
-      <c r="N180" s="76"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="70"/>
+      <c r="L180" s="70"/>
+      <c r="M180" s="70"/>
+      <c r="N180" s="70"/>
     </row>
     <row r="181" spans="1:14">
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="76"/>
-      <c r="K181" s="76"/>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76"/>
-      <c r="N181" s="76"/>
+      <c r="G181" s="70"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="70"/>
+      <c r="J181" s="70"/>
+      <c r="K181" s="70"/>
+      <c r="L181" s="70"/>
+      <c r="M181" s="70"/>
+      <c r="N181" s="70"/>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="76"/>
-      <c r="H182" s="76"/>
-      <c r="I182" s="76"/>
-      <c r="J182" s="76"/>
-      <c r="K182" s="76"/>
-      <c r="L182" s="76"/>
-      <c r="M182" s="76"/>
-      <c r="N182" s="76"/>
+      <c r="G182" s="70"/>
+      <c r="H182" s="70"/>
+      <c r="I182" s="70"/>
+      <c r="J182" s="70"/>
+      <c r="K182" s="70"/>
+      <c r="L182" s="70"/>
+      <c r="M182" s="70"/>
+      <c r="N182" s="70"/>
     </row>
     <row r="183" spans="1:14">
-      <c r="G183" s="76"/>
-      <c r="H183" s="76"/>
-      <c r="I183" s="76"/>
-      <c r="J183" s="76"/>
-      <c r="K183" s="76"/>
-      <c r="L183" s="76"/>
-      <c r="M183" s="76"/>
-      <c r="N183" s="76"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="70"/>
+      <c r="L183" s="70"/>
+      <c r="M183" s="70"/>
+      <c r="N183" s="70"/>
     </row>
     <row r="184" spans="1:14">
-      <c r="G184" s="76"/>
-      <c r="H184" s="76"/>
-      <c r="I184" s="76"/>
-      <c r="J184" s="76"/>
-      <c r="K184" s="76"/>
-      <c r="L184" s="76"/>
-      <c r="M184" s="76"/>
-      <c r="N184" s="76"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+      <c r="J184" s="70"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="70"/>
+      <c r="M184" s="70"/>
+      <c r="N184" s="70"/>
     </row>
     <row r="185" spans="1:14">
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
-      <c r="K185" s="76"/>
-      <c r="L185" s="76"/>
-      <c r="M185" s="76"/>
-      <c r="N185" s="76"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="70"/>
+      <c r="M185" s="70"/>
+      <c r="N185" s="70"/>
     </row>
     <row r="186" spans="1:14">
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
-      <c r="K186" s="76"/>
-      <c r="L186" s="76"/>
-      <c r="M186" s="76"/>
-      <c r="N186" s="76"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70"/>
+      <c r="K186" s="70"/>
+      <c r="L186" s="70"/>
+      <c r="M186" s="70"/>
+      <c r="N186" s="70"/>
     </row>
     <row r="187" spans="1:14">
-      <c r="G187" s="76"/>
-      <c r="H187" s="76"/>
-      <c r="I187" s="76"/>
-      <c r="J187" s="76"/>
-      <c r="K187" s="76"/>
-      <c r="L187" s="76"/>
-      <c r="M187" s="76"/>
-      <c r="N187" s="76"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
+      <c r="N187" s="70"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="G188" s="76"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="76"/>
-      <c r="J188" s="76"/>
-      <c r="K188" s="76"/>
-      <c r="L188" s="76"/>
-      <c r="M188" s="76"/>
-      <c r="N188" s="76"/>
+      <c r="G188" s="70"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="70"/>
+      <c r="J188" s="70"/>
+      <c r="K188" s="70"/>
+      <c r="L188" s="70"/>
+      <c r="M188" s="70"/>
+      <c r="N188" s="70"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="G189" s="76"/>
-      <c r="H189" s="76"/>
-      <c r="I189" s="76"/>
-      <c r="J189" s="76"/>
-      <c r="K189" s="76"/>
-      <c r="L189" s="76"/>
-      <c r="M189" s="76"/>
-      <c r="N189" s="76"/>
+      <c r="G189" s="70"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="70"/>
+      <c r="J189" s="70"/>
+      <c r="K189" s="70"/>
+      <c r="L189" s="70"/>
+      <c r="M189" s="70"/>
+      <c r="N189" s="70"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="G190" s="76"/>
-      <c r="H190" s="76"/>
-      <c r="I190" s="76"/>
-      <c r="J190" s="76"/>
-      <c r="K190" s="76"/>
-      <c r="L190" s="76"/>
-      <c r="M190" s="76"/>
-      <c r="N190" s="76"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="70"/>
+      <c r="K190" s="70"/>
+      <c r="L190" s="70"/>
+      <c r="M190" s="70"/>
+      <c r="N190" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
   <si>
     <t>ARMOR</t>
   </si>
@@ -890,13 +890,19 @@
   </si>
   <si>
     <t>SS checked</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,6 +1036,13 @@
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1229,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1469,6 +1482,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9007,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9604,7 +9623,9 @@
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="84" t="s">
+        <v>291</v>
+      </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -11206,7 +11227,9 @@
       <c r="H116" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I116" s="20"/>
+      <c r="I116" s="84" t="s">
+        <v>291</v>
+      </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
@@ -11217,7 +11240,9 @@
       <c r="B117" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="41"/>
+      <c r="C117" s="85" t="s">
+        <v>292</v>
+      </c>
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank checklist (SU-TU)" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="297">
   <si>
     <t>ARMOR</t>
   </si>
@@ -896,6 +896,18 @@
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>Cindercone</t>
+  </si>
+  <si>
+    <t>Locust hive</t>
+  </si>
+  <si>
+    <t>Larzuk's bandolier</t>
+  </si>
+  <si>
+    <t>Test tube</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1409,15 +1421,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1487,6 +1490,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1785,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="D129" workbookViewId="0">
-      <selection sqref="A1:M153"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2325,13 +2343,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2486,13 +2504,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2653,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2808,13 +2826,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="79" t="s">
+      <c r="H54" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -2963,13 +2981,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="79" t="s">
+      <c r="H63" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4278,11 +4296,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="78"/>
-      <c r="J132" s="78"/>
-      <c r="K132" s="78"/>
-      <c r="L132" s="78"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -4666,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5433,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5448,87 +5466,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" thickBot="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -5540,11 +5558,11 @@
       <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -5556,10 +5574,10 @@
       <c r="L5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="61"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
@@ -5567,7 +5585,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="61"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
         <v>149</v>
       </c>
@@ -5575,10 +5593,10 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
@@ -5586,7 +5604,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
         <v>150</v>
       </c>
@@ -5594,10 +5612,10 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="61"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
@@ -5605,7 +5623,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="61"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
         <v>151</v>
       </c>
@@ -5613,10 +5631,10 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +5642,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="61"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
         <v>152</v>
       </c>
@@ -5632,10 +5650,10 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +5661,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="61"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
         <v>153</v>
       </c>
@@ -5651,10 +5669,10 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
@@ -5662,7 +5680,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="61"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
         <v>154</v>
       </c>
@@ -5670,10 +5688,10 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="61"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
@@ -5681,7 +5699,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
         <v>155</v>
       </c>
@@ -5689,10 +5707,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="61"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
@@ -5700,7 +5718,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="61"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
         <v>156</v>
       </c>
@@ -5708,10 +5726,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="61"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
@@ -5719,7 +5737,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="61"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
         <v>157</v>
       </c>
@@ -5727,10 +5745,10 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
@@ -5738,7 +5756,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>158</v>
       </c>
@@ -5746,10 +5764,10 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="61"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
@@ -5757,7 +5775,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
         <v>159</v>
       </c>
@@ -5765,10 +5783,10 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
@@ -5776,7 +5794,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
         <v>160</v>
       </c>
@@ -5784,10 +5802,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="61"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
@@ -5795,7 +5813,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
         <v>161</v>
       </c>
@@ -5803,10 +5821,10 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="61"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
@@ -5814,7 +5832,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="61"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
         <v>162</v>
       </c>
@@ -5822,10 +5840,10 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="61"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
@@ -5833,7 +5851,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="61"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
         <v>163</v>
       </c>
@@ -5841,10 +5859,10 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="61"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
@@ -5852,7 +5870,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="61"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
         <v>164</v>
       </c>
@@ -5860,10 +5878,10 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="61"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -5871,7 +5889,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="61"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
         <v>165</v>
       </c>
@@ -5879,10 +5897,10 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="61"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
@@ -5890,7 +5908,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="61"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
         <v>166</v>
       </c>
@@ -5898,10 +5916,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="61"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
@@ -5909,7 +5927,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="61"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
         <v>167</v>
       </c>
@@ -5917,10 +5935,10 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="61"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
@@ -5928,7 +5946,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="61"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
         <v>168</v>
       </c>
@@ -5936,16 +5954,16 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="61"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="61"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -5953,14 +5971,14 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="61"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -5972,7 +5990,7 @@
       <c r="F27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
         <v>170</v>
       </c>
@@ -5980,10 +5998,10 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="61"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
@@ -5991,18 +6009,18 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="61"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="61"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
@@ -6010,16 +6028,16 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
@@ -6027,18 +6045,18 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="80" t="s">
+      <c r="G30" s="58"/>
+      <c r="H30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="61"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
@@ -6046,16 +6064,16 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="61"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
@@ -6063,35 +6081,35 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="61"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="61"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="61"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="1:13" ht="18" thickBot="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -6103,16 +6121,16 @@
       <c r="F34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="61"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
@@ -6120,16 +6138,16 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="61"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="61"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
@@ -6137,16 +6155,16 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="61"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="61"/>
+      <c r="M36" s="58"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
         <v>33</v>
       </c>
@@ -6154,16 +6172,16 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="61"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="61"/>
+      <c r="M37" s="58"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
@@ -6171,54 +6189,54 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="61"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="61"/>
+      <c r="M38" s="58"/>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="80" t="s">
+      <c r="F39" s="62"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="61"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="61"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="1:13" ht="18" thickBot="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -6230,16 +6248,16 @@
       <c r="F41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="61"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
@@ -6247,16 +6265,16 @@
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="61"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="61"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="19" t="s">
         <v>38</v>
       </c>
@@ -6264,16 +6282,16 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="61"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="61"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
@@ -6281,16 +6299,16 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="61"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="58"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
@@ -6298,52 +6316,52 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="61"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="61"/>
+      <c r="M45" s="58"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="61"/>
+      <c r="M46" s="58"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -6355,18 +6373,18 @@
       <c r="F48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="58" t="s">
+      <c r="G48" s="58"/>
+      <c r="H48" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="61"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
@@ -6374,16 +6392,16 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="61"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="58"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
@@ -6391,16 +6409,16 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="61"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="58"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
@@ -6408,16 +6426,16 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="61"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="61"/>
+      <c r="M51" s="58"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
@@ -6425,16 +6443,16 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="61"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="61"/>
+      <c r="M52" s="58"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
@@ -6442,16 +6460,16 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="61"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="61"/>
+      <c r="M53" s="58"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
@@ -6459,16 +6477,16 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="61"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="58"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="19" t="s">
         <v>49</v>
       </c>
@@ -6476,16 +6494,16 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="61"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="61"/>
+      <c r="M55" s="58"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="19" t="s">
         <v>50</v>
       </c>
@@ -6493,16 +6511,16 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
     </row>
     <row r="57" spans="1:13" ht="18" thickBot="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
@@ -6510,18 +6528,18 @@
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="58" t="s">
+      <c r="G57" s="58"/>
+      <c r="H57" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="19" t="s">
         <v>52</v>
       </c>
@@ -6529,16 +6547,16 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="61"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="58"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
         <v>53</v>
       </c>
@@ -6546,16 +6564,16 @@
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="61"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="58"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
@@ -6563,16 +6581,16 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="61"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="61"/>
+      <c r="M60" s="58"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="19" t="s">
         <v>55</v>
       </c>
@@ -6580,16 +6598,16 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="61"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="61"/>
+      <c r="M61" s="58"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
         <v>56</v>
       </c>
@@ -6597,16 +6615,16 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="61"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="61"/>
+      <c r="M62" s="58"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
@@ -6614,16 +6632,16 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="61"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="58"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
         <v>58</v>
       </c>
@@ -6631,16 +6649,16 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="61"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="61"/>
+      <c r="M64" s="58"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
@@ -6648,16 +6666,16 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="19" t="s">
         <v>60</v>
       </c>
@@ -6665,18 +6683,18 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="58" t="s">
+      <c r="G66" s="58"/>
+      <c r="H66" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="61"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
@@ -6684,16 +6702,16 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="61"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="19" t="s">
         <v>62</v>
       </c>
@@ -6701,16 +6719,16 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="61"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="19" t="s">
         <v>63</v>
       </c>
@@ -6718,16 +6736,16 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="61"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="61"/>
+      <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="19" t="s">
         <v>64</v>
       </c>
@@ -6735,16 +6753,16 @@
       <c r="D70" s="20"/>
       <c r="E70" s="40"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="61"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="61"/>
+      <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
@@ -6752,16 +6770,16 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="61"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="61"/>
+      <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
@@ -6769,16 +6787,16 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="61"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="61"/>
+      <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
@@ -6786,16 +6804,16 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
     </row>
     <row r="74" spans="1:13" ht="18" thickBot="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="19" t="s">
         <v>68</v>
       </c>
@@ -6803,11 +6821,11 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="61"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I74" s="62" t="s">
+      <c r="I74" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J74" s="14" t="s">
@@ -6819,10 +6837,10 @@
       <c r="L74" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="61"/>
+      <c r="M74" s="58"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="19" t="s">
         <v>69</v>
       </c>
@@ -6830,7 +6848,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="61"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
         <v>178</v>
       </c>
@@ -6838,10 +6856,10 @@
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="61"/>
+      <c r="M75" s="58"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="19" t="s">
         <v>70</v>
       </c>
@@ -6849,7 +6867,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="61"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
         <v>179</v>
       </c>
@@ -6857,10 +6875,10 @@
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="61"/>
+      <c r="M76" s="58"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
@@ -6868,7 +6886,7 @@
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="61"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
         <v>180</v>
       </c>
@@ -6876,10 +6894,10 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="61"/>
+      <c r="M77" s="58"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="19" t="s">
         <v>72</v>
       </c>
@@ -6887,7 +6905,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="61"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
         <v>181</v>
       </c>
@@ -6895,10 +6913,10 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="61"/>
+      <c r="M78" s="58"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="19" t="s">
         <v>73</v>
       </c>
@@ -6906,7 +6924,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="61"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
         <v>182</v>
       </c>
@@ -6914,10 +6932,10 @@
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
-      <c r="M79" s="61"/>
+      <c r="M79" s="58"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
         <v>74</v>
       </c>
@@ -6925,7 +6943,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="61"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
         <v>183</v>
       </c>
@@ -6933,10 +6951,10 @@
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
-      <c r="M80" s="61"/>
+      <c r="M80" s="58"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="19" t="s">
         <v>75</v>
       </c>
@@ -6944,7 +6962,7 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="61"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
         <v>184</v>
       </c>
@@ -6952,10 +6970,10 @@
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="61"/>
+      <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
@@ -6963,7 +6981,7 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="61"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
         <v>185</v>
       </c>
@@ -6971,10 +6989,10 @@
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
-      <c r="M82" s="61"/>
+      <c r="M82" s="58"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="19" t="s">
         <v>77</v>
       </c>
@@ -6982,7 +7000,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="61"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
         <v>186</v>
       </c>
@@ -6990,10 +7008,10 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
-      <c r="M83" s="61"/>
+      <c r="M83" s="58"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
@@ -7001,7 +7019,7 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="61"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
         <v>187</v>
       </c>
@@ -7009,10 +7027,10 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="61"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="19" t="s">
         <v>79</v>
       </c>
@@ -7020,7 +7038,7 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="61"/>
+      <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
         <v>188</v>
       </c>
@@ -7028,10 +7046,10 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="61"/>
+      <c r="M85" s="58"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
@@ -7039,7 +7057,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="61"/>
+      <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
         <v>189</v>
       </c>
@@ -7047,10 +7065,10 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
-      <c r="M86" s="61"/>
+      <c r="M86" s="58"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
@@ -7058,7 +7076,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="61"/>
+      <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
         <v>190</v>
       </c>
@@ -7066,10 +7084,10 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="61"/>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
@@ -7077,7 +7095,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="61"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
         <v>191</v>
       </c>
@@ -7085,10 +7103,10 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="61"/>
+      <c r="M88" s="58"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="19" t="s">
         <v>83</v>
       </c>
@@ -7096,7 +7114,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="61"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
         <v>192</v>
       </c>
@@ -7104,10 +7122,10 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="61"/>
+      <c r="M89" s="58"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
@@ -7115,7 +7133,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
       <c r="F90" s="41"/>
-      <c r="G90" s="61"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
         <v>193</v>
       </c>
@@ -7123,10 +7141,10 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
-      <c r="M90" s="61"/>
+      <c r="M90" s="58"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="19" t="s">
         <v>85</v>
       </c>
@@ -7134,7 +7152,7 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="61"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
         <v>194</v>
       </c>
@@ -7142,10 +7160,10 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
-      <c r="M91" s="61"/>
+      <c r="M91" s="58"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="19" t="s">
         <v>86</v>
       </c>
@@ -7153,7 +7171,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="61"/>
+      <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
         <v>195</v>
       </c>
@@ -7161,10 +7179,10 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="61"/>
+      <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
@@ -7172,7 +7190,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="61"/>
+      <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
         <v>196</v>
       </c>
@@ -7180,10 +7198,10 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="61"/>
+      <c r="M93" s="58"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
@@ -7191,7 +7209,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="61"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
         <v>197</v>
       </c>
@@ -7199,10 +7217,10 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="61"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="19" t="s">
         <v>89</v>
       </c>
@@ -7210,7 +7228,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="61"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
         <v>198</v>
       </c>
@@ -7218,10 +7236,10 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
-      <c r="M95" s="61"/>
+      <c r="M95" s="58"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="19" t="s">
         <v>90</v>
       </c>
@@ -7229,7 +7247,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="61"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
         <v>199</v>
       </c>
@@ -7237,10 +7255,10 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
-      <c r="M96" s="61"/>
+      <c r="M96" s="58"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
         <v>91</v>
       </c>
@@ -7248,7 +7266,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="61"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>200</v>
       </c>
@@ -7256,10 +7274,10 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
-      <c r="M97" s="61"/>
+      <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -7267,7 +7285,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="61"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
         <v>197</v>
       </c>
@@ -7275,10 +7293,10 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
-      <c r="M98" s="61"/>
+      <c r="M98" s="58"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
         <v>93</v>
       </c>
@@ -7286,7 +7304,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="61"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
         <v>201</v>
       </c>
@@ -7294,10 +7312,10 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
-      <c r="M99" s="61"/>
+      <c r="M99" s="58"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
         <v>94</v>
       </c>
@@ -7305,7 +7323,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="61"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
         <v>202</v>
       </c>
@@ -7313,10 +7331,10 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
-      <c r="M100" s="61"/>
+      <c r="M100" s="58"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
         <v>95</v>
       </c>
@@ -7324,7 +7342,7 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="61"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
         <v>203</v>
       </c>
@@ -7332,10 +7350,10 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
-      <c r="M101" s="61"/>
+      <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
         <v>96</v>
       </c>
@@ -7343,7 +7361,7 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="61"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
         <v>204</v>
       </c>
@@ -7351,48 +7369,48 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
-      <c r="M102" s="61"/>
+      <c r="M102" s="58"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="61"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
         <v>205</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="61"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="58"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-      <c r="L104" s="61"/>
-      <c r="M104" s="61"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
     </row>
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -7404,11 +7422,11 @@
       <c r="F105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="61"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I105" s="62" t="s">
+      <c r="I105" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -7420,10 +7438,10 @@
       <c r="L105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M105" s="61"/>
+      <c r="M105" s="58"/>
     </row>
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
         <v>99</v>
       </c>
@@ -7431,7 +7449,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="61"/>
+      <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
         <v>206</v>
       </c>
@@ -7439,10 +7457,10 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
-      <c r="M106" s="61"/>
+      <c r="M106" s="58"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
         <v>100</v>
       </c>
@@ -7450,7 +7468,7 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="61"/>
+      <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
         <v>207</v>
       </c>
@@ -7458,10 +7476,10 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
-      <c r="M107" s="61"/>
+      <c r="M107" s="58"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
         <v>101</v>
       </c>
@@ -7469,7 +7487,7 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="61"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
         <v>208</v>
       </c>
@@ -7477,10 +7495,10 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
-      <c r="M108" s="61"/>
+      <c r="M108" s="58"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
         <v>102</v>
       </c>
@@ -7488,7 +7506,7 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="61"/>
+      <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
         <v>209</v>
       </c>
@@ -7496,10 +7514,10 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
-      <c r="M109" s="61"/>
+      <c r="M109" s="58"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
         <v>103</v>
       </c>
@@ -7507,7 +7525,7 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="61"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
         <v>210</v>
       </c>
@@ -7515,10 +7533,10 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
-      <c r="M110" s="61"/>
+      <c r="M110" s="58"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
         <v>104</v>
       </c>
@@ -7526,7 +7544,7 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="61"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
         <v>211</v>
       </c>
@@ -7534,10 +7552,10 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
-      <c r="M111" s="61"/>
+      <c r="M111" s="58"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
         <v>105</v>
       </c>
@@ -7545,7 +7563,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="61"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
         <v>212</v>
       </c>
@@ -7553,10 +7571,10 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
-      <c r="M112" s="61"/>
+      <c r="M112" s="58"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
         <v>106</v>
       </c>
@@ -7564,7 +7582,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="61"/>
+      <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
         <v>213</v>
       </c>
@@ -7572,10 +7590,10 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
-      <c r="M113" s="61"/>
+      <c r="M113" s="58"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
         <v>107</v>
       </c>
@@ -7583,7 +7601,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="61"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
         <v>214</v>
       </c>
@@ -7591,10 +7609,10 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
-      <c r="M114" s="61"/>
+      <c r="M114" s="58"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
         <v>108</v>
       </c>
@@ -7602,7 +7620,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="61"/>
+      <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
         <v>215</v>
       </c>
@@ -7610,10 +7628,10 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="61"/>
+      <c r="M115" s="58"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
         <v>109</v>
       </c>
@@ -7621,7 +7639,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="61"/>
+      <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
         <v>216</v>
       </c>
@@ -7629,10 +7647,10 @@
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
-      <c r="M116" s="61"/>
+      <c r="M116" s="58"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
         <v>110</v>
       </c>
@@ -7640,7 +7658,7 @@
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="61"/>
+      <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
         <v>217</v>
       </c>
@@ -7648,10 +7666,10 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
-      <c r="M117" s="61"/>
+      <c r="M117" s="58"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
         <v>111</v>
       </c>
@@ -7659,7 +7677,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="61"/>
+      <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
         <v>218</v>
       </c>
@@ -7667,10 +7685,10 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
-      <c r="M118" s="61"/>
+      <c r="M118" s="58"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
         <v>112</v>
       </c>
@@ -7678,7 +7696,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="61"/>
+      <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
         <v>219</v>
       </c>
@@ -7686,10 +7704,10 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
-      <c r="M119" s="61"/>
+      <c r="M119" s="58"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
         <v>113</v>
       </c>
@@ -7697,7 +7715,7 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="61"/>
+      <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
         <v>220</v>
       </c>
@@ -7705,10 +7723,10 @@
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
-      <c r="M120" s="61"/>
+      <c r="M120" s="58"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
         <v>114</v>
       </c>
@@ -7716,7 +7734,7 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="61"/>
+      <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
         <v>221</v>
       </c>
@@ -7724,10 +7742,10 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
-      <c r="M121" s="61"/>
+      <c r="M121" s="58"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
         <v>115</v>
       </c>
@@ -7735,7 +7753,7 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="61"/>
+      <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
         <v>222</v>
       </c>
@@ -7743,10 +7761,10 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
-      <c r="M122" s="61"/>
+      <c r="M122" s="58"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
         <v>116</v>
       </c>
@@ -7754,7 +7772,7 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="61"/>
+      <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
         <v>223</v>
       </c>
@@ -7762,10 +7780,10 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
-      <c r="M123" s="61"/>
+      <c r="M123" s="58"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
         <v>117</v>
       </c>
@@ -7773,7 +7791,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="61"/>
+      <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
         <v>224</v>
       </c>
@@ -7781,10 +7799,10 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
-      <c r="M124" s="61"/>
+      <c r="M124" s="58"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
         <v>118</v>
       </c>
@@ -7792,7 +7810,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="61"/>
+      <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
         <v>225</v>
       </c>
@@ -7800,10 +7818,10 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
-      <c r="M125" s="61"/>
+      <c r="M125" s="58"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
         <v>119</v>
       </c>
@@ -7811,7 +7829,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="61"/>
+      <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
         <v>226</v>
       </c>
@@ -7819,10 +7837,10 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
-      <c r="M126" s="61"/>
+      <c r="M126" s="58"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
         <v>120</v>
       </c>
@@ -7830,7 +7848,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="61"/>
+      <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
         <v>227</v>
       </c>
@@ -7838,10 +7856,10 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
-      <c r="M127" s="61"/>
+      <c r="M127" s="58"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
         <v>121</v>
       </c>
@@ -7849,7 +7867,7 @@
       <c r="D128" s="41"/>
       <c r="E128" s="39"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="61"/>
+      <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
         <v>228</v>
       </c>
@@ -7857,10 +7875,10 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
-      <c r="M128" s="61"/>
+      <c r="M128" s="58"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
         <v>122</v>
       </c>
@@ -7868,7 +7886,7 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="61"/>
+      <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
         <v>229</v>
       </c>
@@ -7876,10 +7894,10 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="61"/>
+      <c r="M129" s="58"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
         <v>123</v>
       </c>
@@ -7887,7 +7905,7 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="61"/>
+      <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
         <v>230</v>
       </c>
@@ -7895,10 +7913,10 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
-      <c r="M130" s="61"/>
+      <c r="M130" s="58"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
         <v>124</v>
       </c>
@@ -7906,7 +7924,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="41"/>
-      <c r="G131" s="61"/>
+      <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
         <v>231</v>
       </c>
@@ -7914,10 +7932,10 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
-      <c r="M131" s="61"/>
+      <c r="M131" s="58"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
         <v>125</v>
       </c>
@@ -7925,7 +7943,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="61"/>
+      <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
         <v>232</v>
       </c>
@@ -7933,10 +7951,10 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
-      <c r="M132" s="61"/>
+      <c r="M132" s="58"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
         <v>126</v>
       </c>
@@ -7944,18 +7962,18 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="61"/>
+      <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
         <v>233</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="65"/>
-      <c r="M133" s="61"/>
+      <c r="L133" s="62"/>
+      <c r="M133" s="58"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
         <v>127</v>
       </c>
@@ -7973,7 +7991,7 @@
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
         <v>128</v>
       </c>
@@ -8003,7 +8021,7 @@
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
         <v>129</v>
       </c>
@@ -8023,7 +8041,7 @@
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
         <v>130</v>
       </c>
@@ -8043,7 +8061,7 @@
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
         <v>131</v>
       </c>
@@ -8063,7 +8081,7 @@
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
         <v>132</v>
       </c>
@@ -8083,7 +8101,7 @@
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
         <v>133</v>
       </c>
@@ -8103,7 +8121,7 @@
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
         <v>134</v>
       </c>
@@ -8121,14 +8139,14 @@
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="65"/>
+      <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>247</v>
@@ -8151,12 +8169,12 @@
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
         <v>241</v>
@@ -8169,11 +8187,11 @@
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="C144" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -8197,7 +8215,7 @@
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
         <v>137</v>
       </c>
@@ -8217,7 +8235,7 @@
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
         <v>138</v>
       </c>
@@ -8237,7 +8255,7 @@
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
         <v>139</v>
       </c>
@@ -8257,7 +8275,7 @@
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
         <v>140</v>
       </c>
@@ -8275,7 +8293,7 @@
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
         <v>141</v>
       </c>
@@ -8305,7 +8323,7 @@
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
         <v>142</v>
       </c>
@@ -8325,7 +8343,7 @@
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
         <v>143</v>
       </c>
@@ -8345,7 +8363,7 @@
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
         <v>144</v>
       </c>
@@ -8365,7 +8383,7 @@
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
         <v>145</v>
       </c>
@@ -8385,7 +8403,7 @@
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
         <v>146</v>
       </c>
@@ -8405,14 +8423,14 @@
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="65"/>
+      <c r="F155" s="62"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -8423,12 +8441,12 @@
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="61"/>
-      <c r="D156" s="61"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="61"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
         <v>259</v>
@@ -8883,139 +8901,142 @@
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:14">
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="70"/>
-      <c r="J178" s="70"/>
-      <c r="K178" s="70"/>
-      <c r="L178" s="70"/>
-      <c r="M178" s="70"/>
-      <c r="N178" s="70"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="67"/>
+      <c r="J178" s="67"/>
+      <c r="K178" s="67"/>
+      <c r="L178" s="67"/>
+      <c r="M178" s="67"/>
+      <c r="N178" s="67"/>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="70"/>
-      <c r="J179" s="70"/>
-      <c r="K179" s="70"/>
-      <c r="L179" s="70"/>
-      <c r="M179" s="70"/>
-      <c r="N179" s="70"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="67"/>
+      <c r="J179" s="67"/>
+      <c r="K179" s="67"/>
+      <c r="L179" s="67"/>
+      <c r="M179" s="67"/>
+      <c r="N179" s="67"/>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="70"/>
-      <c r="J180" s="70"/>
-      <c r="K180" s="70"/>
-      <c r="L180" s="70"/>
-      <c r="M180" s="70"/>
-      <c r="N180" s="70"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="67"/>
+      <c r="J180" s="67"/>
+      <c r="K180" s="67"/>
+      <c r="L180" s="67"/>
+      <c r="M180" s="67"/>
+      <c r="N180" s="67"/>
     </row>
     <row r="181" spans="1:14">
-      <c r="G181" s="70"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="70"/>
-      <c r="J181" s="70"/>
-      <c r="K181" s="70"/>
-      <c r="L181" s="70"/>
-      <c r="M181" s="70"/>
-      <c r="N181" s="70"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="67"/>
+      <c r="J181" s="67"/>
+      <c r="K181" s="67"/>
+      <c r="L181" s="67"/>
+      <c r="M181" s="67"/>
+      <c r="N181" s="67"/>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="70"/>
-      <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
-      <c r="J182" s="70"/>
-      <c r="K182" s="70"/>
-      <c r="L182" s="70"/>
-      <c r="M182" s="70"/>
-      <c r="N182" s="70"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
+      <c r="J182" s="67"/>
+      <c r="K182" s="67"/>
+      <c r="L182" s="67"/>
+      <c r="M182" s="67"/>
+      <c r="N182" s="67"/>
     </row>
     <row r="183" spans="1:14">
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="70"/>
-      <c r="L183" s="70"/>
-      <c r="M183" s="70"/>
-      <c r="N183" s="70"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
+      <c r="J183" s="67"/>
+      <c r="K183" s="67"/>
+      <c r="L183" s="67"/>
+      <c r="M183" s="67"/>
+      <c r="N183" s="67"/>
     </row>
     <row r="184" spans="1:14">
-      <c r="G184" s="70"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="70"/>
-      <c r="J184" s="70"/>
-      <c r="K184" s="70"/>
-      <c r="L184" s="70"/>
-      <c r="M184" s="70"/>
-      <c r="N184" s="70"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="67"/>
+      <c r="J184" s="67"/>
+      <c r="K184" s="67"/>
+      <c r="L184" s="67"/>
+      <c r="M184" s="67"/>
+      <c r="N184" s="67"/>
     </row>
     <row r="185" spans="1:14">
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-      <c r="J185" s="70"/>
-      <c r="K185" s="70"/>
-      <c r="L185" s="70"/>
-      <c r="M185" s="70"/>
-      <c r="N185" s="70"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="67"/>
+      <c r="J185" s="67"/>
+      <c r="K185" s="67"/>
+      <c r="L185" s="67"/>
+      <c r="M185" s="67"/>
+      <c r="N185" s="67"/>
     </row>
     <row r="186" spans="1:14">
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
-      <c r="K186" s="70"/>
-      <c r="L186" s="70"/>
-      <c r="M186" s="70"/>
-      <c r="N186" s="70"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
+      <c r="J186" s="67"/>
+      <c r="K186" s="67"/>
+      <c r="L186" s="67"/>
+      <c r="M186" s="67"/>
+      <c r="N186" s="67"/>
     </row>
     <row r="187" spans="1:14">
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
-      <c r="J187" s="70"/>
-      <c r="K187" s="70"/>
-      <c r="L187" s="70"/>
-      <c r="M187" s="70"/>
-      <c r="N187" s="70"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+      <c r="I187" s="67"/>
+      <c r="J187" s="67"/>
+      <c r="K187" s="67"/>
+      <c r="L187" s="67"/>
+      <c r="M187" s="67"/>
+      <c r="N187" s="67"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="G188" s="70"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
-      <c r="J188" s="70"/>
-      <c r="K188" s="70"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
-      <c r="N188" s="70"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="67"/>
+      <c r="J188" s="67"/>
+      <c r="K188" s="67"/>
+      <c r="L188" s="67"/>
+      <c r="M188" s="67"/>
+      <c r="N188" s="67"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="70"/>
-      <c r="J189" s="70"/>
-      <c r="K189" s="70"/>
-      <c r="L189" s="70"/>
-      <c r="M189" s="70"/>
-      <c r="N189" s="70"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="67"/>
+      <c r="J189" s="67"/>
+      <c r="K189" s="67"/>
+      <c r="L189" s="67"/>
+      <c r="M189" s="67"/>
+      <c r="N189" s="67"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="G190" s="70"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="70"/>
-      <c r="J190" s="70"/>
-      <c r="K190" s="70"/>
-      <c r="L190" s="70"/>
-      <c r="M190" s="70"/>
-      <c r="N190" s="70"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="67"/>
+      <c r="J190" s="67"/>
+      <c r="K190" s="67"/>
+      <c r="L190" s="67"/>
+      <c r="M190" s="67"/>
+      <c r="N190" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H48:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9026,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9042,93 +9063,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="70" t="s">
         <v>289</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="74"/>
+      <c r="O4" s="71"/>
       <c r="P4" t="s">
         <v>290</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" thickBot="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -9140,11 +9161,11 @@
       <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -9156,86 +9177,88 @@
       <c r="L5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="61"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
+      <c r="C6" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="61"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
         <v>149</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="61"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="61"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
         <v>151</v>
       </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="76"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="61"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
         <v>152</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
@@ -9243,7 +9266,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="61"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
         <v>153</v>
       </c>
@@ -9251,48 +9274,48 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="76"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="61"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
         <v>154</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="61"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
         <v>155</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="61"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
@@ -9300,37 +9323,37 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="61"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
         <v>156</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="61"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="61"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
         <v>157</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
@@ -9338,18 +9361,18 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>158</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="61"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
@@ -9357,18 +9380,18 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
         <v>159</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
@@ -9376,7 +9399,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
         <v>160</v>
       </c>
@@ -9384,10 +9407,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="61"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
@@ -9395,18 +9418,18 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
         <v>161</v>
       </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="61"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
@@ -9414,18 +9437,18 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="61"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
         <v>162</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="61"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
@@ -9433,18 +9456,18 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="61"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
         <v>163</v>
       </c>
       <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="61"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
@@ -9452,7 +9475,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="61"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
         <v>164</v>
       </c>
@@ -9460,29 +9483,29 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="61"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="61"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="61"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
@@ -9490,18 +9513,18 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="61"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
         <v>166</v>
       </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="61"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
@@ -9509,7 +9532,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="61"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
         <v>167</v>
       </c>
@@ -9517,10 +9540,10 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="61"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
@@ -9528,24 +9551,24 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="61"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
         <v>168</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="61"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="61"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -9553,14 +9576,14 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="61"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -9572,7 +9595,7 @@
       <c r="F27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
         <v>170</v>
       </c>
@@ -9580,29 +9603,29 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="61"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="61"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="61"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
@@ -9610,37 +9633,37 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="81" t="s">
         <v>291</v>
       </c>
       <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="80" t="s">
+      <c r="G30" s="58"/>
+      <c r="H30" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="61"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
@@ -9648,16 +9671,16 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="61"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
@@ -9665,35 +9688,35 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="61"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="61"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="61"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="1:13" ht="18" thickBot="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -9705,33 +9728,33 @@
       <c r="F34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="61"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="61"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="61"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="61"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
@@ -9739,16 +9762,16 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="61"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="61"/>
+      <c r="M36" s="58"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
         <v>33</v>
       </c>
@@ -9756,16 +9779,16 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="61"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="61"/>
+      <c r="M37" s="58"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
@@ -9773,54 +9796,54 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="61"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="61"/>
+      <c r="M38" s="58"/>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="80" t="s">
+      <c r="E39" s="73"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="61"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="61"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="1:13" ht="18" thickBot="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -9832,33 +9855,33 @@
       <c r="F41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="61"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="61"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="61"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="19" t="s">
         <v>38</v>
       </c>
@@ -9866,16 +9889,16 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="61"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="61"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
@@ -9883,69 +9906,69 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="61"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="61"/>
+      <c r="M44" s="58"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="61"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="61"/>
+      <c r="M45" s="58"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="61"/>
+      <c r="M46" s="58"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -9957,18 +9980,18 @@
       <c r="F48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="58" t="s">
+      <c r="G48" s="58"/>
+      <c r="H48" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="61"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
@@ -9976,16 +9999,16 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="61"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="58"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
@@ -9993,16 +10016,16 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="61"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="58"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
@@ -10010,16 +10033,16 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="61"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="61"/>
+      <c r="M51" s="58"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
@@ -10027,16 +10050,16 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="61"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="61"/>
+      <c r="M52" s="58"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
@@ -10044,16 +10067,16 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="61"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="61"/>
+      <c r="M53" s="58"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
@@ -10061,16 +10084,16 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="61"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="61"/>
+      <c r="M54" s="58"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="19" t="s">
         <v>49</v>
       </c>
@@ -10078,16 +10101,16 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="61"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="61"/>
+      <c r="M55" s="58"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="19" t="s">
         <v>50</v>
       </c>
@@ -10095,16 +10118,16 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
     </row>
     <row r="57" spans="1:13" ht="18" thickBot="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
@@ -10112,18 +10135,18 @@
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="58" t="s">
+      <c r="G57" s="58"/>
+      <c r="H57" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="19" t="s">
         <v>52</v>
       </c>
@@ -10131,16 +10154,16 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="61"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="58"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
         <v>53</v>
       </c>
@@ -10148,16 +10171,16 @@
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="61"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="58"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
@@ -10165,16 +10188,16 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="61"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="61"/>
+      <c r="M60" s="58"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="19" t="s">
         <v>55</v>
       </c>
@@ -10182,16 +10205,16 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="61"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="61"/>
+      <c r="M61" s="58"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
         <v>56</v>
       </c>
@@ -10199,16 +10222,16 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="61"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="61"/>
+      <c r="M62" s="58"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
@@ -10216,16 +10239,16 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="61"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="61"/>
+      <c r="M63" s="58"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
         <v>58</v>
       </c>
@@ -10233,16 +10256,16 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="61"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="61"/>
+      <c r="M64" s="58"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
@@ -10250,16 +10273,16 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="19" t="s">
         <v>60</v>
       </c>
@@ -10267,18 +10290,18 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="58" t="s">
+      <c r="G66" s="58"/>
+      <c r="H66" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="61"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
@@ -10286,16 +10309,20 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="61"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="L67" s="87"/>
+      <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="19" t="s">
         <v>62</v>
       </c>
@@ -10303,16 +10330,20 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="61"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="L68" s="87"/>
+      <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="19" t="s">
         <v>63</v>
       </c>
@@ -10320,16 +10351,16 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="61"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="61"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="19" t="s">
         <v>64</v>
       </c>
@@ -10337,16 +10368,16 @@
       <c r="D70" s="20"/>
       <c r="E70" s="40"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="61"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="61"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
@@ -10354,16 +10385,16 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="61"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="61"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
@@ -10371,16 +10402,16 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="61"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="61"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
@@ -10388,16 +10419,16 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
     </row>
     <row r="74" spans="1:13" ht="18" thickBot="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="19" t="s">
         <v>68</v>
       </c>
@@ -10405,11 +10436,11 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="61"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I74" s="62" t="s">
+      <c r="I74" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J74" s="14" t="s">
@@ -10421,10 +10452,10 @@
       <c r="L74" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="61"/>
+      <c r="M74" s="58"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="19" t="s">
         <v>69</v>
       </c>
@@ -10432,7 +10463,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="61"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
         <v>178</v>
       </c>
@@ -10440,10 +10471,10 @@
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="61"/>
+      <c r="M75" s="58"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="19" t="s">
         <v>70</v>
       </c>
@@ -10451,7 +10482,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="61"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
         <v>179</v>
       </c>
@@ -10459,10 +10490,10 @@
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="61"/>
+      <c r="M76" s="58"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
@@ -10470,7 +10501,7 @@
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="61"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
         <v>180</v>
       </c>
@@ -10478,10 +10509,10 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="61"/>
+      <c r="M77" s="58"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="19" t="s">
         <v>72</v>
       </c>
@@ -10489,7 +10520,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="61"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
         <v>181</v>
       </c>
@@ -10497,10 +10528,10 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="61"/>
+      <c r="M78" s="58"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="19" t="s">
         <v>73</v>
       </c>
@@ -10508,7 +10539,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="61"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
         <v>182</v>
       </c>
@@ -10516,10 +10547,10 @@
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
-      <c r="M79" s="61"/>
+      <c r="M79" s="58"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
         <v>74</v>
       </c>
@@ -10527,7 +10558,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="61"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
         <v>183</v>
       </c>
@@ -10535,10 +10566,10 @@
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
-      <c r="M80" s="61"/>
+      <c r="M80" s="58"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="19" t="s">
         <v>75</v>
       </c>
@@ -10546,7 +10577,7 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="61"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
         <v>184</v>
       </c>
@@ -10554,10 +10585,10 @@
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
-      <c r="M81" s="61"/>
+      <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
@@ -10565,7 +10596,7 @@
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="61"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
         <v>185</v>
       </c>
@@ -10573,10 +10604,10 @@
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
-      <c r="M82" s="61"/>
+      <c r="M82" s="58"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="19" t="s">
         <v>77</v>
       </c>
@@ -10584,7 +10615,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="61"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
         <v>186</v>
       </c>
@@ -10592,10 +10623,10 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
-      <c r="M83" s="61"/>
+      <c r="M83" s="58"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
@@ -10603,7 +10634,7 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="61"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
         <v>187</v>
       </c>
@@ -10611,10 +10642,10 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="61"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="19" t="s">
         <v>79</v>
       </c>
@@ -10622,7 +10653,7 @@
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="61"/>
+      <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
         <v>188</v>
       </c>
@@ -10630,10 +10661,10 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="61"/>
+      <c r="M85" s="58"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
@@ -10641,7 +10672,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="61"/>
+      <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
         <v>189</v>
       </c>
@@ -10649,10 +10680,10 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
-      <c r="M86" s="61"/>
+      <c r="M86" s="58"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
@@ -10660,7 +10691,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="61"/>
+      <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
         <v>190</v>
       </c>
@@ -10668,10 +10699,10 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="61"/>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
@@ -10679,7 +10710,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="61"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
         <v>191</v>
       </c>
@@ -10687,10 +10718,10 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="61"/>
+      <c r="M88" s="58"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="19" t="s">
         <v>83</v>
       </c>
@@ -10698,7 +10729,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="61"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
         <v>192</v>
       </c>
@@ -10706,10 +10737,10 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="61"/>
+      <c r="M89" s="58"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
@@ -10717,7 +10748,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
       <c r="F90" s="41"/>
-      <c r="G90" s="61"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
         <v>193</v>
       </c>
@@ -10725,10 +10756,10 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
-      <c r="M90" s="61"/>
+      <c r="M90" s="58"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="19" t="s">
         <v>85</v>
       </c>
@@ -10736,7 +10767,7 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="61"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
         <v>194</v>
       </c>
@@ -10744,10 +10775,10 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
-      <c r="M91" s="61"/>
+      <c r="M91" s="58"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="19" t="s">
         <v>86</v>
       </c>
@@ -10755,7 +10786,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="61"/>
+      <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
         <v>195</v>
       </c>
@@ -10763,10 +10794,10 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="61"/>
+      <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
@@ -10774,7 +10805,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="61"/>
+      <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
         <v>196</v>
       </c>
@@ -10782,10 +10813,10 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="61"/>
+      <c r="M93" s="58"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
@@ -10793,7 +10824,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="61"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
         <v>197</v>
       </c>
@@ -10801,10 +10832,10 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="61"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="19" t="s">
         <v>89</v>
       </c>
@@ -10812,7 +10843,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="61"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
         <v>198</v>
       </c>
@@ -10820,10 +10851,10 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
-      <c r="M95" s="61"/>
+      <c r="M95" s="58"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="19" t="s">
         <v>90</v>
       </c>
@@ -10831,7 +10862,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="61"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
         <v>199</v>
       </c>
@@ -10839,10 +10870,10 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
-      <c r="M96" s="61"/>
+      <c r="M96" s="58"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
         <v>91</v>
       </c>
@@ -10850,7 +10881,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="61"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>200</v>
       </c>
@@ -10858,10 +10889,10 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
-      <c r="M97" s="61"/>
+      <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
         <v>92</v>
       </c>
@@ -10869,7 +10900,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="61"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
         <v>197</v>
       </c>
@@ -10877,10 +10908,10 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
-      <c r="M98" s="61"/>
+      <c r="M98" s="58"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
         <v>93</v>
       </c>
@@ -10888,7 +10919,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="61"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
         <v>201</v>
       </c>
@@ -10896,10 +10927,10 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
-      <c r="M99" s="61"/>
+      <c r="M99" s="58"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
         <v>94</v>
       </c>
@@ -10907,7 +10938,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="61"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
         <v>202</v>
       </c>
@@ -10915,10 +10946,10 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
-      <c r="M100" s="61"/>
+      <c r="M100" s="58"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
         <v>95</v>
       </c>
@@ -10926,7 +10957,7 @@
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="61"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
         <v>203</v>
       </c>
@@ -10934,10 +10965,10 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
-      <c r="M101" s="61"/>
+      <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
         <v>96</v>
       </c>
@@ -10945,7 +10976,7 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="61"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
         <v>204</v>
       </c>
@@ -10953,48 +10984,48 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
-      <c r="M102" s="61"/>
+      <c r="M102" s="58"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="61"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
         <v>205</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="61"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="58"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-      <c r="L104" s="61"/>
-      <c r="M104" s="61"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
     </row>
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -11006,11 +11037,11 @@
       <c r="F105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="61"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I105" s="62" t="s">
+      <c r="I105" s="59" t="s">
         <v>246</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -11022,10 +11053,10 @@
       <c r="L105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M105" s="61"/>
+      <c r="M105" s="58"/>
     </row>
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
         <v>99</v>
       </c>
@@ -11033,7 +11064,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="61"/>
+      <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
         <v>206</v>
       </c>
@@ -11041,10 +11072,10 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
-      <c r="M106" s="61"/>
+      <c r="M106" s="58"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
         <v>100</v>
       </c>
@@ -11052,7 +11083,7 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="61"/>
+      <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
         <v>207</v>
       </c>
@@ -11060,10 +11091,10 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
-      <c r="M107" s="61"/>
+      <c r="M107" s="58"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
         <v>101</v>
       </c>
@@ -11071,7 +11102,7 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="61"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
         <v>208</v>
       </c>
@@ -11079,10 +11110,10 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
-      <c r="M108" s="61"/>
+      <c r="M108" s="58"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
         <v>102</v>
       </c>
@@ -11090,7 +11121,7 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="61"/>
+      <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
         <v>209</v>
       </c>
@@ -11098,10 +11129,10 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
-      <c r="M109" s="61"/>
+      <c r="M109" s="58"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
         <v>103</v>
       </c>
@@ -11109,7 +11140,7 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="61"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
         <v>210</v>
       </c>
@@ -11117,10 +11148,10 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
-      <c r="M110" s="61"/>
+      <c r="M110" s="58"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
         <v>104</v>
       </c>
@@ -11128,7 +11159,7 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="61"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
         <v>211</v>
       </c>
@@ -11136,10 +11167,10 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
-      <c r="M111" s="61"/>
+      <c r="M111" s="58"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
         <v>105</v>
       </c>
@@ -11147,7 +11178,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="61"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
         <v>212</v>
       </c>
@@ -11155,10 +11186,10 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
-      <c r="M112" s="61"/>
+      <c r="M112" s="58"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
         <v>106</v>
       </c>
@@ -11166,7 +11197,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="61"/>
+      <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
         <v>213</v>
       </c>
@@ -11174,10 +11205,10 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
-      <c r="M113" s="61"/>
+      <c r="M113" s="58"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
         <v>107</v>
       </c>
@@ -11185,7 +11216,7 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="61"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
         <v>214</v>
       </c>
@@ -11193,10 +11224,10 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
-      <c r="M114" s="61"/>
+      <c r="M114" s="58"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
         <v>108</v>
       </c>
@@ -11204,7 +11235,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="61"/>
+      <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
         <v>215</v>
       </c>
@@ -11212,10 +11243,10 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="61"/>
+      <c r="M115" s="58"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
         <v>109</v>
       </c>
@@ -11223,30 +11254,30 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="61"/>
+      <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I116" s="84" t="s">
+      <c r="I116" s="81" t="s">
         <v>291</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
-      <c r="M116" s="61"/>
+      <c r="M116" s="58"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="85" t="s">
+      <c r="C117" s="82" t="s">
         <v>292</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="61"/>
+      <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
         <v>217</v>
       </c>
@@ -11254,10 +11285,10 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
-      <c r="M117" s="61"/>
+      <c r="M117" s="58"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
         <v>111</v>
       </c>
@@ -11265,7 +11296,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="61"/>
+      <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
         <v>218</v>
       </c>
@@ -11273,10 +11304,10 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
-      <c r="M118" s="61"/>
+      <c r="M118" s="58"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
         <v>112</v>
       </c>
@@ -11284,7 +11315,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="61"/>
+      <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
         <v>219</v>
       </c>
@@ -11292,10 +11323,10 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
-      <c r="M119" s="61"/>
+      <c r="M119" s="58"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
         <v>113</v>
       </c>
@@ -11303,7 +11334,7 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="61"/>
+      <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
         <v>220</v>
       </c>
@@ -11311,10 +11342,10 @@
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
-      <c r="M120" s="61"/>
+      <c r="M120" s="58"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
         <v>114</v>
       </c>
@@ -11322,7 +11353,7 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="61"/>
+      <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
         <v>221</v>
       </c>
@@ -11330,10 +11361,10 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
-      <c r="M121" s="61"/>
+      <c r="M121" s="58"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
         <v>115</v>
       </c>
@@ -11341,7 +11372,7 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="61"/>
+      <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
         <v>222</v>
       </c>
@@ -11349,10 +11380,10 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
-      <c r="M122" s="61"/>
+      <c r="M122" s="58"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
         <v>116</v>
       </c>
@@ -11360,7 +11391,7 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="61"/>
+      <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
         <v>223</v>
       </c>
@@ -11368,10 +11399,10 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
       <c r="L123" s="20"/>
-      <c r="M123" s="61"/>
+      <c r="M123" s="58"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
         <v>117</v>
       </c>
@@ -11379,7 +11410,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="61"/>
+      <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
         <v>224</v>
       </c>
@@ -11387,10 +11418,10 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
-      <c r="M124" s="61"/>
+      <c r="M124" s="58"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
         <v>118</v>
       </c>
@@ -11398,7 +11429,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="61"/>
+      <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
         <v>225</v>
       </c>
@@ -11406,10 +11437,10 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
-      <c r="M125" s="61"/>
+      <c r="M125" s="58"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
         <v>119</v>
       </c>
@@ -11417,7 +11448,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="61"/>
+      <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
         <v>226</v>
       </c>
@@ -11425,10 +11456,10 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
-      <c r="M126" s="61"/>
+      <c r="M126" s="58"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
         <v>120</v>
       </c>
@@ -11436,7 +11467,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="61"/>
+      <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
         <v>227</v>
       </c>
@@ -11444,10 +11475,10 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
       <c r="L127" s="20"/>
-      <c r="M127" s="61"/>
+      <c r="M127" s="58"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
         <v>121</v>
       </c>
@@ -11455,7 +11486,7 @@
       <c r="D128" s="41"/>
       <c r="E128" s="39"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="61"/>
+      <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
         <v>228</v>
       </c>
@@ -11463,10 +11494,10 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
-      <c r="M128" s="61"/>
+      <c r="M128" s="58"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
         <v>122</v>
       </c>
@@ -11474,7 +11505,7 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="61"/>
+      <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
         <v>229</v>
       </c>
@@ -11482,10 +11513,10 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="61"/>
+      <c r="M129" s="58"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
         <v>123</v>
       </c>
@@ -11493,7 +11524,7 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="61"/>
+      <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
         <v>230</v>
       </c>
@@ -11501,10 +11532,10 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
-      <c r="M130" s="61"/>
+      <c r="M130" s="58"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
         <v>124</v>
       </c>
@@ -11512,7 +11543,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="41"/>
-      <c r="G131" s="61"/>
+      <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
         <v>231</v>
       </c>
@@ -11520,10 +11551,10 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
-      <c r="M131" s="61"/>
+      <c r="M131" s="58"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
         <v>125</v>
       </c>
@@ -11531,7 +11562,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="61"/>
+      <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
         <v>232</v>
       </c>
@@ -11539,10 +11570,10 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
-      <c r="M132" s="61"/>
+      <c r="M132" s="58"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
         <v>126</v>
       </c>
@@ -11550,18 +11581,18 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="61"/>
+      <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
         <v>233</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="65"/>
-      <c r="M133" s="61"/>
+      <c r="L133" s="62"/>
+      <c r="M133" s="58"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
         <v>127</v>
       </c>
@@ -11579,7 +11610,7 @@
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
         <v>128</v>
       </c>
@@ -11609,7 +11640,7 @@
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
         <v>129</v>
       </c>
@@ -11629,7 +11660,7 @@
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
         <v>130</v>
       </c>
@@ -11649,7 +11680,7 @@
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
         <v>131</v>
       </c>
@@ -11669,7 +11700,7 @@
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
         <v>132</v>
       </c>
@@ -11689,7 +11720,7 @@
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
         <v>133</v>
       </c>
@@ -11709,7 +11740,7 @@
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
         <v>134</v>
       </c>
@@ -11727,14 +11758,14 @@
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="65"/>
+      <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>247</v>
@@ -11757,12 +11788,12 @@
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
         <v>241</v>
@@ -11775,11 +11806,11 @@
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="C144" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -11803,7 +11834,7 @@
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
         <v>137</v>
       </c>
@@ -11823,7 +11854,7 @@
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
         <v>138</v>
       </c>
@@ -11843,7 +11874,7 @@
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
         <v>139</v>
       </c>
@@ -11863,7 +11894,7 @@
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
         <v>140</v>
       </c>
@@ -11881,7 +11912,7 @@
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
         <v>141</v>
       </c>
@@ -11911,7 +11942,7 @@
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
         <v>142</v>
       </c>
@@ -11931,7 +11962,7 @@
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
         <v>143</v>
       </c>
@@ -11951,7 +11982,7 @@
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
         <v>144</v>
       </c>
@@ -11971,7 +12002,7 @@
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
         <v>145</v>
       </c>
@@ -11991,7 +12022,7 @@
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
         <v>146</v>
       </c>
@@ -12011,14 +12042,14 @@
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="65"/>
+      <c r="F155" s="62"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -12029,12 +12060,12 @@
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="1:14" ht="52.5" thickBot="1">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="61"/>
-      <c r="D156" s="61"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="61"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
         <v>259</v>
@@ -12489,140 +12520,149 @@
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:14">
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="70"/>
-      <c r="J178" s="70"/>
-      <c r="K178" s="70"/>
-      <c r="L178" s="70"/>
-      <c r="M178" s="70"/>
-      <c r="N178" s="70"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="67"/>
+      <c r="J178" s="67"/>
+      <c r="K178" s="67"/>
+      <c r="L178" s="67"/>
+      <c r="M178" s="67"/>
+      <c r="N178" s="67"/>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="70"/>
-      <c r="J179" s="70"/>
-      <c r="K179" s="70"/>
-      <c r="L179" s="70"/>
-      <c r="M179" s="70"/>
-      <c r="N179" s="70"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="67"/>
+      <c r="J179" s="67"/>
+      <c r="K179" s="67"/>
+      <c r="L179" s="67"/>
+      <c r="M179" s="67"/>
+      <c r="N179" s="67"/>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="70"/>
-      <c r="J180" s="70"/>
-      <c r="K180" s="70"/>
-      <c r="L180" s="70"/>
-      <c r="M180" s="70"/>
-      <c r="N180" s="70"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="67"/>
+      <c r="J180" s="67"/>
+      <c r="K180" s="67"/>
+      <c r="L180" s="67"/>
+      <c r="M180" s="67"/>
+      <c r="N180" s="67"/>
     </row>
     <row r="181" spans="1:14">
-      <c r="G181" s="70"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="70"/>
-      <c r="J181" s="70"/>
-      <c r="K181" s="70"/>
-      <c r="L181" s="70"/>
-      <c r="M181" s="70"/>
-      <c r="N181" s="70"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="67"/>
+      <c r="J181" s="67"/>
+      <c r="K181" s="67"/>
+      <c r="L181" s="67"/>
+      <c r="M181" s="67"/>
+      <c r="N181" s="67"/>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="70"/>
-      <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
-      <c r="J182" s="70"/>
-      <c r="K182" s="70"/>
-      <c r="L182" s="70"/>
-      <c r="M182" s="70"/>
-      <c r="N182" s="70"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
+      <c r="J182" s="67"/>
+      <c r="K182" s="67"/>
+      <c r="L182" s="67"/>
+      <c r="M182" s="67"/>
+      <c r="N182" s="67"/>
     </row>
     <row r="183" spans="1:14">
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="70"/>
-      <c r="L183" s="70"/>
-      <c r="M183" s="70"/>
-      <c r="N183" s="70"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
+      <c r="J183" s="67"/>
+      <c r="K183" s="67"/>
+      <c r="L183" s="67"/>
+      <c r="M183" s="67"/>
+      <c r="N183" s="67"/>
     </row>
     <row r="184" spans="1:14">
-      <c r="G184" s="70"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="70"/>
-      <c r="J184" s="70"/>
-      <c r="K184" s="70"/>
-      <c r="L184" s="70"/>
-      <c r="M184" s="70"/>
-      <c r="N184" s="70"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="67"/>
+      <c r="J184" s="67"/>
+      <c r="K184" s="67"/>
+      <c r="L184" s="67"/>
+      <c r="M184" s="67"/>
+      <c r="N184" s="67"/>
     </row>
     <row r="185" spans="1:14">
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-      <c r="J185" s="70"/>
-      <c r="K185" s="70"/>
-      <c r="L185" s="70"/>
-      <c r="M185" s="70"/>
-      <c r="N185" s="70"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="67"/>
+      <c r="J185" s="67"/>
+      <c r="K185" s="67"/>
+      <c r="L185" s="67"/>
+      <c r="M185" s="67"/>
+      <c r="N185" s="67"/>
     </row>
     <row r="186" spans="1:14">
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
-      <c r="K186" s="70"/>
-      <c r="L186" s="70"/>
-      <c r="M186" s="70"/>
-      <c r="N186" s="70"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
+      <c r="J186" s="67"/>
+      <c r="K186" s="67"/>
+      <c r="L186" s="67"/>
+      <c r="M186" s="67"/>
+      <c r="N186" s="67"/>
     </row>
     <row r="187" spans="1:14">
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
-      <c r="J187" s="70"/>
-      <c r="K187" s="70"/>
-      <c r="L187" s="70"/>
-      <c r="M187" s="70"/>
-      <c r="N187" s="70"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+      <c r="I187" s="67"/>
+      <c r="J187" s="67"/>
+      <c r="K187" s="67"/>
+      <c r="L187" s="67"/>
+      <c r="M187" s="67"/>
+      <c r="N187" s="67"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="G188" s="70"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
-      <c r="J188" s="70"/>
-      <c r="K188" s="70"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
-      <c r="N188" s="70"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="67"/>
+      <c r="J188" s="67"/>
+      <c r="K188" s="67"/>
+      <c r="L188" s="67"/>
+      <c r="M188" s="67"/>
+      <c r="N188" s="67"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="70"/>
-      <c r="J189" s="70"/>
-      <c r="K189" s="70"/>
-      <c r="L189" s="70"/>
-      <c r="M189" s="70"/>
-      <c r="N189" s="70"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="67"/>
+      <c r="J189" s="67"/>
+      <c r="K189" s="67"/>
+      <c r="L189" s="67"/>
+      <c r="M189" s="67"/>
+      <c r="N189" s="67"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="G190" s="70"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="70"/>
-      <c r="J190" s="70"/>
-      <c r="K190" s="70"/>
-      <c r="L190" s="70"/>
-      <c r="M190" s="70"/>
-      <c r="N190" s="70"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="67"/>
+      <c r="J190" s="67"/>
+      <c r="K190" s="67"/>
+      <c r="L190" s="67"/>
+      <c r="M190" s="67"/>
+      <c r="N190" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank checklist (SU-TU)" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="299">
   <si>
     <t>ARMOR</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Goedendag</t>
   </si>
   <si>
-    <t>Angle Star</t>
-  </si>
-  <si>
     <t>Eagle orb</t>
   </si>
   <si>
@@ -908,6 +905,15 @@
   </si>
   <si>
     <t>Test tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothic Plate </t>
+  </si>
+  <si>
+    <t>Angel Star</t>
+  </si>
+  <si>
+    <t>Ring of the five</t>
   </si>
 </sst>
 </file>
@@ -1468,6 +1474,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,16 +1498,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,11 +1510,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>1</v>
@@ -1857,10 +1863,10 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>1</v>
@@ -1884,7 +1890,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="7"/>
       <c r="H3" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -1903,7 +1909,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="7"/>
       <c r="H4" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -1922,7 +1928,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="7"/>
       <c r="H5" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -1941,7 +1947,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="7"/>
       <c r="H6" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -1960,7 +1966,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7"/>
       <c r="H7" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -1979,7 +1985,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -1998,7 +2004,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2017,7 +2023,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="7"/>
       <c r="H10" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -2036,7 +2042,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="7"/>
       <c r="H11" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -2055,7 +2061,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -2074,7 +2080,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
       <c r="H13" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -2093,7 +2099,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="7"/>
       <c r="H14" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -2112,7 +2118,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="7"/>
       <c r="H15" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -2131,7 +2137,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="7"/>
       <c r="H16" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -2150,7 +2156,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="7"/>
       <c r="H17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2169,7 +2175,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -2188,7 +2194,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -2207,7 +2213,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -2226,7 +2232,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -2245,7 +2251,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2262,7 +2268,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -2276,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>1</v>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -2308,7 +2314,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="7"/>
       <c r="H25" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -2343,13 +2349,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2407,7 +2413,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>1</v>
@@ -2504,13 +2510,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
+      <c r="H36" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2534,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1</v>
@@ -2659,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>1</v>
@@ -2671,13 +2677,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
+      <c r="H45" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2826,13 +2832,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
+      <c r="H54" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -2981,13 +2987,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
+      <c r="H63" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -3120,10 +3126,10 @@
       <c r="F71" s="20"/>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>1</v>
@@ -3147,7 +3153,7 @@
       <c r="F72" s="20"/>
       <c r="G72" s="7"/>
       <c r="H72" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -3166,7 +3172,7 @@
       <c r="F73" s="20"/>
       <c r="G73" s="7"/>
       <c r="H73" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -3185,7 +3191,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="7"/>
       <c r="H74" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -3204,7 +3210,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="7"/>
       <c r="H75" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -3223,7 +3229,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="7"/>
       <c r="H76" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -3242,7 +3248,7 @@
       <c r="F77" s="20"/>
       <c r="G77" s="7"/>
       <c r="H77" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -3261,7 +3267,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="7"/>
       <c r="H78" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -3280,7 +3286,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="7"/>
       <c r="H79" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -3299,7 +3305,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="7"/>
       <c r="H80" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -3318,7 +3324,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="7"/>
       <c r="H81" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -3337,7 +3343,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="7"/>
       <c r="H82" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -3356,7 +3362,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="7"/>
       <c r="H83" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -3375,7 +3381,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="7"/>
       <c r="H84" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -3394,7 +3400,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="7"/>
       <c r="H85" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -3413,7 +3419,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="7"/>
       <c r="H86" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -3432,7 +3438,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="7"/>
       <c r="H87" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -3451,7 +3457,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="7"/>
       <c r="H88" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -3470,7 +3476,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="7"/>
       <c r="H89" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -3489,7 +3495,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="7"/>
       <c r="H90" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -3508,7 +3514,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="7"/>
       <c r="H91" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -3527,7 +3533,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="7"/>
       <c r="H92" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -3546,7 +3552,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="7"/>
       <c r="H93" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -3557,7 +3563,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="7"/>
       <c r="B94" s="19" t="s">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -3565,7 +3571,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="7"/>
       <c r="H94" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -3576,7 +3582,7 @@
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="A95" s="7"/>
       <c r="B95" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -3584,7 +3590,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="7"/>
       <c r="H95" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -3595,7 +3601,7 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
       <c r="A96" s="7"/>
       <c r="B96" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -3603,7 +3609,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="7"/>
       <c r="H96" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -3614,7 +3620,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="7"/>
       <c r="B97" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
@@ -3622,7 +3628,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="7"/>
       <c r="H97" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -3633,7 +3639,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="7"/>
       <c r="B98" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -3641,7 +3647,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="7"/>
       <c r="H98" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -3652,7 +3658,7 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="7"/>
       <c r="B99" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -3660,7 +3666,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="7"/>
       <c r="H99" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -3671,7 +3677,7 @@
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="7"/>
       <c r="B100" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -3679,7 +3685,7 @@
       <c r="F100" s="29"/>
       <c r="G100" s="7"/>
       <c r="H100" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -3705,10 +3711,10 @@
     <row r="102" spans="1:13" ht="35.25" thickBot="1">
       <c r="A102" s="7"/>
       <c r="B102" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -3721,10 +3727,10 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J102" s="14" t="s">
         <v>1</v>
@@ -3740,7 +3746,7 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="7"/>
       <c r="B103" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -3748,7 +3754,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="7"/>
       <c r="H103" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -3759,7 +3765,7 @@
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
       <c r="A104" s="7"/>
       <c r="B104" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -3767,7 +3773,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="7"/>
       <c r="H104" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
@@ -3778,7 +3784,7 @@
     <row r="105" spans="1:13" ht="15.75" thickBot="1">
       <c r="A105" s="7"/>
       <c r="B105" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -3786,7 +3792,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="7"/>
       <c r="H105" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
@@ -3797,7 +3803,7 @@
     <row r="106" spans="1:13" ht="15.75" thickBot="1">
       <c r="A106" s="7"/>
       <c r="B106" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -3805,7 +3811,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="7"/>
       <c r="H106" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -3816,7 +3822,7 @@
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="7"/>
       <c r="B107" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -3824,7 +3830,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="7"/>
       <c r="H107" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -3835,7 +3841,7 @@
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="7"/>
       <c r="B108" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -3843,7 +3849,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="7"/>
       <c r="H108" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -3854,7 +3860,7 @@
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="7"/>
       <c r="B109" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -3862,7 +3868,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="7"/>
       <c r="H109" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -3873,7 +3879,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="7"/>
       <c r="B110" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -3881,7 +3887,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="7"/>
       <c r="H110" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -3892,7 +3898,7 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="7"/>
       <c r="B111" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -3900,7 +3906,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="7"/>
       <c r="H111" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -3911,7 +3917,7 @@
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="7"/>
       <c r="B112" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -3919,7 +3925,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="7"/>
       <c r="H112" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -3930,7 +3936,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="7"/>
       <c r="B113" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -3938,7 +3944,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="7"/>
       <c r="H113" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -3949,7 +3955,7 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="7"/>
       <c r="B114" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="41"/>
       <c r="D114" s="41"/>
@@ -3957,7 +3963,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="7"/>
       <c r="H114" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -3968,7 +3974,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="7"/>
       <c r="B115" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -3976,7 +3982,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="7"/>
       <c r="H115" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -3987,7 +3993,7 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="7"/>
       <c r="B116" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -3995,7 +4001,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="7"/>
       <c r="H116" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -4006,7 +4012,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="7"/>
       <c r="B117" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -4014,7 +4020,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="7"/>
       <c r="H117" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -4025,7 +4031,7 @@
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="7"/>
       <c r="B118" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -4033,7 +4039,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="7"/>
       <c r="H118" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -4044,7 +4050,7 @@
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="7"/>
       <c r="B119" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -4052,7 +4058,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="7"/>
       <c r="H119" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -4063,7 +4069,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="7"/>
       <c r="B120" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4071,7 +4077,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="7"/>
       <c r="H120" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -4082,7 +4088,7 @@
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="7"/>
       <c r="B121" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -4090,7 +4096,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="7"/>
       <c r="H121" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -4101,7 +4107,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="7"/>
       <c r="B122" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -4109,7 +4115,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="7"/>
       <c r="H122" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -4120,7 +4126,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="7"/>
       <c r="B123" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -4128,7 +4134,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="7"/>
       <c r="H123" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -4139,7 +4145,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="7"/>
       <c r="B124" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -4147,7 +4153,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="7"/>
       <c r="H124" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -4158,7 +4164,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="7"/>
       <c r="B125" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="41"/>
       <c r="D125" s="41"/>
@@ -4166,7 +4172,7 @@
       <c r="F125" s="39"/>
       <c r="G125" s="7"/>
       <c r="H125" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -4177,7 +4183,7 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="7"/>
       <c r="B126" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -4185,7 +4191,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="7"/>
       <c r="H126" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -4196,7 +4202,7 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="7"/>
       <c r="B127" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -4204,7 +4210,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="7"/>
       <c r="H127" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -4215,7 +4221,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="7"/>
       <c r="B128" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
@@ -4223,7 +4229,7 @@
       <c r="F128" s="41"/>
       <c r="G128" s="7"/>
       <c r="H128" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -4234,7 +4240,7 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="7"/>
       <c r="B129" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -4242,7 +4248,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="7"/>
       <c r="H129" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -4253,7 +4259,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="7"/>
       <c r="B130" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -4261,7 +4267,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="7"/>
       <c r="H130" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -4272,7 +4278,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="7"/>
       <c r="B131" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -4289,24 +4295,24 @@
     <row r="132" spans="1:14" ht="19.5" thickBot="1">
       <c r="A132" s="7"/>
       <c r="B132" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="78"/>
+      <c r="L132" s="78"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
       <c r="A133" s="7"/>
       <c r="B133" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -4324,7 +4330,7 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="7"/>
       <c r="B134" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -4342,7 +4348,7 @@
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
       <c r="A135" s="7"/>
       <c r="B135" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -4359,7 +4365,7 @@
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="7"/>
       <c r="B136" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -4376,7 +4382,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="7"/>
       <c r="B137" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -4393,7 +4399,7 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="7"/>
       <c r="B138" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -4410,7 +4416,7 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="7"/>
       <c r="B139" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -4442,10 +4448,10 @@
     <row r="141" spans="1:14" ht="35.25" thickBot="1">
       <c r="A141" s="7"/>
       <c r="B141" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>1</v>
@@ -4467,7 +4473,7 @@
     <row r="142" spans="1:14" ht="15.75" thickBot="1">
       <c r="A142" s="7"/>
       <c r="B142" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -4484,7 +4490,7 @@
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
       <c r="A143" s="7"/>
       <c r="B143" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -4501,7 +4507,7 @@
     <row r="144" spans="1:14" ht="15.75" thickBot="1">
       <c r="A144" s="7"/>
       <c r="B144" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -4518,7 +4524,7 @@
     <row r="145" spans="1:13" ht="15.75" thickBot="1">
       <c r="A145" s="7"/>
       <c r="B145" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -4535,7 +4541,7 @@
     <row r="146" spans="1:13" ht="15.75" thickBot="1">
       <c r="A146" s="7"/>
       <c r="B146" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -4552,7 +4558,7 @@
     <row r="147" spans="1:13" ht="15.75" thickBot="1">
       <c r="A147" s="7"/>
       <c r="B147" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -4569,7 +4575,7 @@
     <row r="148" spans="1:13" ht="15.75" thickBot="1">
       <c r="A148" s="7"/>
       <c r="B148" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -4586,7 +4592,7 @@
     <row r="149" spans="1:13" ht="15.75" thickBot="1">
       <c r="A149" s="7"/>
       <c r="B149" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -4603,7 +4609,7 @@
     <row r="150" spans="1:13" ht="15.75" thickBot="1">
       <c r="A150" s="7"/>
       <c r="B150" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -4620,7 +4626,7 @@
     <row r="151" spans="1:13" ht="15.75" thickBot="1">
       <c r="A151" s="7"/>
       <c r="B151" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -4637,7 +4643,7 @@
     <row r="152" spans="1:13" ht="15.75" thickBot="1">
       <c r="A152" s="7"/>
       <c r="B152" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -4711,29 +4717,29 @@
     <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>239</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>240</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4745,7 +4751,7 @@
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4757,7 +4763,7 @@
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4769,7 +4775,7 @@
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4781,7 +4787,7 @@
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -4803,29 +4809,29 @@
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>251</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>252</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4837,7 +4843,7 @@
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4849,7 +4855,7 @@
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4861,7 +4867,7 @@
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4873,7 +4879,7 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4895,29 +4901,29 @@
     <row r="16" spans="1:8" ht="27" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>257</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>258</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4929,7 +4935,7 @@
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4941,7 +4947,7 @@
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4953,7 +4959,7 @@
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4965,7 +4971,7 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4987,29 +4993,29 @@
     <row r="23" spans="1:8" ht="45" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="F23" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="G23" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5021,7 +5027,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5033,7 +5039,7 @@
     <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5045,7 +5051,7 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5057,7 +5063,7 @@
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5079,29 +5085,29 @@
     <row r="30" spans="1:8" ht="39.75" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="G30" s="45" t="s">
         <v>269</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>270</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5113,7 +5119,7 @@
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5125,7 +5131,7 @@
     <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5137,7 +5143,7 @@
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5149,7 +5155,7 @@
     <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5171,29 +5177,29 @@
     <row r="37" spans="1:8" ht="35.25" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="E37" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="G37" s="45" t="s">
         <v>275</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>276</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5205,7 +5211,7 @@
     <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5217,7 +5223,7 @@
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5229,7 +5235,7 @@
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5241,7 +5247,7 @@
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5263,29 +5269,29 @@
     <row r="44" spans="1:8" ht="39.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="E44" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="F44" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>281</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>282</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5297,7 +5303,7 @@
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5309,7 +5315,7 @@
     <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5321,7 +5327,7 @@
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5333,7 +5339,7 @@
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5355,19 +5361,19 @@
     <row r="51" spans="1:8" ht="39.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -5375,7 +5381,7 @@
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5387,7 +5393,7 @@
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5399,7 +5405,7 @@
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5411,7 +5417,7 @@
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5423,7 +5429,7 @@
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5451,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5547,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -5560,10 +5566,10 @@
       </c>
       <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -5587,7 +5593,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -5606,7 +5612,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -5625,7 +5631,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -5644,7 +5650,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -5663,7 +5669,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -5682,7 +5688,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -5701,7 +5707,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -5720,7 +5726,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -5739,7 +5745,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5758,7 +5764,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5777,7 +5783,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -5796,7 +5802,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -5815,7 +5821,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -5834,7 +5840,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -5853,7 +5859,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -5872,7 +5878,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -5891,7 +5897,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -5910,7 +5916,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -5929,7 +5935,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -5948,7 +5954,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -5965,7 +5971,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -5979,7 +5985,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -5992,7 +5998,7 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -6011,7 +6017,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -6046,13 +6052,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="H30" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6110,7 +6116,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -6207,13 +6213,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
+      <c r="H39" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="82"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6237,7 +6243,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -6362,7 +6368,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -6374,13 +6380,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
+      <c r="H48" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="82"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6529,13 +6535,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="79"/>
+      <c r="H57" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="82"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6684,13 +6690,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="79"/>
+      <c r="H66" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="82"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -6823,10 +6829,10 @@
       <c r="F74" s="20"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -6850,7 +6856,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -6869,7 +6875,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -6888,7 +6894,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -6907,7 +6913,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -6926,7 +6932,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -6945,7 +6951,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -6964,7 +6970,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -6983,7 +6989,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -7002,7 +7008,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -7021,7 +7027,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -7040,7 +7046,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -7059,7 +7065,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -7078,7 +7084,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -7097,7 +7103,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -7116,7 +7122,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -7135,7 +7141,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -7154,7 +7160,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -7173,7 +7179,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -7192,7 +7198,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -7211,7 +7217,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -7230,7 +7236,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -7249,7 +7255,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7260,7 +7266,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -7268,7 +7274,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -7279,7 +7285,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -7287,7 +7293,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -7298,7 +7304,7 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -7306,7 +7312,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -7317,7 +7323,7 @@
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
@@ -7325,7 +7331,7 @@
       <c r="F100" s="41"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -7336,7 +7342,7 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -7344,7 +7350,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7355,7 +7361,7 @@
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
       <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -7363,7 +7369,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
@@ -7374,7 +7380,7 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -7382,7 +7388,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -7408,10 +7414,10 @@
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
       <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -7424,10 +7430,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -7443,7 +7449,7 @@
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
       <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -7451,7 +7457,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -7462,7 +7468,7 @@
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -7470,7 +7476,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -7481,7 +7487,7 @@
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -7489,7 +7495,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -7500,7 +7506,7 @@
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -7508,7 +7514,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -7519,7 +7525,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -7527,7 +7533,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -7538,7 +7544,7 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -7546,7 +7552,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -7557,7 +7563,7 @@
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -7565,7 +7571,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -7576,7 +7582,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -7584,7 +7590,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -7595,7 +7601,7 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -7603,7 +7609,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -7614,7 +7620,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -7622,7 +7628,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -7633,7 +7639,7 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -7641,7 +7647,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -7652,7 +7658,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
@@ -7660,7 +7666,7 @@
       <c r="F117" s="39"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -7671,7 +7677,7 @@
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -7679,7 +7685,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -7690,7 +7696,7 @@
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -7698,7 +7704,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -7709,7 +7715,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -7717,7 +7723,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -7728,7 +7734,7 @@
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -7736,7 +7742,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -7747,7 +7753,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -7755,7 +7761,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -7766,7 +7772,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -7774,7 +7780,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -7785,7 +7791,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -7793,7 +7799,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -7804,7 +7810,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -7812,7 +7818,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -7823,7 +7829,7 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -7831,7 +7837,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -7842,7 +7848,7 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -7850,7 +7856,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -7861,7 +7867,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
@@ -7869,7 +7875,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -7880,7 +7886,7 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -7888,7 +7894,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -7899,7 +7905,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -7907,7 +7913,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -7918,7 +7924,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
@@ -7926,7 +7932,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -7937,7 +7943,7 @@
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -7945,7 +7951,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -7956,7 +7962,7 @@
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
       <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -7964,7 +7970,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
@@ -7975,7 +7981,7 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -7993,7 +7999,7 @@
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -8001,29 +8007,29 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>239</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>240</v>
       </c>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -8031,7 +8037,7 @@
       <c r="F136" s="40"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8043,7 +8049,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -8051,7 +8057,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -8063,7 +8069,7 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -8071,7 +8077,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8083,7 +8089,7 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -8091,7 +8097,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -8103,7 +8109,7 @@
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -8111,7 +8117,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -8123,7 +8129,7 @@
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -8141,7 +8147,7 @@
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -8149,22 +8155,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>251</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>252</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -8177,7 +8183,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -8189,10 +8195,10 @@
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
       <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -8205,7 +8211,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -8217,7 +8223,7 @@
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -8225,7 +8231,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -8237,7 +8243,7 @@
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
       <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -8245,7 +8251,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -8257,7 +8263,7 @@
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
       <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -8265,7 +8271,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -8277,7 +8283,7 @@
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
       <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -8295,7 +8301,7 @@
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -8303,29 +8309,29 @@
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>257</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>258</v>
       </c>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
       <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -8333,7 +8339,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -8345,7 +8351,7 @@
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
       <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -8353,7 +8359,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -8365,7 +8371,7 @@
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -8373,7 +8379,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -8385,7 +8391,7 @@
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
       <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -8393,7 +8399,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -8405,7 +8411,7 @@
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
       <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -8413,7 +8419,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -8425,7 +8431,7 @@
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
       <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -8449,47 +8455,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>275</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>276</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -8500,7 +8506,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8509,7 +8515,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8520,7 +8526,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8529,7 +8535,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8540,7 +8546,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8549,7 +8555,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8560,7 +8566,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8569,7 +8575,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -8580,7 +8586,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8605,47 +8611,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>269</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>270</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="52.5" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>281</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>282</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8656,7 +8662,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8665,7 +8671,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8676,7 +8682,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8685,7 +8691,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8696,7 +8702,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8705,7 +8711,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8716,7 +8722,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8725,7 +8731,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -8736,7 +8742,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8771,19 +8777,19 @@
     <row r="171" spans="1:14" ht="52.5" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -8797,7 +8803,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8815,7 +8821,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8833,7 +8839,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8851,7 +8857,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -8869,7 +8875,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9047,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9063,61 +9069,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="A1" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9140,7 +9146,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="71"/>
       <c r="P4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -9150,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -9163,10 +9169,10 @@
       </c>
       <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -9184,15 +9190,15 @@
       <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>292</v>
+      <c r="C6" s="72" t="s">
+        <v>291</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
       <c r="F6" s="20"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -9211,7 +9217,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="73"/>
@@ -9230,7 +9236,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="73"/>
@@ -9249,9 +9255,9 @@
       <c r="F9" s="20"/>
       <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="I9" s="73"/>
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
       <c r="L9" s="20"/>
@@ -9268,7 +9274,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -9287,7 +9293,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -9306,7 +9312,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="73"/>
@@ -9325,7 +9331,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -9344,9 +9350,9 @@
       <c r="F14" s="20"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
       <c r="L14" s="20"/>
@@ -9357,13 +9363,13 @@
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -9382,7 +9388,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="73"/>
@@ -9395,13 +9401,13 @@
       <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -9409,18 +9415,18 @@
       <c r="L17" s="20"/>
       <c r="M17" s="58"/>
     </row>
-    <row r="18" spans="1:13" ht="26.25" thickBot="1">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>296</v>
+      </c>
+      <c r="C18" s="72"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="73"/>
@@ -9439,7 +9445,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -9458,7 +9464,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
@@ -9477,7 +9483,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -9496,9 +9502,9 @@
       <c r="F22" s="20"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="20"/>
+        <v>164</v>
+      </c>
+      <c r="I22" s="73"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
       <c r="L22" s="20"/>
@@ -9515,7 +9521,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="73"/>
@@ -9534,7 +9540,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -9553,7 +9559,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -9570,9 +9576,9 @@
       <c r="F26" s="32"/>
       <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="I26" s="73"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -9584,7 +9590,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -9597,7 +9603,7 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -9616,7 +9622,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -9646,20 +9652,20 @@
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="81" t="s">
-        <v>291</v>
+      <c r="C30" s="75" t="s">
+        <v>290</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="H30" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9672,7 +9678,9 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="77" t="s">
+        <v>298</v>
+      </c>
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
       <c r="K31" s="63"/>
@@ -9717,7 +9725,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -9809,18 +9817,18 @@
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="20"/>
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
+      <c r="H39" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="82"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9844,7 +9852,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -9969,7 +9977,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -9981,13 +9989,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
+      <c r="H48" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="82"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10136,13 +10144,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="79"/>
+      <c r="H57" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="82"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10201,7 +10209,7 @@
       <c r="B61" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -10235,7 +10243,7 @@
       <c r="B63" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="73"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -10291,13 +10299,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="79"/>
+      <c r="H66" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="82"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10310,15 +10318,15 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="58"/>
-      <c r="H67" s="83" t="s">
-        <v>293</v>
+      <c r="H67" s="77" t="s">
+        <v>292</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="L67" s="87"/>
+      <c r="K67" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" s="84"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10331,15 +10339,15 @@
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="83" t="s">
-        <v>294</v>
+      <c r="H68" s="77" t="s">
+        <v>293</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="L68" s="87"/>
+      <c r="K68" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="L68" s="84"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10355,8 +10363,8 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="86"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10372,8 +10380,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="86"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10389,8 +10397,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="86"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10398,7 +10406,7 @@
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -10406,8 +10414,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="86"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10438,10 +10446,10 @@
       <c r="F74" s="20"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -10465,7 +10473,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -10484,7 +10492,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -10503,7 +10511,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -10522,7 +10530,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -10541,7 +10549,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -10560,7 +10568,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -10579,7 +10587,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -10598,7 +10606,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -10617,7 +10625,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -10636,7 +10644,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -10655,7 +10663,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -10674,7 +10682,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -10693,7 +10701,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -10712,7 +10720,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -10731,7 +10739,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -10750,7 +10758,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -10769,7 +10777,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -10788,7 +10796,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -10807,7 +10815,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -10826,7 +10834,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -10845,7 +10853,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -10864,7 +10872,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -10875,15 +10883,15 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="C97" s="73"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -10894,7 +10902,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -10902,7 +10910,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -10913,7 +10921,7 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -10921,7 +10929,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -10932,7 +10940,7 @@
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
@@ -10940,7 +10948,7 @@
       <c r="F100" s="41"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -10951,7 +10959,7 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -10959,7 +10967,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -10970,7 +10978,7 @@
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
       <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -10978,7 +10986,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
@@ -10989,7 +10997,7 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -10997,7 +11005,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -11023,10 +11031,10 @@
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
       <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -11039,10 +11047,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -11058,7 +11066,7 @@
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
       <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -11066,7 +11074,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -11077,7 +11085,7 @@
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -11085,7 +11093,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -11096,7 +11104,7 @@
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -11104,9 +11112,9 @@
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="I108" s="20"/>
+        <v>207</v>
+      </c>
+      <c r="I108" s="72"/>
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
@@ -11115,7 +11123,7 @@
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -11123,7 +11131,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -11134,7 +11142,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -11142,7 +11150,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -11153,7 +11161,7 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -11161,7 +11169,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -11172,7 +11180,7 @@
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -11180,7 +11188,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -11191,7 +11199,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -11199,7 +11207,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -11210,7 +11218,7 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -11218,7 +11226,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -11229,7 +11237,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -11237,7 +11245,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -11248,7 +11256,7 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -11256,10 +11264,10 @@
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="I116" s="81" t="s">
-        <v>291</v>
+        <v>215</v>
+      </c>
+      <c r="I116" s="75" t="s">
+        <v>290</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
@@ -11269,17 +11277,17 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="82" t="s">
-        <v>292</v>
+        <v>109</v>
+      </c>
+      <c r="C117" s="76" t="s">
+        <v>291</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
       <c r="F117" s="39"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -11290,7 +11298,7 @@
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -11298,7 +11306,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -11309,7 +11317,7 @@
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -11317,7 +11325,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -11328,7 +11336,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -11336,7 +11344,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -11347,7 +11355,7 @@
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -11355,7 +11363,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -11366,7 +11374,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -11374,7 +11382,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -11385,7 +11393,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -11393,7 +11401,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -11404,7 +11412,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -11412,7 +11420,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -11423,7 +11431,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -11431,7 +11439,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -11442,7 +11450,7 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -11450,7 +11458,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -11461,7 +11469,7 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -11469,7 +11477,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -11480,7 +11488,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
@@ -11488,7 +11496,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -11499,7 +11507,7 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -11507,7 +11515,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -11518,7 +11526,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -11526,9 +11534,9 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="I130" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="I130" s="73"/>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
@@ -11537,7 +11545,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
@@ -11545,7 +11553,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -11556,7 +11564,7 @@
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -11564,7 +11572,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -11575,7 +11583,7 @@
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
       <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -11583,7 +11591,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
@@ -11594,7 +11602,7 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -11612,7 +11620,7 @@
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -11620,37 +11628,37 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>239</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>240</v>
       </c>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="C136" s="73"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
       <c r="F136" s="40"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -11662,7 +11670,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -11670,7 +11678,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -11682,7 +11690,7 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -11690,7 +11698,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -11702,7 +11710,7 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -11710,7 +11718,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -11722,7 +11730,7 @@
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -11730,7 +11738,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -11742,7 +11750,7 @@
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -11760,7 +11768,7 @@
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -11768,22 +11776,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>251</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>252</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -11796,7 +11804,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -11808,10 +11816,10 @@
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
       <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -11824,7 +11832,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -11836,7 +11844,7 @@
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -11844,7 +11852,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -11856,7 +11864,7 @@
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
       <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -11864,7 +11872,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -11876,7 +11884,7 @@
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
       <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -11884,7 +11892,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -11896,7 +11904,7 @@
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
       <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -11914,37 +11922,37 @@
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="C149" s="73"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>257</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>258</v>
       </c>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
       <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -11952,7 +11960,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -11964,7 +11972,7 @@
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
       <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -11972,7 +11980,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -11984,7 +11992,7 @@
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -11992,7 +12000,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -12004,7 +12012,7 @@
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
       <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -12012,7 +12020,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -12024,7 +12032,7 @@
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
       <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -12032,7 +12040,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -12044,7 +12052,7 @@
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
       <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -12068,47 +12076,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>275</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>276</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -12119,7 +12127,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12128,7 +12136,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -12139,7 +12147,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12148,7 +12156,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -12159,7 +12167,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12168,7 +12176,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -12179,7 +12187,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12188,7 +12196,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -12199,7 +12207,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12224,47 +12232,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>269</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>270</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="52.5" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>281</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>282</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -12275,7 +12283,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -12284,7 +12292,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -12295,7 +12303,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -12304,7 +12312,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -12315,7 +12323,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -12324,7 +12332,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -12335,7 +12343,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -12344,7 +12352,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -12355,7 +12363,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12390,19 +12398,19 @@
     <row r="171" spans="1:14" ht="52.5" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -12416,7 +12424,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -12434,7 +12442,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -12452,7 +12460,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -12470,7 +12478,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -12488,7 +12496,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -12651,11 +12659,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="A1:M3"/>
@@ -12663,6 +12666,11 @@
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="H48:L48"/>
     <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1498,12 +1498,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,6 +1506,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9053,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="G79" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9069,40 +9069,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9111,19 +9111,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -10323,10 +10323,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="83" t="s">
+      <c r="K67" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="84"/>
+      <c r="L67" s="87"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10344,10 +10344,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="83" t="s">
+      <c r="K68" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="L68" s="84"/>
+      <c r="L68" s="87"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10363,8 +10363,8 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="86"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="84"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10380,8 +10380,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="86"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="84"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10397,8 +10397,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="86"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="84"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10414,8 +10414,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="86"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="84"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10476,7 +10476,7 @@
         <v>177</v>
       </c>
       <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="J75" s="73"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="58"/>
@@ -10514,7 +10514,7 @@
         <v>179</v>
       </c>
       <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="J77" s="73"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="58"/>
@@ -10552,8 +10552,8 @@
         <v>181</v>
       </c>
       <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
       <c r="L79" s="20"/>
       <c r="M79" s="58"/>
     </row>
@@ -10611,7 +10611,7 @@
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
+      <c r="L82" s="73"/>
       <c r="M82" s="58"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
@@ -10647,7 +10647,7 @@
         <v>186</v>
       </c>
       <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="J84" s="73"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="58"/>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="73"/>
       <c r="L86" s="20"/>
       <c r="M86" s="58"/>
     </row>
@@ -10742,8 +10742,8 @@
         <v>191</v>
       </c>
       <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="20"/>
       <c r="M89" s="58"/>
     </row>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="73"/>
       <c r="L90" s="20"/>
       <c r="M90" s="58"/>
     </row>
@@ -10780,7 +10780,7 @@
         <v>193</v>
       </c>
       <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="J91" s="73"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
       <c r="M91" s="58"/>
@@ -10856,7 +10856,7 @@
         <v>197</v>
       </c>
       <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="J95" s="73"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="58"/>
@@ -10951,7 +10951,7 @@
         <v>201</v>
       </c>
       <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
+      <c r="J100" s="73"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
       <c r="M100" s="58"/>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="73"/>
       <c r="L101" s="20"/>
       <c r="M101" s="58"/>
     </row>
@@ -11077,7 +11077,7 @@
         <v>205</v>
       </c>
       <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
+      <c r="J106" s="73"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
       <c r="M106" s="58"/>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="73"/>
       <c r="L109" s="20"/>
       <c r="M109" s="58"/>
     </row>
@@ -11191,7 +11191,7 @@
         <v>211</v>
       </c>
       <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
+      <c r="J112" s="73"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
       <c r="M112" s="58"/>
@@ -11229,8 +11229,8 @@
         <v>213</v>
       </c>
       <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
       <c r="L114" s="20"/>
       <c r="M114" s="58"/>
     </row>
@@ -11423,7 +11423,7 @@
         <v>223</v>
       </c>
       <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
+      <c r="J124" s="73"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
       <c r="M124" s="58"/>
@@ -11537,7 +11537,7 @@
         <v>229</v>
       </c>
       <c r="I130" s="73"/>
-      <c r="J130" s="20"/>
+      <c r="J130" s="73"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="58"/>
@@ -11594,7 +11594,7 @@
         <v>232</v>
       </c>
       <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
+      <c r="J133" s="73"/>
       <c r="K133" s="20"/>
       <c r="L133" s="62"/>
       <c r="M133" s="58"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -9053,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G79" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="B134" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9062,9 +9062,14 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9548,7 +9553,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="1:13" ht="26.25" thickBot="1">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
@@ -9561,7 +9566,7 @@
       <c r="H25" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="73"/>
@@ -10105,7 +10110,7 @@
       <c r="B55" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -10294,7 +10299,7 @@
       <c r="B66" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -10440,7 +10445,7 @@
       <c r="B74" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -10608,7 +10613,7 @@
       <c r="H82" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="I82" s="20"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="73"/>
@@ -10779,7 +10784,7 @@
       <c r="H91" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="I91" s="20"/>
+      <c r="I91" s="73"/>
       <c r="J91" s="73"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
@@ -10866,7 +10871,7 @@
       <c r="B96" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="20"/>
+      <c r="C96" s="73"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -11209,7 +11214,7 @@
       <c r="H113" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="I113" s="20"/>
+      <c r="I113" s="73"/>
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
@@ -11585,7 +11590,7 @@
       <c r="B133" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="20"/>
+      <c r="C133" s="73"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -11617,7 +11622,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="1:14" ht="52.5" thickBot="1">
+    <row r="135" spans="1:14" ht="27" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
         <v>127</v>
@@ -11919,7 +11924,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="1:14" ht="52.5" thickBot="1">
+    <row r="149" spans="1:14" ht="27" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
         <v>140</v>
@@ -11954,7 +11959,7 @@
       <c r="B150" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C150" s="20"/>
+      <c r="C150" s="73"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -12067,7 +12072,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14" ht="52.5" thickBot="1">
+    <row r="156" spans="1:14" ht="39.75" thickBot="1">
       <c r="A156" s="58"/>
       <c r="B156" s="58"/>
       <c r="C156" s="58"/>
@@ -12223,7 +12228,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14" ht="52.5" thickBot="1">
+    <row r="163" spans="1:14" ht="39.75" thickBot="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -12251,7 +12256,7 @@
       </c>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="1:14" ht="52.5" thickBot="1">
+    <row r="164" spans="1:14" ht="39.75" thickBot="1">
       <c r="A164" s="44" t="s">
         <v>276</v>
       </c>
@@ -12395,7 +12400,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="1:14" ht="52.5" thickBot="1">
+    <row r="171" spans="1:14" ht="27" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
         <v>282</v>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -9053,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B134" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="F110" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9243,7 +9243,7 @@
       <c r="H8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="73"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -10231,7 +10231,7 @@
       <c r="B62" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -11446,7 +11446,7 @@
       <c r="H125" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="I125" s="20"/>
+      <c r="I125" s="73"/>
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
       <c r="L125" s="20"/>
@@ -11770,7 +11770,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="1:14" ht="52.5" thickBot="1">
+    <row r="142" spans="1:14" ht="27" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
         <v>134</v>
@@ -11999,7 +11999,7 @@
       <c r="B152" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C152" s="20"/>
+      <c r="C152" s="73"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -12072,7 +12072,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14" ht="39.75" thickBot="1">
+    <row r="156" spans="1:14" ht="27" thickBot="1">
       <c r="A156" s="58"/>
       <c r="B156" s="58"/>
       <c r="C156" s="58"/>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="1:14" ht="39.75" thickBot="1">
+    <row r="157" spans="1:14" ht="27" thickBot="1">
       <c r="A157" s="44" t="s">
         <v>270</v>
       </c>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1260,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1511,6 +1511,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9053,8 +9056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F110" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10147,7 +10150,7 @@
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
+      <c r="F57" s="74"/>
       <c r="G57" s="58"/>
       <c r="H57" s="80" t="s">
         <v>174</v>
@@ -10285,7 +10288,7 @@
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="F65" s="73"/>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
       <c r="I65" s="58"/>
@@ -10321,7 +10324,7 @@
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="77" t="s">
         <v>292</v>
@@ -10397,7 +10400,7 @@
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="F71" s="73"/>
       <c r="G71" s="58"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -10741,7 +10744,7 @@
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="F89" s="73"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
         <v>191</v>
@@ -11346,7 +11349,7 @@
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
+      <c r="F120" s="73"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
         <v>219</v>
@@ -11660,7 +11663,7 @@
       <c r="C136" s="73"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
-      <c r="F136" s="40"/>
+      <c r="F136" s="88"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
         <v>240</v>
@@ -11760,7 +11763,7 @@
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
+      <c r="F141" s="73"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -11962,7 +11965,7 @@
       <c r="C150" s="73"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
+      <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
         <v>240</v>
@@ -12002,7 +12005,7 @@
       <c r="C152" s="73"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
+      <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
         <v>242</v>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -9056,8 +9056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="20"/>
       <c r="G50" s="58"/>
       <c r="H50" s="63"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="39"/>
       <c r="G59" s="58"/>
       <c r="H59" s="63"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="C62" s="73"/>
       <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="73"/>
       <c r="F62" s="20"/>
       <c r="G62" s="58"/>
       <c r="H62" s="20"/>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="73"/>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
       <c r="H68" s="77" t="s">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
-      <c r="E70" s="40"/>
+      <c r="E70" s="88"/>
       <c r="F70" s="20"/>
       <c r="G70" s="58"/>
       <c r="H70" s="20"/>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="20"/>
       <c r="G72" s="58"/>
       <c r="H72" s="20"/>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="20"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+      <c r="E83" s="73"/>
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="E89" s="73"/>
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
+      <c r="E95" s="73"/>
       <c r="F95" s="20"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="E102" s="73"/>
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="E106" s="73"/>
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="E107" s="73"/>
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
+      <c r="E112" s="73"/>
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="E119" s="73"/>
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
+      <c r="E121" s="73"/>
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="E123" s="73"/>
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="E124" s="73"/>
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
+      <c r="E125" s="73"/>
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
-      <c r="E128" s="39"/>
+      <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="C136" s="73"/>
       <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="E136" s="73"/>
       <c r="F136" s="88"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="E137" s="73"/>
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
@@ -11964,7 +11964,7 @@
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
+      <c r="E150" s="73"/>
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
+      <c r="E154" s="73"/>
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -920,7 +920,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1061,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1260,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1483,6 +1490,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,7 +1523,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2352,13 +2362,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2513,13 +2523,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2680,13 +2690,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2835,13 +2845,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="79" t="s">
+      <c r="H54" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -2990,13 +3000,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="79" t="s">
+      <c r="H63" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4305,11 +4315,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="78"/>
-      <c r="J132" s="78"/>
-      <c r="K132" s="78"/>
-      <c r="L132" s="78"/>
+      <c r="H132" s="79"/>
+      <c r="I132" s="79"/>
+      <c r="J132" s="79"/>
+      <c r="K132" s="79"/>
+      <c r="L132" s="79"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6055,13 +6065,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6216,13 +6226,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="83"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6383,13 +6393,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="80" t="s">
+      <c r="H48" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="83"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6538,13 +6548,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="80" t="s">
+      <c r="H57" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6693,13 +6703,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="80" t="s">
+      <c r="H66" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="83"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9056,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9077,40 +9087,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9119,19 +9129,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9667,13 +9677,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9830,13 +9840,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="83"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9997,13 +10007,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="80" t="s">
+      <c r="H48" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="83"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10029,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="73"/>
       <c r="F50" s="20"/>
       <c r="G50" s="58"/>
@@ -10046,7 +10056,7 @@
         <v>45</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="58"/>
@@ -10063,7 +10073,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="58"/>
@@ -10097,7 +10107,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="58"/>
@@ -10114,7 +10124,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="73"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="73"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="58"/>
@@ -10148,17 +10158,17 @@
         <v>51</v>
       </c>
       <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="39"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="80" t="s">
+      <c r="H57" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10167,7 +10177,7 @@
         <v>52</v>
       </c>
       <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="58"/>
@@ -10184,7 +10194,7 @@
         <v>53</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="74"/>
       <c r="F59" s="39"/>
       <c r="G59" s="58"/>
@@ -10235,7 +10245,7 @@
         <v>56</v>
       </c>
       <c r="C62" s="73"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="73"/>
       <c r="F62" s="20"/>
       <c r="G62" s="58"/>
@@ -10252,7 +10262,7 @@
         <v>57</v>
       </c>
       <c r="C63" s="73"/>
-      <c r="D63" s="20"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="58"/>
@@ -10269,7 +10279,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="58"/>
@@ -10286,7 +10296,7 @@
         <v>59</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="73"/>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
       <c r="G65" s="58"/>
@@ -10307,13 +10317,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="80" t="s">
+      <c r="H66" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="83"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10322,7 +10332,7 @@
         <v>61</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="20"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
@@ -10331,10 +10341,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="86" t="s">
+      <c r="K67" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="87"/>
+      <c r="L67" s="88"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10343,7 +10353,7 @@
         <v>62</v>
       </c>
       <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
@@ -10352,10 +10362,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="86" t="s">
+      <c r="K68" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="L68" s="87"/>
+      <c r="L68" s="88"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10364,15 +10374,15 @@
         <v>63</v>
       </c>
       <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="85"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10381,15 +10391,15 @@
         <v>64</v>
       </c>
       <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="88"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="78"/>
       <c r="F70" s="20"/>
       <c r="G70" s="58"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="85"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10405,8 +10415,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="85"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10422,8 +10432,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="85"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10476,7 +10486,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="73"/>
       <c r="E75" s="73"/>
       <c r="F75" s="20"/>
       <c r="G75" s="58"/>
@@ -10590,7 +10600,7 @@
         <v>75</v>
       </c>
       <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="73"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
@@ -10628,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="73"/>
       <c r="E83" s="73"/>
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
@@ -10666,7 +10676,7 @@
         <v>79</v>
       </c>
       <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
       <c r="G85" s="58"/>
@@ -10742,7 +10752,7 @@
         <v>83</v>
       </c>
       <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="D89" s="89"/>
       <c r="E89" s="73"/>
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
@@ -10761,7 +10771,7 @@
         <v>84</v>
       </c>
       <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="39"/>
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
@@ -10780,7 +10790,7 @@
         <v>85</v>
       </c>
       <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="73"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
       <c r="G91" s="58"/>
@@ -10799,7 +10809,7 @@
         <v>86</v>
       </c>
       <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="73"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
@@ -10837,7 +10847,7 @@
         <v>88</v>
       </c>
       <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="D94" s="73"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
@@ -10875,7 +10885,7 @@
         <v>90</v>
       </c>
       <c r="C96" s="73"/>
-      <c r="D96" s="20"/>
+      <c r="D96" s="73"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
@@ -10951,7 +10961,7 @@
         <v>93</v>
       </c>
       <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
       <c r="G100" s="58"/>
@@ -10989,7 +10999,7 @@
         <v>95</v>
       </c>
       <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
@@ -10997,7 +11007,7 @@
         <v>203</v>
       </c>
       <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
+      <c r="J102" s="73"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
       <c r="M102" s="58"/>
@@ -11077,7 +11087,7 @@
         <v>98</v>
       </c>
       <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
+      <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
@@ -11096,7 +11106,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
+      <c r="D107" s="73"/>
       <c r="E107" s="73"/>
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
@@ -11134,7 +11144,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="73"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
       <c r="G109" s="58"/>
@@ -11153,7 +11163,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="D110" s="73"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
@@ -11191,7 +11201,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
+      <c r="D112" s="73"/>
       <c r="E112" s="73"/>
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
@@ -11210,7 +11220,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="73"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
       <c r="G113" s="58"/>
@@ -11229,7 +11239,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
+      <c r="D114" s="73"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
@@ -11248,7 +11258,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="73"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
@@ -11309,7 +11319,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
+      <c r="D118" s="73"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
@@ -11328,7 +11338,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
+      <c r="D119" s="73"/>
       <c r="E119" s="73"/>
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
@@ -11347,7 +11357,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
+      <c r="D120" s="73"/>
       <c r="E120" s="20"/>
       <c r="F120" s="73"/>
       <c r="G120" s="58"/>
@@ -11404,7 +11414,7 @@
         <v>115</v>
       </c>
       <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
+      <c r="D123" s="73"/>
       <c r="E123" s="73"/>
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
@@ -11423,7 +11433,7 @@
         <v>116</v>
       </c>
       <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
+      <c r="D124" s="73"/>
       <c r="E124" s="73"/>
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
@@ -11442,7 +11452,7 @@
         <v>117</v>
       </c>
       <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="D125" s="73"/>
       <c r="E125" s="73"/>
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
@@ -11480,7 +11490,7 @@
         <v>119</v>
       </c>
       <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="D127" s="73"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
@@ -11518,7 +11528,7 @@
         <v>121</v>
       </c>
       <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
+      <c r="D129" s="73"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
@@ -11537,7 +11547,7 @@
         <v>122</v>
       </c>
       <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
+      <c r="D130" s="73"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
@@ -11556,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="D131" s="74"/>
       <c r="E131" s="39"/>
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
@@ -11575,7 +11585,7 @@
         <v>124</v>
       </c>
       <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="73"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
@@ -11613,7 +11623,7 @@
         <v>126</v>
       </c>
       <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="D134" s="73"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
       <c r="G134" s="4"/>
@@ -11661,9 +11671,9 @@
         <v>128</v>
       </c>
       <c r="C136" s="73"/>
-      <c r="D136" s="20"/>
+      <c r="D136" s="73"/>
       <c r="E136" s="73"/>
-      <c r="F136" s="88"/>
+      <c r="F136" s="78"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
         <v>240</v>
@@ -11741,7 +11751,7 @@
         <v>132</v>
       </c>
       <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="73"/>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
@@ -11855,7 +11865,7 @@
         <v>136</v>
       </c>
       <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="73"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
@@ -11895,7 +11905,7 @@
         <v>138</v>
       </c>
       <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="73"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
@@ -11915,7 +11925,7 @@
         <v>139</v>
       </c>
       <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
+      <c r="D148" s="73"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
       <c r="G148" s="4"/>
@@ -11963,7 +11973,7 @@
         <v>141</v>
       </c>
       <c r="C150" s="73"/>
-      <c r="D150" s="20"/>
+      <c r="D150" s="73"/>
       <c r="E150" s="73"/>
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
@@ -12043,7 +12053,7 @@
         <v>145</v>
       </c>
       <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
+      <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank checklist (SU-TU)" sheetId="2" r:id="rId1"/>
@@ -691,9 +691,6 @@
     <t>Horned Helm</t>
   </si>
   <si>
-    <t>Assult Helmet</t>
-  </si>
-  <si>
     <t>Avenger Guard</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>Ring of the five</t>
+  </si>
+  <si>
+    <t>Assault Helmet</t>
   </si>
 </sst>
 </file>
@@ -1493,6 +1493,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,9 +1524,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>147</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>1</v>
@@ -2362,13 +2362,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2426,7 +2426,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>1</v>
@@ -2523,13 +2523,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2553,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>1</v>
@@ -2690,13 +2690,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2845,13 +2845,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="80" t="s">
+      <c r="H54" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3000,13 +3000,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="80" t="s">
+      <c r="H63" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -3142,7 +3142,7 @@
         <v>176</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>1</v>
@@ -3576,7 +3576,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="7"/>
       <c r="B94" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -3727,7 +3727,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -3740,10 +3740,10 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J102" s="14" t="s">
         <v>1</v>
@@ -4128,7 +4128,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="7"/>
       <c r="H122" s="19" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -4147,7 +4147,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="7"/>
       <c r="H123" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -4166,7 +4166,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="7"/>
       <c r="H124" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -4185,7 +4185,7 @@
       <c r="F125" s="39"/>
       <c r="G125" s="7"/>
       <c r="H125" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -4204,7 +4204,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="7"/>
       <c r="H126" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -4223,7 +4223,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="7"/>
       <c r="H127" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -4242,7 +4242,7 @@
       <c r="F128" s="41"/>
       <c r="G128" s="7"/>
       <c r="H128" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -4261,7 +4261,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="7"/>
       <c r="H129" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -4280,7 +4280,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="7"/>
       <c r="H130" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -4315,11 +4315,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="79"/>
-      <c r="I132" s="79"/>
-      <c r="J132" s="79"/>
-      <c r="K132" s="79"/>
-      <c r="L132" s="79"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="80"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -4464,7 +4464,7 @@
         <v>135</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>1</v>
@@ -4730,29 +4730,29 @@
     <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>238</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>239</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4764,7 +4764,7 @@
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4776,7 +4776,7 @@
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4788,7 +4788,7 @@
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4800,7 +4800,7 @@
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -4822,29 +4822,29 @@
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>251</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4856,7 +4856,7 @@
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4868,7 +4868,7 @@
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4880,7 +4880,7 @@
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4892,7 +4892,7 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4914,29 +4914,29 @@
     <row r="16" spans="1:8" ht="27" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>256</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>257</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4948,7 +4948,7 @@
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4960,7 +4960,7 @@
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4972,7 +4972,7 @@
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4984,7 +4984,7 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5006,29 +5006,29 @@
     <row r="23" spans="1:8" ht="45" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="F23" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="G23" s="45" t="s">
         <v>262</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5040,7 +5040,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5052,7 +5052,7 @@
     <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5064,7 +5064,7 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5076,7 +5076,7 @@
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5098,29 +5098,29 @@
     <row r="30" spans="1:8" ht="39.75" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="G30" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>269</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5132,7 +5132,7 @@
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5144,7 +5144,7 @@
     <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5156,7 +5156,7 @@
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5168,7 +5168,7 @@
     <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5190,29 +5190,29 @@
     <row r="37" spans="1:8" ht="35.25" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="E37" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="G37" s="45" t="s">
         <v>274</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>275</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5224,7 +5224,7 @@
     <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5236,7 +5236,7 @@
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5248,7 +5248,7 @@
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5260,7 +5260,7 @@
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5282,29 +5282,29 @@
     <row r="44" spans="1:8" ht="39.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="E44" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="F44" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>280</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>281</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5316,7 +5316,7 @@
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5328,7 +5328,7 @@
     <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5340,7 +5340,7 @@
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5352,7 +5352,7 @@
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5374,19 +5374,19 @@
     <row r="51" spans="1:8" ht="39.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>285</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>286</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -5394,7 +5394,7 @@
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5406,7 +5406,7 @@
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5418,7 +5418,7 @@
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5430,7 +5430,7 @@
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5442,7 +5442,7 @@
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5470,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>147</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -6065,13 +6065,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6129,7 +6129,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -6226,13 +6226,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6256,7 +6256,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -6393,13 +6393,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="84"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6548,13 +6548,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="84"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6703,13 +6703,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="81" t="s">
+      <c r="H66" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="84"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -6845,7 +6845,7 @@
         <v>176</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -7279,7 +7279,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -7430,7 +7430,7 @@
         <v>97</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -7443,10 +7443,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -7831,7 +7831,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -7850,7 +7850,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -7869,7 +7869,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -7888,7 +7888,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -7907,7 +7907,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -7926,7 +7926,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -7945,7 +7945,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -7964,7 +7964,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -7983,7 +7983,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
@@ -8020,22 +8020,22 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>238</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>239</v>
       </c>
       <c r="N135" s="4"/>
     </row>
@@ -8050,7 +8050,7 @@
       <c r="F136" s="40"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8070,7 +8070,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -8090,7 +8090,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8110,7 +8110,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -8130,7 +8130,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -8168,22 +8168,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>250</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>251</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -8196,7 +8196,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -8211,7 +8211,7 @@
         <v>135</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -8244,7 +8244,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -8264,7 +8264,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -8284,7 +8284,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -8322,22 +8322,22 @@
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>256</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>257</v>
       </c>
       <c r="N149" s="4"/>
     </row>
@@ -8352,7 +8352,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -8372,7 +8372,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -8392,7 +8392,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -8412,7 +8412,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -8432,7 +8432,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -8468,47 +8468,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>262</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>263</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>274</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>275</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8528,7 +8528,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8548,7 +8548,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8568,7 +8568,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8588,7 +8588,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8624,47 +8624,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>269</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="52.5" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>280</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>281</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8684,7 +8684,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8704,7 +8704,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8724,7 +8724,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8744,7 +8744,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8790,19 +8790,19 @@
     <row r="171" spans="1:14" ht="52.5" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>285</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>286</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -8816,7 +8816,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8834,7 +8834,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8852,7 +8852,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8870,7 +8870,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -8888,7 +8888,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9066,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9087,61 +9087,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="A1" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9164,7 +9164,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="71"/>
       <c r="P4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -9190,7 +9190,7 @@
         <v>147</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -9209,7 +9209,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
@@ -9313,7 +9313,7 @@
       <c r="H11" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="73"/>
@@ -9436,7 +9436,7 @@
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="20"/>
@@ -9608,7 +9608,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -9623,7 +9623,7 @@
       <c r="H27" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -9634,7 +9634,7 @@
       <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
       <c r="F28" s="20"/>
@@ -9671,19 +9671,19 @@
         <v>27</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9697,7 +9697,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
       <c r="H31" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
@@ -9743,7 +9743,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -9840,13 +9840,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9870,7 +9870,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -10007,13 +10007,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="84"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10074,7 +10074,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="73">
+        <v>0</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="58"/>
       <c r="H52" s="20"/>
@@ -10162,13 +10164,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="84"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10317,13 +10319,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="81" t="s">
+      <c r="H66" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="84"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10337,14 +10339,14 @@
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="L67" s="88"/>
+      <c r="K67" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="L67" s="89"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10358,14 +10360,14 @@
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
       <c r="H68" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="L68" s="88"/>
+      <c r="K68" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="L68" s="89"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10381,8 +10383,8 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="86"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10398,8 +10400,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="86"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10415,8 +10417,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="86"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10432,8 +10434,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="86"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10467,7 +10469,7 @@
         <v>176</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -10752,7 +10754,7 @@
         <v>83</v>
       </c>
       <c r="C89" s="20"/>
-      <c r="D89" s="89"/>
+      <c r="D89" s="79"/>
       <c r="E89" s="73"/>
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
@@ -10901,7 +10903,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C97" s="73"/>
       <c r="D97" s="20"/>
@@ -11052,7 +11054,7 @@
         <v>97</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -11065,10 +11067,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -11285,7 +11287,7 @@
         <v>215</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
@@ -11298,7 +11300,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
@@ -11457,7 +11459,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="I125" s="73"/>
       <c r="J125" s="20"/>
@@ -11476,7 +11478,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -11495,7 +11497,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -11514,7 +11516,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -11533,7 +11535,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -11552,7 +11554,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
@@ -11571,7 +11573,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -11590,7 +11592,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -11609,7 +11611,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="73"/>
@@ -11646,22 +11648,22 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>238</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>239</v>
       </c>
       <c r="N135" s="4"/>
     </row>
@@ -11676,7 +11678,7 @@
       <c r="F136" s="78"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -11696,7 +11698,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -11716,7 +11718,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -11736,7 +11738,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -11756,7 +11758,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -11794,22 +11796,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>250</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>251</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -11822,7 +11824,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -11837,7 +11839,7 @@
         <v>135</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -11850,7 +11852,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -11870,7 +11872,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -11890,7 +11892,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -11910,7 +11912,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -11948,22 +11950,22 @@
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>256</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>257</v>
       </c>
       <c r="N149" s="4"/>
     </row>
@@ -11978,7 +11980,7 @@
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -11998,7 +12000,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -12018,7 +12020,7 @@
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -12038,7 +12040,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -12058,7 +12060,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -12094,47 +12096,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>262</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>263</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>274</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>275</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -12145,7 +12147,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12154,7 +12156,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -12165,7 +12167,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12174,7 +12176,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -12185,7 +12187,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12194,7 +12196,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -12205,7 +12207,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12214,7 +12216,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -12225,7 +12227,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12250,47 +12252,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>269</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="39.75" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>280</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>281</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -12301,7 +12303,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -12310,7 +12312,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -12321,7 +12323,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -12330,7 +12332,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -12341,7 +12343,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -12350,7 +12352,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -12361,7 +12363,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -12370,7 +12372,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -12381,7 +12383,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12416,19 +12418,19 @@
     <row r="171" spans="1:14" ht="27" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>285</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>286</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -12442,7 +12444,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -12460,7 +12462,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -12478,7 +12480,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -12496,7 +12498,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -12514,7 +12516,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -9066,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9268,7 +9268,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="20"/>
       <c r="G9" s="58"/>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="73"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="20"/>
       <c r="M16" s="58"/>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
       <c r="H71" s="20"/>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
+      <c r="E84" s="73"/>
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
@@ -10818,7 +10818,7 @@
       <c r="H92" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I92" s="20"/>
+      <c r="I92" s="73"/>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -11404,7 +11404,7 @@
       <c r="H122" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="I122" s="20"/>
+      <c r="I122" s="73"/>
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
@@ -11434,7 +11434,7 @@
       <c r="B124" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="20"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="73"/>
       <c r="E124" s="73"/>
       <c r="F124" s="20"/>
@@ -11994,7 +11994,7 @@
       <c r="B151" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="20"/>
+      <c r="C151" s="73"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="300">
   <si>
     <t>ARMOR</t>
   </si>
@@ -883,9 +883,6 @@
     <t>XVc checked</t>
   </si>
   <si>
-    <t>SS checked</t>
-  </si>
-  <si>
     <t>T4</t>
   </si>
   <si>
@@ -914,6 +911,12 @@
   </si>
   <si>
     <t>Assault Helmet</t>
+  </si>
+  <si>
+    <t>Pic taken</t>
+  </si>
+  <si>
+    <t>Clasped Orb</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1524,6 +1527,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3576,7 +3588,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="7"/>
       <c r="B94" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -4128,7 +4140,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="7"/>
       <c r="H122" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -7279,7 +7291,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -7831,7 +7843,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -9066,8 +9078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="G72" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9164,7 +9176,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="71"/>
       <c r="P4" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -9209,7 +9221,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
@@ -9219,9 +9231,9 @@
         <v>148</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="90"/>
       <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -9231,7 +9243,7 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="39"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
@@ -9251,7 +9263,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
         <v>150</v>
@@ -9287,8 +9299,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
@@ -9296,7 +9308,7 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="20"/>
       <c r="M10" s="58"/>
     </row>
@@ -9306,7 +9318,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="73"/>
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
@@ -9325,7 +9337,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="73"/>
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
@@ -9334,7 +9346,7 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="20"/>
       <c r="M12" s="58"/>
     </row>
@@ -9346,7 +9358,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
         <v>155</v>
@@ -9383,14 +9395,14 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="73"/>
       <c r="L15" s="20"/>
       <c r="M15" s="58"/>
@@ -9402,13 +9414,13 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
       <c r="L16" s="20"/>
@@ -9428,7 +9440,7 @@
         <v>159</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="90"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="58"/>
@@ -9436,11 +9448,11 @@
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" s="72"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
@@ -9487,7 +9499,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
@@ -9504,7 +9516,7 @@
         <v>163</v>
       </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="58"/>
@@ -9517,7 +9529,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="73"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
         <v>164</v>
@@ -9534,7 +9546,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
@@ -9553,7 +9565,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
@@ -9561,7 +9573,7 @@
         <v>166</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="90"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
@@ -9597,7 +9609,7 @@
         <v>168</v>
       </c>
       <c r="I26" s="73"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="90"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="58"/>
@@ -9625,8 +9637,8 @@
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -9637,7 +9649,7 @@
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
         <v>170</v>
@@ -9655,7 +9667,7 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="20"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -9671,7 +9683,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="73"/>
@@ -9697,7 +9709,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
       <c r="H31" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
@@ -9712,7 +9724,7 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
       <c r="H32" s="63"/>
@@ -9912,7 +9924,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
@@ -9948,7 +9960,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="73"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="58"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -10021,10 +10033,10 @@
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="F49" s="90"/>
       <c r="G49" s="58"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
@@ -10038,7 +10050,7 @@
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
       <c r="F50" s="20"/>
@@ -10074,10 +10086,8 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="73">
-        <v>0</v>
-      </c>
-      <c r="F52" s="20"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="58"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -10091,8 +10101,8 @@
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
@@ -10110,7 +10120,7 @@
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="73"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="20"/>
       <c r="G54" s="58"/>
       <c r="H54" s="20"/>
@@ -10143,7 +10153,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="58"/>
@@ -10161,7 +10171,7 @@
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="74"/>
-      <c r="E57" s="39"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
       <c r="H57" s="82" t="s">
@@ -10232,7 +10242,7 @@
       <c r="C61" s="73"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="F61" s="90"/>
       <c r="G61" s="58"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -10249,7 +10259,7 @@
       <c r="C62" s="73"/>
       <c r="D62" s="73"/>
       <c r="E62" s="73"/>
-      <c r="F62" s="20"/>
+      <c r="F62" s="90"/>
       <c r="G62" s="58"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -10315,8 +10325,8 @@
         <v>60</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
       <c r="H66" s="82" t="s">
@@ -10335,16 +10345,16 @@
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="73"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
       <c r="K67" s="88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L67" s="89"/>
       <c r="M67" s="58"/>
@@ -10360,12 +10370,12 @@
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
       <c r="H68" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
       <c r="K68" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L68" s="89"/>
       <c r="M68" s="58"/>
@@ -10377,7 +10387,7 @@
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="20"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
@@ -10410,7 +10420,7 @@
         <v>65</v>
       </c>
       <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
@@ -10443,8 +10453,8 @@
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="58"/>
@@ -10507,7 +10517,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="90"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
@@ -10516,7 +10526,7 @@
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="90"/>
       <c r="L76" s="20"/>
       <c r="M76" s="58"/>
     </row>
@@ -10553,7 +10563,7 @@
         <v>180</v>
       </c>
       <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
+      <c r="J78" s="90"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="58"/>
@@ -10564,7 +10574,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="90"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
@@ -10611,8 +10621,8 @@
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
       <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
@@ -10629,8 +10639,8 @@
         <v>184</v>
       </c>
       <c r="I82" s="73"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
       <c r="L82" s="73"/>
       <c r="M82" s="58"/>
     </row>
@@ -10648,7 +10658,7 @@
         <v>185</v>
       </c>
       <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="J83" s="90"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="58"/>
@@ -10734,8 +10744,8 @@
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -10774,7 +10784,7 @@
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="39"/>
+      <c r="E90" s="91"/>
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
@@ -10831,7 +10841,7 @@
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
+      <c r="E93" s="90"/>
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
@@ -10870,7 +10880,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="73"/>
-      <c r="F95" s="20"/>
+      <c r="F95" s="90"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
         <v>197</v>
@@ -10903,18 +10913,18 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="73"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>199</v>
       </c>
       <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="J97" s="90"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="58"/>
@@ -10944,8 +10954,8 @@
         <v>92</v>
       </c>
       <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="90"/>
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
@@ -10979,10 +10989,10 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
+      <c r="D101" s="90"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
@@ -10990,9 +11000,9 @@
         <v>202</v>
       </c>
       <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="J101" s="90"/>
       <c r="K101" s="73"/>
-      <c r="L101" s="20"/>
+      <c r="L101" s="90"/>
       <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
@@ -11003,12 +11013,12 @@
       <c r="C102" s="20"/>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
-      <c r="F102" s="20"/>
+      <c r="F102" s="90"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="I102" s="20"/>
+      <c r="I102" s="90"/>
       <c r="J102" s="73"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -11020,7 +11030,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
+      <c r="D103" s="90"/>
       <c r="E103" s="20"/>
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
@@ -11098,7 +11108,7 @@
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="73"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="90"/>
       <c r="L106" s="20"/>
       <c r="M106" s="58"/>
     </row>
@@ -11127,7 +11137,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
@@ -11164,7 +11174,7 @@
       <c r="B110" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="20"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="73"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -11173,7 +11183,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
+      <c r="J110" s="90"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11279,7 +11289,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
+      <c r="D116" s="90"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
@@ -11287,7 +11297,7 @@
         <v>215</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
@@ -11300,7 +11310,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="39"/>
@@ -11348,7 +11358,7 @@
         <v>218</v>
       </c>
       <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
+      <c r="J119" s="90"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
       <c r="M119" s="58"/>
@@ -11378,7 +11388,7 @@
         <v>113</v>
       </c>
       <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
+      <c r="D121" s="90"/>
       <c r="E121" s="73"/>
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
@@ -11397,7 +11407,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
+      <c r="D122" s="90"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
@@ -11425,7 +11435,7 @@
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="90"/>
       <c r="L123" s="20"/>
       <c r="M123" s="58"/>
     </row>
@@ -11456,10 +11466,10 @@
       <c r="C125" s="20"/>
       <c r="D125" s="73"/>
       <c r="E125" s="73"/>
-      <c r="F125" s="20"/>
+      <c r="F125" s="90"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I125" s="73"/>
       <c r="J125" s="20"/>
@@ -11511,7 +11521,7 @@
         <v>120</v>
       </c>
       <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
+      <c r="D128" s="92"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11569,7 +11579,7 @@
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="74"/>
-      <c r="E131" s="39"/>
+      <c r="E131" s="91"/>
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
@@ -11595,7 +11605,7 @@
         <v>230</v>
       </c>
       <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
+      <c r="J132" s="90"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="58"/>
@@ -11607,7 +11617,7 @@
       </c>
       <c r="C133" s="73"/>
       <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="E133" s="90"/>
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
@@ -11773,7 +11783,7 @@
         <v>133</v>
       </c>
       <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
+      <c r="D141" s="90"/>
       <c r="E141" s="20"/>
       <c r="F141" s="73"/>
       <c r="G141" s="4"/>
@@ -11889,7 +11899,7 @@
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
+      <c r="F146" s="90"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
         <v>242</v>
@@ -11945,7 +11955,7 @@
         <v>140</v>
       </c>
       <c r="C149" s="73"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="90"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
@@ -11996,7 +12006,7 @@
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
+      <c r="E151" s="90"/>
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
@@ -12015,7 +12025,7 @@
         <v>143</v>
       </c>
       <c r="C152" s="73"/>
-      <c r="D152" s="20"/>
+      <c r="D152" s="90"/>
       <c r="E152" s="20"/>
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
@@ -12075,7 +12085,7 @@
         <v>146</v>
       </c>
       <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
+      <c r="D155" s="90"/>
       <c r="E155" s="20"/>
       <c r="F155" s="62"/>
       <c r="G155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1499,6 +1499,15 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1527,15 +1536,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2374,13 +2374,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2535,13 +2535,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2702,13 +2702,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2857,13 +2857,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3012,13 +3012,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4327,11 +4327,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="83"/>
+      <c r="L132" s="83"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6077,13 +6077,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6238,13 +6238,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="87"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6405,13 +6405,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="82" t="s">
+      <c r="H48" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="84"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="87"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6560,13 +6560,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="82" t="s">
+      <c r="H57" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="87"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6715,13 +6715,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="82" t="s">
+      <c r="H66" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="84"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="87"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9078,8 +9078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G72" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9099,40 +9099,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9141,19 +9141,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9231,9 +9231,9 @@
         <v>148</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="90"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="91"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
@@ -9263,7 +9263,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
-      <c r="F8" s="90"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
         <v>150</v>
@@ -9299,8 +9299,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="90"/>
+      <c r="K10" s="80"/>
       <c r="L10" s="20"/>
       <c r="M10" s="58"/>
     </row>
@@ -9318,7 +9318,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="90"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="73"/>
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
@@ -9337,7 +9337,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="73"/>
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="90"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="20"/>
       <c r="M12" s="58"/>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="90"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
         <v>155</v>
@@ -9395,14 +9395,14 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="90"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="20"/>
-      <c r="J15" s="90"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="73"/>
       <c r="L15" s="20"/>
       <c r="M15" s="58"/>
@@ -9414,13 +9414,13 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="90"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
       <c r="L16" s="20"/>
@@ -9440,7 +9440,7 @@
         <v>159</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="58"/>
@@ -9451,14 +9451,14 @@
         <v>294</v>
       </c>
       <c r="C18" s="72"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="73"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -9499,7 +9499,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
@@ -9515,8 +9515,8 @@
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="90"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="58"/>
@@ -9529,7 +9529,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="73"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="90"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
         <v>164</v>
@@ -9546,7 +9546,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="90"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
@@ -9565,7 +9565,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="90"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
@@ -9573,7 +9573,7 @@
         <v>166</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="90"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
@@ -9609,7 +9609,7 @@
         <v>168</v>
       </c>
       <c r="I26" s="73"/>
-      <c r="J26" s="90"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="58"/>
@@ -9637,8 +9637,8 @@
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -9649,7 +9649,7 @@
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
-      <c r="F28" s="90"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
         <v>170</v>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="90"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="20"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -9689,13 +9689,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="90"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
       <c r="H32" s="63"/>
@@ -9852,13 +9852,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="87"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9924,7 +9924,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="90"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
@@ -9960,7 +9960,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="73"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="90"/>
+      <c r="F45" s="80"/>
       <c r="G45" s="58"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -9974,7 +9974,7 @@
       <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="62"/>
@@ -10019,13 +10019,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="82" t="s">
+      <c r="H48" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="84"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="87"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10033,10 +10033,10 @@
       <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="90"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="58"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
@@ -10050,7 +10050,7 @@
       <c r="B50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="90"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
       <c r="F50" s="20"/>
@@ -10087,7 +10087,7 @@
       <c r="C52" s="20"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
-      <c r="F52" s="90"/>
+      <c r="F52" s="80"/>
       <c r="G52" s="58"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -10101,8 +10101,8 @@
       <c r="B53" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="73"/>
-      <c r="E54" s="90"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="20"/>
       <c r="G54" s="58"/>
       <c r="H54" s="20"/>
@@ -10153,7 +10153,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="90"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="58"/>
@@ -10171,16 +10171,16 @@
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="74"/>
-      <c r="E57" s="91"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="82" t="s">
+      <c r="H57" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="87"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10242,7 +10242,7 @@
       <c r="C61" s="73"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="90"/>
+      <c r="F61" s="80"/>
       <c r="G61" s="58"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -10259,7 +10259,7 @@
       <c r="C62" s="73"/>
       <c r="D62" s="73"/>
       <c r="E62" s="73"/>
-      <c r="F62" s="90"/>
+      <c r="F62" s="80"/>
       <c r="G62" s="58"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -10325,17 +10325,17 @@
         <v>60</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="82" t="s">
+      <c r="H66" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="84"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="87"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="73"/>
-      <c r="E67" s="90"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="77" t="s">
@@ -10353,10 +10353,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="88" t="s">
+      <c r="K67" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="89"/>
+      <c r="L67" s="92"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10374,10 +10374,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="88" t="s">
+      <c r="K68" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="89"/>
+      <c r="L68" s="92"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10387,14 +10387,14 @@
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
-      <c r="E69" s="90"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="20"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="86"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="89"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10410,8 +10410,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="86"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="89"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10420,15 +10420,15 @@
         <v>65</v>
       </c>
       <c r="C71" s="20"/>
-      <c r="D71" s="90"/>
+      <c r="D71" s="80"/>
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="86"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="89"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10444,8 +10444,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="86"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="89"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10453,8 +10453,8 @@
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="58"/>
@@ -10517,7 +10517,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="20"/>
-      <c r="D76" s="90"/>
+      <c r="D76" s="80"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
-      <c r="K76" s="90"/>
+      <c r="K76" s="80"/>
       <c r="L76" s="20"/>
       <c r="M76" s="58"/>
     </row>
@@ -10563,7 +10563,7 @@
         <v>180</v>
       </c>
       <c r="I78" s="20"/>
-      <c r="J78" s="90"/>
+      <c r="J78" s="80"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="58"/>
@@ -10574,7 +10574,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="20"/>
-      <c r="D79" s="90"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
@@ -10621,8 +10621,8 @@
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="90"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
       <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
@@ -10639,8 +10639,8 @@
         <v>184</v>
       </c>
       <c r="I82" s="73"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80"/>
       <c r="L82" s="73"/>
       <c r="M82" s="58"/>
     </row>
@@ -10658,7 +10658,7 @@
         <v>185</v>
       </c>
       <c r="I83" s="20"/>
-      <c r="J83" s="90"/>
+      <c r="J83" s="80"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="58"/>
@@ -10744,8 +10744,8 @@
       <c r="B88" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="91"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
-      <c r="E93" s="90"/>
+      <c r="E93" s="80"/>
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
@@ -10880,7 +10880,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="73"/>
-      <c r="F95" s="90"/>
+      <c r="F95" s="80"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
         <v>197</v>
@@ -10916,15 +10916,15 @@
         <v>295</v>
       </c>
       <c r="C97" s="73"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>199</v>
       </c>
       <c r="I97" s="20"/>
-      <c r="J97" s="90"/>
+      <c r="J97" s="80"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="58"/>
@@ -10954,8 +10954,8 @@
         <v>92</v>
       </c>
       <c r="C99" s="20"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
@@ -10992,7 +10992,7 @@
         <v>299</v>
       </c>
       <c r="C101" s="20"/>
-      <c r="D101" s="90"/>
+      <c r="D101" s="80"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
@@ -11000,9 +11000,9 @@
         <v>202</v>
       </c>
       <c r="I101" s="20"/>
-      <c r="J101" s="90"/>
+      <c r="J101" s="80"/>
       <c r="K101" s="73"/>
-      <c r="L101" s="90"/>
+      <c r="L101" s="80"/>
       <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
@@ -11013,12 +11013,12 @@
       <c r="C102" s="20"/>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
-      <c r="F102" s="90"/>
+      <c r="F102" s="80"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="I102" s="90"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="73"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -11030,7 +11030,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="20"/>
-      <c r="D103" s="90"/>
+      <c r="D103" s="80"/>
       <c r="E103" s="20"/>
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="73"/>
-      <c r="K106" s="90"/>
+      <c r="K106" s="80"/>
       <c r="L106" s="20"/>
       <c r="M106" s="58"/>
     </row>
@@ -11137,7 +11137,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="20"/>
-      <c r="D108" s="90"/>
+      <c r="D108" s="80"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
@@ -11174,7 +11174,7 @@
       <c r="B110" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="90"/>
+      <c r="C110" s="73"/>
       <c r="D110" s="73"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -11183,7 +11183,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="90"/>
+      <c r="J110" s="80"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11258,7 +11258,7 @@
       <c r="H114" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I114" s="20"/>
+      <c r="I114" s="73"/>
       <c r="J114" s="73"/>
       <c r="K114" s="73"/>
       <c r="L114" s="20"/>
@@ -11289,7 +11289,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="20"/>
-      <c r="D116" s="90"/>
+      <c r="D116" s="80"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
@@ -11319,7 +11319,7 @@
       <c r="H117" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I117" s="20"/>
+      <c r="I117" s="73"/>
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
@@ -11358,7 +11358,7 @@
         <v>218</v>
       </c>
       <c r="I119" s="20"/>
-      <c r="J119" s="90"/>
+      <c r="J119" s="80"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
       <c r="M119" s="58"/>
@@ -11388,7 +11388,7 @@
         <v>113</v>
       </c>
       <c r="C121" s="20"/>
-      <c r="D121" s="90"/>
+      <c r="D121" s="80"/>
       <c r="E121" s="73"/>
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
@@ -11407,7 +11407,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="20"/>
-      <c r="D122" s="90"/>
+      <c r="D122" s="80"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
-      <c r="K123" s="90"/>
+      <c r="K123" s="80"/>
       <c r="L123" s="20"/>
       <c r="M123" s="58"/>
     </row>
@@ -11452,7 +11452,7 @@
       <c r="H124" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="I124" s="20"/>
+      <c r="I124" s="73"/>
       <c r="J124" s="73"/>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
@@ -11466,7 +11466,7 @@
       <c r="C125" s="20"/>
       <c r="D125" s="73"/>
       <c r="E125" s="73"/>
-      <c r="F125" s="90"/>
+      <c r="F125" s="80"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
         <v>297</v>
@@ -11521,7 +11521,7 @@
         <v>120</v>
       </c>
       <c r="C128" s="41"/>
-      <c r="D128" s="92"/>
+      <c r="D128" s="82"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="74"/>
-      <c r="E131" s="91"/>
+      <c r="E131" s="81"/>
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
@@ -11605,7 +11605,7 @@
         <v>230</v>
       </c>
       <c r="I132" s="20"/>
-      <c r="J132" s="90"/>
+      <c r="J132" s="80"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="58"/>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C133" s="73"/>
       <c r="D133" s="20"/>
-      <c r="E133" s="90"/>
+      <c r="E133" s="80"/>
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
@@ -11783,7 +11783,7 @@
         <v>133</v>
       </c>
       <c r="C141" s="20"/>
-      <c r="D141" s="90"/>
+      <c r="D141" s="80"/>
       <c r="E141" s="20"/>
       <c r="F141" s="73"/>
       <c r="G141" s="4"/>
@@ -11876,7 +11876,7 @@
       <c r="B145" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="20"/>
+      <c r="C145" s="73"/>
       <c r="D145" s="73"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -11899,7 +11899,7 @@
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="90"/>
+      <c r="F146" s="80"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
         <v>242</v>
@@ -11936,7 +11936,7 @@
       <c r="B148" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C148" s="20"/>
+      <c r="C148" s="73"/>
       <c r="D148" s="73"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -11955,7 +11955,7 @@
         <v>140</v>
       </c>
       <c r="C149" s="73"/>
-      <c r="D149" s="90"/>
+      <c r="D149" s="80"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="90"/>
+      <c r="E151" s="80"/>
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
@@ -12025,7 +12025,7 @@
         <v>143</v>
       </c>
       <c r="C152" s="73"/>
-      <c r="D152" s="90"/>
+      <c r="D152" s="80"/>
       <c r="E152" s="20"/>
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
@@ -12085,7 +12085,7 @@
         <v>146</v>
       </c>
       <c r="C155" s="20"/>
-      <c r="D155" s="90"/>
+      <c r="D155" s="80"/>
       <c r="E155" s="20"/>
       <c r="F155" s="62"/>
       <c r="G155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -9078,8 +9078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="80"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
@@ -9451,8 +9451,8 @@
         <v>294</v>
       </c>
       <c r="C18" s="72"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
@@ -9546,7 +9546,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="80"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
@@ -9565,7 +9565,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="80"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
@@ -9573,7 +9573,7 @@
         <v>166</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="80"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="80"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="80"/>
       <c r="M27" s="58"/>
     </row>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="80"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
       <c r="H32" s="63"/>
@@ -9960,7 +9960,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="73"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="80"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="58"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -10034,7 +10034,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="73"/>
-      <c r="D49" s="80"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="20"/>
       <c r="F49" s="80"/>
       <c r="G49" s="58"/>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="73"/>
-      <c r="E54" s="80"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="20"/>
       <c r="G54" s="58"/>
       <c r="H54" s="20"/>
@@ -10242,7 +10242,7 @@
       <c r="C61" s="73"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="80"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="58"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -10454,7 +10454,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="73"/>
-      <c r="D73" s="80"/>
+      <c r="D73" s="73"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="58"/>
@@ -10639,8 +10639,8 @@
         <v>184</v>
       </c>
       <c r="I82" s="73"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="80"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
       <c r="L82" s="73"/>
       <c r="M82" s="58"/>
     </row>
@@ -10880,7 +10880,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="73"/>
-      <c r="F95" s="80"/>
+      <c r="F95" s="73"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
         <v>197</v>
@@ -11358,7 +11358,7 @@
         <v>218</v>
       </c>
       <c r="I119" s="20"/>
-      <c r="J119" s="80"/>
+      <c r="J119" s="73"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
       <c r="M119" s="58"/>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="74"/>
-      <c r="E131" s="81"/>
+      <c r="E131" s="74"/>
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C133" s="73"/>
       <c r="D133" s="20"/>
-      <c r="E133" s="80"/>
+      <c r="E133" s="73"/>
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
@@ -11899,7 +11899,7 @@
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="80"/>
+      <c r="F146" s="73"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
         <v>242</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="80"/>
+      <c r="E151" s="73"/>
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -923,7 +923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1068,13 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1270,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1508,6 +1515,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,6 +1546,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2374,13 +2390,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2535,13 +2551,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2702,13 +2718,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="84" t="s">
+      <c r="H45" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2857,13 +2873,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="84" t="s">
+      <c r="H54" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3012,13 +3028,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="84" t="s">
+      <c r="H63" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4327,11 +4343,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
-      <c r="K132" s="83"/>
-      <c r="L132" s="83"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="84"/>
+      <c r="L132" s="84"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6077,13 +6093,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="85" t="s">
+      <c r="H30" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6238,13 +6254,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6405,13 +6421,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="85" t="s">
+      <c r="H48" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6560,13 +6576,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="85" t="s">
+      <c r="H57" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6715,13 +6731,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="85" t="s">
+      <c r="H66" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9078,14 +9094,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -9099,40 +9114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9141,19 +9156,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9689,13 +9704,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="85" t="s">
+      <c r="H30" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9852,13 +9867,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -10019,13 +10034,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="85" t="s">
+      <c r="H48" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10174,13 +10189,13 @@
       <c r="E57" s="81"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="85" t="s">
+      <c r="H57" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10222,7 +10237,7 @@
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -10329,13 +10344,13 @@
       <c r="E66" s="80"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="85" t="s">
+      <c r="H66" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10353,10 +10368,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="91" t="s">
+      <c r="K67" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="92"/>
+      <c r="L67" s="93"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10374,10 +10389,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="91" t="s">
+      <c r="K68" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="92"/>
+      <c r="L68" s="93"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10393,8 +10408,8 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="90"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10410,8 +10425,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="90"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10427,8 +10442,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="90"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10444,8 +10459,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="90"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10535,7 +10550,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="41"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10745,8 +10760,8 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="20"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
@@ -10953,7 +10968,7 @@
       <c r="B99" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="80"/>
       <c r="D99" s="80"/>
       <c r="E99" s="80"/>
       <c r="F99" s="20"/>
@@ -11520,7 +11535,7 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="41"/>
+      <c r="C128" s="94"/>
       <c r="D128" s="82"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
@@ -12126,7 +12141,7 @@
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
-      <c r="A157" s="44" t="s">
+      <c r="A157" s="83" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="45" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1518,6 +1518,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,12 +1552,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2390,13 +2390,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2551,13 +2551,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2718,13 +2718,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2873,13 +2873,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="85" t="s">
+      <c r="H54" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3028,13 +3028,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="85" t="s">
+      <c r="H63" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4343,11 +4343,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="84"/>
-      <c r="I132" s="84"/>
-      <c r="J132" s="84"/>
-      <c r="K132" s="84"/>
-      <c r="L132" s="84"/>
+      <c r="H132" s="86"/>
+      <c r="I132" s="86"/>
+      <c r="J132" s="86"/>
+      <c r="K132" s="86"/>
+      <c r="L132" s="86"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6093,13 +6093,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6254,13 +6254,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="90"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6421,13 +6421,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6576,13 +6576,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="90"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6731,13 +6731,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="86" t="s">
+      <c r="H66" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="88"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="90"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9094,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9114,40 +9114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9156,19 +9156,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9248,7 +9248,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="80"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="80"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -9278,7 +9278,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
-      <c r="F8" s="80"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
         <v>150</v>
@@ -9333,7 +9333,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="80"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
@@ -9373,7 +9373,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="80"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
         <v>155</v>
@@ -9455,7 +9455,7 @@
         <v>159</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="80"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="58"/>
@@ -9514,7 +9514,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="80"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
@@ -9544,7 +9544,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="73"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="80"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
         <v>164</v>
@@ -9624,7 +9624,7 @@
         <v>168</v>
       </c>
       <c r="I26" s="73"/>
-      <c r="J26" s="80"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="58"/>
@@ -9653,7 +9653,7 @@
       <c r="I27" s="73"/>
       <c r="J27" s="20"/>
       <c r="K27" s="73"/>
-      <c r="L27" s="80"/>
+      <c r="L27" s="73"/>
       <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -9704,13 +9704,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9867,13 +9867,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="90"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -10034,13 +10034,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10189,13 +10189,13 @@
       <c r="E57" s="81"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="90"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10344,13 +10344,13 @@
       <c r="E66" s="80"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="86" t="s">
+      <c r="H66" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="88"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="90"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10368,10 +10368,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="92" t="s">
+      <c r="K67" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="93"/>
+      <c r="L67" s="95"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10389,10 +10389,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="92" t="s">
+      <c r="K68" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="93"/>
+      <c r="L68" s="95"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10402,14 +10402,14 @@
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
-      <c r="E69" s="80"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="20"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="90"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="92"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10425,8 +10425,8 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="90"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="92"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10442,8 +10442,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="90"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="92"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10459,8 +10459,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="90"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="92"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10550,7 +10550,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="94"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10589,7 +10589,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="20"/>
-      <c r="D79" s="80"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
@@ -10636,8 +10636,8 @@
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="80"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
       <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
@@ -10760,8 +10760,8 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="95"/>
-      <c r="E88" s="80"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="73"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
@@ -10932,14 +10932,14 @@
       </c>
       <c r="C97" s="73"/>
       <c r="D97" s="80"/>
-      <c r="E97" s="80"/>
+      <c r="E97" s="73"/>
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>199</v>
       </c>
       <c r="I97" s="20"/>
-      <c r="J97" s="80"/>
+      <c r="J97" s="73"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="58"/>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="C99" s="80"/>
       <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
+      <c r="E99" s="73"/>
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
@@ -11015,7 +11015,7 @@
         <v>202</v>
       </c>
       <c r="I101" s="20"/>
-      <c r="J101" s="80"/>
+      <c r="J101" s="73"/>
       <c r="K101" s="73"/>
       <c r="L101" s="80"/>
       <c r="M101" s="58"/>
@@ -11422,7 +11422,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="20"/>
-      <c r="D122" s="80"/>
+      <c r="D122" s="73"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
-      <c r="K123" s="80"/>
+      <c r="K123" s="73"/>
       <c r="L123" s="20"/>
       <c r="M123" s="58"/>
     </row>
@@ -11535,7 +11535,7 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="94"/>
+      <c r="C128" s="84"/>
       <c r="D128" s="82"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
@@ -12040,7 +12040,7 @@
         <v>143</v>
       </c>
       <c r="C152" s="73"/>
-      <c r="D152" s="80"/>
+      <c r="D152" s="73"/>
       <c r="E152" s="20"/>
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
@@ -12100,7 +12100,7 @@
         <v>146</v>
       </c>
       <c r="C155" s="20"/>
-      <c r="D155" s="80"/>
+      <c r="D155" s="73"/>
       <c r="E155" s="20"/>
       <c r="F155" s="62"/>
       <c r="G155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="302">
   <si>
     <t>ARMOR</t>
   </si>
@@ -917,13 +917,19 @@
   </si>
   <si>
     <t>Clasped Orb</t>
+  </si>
+  <si>
+    <t>Hammerspace</t>
+  </si>
+  <si>
+    <t>Lammergeier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1081,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1277,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1509,12 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1552,6 +1559,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2390,13 +2409,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2551,13 +2570,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="87" t="s">
+      <c r="H36" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2718,13 +2737,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="87" t="s">
+      <c r="H45" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2873,13 +2892,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="87" t="s">
+      <c r="H54" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3028,13 +3047,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4343,11 +4362,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="86"/>
-      <c r="I132" s="86"/>
-      <c r="J132" s="86"/>
-      <c r="K132" s="86"/>
-      <c r="L132" s="86"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="84"/>
+      <c r="L132" s="84"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6093,13 +6112,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="88" t="s">
+      <c r="H30" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6254,13 +6273,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="90"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6421,13 +6440,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="88" t="s">
+      <c r="H48" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6576,13 +6595,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="88" t="s">
+      <c r="H57" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="90"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6731,13 +6750,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="88" t="s">
+      <c r="H66" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="90"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9094,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9114,40 +9133,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9156,19 +9175,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9246,7 +9265,7 @@
         <v>148</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="80"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="58"/>
@@ -9258,7 +9277,7 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="81"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
@@ -9314,7 +9333,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="80"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
@@ -9323,7 +9342,7 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="80"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="20"/>
       <c r="M10" s="58"/>
     </row>
@@ -9352,7 +9371,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
@@ -9361,7 +9380,7 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="80"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="20"/>
       <c r="M12" s="58"/>
     </row>
@@ -9410,14 +9429,14 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="80"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="20"/>
-      <c r="J15" s="80"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="73"/>
       <c r="L15" s="20"/>
       <c r="M15" s="58"/>
@@ -9704,13 +9723,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="88" t="s">
+      <c r="H30" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9867,13 +9886,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="90"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9939,7 +9958,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="80"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
@@ -10034,13 +10053,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="88" t="s">
+      <c r="H48" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10082,7 +10101,7 @@
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="80"/>
       <c r="D51" s="73"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -10117,7 +10136,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="73"/>
-      <c r="D53" s="80"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
@@ -10168,7 +10187,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="80"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="58"/>
@@ -10186,16 +10205,16 @@
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="74"/>
-      <c r="E57" s="81"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="88" t="s">
+      <c r="H57" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="90"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10341,16 +10360,16 @@
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="88" t="s">
+      <c r="H66" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="90"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10360,7 +10379,7 @@
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="73"/>
-      <c r="E67" s="80"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="77" t="s">
@@ -10368,10 +10387,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="94" t="s">
+      <c r="K67" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="95"/>
+      <c r="L67" s="93"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10389,10 +10408,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="94" t="s">
+      <c r="K68" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="95"/>
+      <c r="L68" s="93"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10408,8 +10427,10 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="92"/>
+      <c r="K69" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="L69" s="95"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10425,8 +10446,10 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="92"/>
+      <c r="K70" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="L70" s="95"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10435,15 +10458,15 @@
         <v>65</v>
       </c>
       <c r="C71" s="20"/>
-      <c r="D71" s="80"/>
+      <c r="D71" s="73"/>
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="92"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="90"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10459,8 +10482,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="92"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="90"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10532,7 +10555,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="20"/>
-      <c r="D76" s="80"/>
+      <c r="D76" s="73"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
@@ -10541,7 +10564,7 @@
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
-      <c r="K76" s="80"/>
+      <c r="K76" s="73"/>
       <c r="L76" s="20"/>
       <c r="M76" s="58"/>
     </row>
@@ -10550,7 +10573,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10578,7 +10601,7 @@
         <v>180</v>
       </c>
       <c r="I78" s="20"/>
-      <c r="J78" s="80"/>
+      <c r="J78" s="73"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="58"/>
@@ -10645,7 +10668,7 @@
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="80"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -10760,7 +10783,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="85"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="73"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -10799,7 +10822,7 @@
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="81"/>
+      <c r="E90" s="74"/>
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
@@ -10873,7 +10896,7 @@
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="20"/>
+      <c r="C94" s="80"/>
       <c r="D94" s="73"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -10931,7 +10954,7 @@
         <v>295</v>
       </c>
       <c r="C97" s="73"/>
-      <c r="D97" s="80"/>
+      <c r="D97" s="73"/>
       <c r="E97" s="73"/>
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
@@ -11017,7 +11040,7 @@
       <c r="I101" s="20"/>
       <c r="J101" s="73"/>
       <c r="K101" s="73"/>
-      <c r="L101" s="80"/>
+      <c r="L101" s="73"/>
       <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
@@ -11028,7 +11051,7 @@
       <c r="C102" s="20"/>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
-      <c r="F102" s="80"/>
+      <c r="F102" s="73"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
         <v>203</v>
@@ -11045,7 +11068,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="20"/>
-      <c r="D103" s="80"/>
+      <c r="D103" s="73"/>
       <c r="E103" s="20"/>
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
@@ -11123,7 +11146,7 @@
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="73"/>
-      <c r="K106" s="80"/>
+      <c r="K106" s="73"/>
       <c r="L106" s="20"/>
       <c r="M106" s="58"/>
     </row>
@@ -11152,7 +11175,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="20"/>
-      <c r="D108" s="80"/>
+      <c r="D108" s="73"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
@@ -11198,7 +11221,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="80"/>
+      <c r="J110" s="96"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11304,7 +11327,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="20"/>
-      <c r="D116" s="80"/>
+      <c r="D116" s="73"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
@@ -11481,7 +11504,7 @@
       <c r="C125" s="20"/>
       <c r="D125" s="73"/>
       <c r="E125" s="73"/>
-      <c r="F125" s="80"/>
+      <c r="F125" s="73"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
         <v>297</v>
@@ -11535,8 +11558,8 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="84"/>
-      <c r="D128" s="82"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="97"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11620,7 +11643,7 @@
         <v>230</v>
       </c>
       <c r="I132" s="20"/>
-      <c r="J132" s="80"/>
+      <c r="J132" s="73"/>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
       <c r="M132" s="58"/>
@@ -11798,7 +11821,7 @@
         <v>133</v>
       </c>
       <c r="C141" s="20"/>
-      <c r="D141" s="80"/>
+      <c r="D141" s="73"/>
       <c r="E141" s="20"/>
       <c r="F141" s="73"/>
       <c r="G141" s="4"/>
@@ -11970,7 +11993,7 @@
         <v>140</v>
       </c>
       <c r="C149" s="73"/>
-      <c r="D149" s="80"/>
+      <c r="D149" s="73"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
@@ -12141,7 +12164,7 @@
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
-      <c r="A157" s="83" t="s">
+      <c r="A157" s="81" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="45" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1290,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1507,9 +1507,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,6 +1526,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,12 +1577,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2409,13 +2415,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2570,13 +2576,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2737,13 +2743,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2892,13 +2898,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="85" t="s">
+      <c r="H54" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3047,13 +3053,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="85" t="s">
+      <c r="H63" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4362,11 +4368,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="84"/>
-      <c r="I132" s="84"/>
-      <c r="J132" s="84"/>
-      <c r="K132" s="84"/>
-      <c r="L132" s="84"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="88"/>
+      <c r="J132" s="88"/>
+      <c r="K132" s="88"/>
+      <c r="L132" s="88"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6112,13 +6118,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6273,13 +6279,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="92"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6440,13 +6446,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="88"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6595,13 +6601,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6750,13 +6756,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="86" t="s">
+      <c r="H66" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="88"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="92"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9113,8 +9119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="B110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9133,40 +9139,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9175,19 +9181,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9259,12 +9265,12 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
@@ -9332,7 +9338,7 @@
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="20"/>
@@ -9408,7 +9414,7 @@
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="73"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9446,7 +9452,7 @@
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="20"/>
       <c r="E16" s="73"/>
       <c r="F16" s="20"/>
@@ -9492,7 +9498,7 @@
       <c r="H18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="80"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="73"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -9549,8 +9555,8 @@
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="58"/>
@@ -9579,7 +9585,7 @@
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="73"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -9612,12 +9618,12 @@
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="26.25" thickBot="1">
       <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -9683,7 +9689,7 @@
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
-      <c r="F28" s="80"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
         <v>170</v>
@@ -9701,7 +9707,7 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="80"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="20"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -9716,20 +9722,20 @@
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="86" t="s">
         <v>288</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9742,7 +9748,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="76" t="s">
         <v>296</v>
       </c>
       <c r="I31" s="63"/>
@@ -9756,7 +9762,7 @@
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="20"/>
       <c r="E32" s="73"/>
       <c r="F32" s="20"/>
@@ -9886,13 +9892,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="92"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9974,7 +9980,7 @@
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -10009,7 +10015,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="73"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="20"/>
       <c r="F46" s="62"/>
       <c r="G46" s="58"/>
@@ -10053,13 +10059,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="88"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10070,7 +10076,7 @@
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="80"/>
+      <c r="F49" s="73"/>
       <c r="G49" s="58"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
@@ -10101,7 +10107,7 @@
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="80"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="73"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -10118,10 +10124,10 @@
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
-      <c r="F52" s="80"/>
+      <c r="F52" s="73"/>
       <c r="G52" s="58"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -10152,7 +10158,7 @@
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
       <c r="F54" s="20"/>
@@ -10203,18 +10209,18 @@
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="39"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10256,7 +10262,7 @@
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="80"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -10293,7 +10299,7 @@
       <c r="C62" s="73"/>
       <c r="D62" s="73"/>
       <c r="E62" s="73"/>
-      <c r="F62" s="80"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="58"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -10341,7 +10347,7 @@
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="73"/>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
@@ -10359,17 +10365,17 @@
         <v>60</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="80"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="73"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="86" t="s">
+      <c r="H66" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="88"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="92"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10377,20 +10383,20 @@
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
-      <c r="H67" s="77" t="s">
+      <c r="H67" s="76" t="s">
         <v>290</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="92" t="s">
+      <c r="K67" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="93"/>
+      <c r="L67" s="97"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10403,15 +10409,15 @@
       <c r="E68" s="73"/>
       <c r="F68" s="20"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="77" t="s">
+      <c r="H68" s="76" t="s">
         <v>291</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="92" t="s">
+      <c r="K68" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="93"/>
+      <c r="L68" s="97"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10422,15 +10428,15 @@
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
-      <c r="F69" s="20"/>
+      <c r="F69" s="79"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="94" t="s">
+      <c r="K69" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="L69" s="95"/>
+      <c r="L69" s="99"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10440,16 +10446,16 @@
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="73"/>
-      <c r="E70" s="78"/>
+      <c r="E70" s="77"/>
       <c r="F70" s="20"/>
       <c r="G70" s="58"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="94" t="s">
+      <c r="K70" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="L70" s="95"/>
+      <c r="L70" s="99"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10457,7 +10463,7 @@
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
@@ -10465,8 +10471,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="90"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="94"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10477,13 +10483,13 @@
       <c r="C72" s="73"/>
       <c r="D72" s="20"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="20"/>
+      <c r="F72" s="79"/>
       <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="90"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="94"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10573,7 +10579,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="82"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10668,7 +10674,7 @@
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="80"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -10696,7 +10702,7 @@
         <v>185</v>
       </c>
       <c r="I83" s="20"/>
-      <c r="J83" s="80"/>
+      <c r="J83" s="73"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="58"/>
@@ -10706,7 +10712,7 @@
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="20"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="20"/>
       <c r="E84" s="73"/>
       <c r="F84" s="20"/>
@@ -10744,7 +10750,7 @@
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -10763,7 +10769,7 @@
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="20"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -10783,7 +10789,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="83"/>
+      <c r="D88" s="82"/>
       <c r="E88" s="73"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -10802,7 +10808,7 @@
         <v>83</v>
       </c>
       <c r="C89" s="20"/>
-      <c r="D89" s="79"/>
+      <c r="D89" s="78"/>
       <c r="E89" s="73"/>
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
@@ -10820,7 +10826,7 @@
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="39"/>
+      <c r="C90" s="85"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
       <c r="F90" s="41"/>
@@ -10877,9 +10883,9 @@
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="20"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="20"/>
-      <c r="E93" s="80"/>
+      <c r="E93" s="73"/>
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
@@ -10896,7 +10902,7 @@
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="80"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="73"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -10923,7 +10929,7 @@
       <c r="H95" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I95" s="20"/>
+      <c r="I95" s="79"/>
       <c r="J95" s="73"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
@@ -10991,8 +10997,8 @@
       <c r="B99" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="73"/>
       <c r="E99" s="73"/>
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
@@ -11010,7 +11016,7 @@
       <c r="B100" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="39"/>
+      <c r="C100" s="85"/>
       <c r="D100" s="74"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
@@ -11018,7 +11024,7 @@
       <c r="H100" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I100" s="20"/>
+      <c r="I100" s="79"/>
       <c r="J100" s="73"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -11030,7 +11036,7 @@
         <v>299</v>
       </c>
       <c r="C101" s="20"/>
-      <c r="D101" s="80"/>
+      <c r="D101" s="73"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
@@ -11067,7 +11073,7 @@
       <c r="B103" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="79"/>
       <c r="D103" s="73"/>
       <c r="E103" s="20"/>
       <c r="F103" s="62"/>
@@ -11221,7 +11227,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="96"/>
+      <c r="J110" s="83"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11337,7 +11343,7 @@
       <c r="I116" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="J116" s="20"/>
+      <c r="J116" s="79"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
       <c r="M116" s="58"/>
@@ -11347,7 +11353,7 @@
       <c r="B117" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="87" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="41"/>
@@ -11395,7 +11401,7 @@
       <c r="H119" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I119" s="20"/>
+      <c r="I119" s="79"/>
       <c r="J119" s="73"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
@@ -11414,7 +11420,7 @@
       <c r="H120" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I120" s="20"/>
+      <c r="I120" s="79"/>
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
@@ -11426,14 +11432,14 @@
         <v>113</v>
       </c>
       <c r="C121" s="20"/>
-      <c r="D121" s="80"/>
+      <c r="D121" s="73"/>
       <c r="E121" s="73"/>
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I121" s="20"/>
+      <c r="I121" s="79"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
@@ -11463,7 +11469,7 @@
       <c r="B123" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C123" s="20"/>
+      <c r="C123" s="79"/>
       <c r="D123" s="73"/>
       <c r="E123" s="73"/>
       <c r="F123" s="20"/>
@@ -11501,7 +11507,7 @@
       <c r="B125" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="20"/>
+      <c r="C125" s="79"/>
       <c r="D125" s="73"/>
       <c r="E125" s="73"/>
       <c r="F125" s="73"/>
@@ -11558,8 +11564,8 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="82"/>
-      <c r="D128" s="97"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11577,7 +11583,7 @@
       <c r="B129" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="20"/>
+      <c r="C129" s="79"/>
       <c r="D129" s="73"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -11606,7 +11612,7 @@
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="79"/>
       <c r="L130" s="20"/>
       <c r="M130" s="58"/>
     </row>
@@ -11615,7 +11621,7 @@
       <c r="B131" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="39"/>
+      <c r="C131" s="85"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="41"/>
@@ -11634,7 +11640,7 @@
       <c r="B132" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="20"/>
+      <c r="C132" s="79"/>
       <c r="D132" s="73"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -11661,9 +11667,9 @@
       <c r="H133" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="I133" s="20"/>
+      <c r="I133" s="79"/>
       <c r="J133" s="73"/>
-      <c r="K133" s="20"/>
+      <c r="K133" s="79"/>
       <c r="L133" s="62"/>
       <c r="M133" s="58"/>
     </row>
@@ -11672,7 +11678,7 @@
       <c r="B134" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="20"/>
+      <c r="C134" s="79"/>
       <c r="D134" s="73"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -11723,7 +11729,7 @@
       <c r="C136" s="73"/>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
-      <c r="F136" s="78"/>
+      <c r="F136" s="77"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
         <v>239</v>
@@ -11760,7 +11766,7 @@
       <c r="B138" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C138" s="20"/>
+      <c r="C138" s="79"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -12164,7 +12170,7 @@
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
-      <c r="A157" s="81" t="s">
+      <c r="A157" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="45" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="313">
   <si>
     <t>ARMOR</t>
   </si>
@@ -923,6 +923,39 @@
   </si>
   <si>
     <t>Lammergeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Demonstone Blood</t>
+  </si>
+  <si>
+    <t>Black Dwarf</t>
+  </si>
+  <si>
+    <t>Death Ward</t>
+  </si>
+  <si>
+    <t>Dragon's Egg</t>
+  </si>
+  <si>
+    <t>Lamen of the Archbishop</t>
+  </si>
+  <si>
+    <t>Heavenstone</t>
+  </si>
+  <si>
+    <t>Klaatu Barada Nikto</t>
+  </si>
+  <si>
+    <t>Myokai's path</t>
+  </si>
+  <si>
+    <t>Gallowlaugh</t>
+  </si>
+  <si>
+    <t>Seal of the Nephalem Kings</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1522,9 +1555,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1535,12 +1565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,6 +1601,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2415,13 +2445,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2576,13 +2606,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="89" t="s">
+      <c r="H36" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2743,13 +2773,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="89" t="s">
+      <c r="H45" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2898,13 +2928,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="89" t="s">
+      <c r="H54" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3053,13 +3083,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="89" t="s">
+      <c r="H63" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4368,11 +4398,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="88"/>
+      <c r="H132" s="85"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="85"/>
+      <c r="K132" s="85"/>
+      <c r="L132" s="85"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6118,13 +6148,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="90" t="s">
+      <c r="H30" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6279,13 +6309,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="89"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6446,13 +6476,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="90" t="s">
+      <c r="H48" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="92"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="89"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6601,13 +6631,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="90" t="s">
+      <c r="H57" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="92"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="89"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6756,13 +6786,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="90" t="s">
+      <c r="H66" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="92"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="89"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9119,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9139,40 +9169,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9181,19 +9211,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9265,12 +9295,12 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
-      <c r="F6" s="79"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="79"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
@@ -9338,7 +9368,7 @@
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="20"/>
@@ -9722,20 +9752,20 @@
       <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="72" t="s">
         <v>288</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="90" t="s">
+      <c r="H30" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9762,19 +9792,21 @@
       <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="20"/>
       <c r="E32" s="73"/>
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="76" t="s">
+        <v>310</v>
+      </c>
       <c r="I32" s="63"/>
       <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
       <c r="M32" s="58"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+    <row r="33" spans="1:13" ht="26.25" thickBot="1">
       <c r="A33" s="58"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
@@ -9782,7 +9814,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="58"/>
-      <c r="H33" s="20"/>
+      <c r="H33" s="75" t="s">
+        <v>312</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -9836,7 +9870,7 @@
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -9892,13 +9926,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="89"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9909,7 +9943,9 @@
       <c r="E40" s="65"/>
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="76" t="s">
+        <v>304</v>
+      </c>
       <c r="I40" s="63"/>
       <c r="J40" s="63"/>
       <c r="K40" s="63"/>
@@ -9934,14 +9970,16 @@
         <v>3</v>
       </c>
       <c r="G41" s="58"/>
-      <c r="H41" s="63"/>
+      <c r="H41" s="76" t="s">
+        <v>305</v>
+      </c>
       <c r="I41" s="63"/>
       <c r="J41" s="63"/>
       <c r="K41" s="63"/>
       <c r="L41" s="63"/>
       <c r="M41" s="58"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1">
+    <row r="42" spans="1:13" ht="26.25" thickBot="1">
       <c r="A42" s="58"/>
       <c r="B42" s="38" t="s">
         <v>37</v>
@@ -9951,14 +9989,16 @@
       <c r="E42" s="74"/>
       <c r="F42" s="39"/>
       <c r="G42" s="58"/>
-      <c r="H42" s="20"/>
+      <c r="H42" s="75" t="s">
+        <v>307</v>
+      </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1">
+    <row r="43" spans="1:13" ht="26.25" thickBot="1">
       <c r="A43" s="58"/>
       <c r="B43" s="19" t="s">
         <v>38</v>
@@ -9968,7 +10008,9 @@
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="75" t="s">
+        <v>309</v>
+      </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -9980,12 +10022,14 @@
       <c r="B44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="20"/>
+      <c r="H44" s="75" t="s">
+        <v>311</v>
+      </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -10015,7 +10059,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="73"/>
-      <c r="D46" s="79"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="20"/>
       <c r="F46" s="62"/>
       <c r="G46" s="58"/>
@@ -10059,13 +10103,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="90" t="s">
+      <c r="H48" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="92"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="89"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10078,7 +10122,9 @@
       <c r="E49" s="20"/>
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="63"/>
+      <c r="H49" s="76" t="s">
+        <v>303</v>
+      </c>
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
@@ -10095,7 +10141,9 @@
       <c r="E50" s="73"/>
       <c r="F50" s="20"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="63"/>
+      <c r="H50" s="76" t="s">
+        <v>306</v>
+      </c>
       <c r="I50" s="63"/>
       <c r="J50" s="63"/>
       <c r="K50" s="63"/>
@@ -10107,12 +10155,14 @@
       <c r="B51" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="79"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="73"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="58"/>
-      <c r="H51" s="20"/>
+      <c r="H51" s="75" t="s">
+        <v>308</v>
+      </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -10124,7 +10174,7 @@
       <c r="B52" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="79"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
       <c r="F52" s="73"/>
@@ -10158,7 +10208,7 @@
       <c r="B54" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="79"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
       <c r="F54" s="20"/>
@@ -10209,18 +10259,18 @@
       <c r="B57" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="85"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="90" t="s">
+      <c r="H57" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="92"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="89"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10262,7 +10312,7 @@
       <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="79"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -10365,17 +10415,17 @@
         <v>60</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="82"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="73"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="90" t="s">
+      <c r="H66" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="92"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="89"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10393,10 +10443,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="96" t="s">
+      <c r="K67" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="97"/>
+      <c r="L67" s="94"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10414,10 +10464,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="96" t="s">
+      <c r="K68" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="97"/>
+      <c r="L68" s="94"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10428,15 +10478,15 @@
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
-      <c r="F69" s="79"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="58"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="98" t="s">
+      <c r="K69" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="L69" s="99"/>
+      <c r="L69" s="96"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10452,10 +10502,10 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="98" t="s">
+      <c r="K70" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="L70" s="99"/>
+      <c r="L70" s="96"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10471,8 +10521,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="94"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="91"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10488,8 +10538,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="94"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="91"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10579,7 +10629,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="81"/>
+      <c r="C77" s="97"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10663,7 +10713,7 @@
       <c r="H81" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I81" s="20"/>
+      <c r="I81" s="79"/>
       <c r="J81" s="20"/>
       <c r="K81" s="73"/>
       <c r="L81" s="73"/>
@@ -10674,7 +10724,7 @@
       <c r="B82" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="79"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -10712,7 +10762,7 @@
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="79"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="20"/>
       <c r="E84" s="73"/>
       <c r="F84" s="20"/>
@@ -10750,7 +10800,7 @@
       <c r="B86" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="79"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -10769,7 +10819,7 @@
       <c r="B87" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="79"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -10789,7 +10839,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="82"/>
+      <c r="D88" s="81"/>
       <c r="E88" s="73"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -10826,7 +10876,7 @@
       <c r="B90" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="85"/>
+      <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
       <c r="F90" s="41"/>
@@ -10883,7 +10933,7 @@
       <c r="B93" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="79"/>
+      <c r="C93" s="73"/>
       <c r="D93" s="20"/>
       <c r="E93" s="73"/>
       <c r="F93" s="20"/>
@@ -10902,7 +10952,7 @@
       <c r="B94" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="79"/>
+      <c r="C94" s="73"/>
       <c r="D94" s="73"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -10929,7 +10979,7 @@
       <c r="H95" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I95" s="79"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
@@ -10997,7 +11047,7 @@
       <c r="B99" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="79"/>
+      <c r="C99" s="73"/>
       <c r="D99" s="73"/>
       <c r="E99" s="73"/>
       <c r="F99" s="20"/>
@@ -11016,7 +11066,7 @@
       <c r="B100" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="85"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="74"/>
       <c r="E100" s="39"/>
       <c r="F100" s="41"/>
@@ -11024,7 +11074,7 @@
       <c r="H100" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I100" s="79"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="73"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -11063,7 +11113,7 @@
         <v>203</v>
       </c>
       <c r="I102" s="72"/>
-      <c r="J102" s="73"/>
+      <c r="J102" s="81"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
       <c r="M102" s="58"/>
@@ -11227,7 +11277,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="83"/>
+      <c r="J110" s="82"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11294,7 +11344,9 @@
       <c r="B114" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="20"/>
+      <c r="C114" s="79" t="s">
+        <v>302</v>
+      </c>
       <c r="D114" s="73"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -11343,7 +11395,7 @@
       <c r="I116" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="J116" s="79"/>
+      <c r="J116" s="73"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
       <c r="M116" s="58"/>
@@ -11353,7 +11405,7 @@
       <c r="B117" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="87" t="s">
+      <c r="C117" s="98" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="41"/>
@@ -11439,7 +11491,7 @@
       <c r="H121" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I121" s="79"/>
+      <c r="I121" s="73"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
@@ -11507,7 +11559,7 @@
       <c r="B125" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="79"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="73"/>
       <c r="E125" s="73"/>
       <c r="F125" s="73"/>
@@ -11564,8 +11616,8 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="81"/>
-      <c r="D128" s="84"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="83"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11583,7 +11635,7 @@
       <c r="B129" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="79"/>
+      <c r="C129" s="73"/>
       <c r="D129" s="73"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -11621,7 +11673,7 @@
       <c r="B131" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="85"/>
+      <c r="C131" s="84"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="41"/>
@@ -11667,9 +11719,9 @@
       <c r="H133" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="I133" s="79"/>
+      <c r="I133" s="73"/>
       <c r="J133" s="73"/>
-      <c r="K133" s="79"/>
+      <c r="K133" s="73"/>
       <c r="L133" s="62"/>
       <c r="M133" s="58"/>
     </row>
@@ -11678,7 +11730,7 @@
       <c r="B134" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="79"/>
+      <c r="C134" s="73"/>
       <c r="D134" s="73"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -11766,7 +11818,7 @@
       <c r="B138" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C138" s="79"/>
+      <c r="C138" s="73"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -12128,7 +12180,7 @@
       <c r="B155" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C155" s="20"/>
+      <c r="C155" s="79"/>
       <c r="D155" s="73"/>
       <c r="E155" s="20"/>
       <c r="F155" s="62"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="315">
   <si>
     <t>ARMOR</t>
   </si>
@@ -956,6 +956,12 @@
   </si>
   <si>
     <t>Seal of the Nephalem Kings</t>
+  </si>
+  <si>
+    <t>kingsport' signal</t>
+  </si>
+  <si>
+    <t>Hangman</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1555,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1564,7 +1567,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,10 +1609,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9149,8 +9155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9444,7 +9450,7 @@
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9482,10 +9488,10 @@
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="20"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
         <v>158</v>
@@ -9528,7 +9534,7 @@
       <c r="H18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="79"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="73"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -9585,7 +9591,7 @@
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="79"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="73"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -9615,7 +9621,7 @@
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="73"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -9653,7 +9659,7 @@
       <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -9870,7 +9876,7 @@
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -9984,7 +9990,7 @@
       <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="39"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="74"/>
       <c r="E42" s="74"/>
       <c r="F42" s="39"/>
@@ -10046,7 +10052,9 @@
       <c r="E45" s="20"/>
       <c r="F45" s="73"/>
       <c r="G45" s="58"/>
-      <c r="H45" s="20"/>
+      <c r="H45" s="75" t="s">
+        <v>314</v>
+      </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
@@ -10397,7 +10405,7 @@
       <c r="B65" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="73"/>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
@@ -10415,7 +10423,7 @@
         <v>60</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="81"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="73"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
@@ -10433,7 +10441,7 @@
       <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
       <c r="F67" s="73"/>
@@ -10480,7 +10488,9 @@
       <c r="E69" s="73"/>
       <c r="F69" s="73"/>
       <c r="G69" s="58"/>
-      <c r="H69" s="20"/>
+      <c r="H69" s="75" t="s">
+        <v>313</v>
+      </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="95" t="s">
@@ -10513,7 +10523,7 @@
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="79"/>
+      <c r="C71" s="73"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
@@ -10533,7 +10543,7 @@
       <c r="C72" s="73"/>
       <c r="D72" s="20"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="79"/>
+      <c r="F72" s="97"/>
       <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -10629,7 +10639,7 @@
       <c r="B77" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="97"/>
+      <c r="C77" s="83"/>
       <c r="D77" s="41"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -10713,7 +10723,7 @@
       <c r="H81" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I81" s="79"/>
+      <c r="I81" s="73"/>
       <c r="J81" s="20"/>
       <c r="K81" s="73"/>
       <c r="L81" s="73"/>
@@ -10839,7 +10849,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="81"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="73"/>
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
@@ -11113,7 +11123,7 @@
         <v>203</v>
       </c>
       <c r="I102" s="72"/>
-      <c r="J102" s="81"/>
+      <c r="J102" s="80"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
       <c r="M102" s="58"/>
@@ -11123,7 +11133,7 @@
       <c r="B103" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="79"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="20"/>
       <c r="F103" s="62"/>
@@ -11277,7 +11287,7 @@
         <v>209</v>
       </c>
       <c r="I110" s="20"/>
-      <c r="J110" s="82"/>
+      <c r="J110" s="81"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="58"/>
@@ -11344,7 +11354,7 @@
       <c r="B114" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="73" t="s">
         <v>302</v>
       </c>
       <c r="D114" s="73"/>
@@ -11405,7 +11415,7 @@
       <c r="B117" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="98" t="s">
+      <c r="C117" s="84" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="41"/>
@@ -11453,7 +11463,7 @@
       <c r="H119" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I119" s="79"/>
+      <c r="I119" s="80"/>
       <c r="J119" s="73"/>
       <c r="K119" s="20"/>
       <c r="L119" s="20"/>
@@ -11464,7 +11474,7 @@
       <c r="B120" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="20"/>
+      <c r="C120" s="73"/>
       <c r="D120" s="73"/>
       <c r="E120" s="20"/>
       <c r="F120" s="73"/>
@@ -11472,7 +11482,7 @@
       <c r="H120" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I120" s="79"/>
+      <c r="I120" s="80"/>
       <c r="J120" s="20"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
@@ -11521,7 +11531,7 @@
       <c r="B123" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C123" s="79"/>
+      <c r="C123" s="73"/>
       <c r="D123" s="73"/>
       <c r="E123" s="73"/>
       <c r="F123" s="20"/>
@@ -11579,7 +11589,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
+      <c r="D126" s="73"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
@@ -11616,8 +11626,8 @@
       <c r="B128" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="97"/>
-      <c r="D128" s="83"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="82"/>
       <c r="E128" s="74"/>
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
@@ -11664,7 +11674,7 @@
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
-      <c r="K130" s="79"/>
+      <c r="K130" s="97"/>
       <c r="L130" s="20"/>
       <c r="M130" s="58"/>
     </row>
@@ -11673,7 +11683,7 @@
       <c r="B131" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="84"/>
+      <c r="C131" s="98"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="41"/>
@@ -11692,7 +11702,7 @@
       <c r="B132" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="79"/>
+      <c r="C132" s="73"/>
       <c r="D132" s="73"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -12180,7 +12190,7 @@
       <c r="B155" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C155" s="79"/>
+      <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="20"/>
       <c r="F155" s="62"/>
@@ -12222,7 +12232,7 @@
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
-      <c r="A157" s="80" t="s">
+      <c r="A157" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="45" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1329,7 +1329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1573,6 +1573,15 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,12 +1616,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2451,13 +2454,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2612,13 +2615,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2779,13 +2782,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2934,13 +2937,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="86" t="s">
+      <c r="H54" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3089,13 +3092,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4404,11 +4407,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
-      <c r="J132" s="85"/>
-      <c r="K132" s="85"/>
-      <c r="L132" s="85"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="88"/>
+      <c r="J132" s="88"/>
+      <c r="K132" s="88"/>
+      <c r="L132" s="88"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6154,13 +6157,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="87" t="s">
+      <c r="H30" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6315,13 +6318,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="87" t="s">
+      <c r="H39" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="92"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6482,13 +6485,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="87" t="s">
+      <c r="H48" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="89"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6637,13 +6640,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="87" t="s">
+      <c r="H57" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="89"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6792,13 +6795,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="87" t="s">
+      <c r="H66" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="89"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="92"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9155,8 +9158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9175,40 +9178,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9217,19 +9220,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9320,7 +9323,7 @@
       <c r="C7" s="39"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
         <v>149</v>
@@ -9328,7 +9331,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="73"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" thickBot="1">
@@ -9346,8 +9349,8 @@
       </c>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
@@ -9383,9 +9386,9 @@
         <v>152</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="73"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="73"/>
       <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
@@ -9432,7 +9435,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="20"/>
       <c r="F13" s="73"/>
       <c r="G13" s="58"/>
@@ -9499,7 +9502,7 @@
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
-      <c r="L16" s="20"/>
+      <c r="L16" s="73"/>
       <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
@@ -9509,8 +9512,8 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
         <v>159</v>
@@ -9536,7 +9539,7 @@
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="73"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="20"/>
       <c r="M18" s="58"/>
     </row>
@@ -9565,7 +9568,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="58"/>
@@ -9668,7 +9671,7 @@
         <v>167</v>
       </c>
       <c r="I25" s="73"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="20"/>
       <c r="L25" s="73"/>
       <c r="M25" s="58"/>
@@ -9686,7 +9689,7 @@
       </c>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="20"/>
       <c r="M26" s="58"/>
     </row>
@@ -9731,7 +9734,7 @@
         <v>170</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="20"/>
       <c r="L28" s="62"/>
       <c r="M28" s="58"/>
@@ -9765,13 +9768,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="87" t="s">
+      <c r="H30" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9877,7 +9880,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="73"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="58"/>
@@ -9894,8 +9897,8 @@
         <v>33</v>
       </c>
       <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="20"/>
       <c r="G37" s="58"/>
       <c r="H37" s="20"/>
@@ -9911,9 +9914,9 @@
         <v>34</v>
       </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="58"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -9928,17 +9931,17 @@
         <v>35</v>
       </c>
       <c r="C39" s="73"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="87" t="s">
+      <c r="H39" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="92"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -10029,7 +10032,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="73"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="58"/>
@@ -10111,13 +10114,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="87" t="s">
+      <c r="H48" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="89"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10127,7 +10130,7 @@
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
       <c r="H49" s="76" t="s">
@@ -10165,7 +10168,7 @@
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="20"/>
       <c r="G51" s="58"/>
       <c r="H51" s="75" t="s">
@@ -10252,7 +10255,7 @@
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="73"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="20"/>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
@@ -10272,13 +10275,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="87" t="s">
+      <c r="H57" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="89"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10288,7 +10291,7 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="73"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="73"/>
       <c r="F58" s="20"/>
       <c r="G58" s="58"/>
       <c r="H58" s="63"/>
@@ -10306,7 +10309,7 @@
       <c r="C59" s="39"/>
       <c r="D59" s="74"/>
       <c r="E59" s="74"/>
-      <c r="F59" s="39"/>
+      <c r="F59" s="74"/>
       <c r="G59" s="58"/>
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
@@ -10338,7 +10341,7 @@
         <v>55</v>
       </c>
       <c r="C61" s="73"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="20"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
@@ -10390,7 +10393,7 @@
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="73"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="20"/>
       <c r="G64" s="58"/>
       <c r="H64" s="20"/>
@@ -10425,15 +10428,15 @@
       <c r="C66" s="73"/>
       <c r="D66" s="80"/>
       <c r="E66" s="73"/>
-      <c r="F66" s="20"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="87" t="s">
+      <c r="H66" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="89"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="92"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10451,10 +10454,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="93" t="s">
+      <c r="K67" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="L67" s="94"/>
+      <c r="L67" s="97"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10472,10 +10475,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="93" t="s">
+      <c r="K68" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="L68" s="94"/>
+      <c r="L68" s="97"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10493,10 +10496,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="95" t="s">
+      <c r="K69" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="L69" s="96"/>
+      <c r="L69" s="99"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10512,10 +10515,10 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="95" t="s">
+      <c r="K70" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="L70" s="96"/>
+      <c r="L70" s="99"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10531,8 +10534,8 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="91"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="94"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10543,13 +10546,13 @@
       <c r="C72" s="73"/>
       <c r="D72" s="20"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="97"/>
+      <c r="F72" s="85"/>
       <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="91"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="94"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10559,8 +10562,8 @@
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="73"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
       <c r="G73" s="58"/>
       <c r="H73" s="58"/>
       <c r="I73" s="58"/>
@@ -10577,7 +10580,7 @@
       <c r="C74" s="73"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="F74" s="73"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
         <v>176</v>
@@ -10611,7 +10614,7 @@
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="73"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="73"/>
       <c r="L75" s="20"/>
       <c r="M75" s="58"/>
     </row>
@@ -10640,7 +10643,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="83"/>
-      <c r="D77" s="41"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="58"/>
@@ -10669,7 +10672,7 @@
       <c r="I78" s="20"/>
       <c r="J78" s="73"/>
       <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
+      <c r="L78" s="73"/>
       <c r="M78" s="58"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
@@ -10679,7 +10682,7 @@
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="73"/>
-      <c r="E79" s="20"/>
+      <c r="E79" s="73"/>
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
@@ -10698,7 +10701,7 @@
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="73"/>
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
@@ -10724,7 +10727,7 @@
         <v>183</v>
       </c>
       <c r="I81" s="73"/>
-      <c r="J81" s="20"/>
+      <c r="J81" s="73"/>
       <c r="K81" s="73"/>
       <c r="L81" s="73"/>
       <c r="M81" s="58"/>
@@ -10736,7 +10739,7 @@
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="73"/>
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
@@ -10783,7 +10786,7 @@
       <c r="I84" s="20"/>
       <c r="J84" s="73"/>
       <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
+      <c r="L84" s="73"/>
       <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
@@ -10819,7 +10822,7 @@
         <v>188</v>
       </c>
       <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
+      <c r="J86" s="73"/>
       <c r="K86" s="73"/>
       <c r="L86" s="20"/>
       <c r="M86" s="58"/>
@@ -10830,7 +10833,7 @@
         <v>81</v>
       </c>
       <c r="C87" s="73"/>
-      <c r="D87" s="20"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
@@ -10915,7 +10918,7 @@
       </c>
       <c r="I91" s="73"/>
       <c r="J91" s="73"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="73"/>
       <c r="L91" s="20"/>
       <c r="M91" s="58"/>
     </row>
@@ -10991,7 +10994,7 @@
       </c>
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="73"/>
       <c r="L95" s="20"/>
       <c r="M95" s="58"/>
     </row>
@@ -11022,7 +11025,7 @@
       <c r="C97" s="73"/>
       <c r="D97" s="73"/>
       <c r="E97" s="73"/>
-      <c r="F97" s="20"/>
+      <c r="F97" s="73"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
         <v>199</v>
@@ -11039,7 +11042,7 @@
         <v>91</v>
       </c>
       <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="D98" s="73"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
@@ -11048,7 +11051,7 @@
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="73"/>
       <c r="L98" s="20"/>
       <c r="M98" s="58"/>
     </row>
@@ -11086,7 +11089,7 @@
       </c>
       <c r="I100" s="73"/>
       <c r="J100" s="73"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="73"/>
       <c r="L100" s="20"/>
       <c r="M100" s="58"/>
     </row>
@@ -11142,7 +11145,7 @@
         <v>204</v>
       </c>
       <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
+      <c r="J103" s="73"/>
       <c r="K103" s="20"/>
       <c r="L103" s="62"/>
       <c r="M103" s="58"/>
@@ -11230,7 +11233,7 @@
         <v>206</v>
       </c>
       <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
+      <c r="J107" s="73"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
       <c r="M107" s="58"/>
@@ -11242,7 +11245,7 @@
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="73"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="73"/>
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
@@ -11289,7 +11292,7 @@
       <c r="I110" s="20"/>
       <c r="J110" s="81"/>
       <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
+      <c r="L110" s="73"/>
       <c r="M110" s="58"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
@@ -11319,7 +11322,7 @@
       <c r="C112" s="20"/>
       <c r="D112" s="73"/>
       <c r="E112" s="73"/>
-      <c r="F112" s="20"/>
+      <c r="F112" s="73"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
         <v>211</v>
@@ -11338,14 +11341,14 @@
       <c r="C113" s="20"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
+      <c r="F113" s="73"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
         <v>212</v>
       </c>
       <c r="I113" s="73"/>
       <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="73"/>
       <c r="L113" s="20"/>
       <c r="M113" s="58"/>
     </row>
@@ -11377,16 +11380,16 @@
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="73"/>
-      <c r="E115" s="20"/>
+      <c r="E115" s="73"/>
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
         <v>214</v>
       </c>
       <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="J115" s="73"/>
       <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
+      <c r="L115" s="73"/>
       <c r="M115" s="58"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
@@ -11419,7 +11422,7 @@
         <v>289</v>
       </c>
       <c r="D117" s="41"/>
-      <c r="E117" s="39"/>
+      <c r="E117" s="74"/>
       <c r="F117" s="39"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
@@ -11438,7 +11441,7 @@
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="73"/>
-      <c r="E118" s="20"/>
+      <c r="E118" s="73"/>
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
@@ -11458,7 +11461,7 @@
       <c r="C119" s="20"/>
       <c r="D119" s="73"/>
       <c r="E119" s="73"/>
-      <c r="F119" s="20"/>
+      <c r="F119" s="73"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
         <v>218</v>
@@ -11466,7 +11469,7 @@
       <c r="I119" s="80"/>
       <c r="J119" s="73"/>
       <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
+      <c r="L119" s="73"/>
       <c r="M119" s="58"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
@@ -11476,14 +11479,14 @@
       </c>
       <c r="C120" s="73"/>
       <c r="D120" s="73"/>
-      <c r="E120" s="20"/>
+      <c r="E120" s="73"/>
       <c r="F120" s="73"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
         <v>219</v>
       </c>
       <c r="I120" s="80"/>
-      <c r="J120" s="20"/>
+      <c r="J120" s="73"/>
       <c r="K120" s="42"/>
       <c r="L120" s="20"/>
       <c r="M120" s="58"/>
@@ -11578,8 +11581,8 @@
         <v>297</v>
       </c>
       <c r="I125" s="73"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
+      <c r="J125" s="73"/>
+      <c r="K125" s="73"/>
       <c r="L125" s="20"/>
       <c r="M125" s="58"/>
     </row>
@@ -11617,8 +11620,8 @@
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
       <c r="M127" s="58"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
@@ -11636,7 +11639,7 @@
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="73"/>
       <c r="L128" s="20"/>
       <c r="M128" s="58"/>
     </row>
@@ -11654,7 +11657,7 @@
         <v>227</v>
       </c>
       <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
+      <c r="J129" s="73"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
       <c r="M129" s="58"/>
@@ -11666,7 +11669,7 @@
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="73"/>
-      <c r="E130" s="20"/>
+      <c r="E130" s="73"/>
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
@@ -11674,7 +11677,7 @@
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
-      <c r="K130" s="97"/>
+      <c r="K130" s="85"/>
       <c r="L130" s="20"/>
       <c r="M130" s="58"/>
     </row>
@@ -11683,7 +11686,7 @@
       <c r="B131" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="98"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="41"/>
@@ -11693,7 +11696,7 @@
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="73"/>
       <c r="L131" s="20"/>
       <c r="M131" s="58"/>
     </row>
@@ -11704,7 +11707,7 @@
       </c>
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
-      <c r="E132" s="20"/>
+      <c r="E132" s="73"/>
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
@@ -11829,7 +11832,7 @@
         <v>130</v>
       </c>
       <c r="C138" s="73"/>
-      <c r="D138" s="20"/>
+      <c r="D138" s="73"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
@@ -11908,7 +11911,7 @@
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
+      <c r="E142" s="73"/>
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
@@ -11984,7 +11987,7 @@
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
-      <c r="E145" s="20"/>
+      <c r="E145" s="73"/>
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
@@ -12003,8 +12006,8 @@
         <v>137</v>
       </c>
       <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
       <c r="F146" s="73"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
@@ -12024,7 +12027,7 @@
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="73"/>
-      <c r="E147" s="20"/>
+      <c r="E147" s="73"/>
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
@@ -12044,7 +12047,7 @@
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
-      <c r="E148" s="20"/>
+      <c r="E148" s="73"/>
       <c r="F148" s="20"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -12151,7 +12154,7 @@
         <v>144</v>
       </c>
       <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
+      <c r="D153" s="73"/>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
@@ -12193,7 +12196,7 @@
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="62"/>
+      <c r="F155" s="87"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank checklist (SU-TU)" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="318">
   <si>
     <t>ARMOR</t>
   </si>
@@ -962,6 +962,15 @@
   </si>
   <si>
     <t>Hangman</t>
+  </si>
+  <si>
+    <t>Ballantine's 1827</t>
+  </si>
+  <si>
+    <t>The Tranquilizer</t>
+  </si>
+  <si>
+    <t>Full Plate Mail</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1616,6 +1625,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1914,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2234,7 +2246,7 @@
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -5562,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5937,7 +5949,7 @@
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -9158,13 +9170,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -9369,7 +9382,7 @@
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="73"/>
       <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
@@ -9380,7 +9393,7 @@
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
         <v>152</v>
@@ -9455,7 +9468,7 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="20"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
@@ -9483,7 +9496,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="73"/>
       <c r="K15" s="73"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
@@ -9549,7 +9562,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="58"/>
@@ -9557,7 +9570,7 @@
         <v>161</v>
       </c>
       <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="73"/>
       <c r="L19" s="20"/>
       <c r="M19" s="58"/>
@@ -9588,7 +9601,7 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
@@ -9596,7 +9609,7 @@
       </c>
       <c r="I21" s="80"/>
       <c r="J21" s="73"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="73"/>
       <c r="L21" s="20"/>
       <c r="M21" s="58"/>
     </row>
@@ -9645,7 +9658,7 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="73"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
@@ -9663,7 +9676,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="80"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
@@ -9715,7 +9728,7 @@
         <v>169</v>
       </c>
       <c r="I27" s="73"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="73"/>
       <c r="L27" s="73"/>
       <c r="M27" s="58"/>
@@ -9784,7 +9797,7 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
       <c r="H31" s="76" t="s">
@@ -9850,7 +9863,9 @@
         <v>3</v>
       </c>
       <c r="G34" s="58"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="75" t="s">
+        <v>315</v>
+      </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -10342,7 +10357,7 @@
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
-      <c r="E61" s="20"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
       <c r="H61" s="20"/>
@@ -10376,7 +10391,7 @@
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="20"/>
       <c r="G63" s="58"/>
       <c r="H63" s="20"/>
@@ -10468,7 +10483,7 @@
       <c r="C68" s="20"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
-      <c r="F68" s="20"/>
+      <c r="F68" s="73"/>
       <c r="G68" s="58"/>
       <c r="H68" s="76" t="s">
         <v>291</v>
@@ -10534,8 +10549,10 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="94"/>
+      <c r="K71" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="L71" s="99"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10544,7 +10561,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="73"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="73"/>
       <c r="F72" s="85"/>
       <c r="G72" s="58"/>
@@ -10578,7 +10595,7 @@
         <v>68</v>
       </c>
       <c r="C74" s="73"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="73"/>
       <c r="E74" s="20"/>
       <c r="F74" s="73"/>
       <c r="G74" s="58"/>
@@ -10607,7 +10624,7 @@
       <c r="C75" s="20"/>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
-      <c r="F75" s="20"/>
+      <c r="F75" s="73"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
         <v>177</v>
@@ -10615,7 +10632,7 @@
       <c r="I75" s="20"/>
       <c r="J75" s="73"/>
       <c r="K75" s="73"/>
-      <c r="L75" s="20"/>
+      <c r="L75" s="73"/>
       <c r="M75" s="58"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
@@ -10653,7 +10670,7 @@
       <c r="I77" s="20"/>
       <c r="J77" s="73"/>
       <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
+      <c r="L77" s="73"/>
       <c r="M77" s="58"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
@@ -10662,7 +10679,7 @@
         <v>72</v>
       </c>
       <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="73"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="G78" s="58"/>
@@ -10683,7 +10700,7 @@
       <c r="C79" s="20"/>
       <c r="D79" s="73"/>
       <c r="E79" s="73"/>
-      <c r="F79" s="20"/>
+      <c r="F79" s="73"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
         <v>181</v>
@@ -10700,7 +10717,7 @@
         <v>74</v>
       </c>
       <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="D80" s="73"/>
       <c r="E80" s="73"/>
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
@@ -10720,7 +10737,7 @@
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="73"/>
-      <c r="E81" s="20"/>
+      <c r="E81" s="73"/>
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
@@ -10797,7 +10814,7 @@
       <c r="C85" s="20"/>
       <c r="D85" s="73"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="F85" s="73"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
         <v>187</v>
@@ -10816,7 +10833,7 @@
       <c r="C86" s="73"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="F86" s="73"/>
       <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
         <v>188</v>
@@ -10834,14 +10851,14 @@
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
-      <c r="E87" s="20"/>
+      <c r="E87" s="73"/>
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
         <v>189</v>
       </c>
       <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="J87" s="73"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
       <c r="M87" s="58"/>
@@ -10911,7 +10928,7 @@
       <c r="C91" s="20"/>
       <c r="D91" s="73"/>
       <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="F91" s="73"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
         <v>193</v>
@@ -10955,7 +10972,7 @@
         <v>195</v>
       </c>
       <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="J93" s="73"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
       <c r="M93" s="58"/>
@@ -11005,7 +11022,7 @@
       </c>
       <c r="C96" s="73"/>
       <c r="D96" s="73"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="73"/>
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
@@ -11069,7 +11086,7 @@
         <v>200</v>
       </c>
       <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
+      <c r="J99" s="73"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
       <c r="M99" s="58"/>
@@ -11126,7 +11143,7 @@
         <v>203</v>
       </c>
       <c r="I102" s="72"/>
-      <c r="J102" s="80"/>
+      <c r="J102" s="73"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
       <c r="M102" s="58"/>
@@ -11265,7 +11282,7 @@
       <c r="C109" s="20"/>
       <c r="D109" s="73"/>
       <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
+      <c r="F109" s="73"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
         <v>208</v>
@@ -11329,7 +11346,7 @@
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="73"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="73"/>
       <c r="L112" s="20"/>
       <c r="M112" s="58"/>
     </row>
@@ -11370,7 +11387,7 @@
       <c r="I114" s="73"/>
       <c r="J114" s="73"/>
       <c r="K114" s="73"/>
-      <c r="L114" s="20"/>
+      <c r="L114" s="73"/>
       <c r="M114" s="58"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
@@ -11388,7 +11405,7 @@
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="73"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="73"/>
       <c r="L115" s="73"/>
       <c r="M115" s="58"/>
     </row>
@@ -11399,7 +11416,7 @@
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="73"/>
-      <c r="E116" s="20"/>
+      <c r="E116" s="73"/>
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
@@ -11449,7 +11466,7 @@
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="73"/>
       <c r="L118" s="20"/>
       <c r="M118" s="58"/>
     </row>
@@ -11507,7 +11524,7 @@
       <c r="I121" s="73"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="L121" s="73"/>
       <c r="M121" s="58"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
@@ -11518,7 +11535,7 @@
       <c r="C122" s="20"/>
       <c r="D122" s="73"/>
       <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
+      <c r="F122" s="73"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
         <v>221</v>
@@ -11537,7 +11554,7 @@
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
       <c r="E123" s="73"/>
-      <c r="F123" s="20"/>
+      <c r="F123" s="73"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
         <v>222</v>
@@ -11619,7 +11636,7 @@
         <v>225</v>
       </c>
       <c r="I127" s="20"/>
-      <c r="J127" s="20"/>
+      <c r="J127" s="73"/>
       <c r="K127" s="73"/>
       <c r="L127" s="73"/>
       <c r="M127" s="58"/>
@@ -11638,7 +11655,7 @@
         <v>226</v>
       </c>
       <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
+      <c r="J128" s="73"/>
       <c r="K128" s="73"/>
       <c r="L128" s="20"/>
       <c r="M128" s="58"/>
@@ -11658,7 +11675,7 @@
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="73"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="73"/>
       <c r="L129" s="20"/>
       <c r="M129" s="58"/>
     </row>
@@ -11715,7 +11732,7 @@
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="73"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="73"/>
       <c r="L132" s="20"/>
       <c r="M132" s="58"/>
     </row>
@@ -11762,7 +11779,7 @@
         <v>127</v>
       </c>
       <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
+      <c r="D135" s="100"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
@@ -11853,7 +11870,7 @@
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
+      <c r="E139" s="73"/>
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
@@ -11988,7 +12005,7 @@
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
       <c r="E145" s="73"/>
-      <c r="F145" s="20"/>
+      <c r="F145" s="73"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
         <v>241</v>
@@ -12048,7 +12065,7 @@
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
       <c r="E148" s="73"/>
-      <c r="F148" s="20"/>
+      <c r="F148" s="73"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -12066,7 +12083,7 @@
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
       <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
+      <c r="F149" s="73"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
         <v>251</v>
@@ -12155,7 +12172,7 @@
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="73"/>
-      <c r="E153" s="20"/>
+      <c r="E153" s="73"/>
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="318">
   <si>
     <t>ARMOR</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Gothic Plate Armor</t>
   </si>
   <si>
-    <t>Full Plate Armor</t>
-  </si>
-  <si>
     <t>Ancient Armor</t>
   </si>
   <si>
@@ -971,6 +968,9 @@
   </si>
   <si>
     <t>Full Plate Mail</t>
+  </si>
+  <si>
+    <t>Orc Torque Torc</t>
   </si>
 </sst>
 </file>
@@ -1591,6 +1591,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,6 +1609,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,15 +1628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>1</v>
@@ -1980,10 +1980,10 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>1</v>
@@ -2007,7 +2007,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="7"/>
       <c r="H3" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -2026,7 +2026,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="7"/>
       <c r="H4" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -2045,7 +2045,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="7"/>
       <c r="H5" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -2064,7 +2064,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="7"/>
       <c r="H6" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -2083,7 +2083,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7"/>
       <c r="H7" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -2102,7 +2102,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -2121,7 +2121,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2140,7 +2140,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="7"/>
       <c r="H10" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -2159,7 +2159,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="7"/>
       <c r="H11" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -2178,7 +2178,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -2197,7 +2197,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
       <c r="H13" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -2216,7 +2216,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="7"/>
       <c r="H14" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -2235,7 +2235,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="7"/>
       <c r="H15" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -2246,7 +2246,7 @@
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2254,7 +2254,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="7"/>
       <c r="H16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -2265,7 +2265,7 @@
     <row r="17" spans="1:13" ht="15.75" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2273,7 +2273,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="7"/>
       <c r="H17" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2284,7 +2284,7 @@
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -2292,7 +2292,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -2303,7 +2303,7 @@
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2311,7 +2311,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -2322,7 +2322,7 @@
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2330,7 +2330,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -2341,7 +2341,7 @@
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2349,7 +2349,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -2360,7 +2360,7 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -2368,7 +2368,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2385,7 +2385,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -2396,10 +2396,10 @@
     <row r="24" spans="1:13" ht="18" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>1</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -2423,7 +2423,7 @@
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -2431,7 +2431,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="7"/>
       <c r="H25" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -2442,7 +2442,7 @@
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2459,26 +2459,26 @@
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
+      <c r="H27" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2495,7 +2495,7 @@
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2527,10 +2527,10 @@
     <row r="31" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>1</v>
@@ -2552,7 +2552,7 @@
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="7"/>
       <c r="B32" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2569,7 +2569,7 @@
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="7"/>
       <c r="B33" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -2586,7 +2586,7 @@
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="7"/>
       <c r="B34" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -2603,7 +2603,7 @@
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2620,20 +2620,20 @@
     <row r="36" spans="1:13" ht="18" thickBot="1">
       <c r="A36" s="7"/>
       <c r="B36" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
+      <c r="H36" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2654,10 +2654,10 @@
     <row r="38" spans="1:13" ht="18" thickBot="1">
       <c r="A38" s="7"/>
       <c r="B38" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1</v>
@@ -2679,7 +2679,7 @@
     <row r="39" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
@@ -2696,7 +2696,7 @@
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
       <c r="A40" s="7"/>
       <c r="B40" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -2713,7 +2713,7 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -2730,7 +2730,7 @@
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -2747,7 +2747,7 @@
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -2779,10 +2779,10 @@
     <row r="45" spans="1:13" ht="35.25" thickBot="1">
       <c r="A45" s="7"/>
       <c r="B45" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>1</v>
@@ -2794,19 +2794,19 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
+      <c r="H45" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="A46" s="7"/>
       <c r="B46" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -2823,7 +2823,7 @@
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" s="7"/>
       <c r="B47" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -2840,7 +2840,7 @@
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" s="7"/>
       <c r="B48" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -2857,7 +2857,7 @@
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
       <c r="A49" s="7"/>
       <c r="B49" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -2874,7 +2874,7 @@
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="A50" s="7"/>
       <c r="B50" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2891,7 +2891,7 @@
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" s="7"/>
       <c r="B51" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -2908,7 +2908,7 @@
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" s="7"/>
       <c r="B52" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -2925,7 +2925,7 @@
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
       <c r="A53" s="7"/>
       <c r="B53" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -2942,26 +2942,26 @@
     <row r="54" spans="1:13" ht="18" thickBot="1">
       <c r="A54" s="7"/>
       <c r="B54" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
+      <c r="H54" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="7"/>
       <c r="B55" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -2978,7 +2978,7 @@
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="7"/>
       <c r="B56" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
@@ -2995,7 +2995,7 @@
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="A57" s="7"/>
       <c r="B57" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -3012,7 +3012,7 @@
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" s="7"/>
       <c r="B58" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -3029,7 +3029,7 @@
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="7"/>
       <c r="B59" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -3046,7 +3046,7 @@
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="7"/>
       <c r="B60" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -3063,7 +3063,7 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" s="7"/>
       <c r="B61" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -3080,7 +3080,7 @@
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
       <c r="A62" s="7"/>
       <c r="B62" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -3097,26 +3097,26 @@
     <row r="63" spans="1:13" ht="18" thickBot="1">
       <c r="A63" s="7"/>
       <c r="B63" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
+      <c r="H63" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="7"/>
       <c r="B64" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -3133,7 +3133,7 @@
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="7"/>
       <c r="B65" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -3150,7 +3150,7 @@
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
       <c r="A66" s="7"/>
       <c r="B66" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -3167,7 +3167,7 @@
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="7"/>
       <c r="B67" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -3184,7 +3184,7 @@
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="A68" s="7"/>
       <c r="B68" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -3201,7 +3201,7 @@
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
       <c r="A69" s="7"/>
       <c r="B69" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -3218,7 +3218,7 @@
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
       <c r="A70" s="7"/>
       <c r="B70" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -3235,7 +3235,7 @@
     <row r="71" spans="1:13" ht="18" thickBot="1">
       <c r="A71" s="7"/>
       <c r="B71" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -3243,10 +3243,10 @@
       <c r="F71" s="20"/>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>1</v>
@@ -3262,7 +3262,7 @@
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="7"/>
       <c r="B72" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -3270,7 +3270,7 @@
       <c r="F72" s="20"/>
       <c r="G72" s="7"/>
       <c r="H72" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -3281,7 +3281,7 @@
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
       <c r="A73" s="7"/>
       <c r="B73" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -3289,7 +3289,7 @@
       <c r="F73" s="20"/>
       <c r="G73" s="7"/>
       <c r="H73" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -3300,7 +3300,7 @@
     <row r="74" spans="1:13" ht="15.75" thickBot="1">
       <c r="A74" s="7"/>
       <c r="B74" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -3308,7 +3308,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="7"/>
       <c r="H74" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -3319,7 +3319,7 @@
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
       <c r="A75" s="7"/>
       <c r="B75" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -3327,7 +3327,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="7"/>
       <c r="H75" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -3338,7 +3338,7 @@
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="A76" s="7"/>
       <c r="B76" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -3346,7 +3346,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="7"/>
       <c r="H76" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -3357,7 +3357,7 @@
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
       <c r="A77" s="7"/>
       <c r="B77" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3365,7 +3365,7 @@
       <c r="F77" s="20"/>
       <c r="G77" s="7"/>
       <c r="H77" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -3376,7 +3376,7 @@
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
       <c r="A78" s="7"/>
       <c r="B78" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -3384,7 +3384,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="7"/>
       <c r="H78" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -3395,7 +3395,7 @@
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
       <c r="A79" s="7"/>
       <c r="B79" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -3403,7 +3403,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="7"/>
       <c r="H79" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -3414,7 +3414,7 @@
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" s="7"/>
       <c r="B80" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -3422,7 +3422,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="7"/>
       <c r="H80" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -3433,7 +3433,7 @@
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
       <c r="A81" s="7"/>
       <c r="B81" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -3441,7 +3441,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="7"/>
       <c r="H81" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -3452,7 +3452,7 @@
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
       <c r="A82" s="7"/>
       <c r="B82" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -3460,7 +3460,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="7"/>
       <c r="H82" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -3471,7 +3471,7 @@
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
       <c r="A83" s="7"/>
       <c r="B83" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -3479,7 +3479,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="7"/>
       <c r="H83" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -3490,7 +3490,7 @@
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
       <c r="A84" s="7"/>
       <c r="B84" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -3498,7 +3498,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="7"/>
       <c r="H84" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -3509,7 +3509,7 @@
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="A85" s="7"/>
       <c r="B85" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -3517,7 +3517,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="7"/>
       <c r="H85" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -3528,7 +3528,7 @@
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
       <c r="A86" s="7"/>
       <c r="B86" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -3536,7 +3536,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="7"/>
       <c r="H86" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -3547,7 +3547,7 @@
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" s="7"/>
       <c r="B87" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
@@ -3555,7 +3555,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="7"/>
       <c r="H87" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -3566,7 +3566,7 @@
     <row r="88" spans="1:13" ht="15.75" thickBot="1">
       <c r="A88" s="7"/>
       <c r="B88" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -3574,7 +3574,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="7"/>
       <c r="H88" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -3585,7 +3585,7 @@
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
       <c r="A89" s="7"/>
       <c r="B89" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -3593,7 +3593,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="7"/>
       <c r="H89" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -3604,7 +3604,7 @@
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
       <c r="A90" s="7"/>
       <c r="B90" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -3612,7 +3612,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="7"/>
       <c r="H90" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -3623,7 +3623,7 @@
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
       <c r="A91" s="7"/>
       <c r="B91" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -3631,7 +3631,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="7"/>
       <c r="H91" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -3642,7 +3642,7 @@
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
       <c r="A92" s="7"/>
       <c r="B92" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -3650,7 +3650,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="7"/>
       <c r="H92" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -3661,7 +3661,7 @@
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
       <c r="A93" s="7"/>
       <c r="B93" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -3669,7 +3669,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="7"/>
       <c r="H93" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -3680,7 +3680,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="7"/>
       <c r="B94" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -3688,7 +3688,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="7"/>
       <c r="H94" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -3699,7 +3699,7 @@
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="A95" s="7"/>
       <c r="B95" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -3707,7 +3707,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="7"/>
       <c r="H95" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -3718,7 +3718,7 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
       <c r="A96" s="7"/>
       <c r="B96" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -3726,7 +3726,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="7"/>
       <c r="H96" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -3737,7 +3737,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="7"/>
       <c r="B97" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
@@ -3745,7 +3745,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="7"/>
       <c r="H97" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -3756,7 +3756,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="7"/>
       <c r="B98" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -3764,7 +3764,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="7"/>
       <c r="H98" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -3775,7 +3775,7 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="7"/>
       <c r="B99" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -3783,7 +3783,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="7"/>
       <c r="H99" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -3794,7 +3794,7 @@
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="7"/>
       <c r="B100" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -3802,7 +3802,7 @@
       <c r="F100" s="29"/>
       <c r="G100" s="7"/>
       <c r="H100" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -3828,10 +3828,10 @@
     <row r="102" spans="1:13" ht="35.25" thickBot="1">
       <c r="A102" s="7"/>
       <c r="B102" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -3844,10 +3844,10 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J102" s="14" t="s">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="7"/>
       <c r="B103" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -3871,7 +3871,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="7"/>
       <c r="H103" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -3882,7 +3882,7 @@
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
       <c r="A104" s="7"/>
       <c r="B104" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -3890,7 +3890,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="7"/>
       <c r="H104" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
@@ -3901,7 +3901,7 @@
     <row r="105" spans="1:13" ht="15.75" thickBot="1">
       <c r="A105" s="7"/>
       <c r="B105" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -3909,7 +3909,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="7"/>
       <c r="H105" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
@@ -3920,7 +3920,7 @@
     <row r="106" spans="1:13" ht="15.75" thickBot="1">
       <c r="A106" s="7"/>
       <c r="B106" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -3928,7 +3928,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="7"/>
       <c r="H106" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -3939,7 +3939,7 @@
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="7"/>
       <c r="B107" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -3947,7 +3947,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="7"/>
       <c r="H107" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -3958,7 +3958,7 @@
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="7"/>
       <c r="B108" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -3966,7 +3966,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="7"/>
       <c r="H108" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -3977,7 +3977,7 @@
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="7"/>
       <c r="B109" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -3985,7 +3985,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="7"/>
       <c r="H109" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -3996,7 +3996,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="7"/>
       <c r="B110" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -4004,7 +4004,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="7"/>
       <c r="H110" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -4015,7 +4015,7 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="7"/>
       <c r="B111" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -4023,7 +4023,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="7"/>
       <c r="H111" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -4034,7 +4034,7 @@
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="7"/>
       <c r="B112" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -4042,7 +4042,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="7"/>
       <c r="H112" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -4053,7 +4053,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="7"/>
       <c r="B113" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -4061,7 +4061,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="7"/>
       <c r="H113" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -4072,7 +4072,7 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="7"/>
       <c r="B114" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="41"/>
       <c r="D114" s="41"/>
@@ -4080,7 +4080,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="7"/>
       <c r="H114" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -4091,7 +4091,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="7"/>
       <c r="B115" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -4099,7 +4099,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="7"/>
       <c r="H115" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -4110,7 +4110,7 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="7"/>
       <c r="B116" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -4118,7 +4118,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="7"/>
       <c r="H116" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -4129,7 +4129,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="7"/>
       <c r="B117" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -4137,7 +4137,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="7"/>
       <c r="H117" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -4148,7 +4148,7 @@
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="7"/>
       <c r="B118" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -4156,7 +4156,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="7"/>
       <c r="H118" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -4167,7 +4167,7 @@
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="7"/>
       <c r="B119" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -4175,7 +4175,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="7"/>
       <c r="H119" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -4186,7 +4186,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="7"/>
       <c r="B120" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4194,7 +4194,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="7"/>
       <c r="H120" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -4205,7 +4205,7 @@
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="7"/>
       <c r="B121" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -4213,7 +4213,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="7"/>
       <c r="H121" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -4224,7 +4224,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="7"/>
       <c r="B122" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -4232,7 +4232,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="7"/>
       <c r="H122" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -4243,7 +4243,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="7"/>
       <c r="B123" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -4251,7 +4251,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="7"/>
       <c r="H123" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -4262,7 +4262,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="7"/>
       <c r="B124" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -4270,7 +4270,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="7"/>
       <c r="H124" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -4281,7 +4281,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="7"/>
       <c r="B125" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="41"/>
       <c r="D125" s="41"/>
@@ -4289,7 +4289,7 @@
       <c r="F125" s="39"/>
       <c r="G125" s="7"/>
       <c r="H125" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -4300,7 +4300,7 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="7"/>
       <c r="B126" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -4308,7 +4308,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="7"/>
       <c r="H126" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -4319,7 +4319,7 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="7"/>
       <c r="B127" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -4327,7 +4327,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="7"/>
       <c r="H127" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -4338,7 +4338,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="7"/>
       <c r="B128" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
@@ -4346,7 +4346,7 @@
       <c r="F128" s="41"/>
       <c r="G128" s="7"/>
       <c r="H128" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -4357,7 +4357,7 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="7"/>
       <c r="B129" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -4365,7 +4365,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="7"/>
       <c r="H129" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -4376,7 +4376,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="7"/>
       <c r="B130" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -4384,7 +4384,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="7"/>
       <c r="H130" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -4395,7 +4395,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="7"/>
       <c r="B131" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -4412,24 +4412,24 @@
     <row r="132" spans="1:14" ht="19.5" thickBot="1">
       <c r="A132" s="7"/>
       <c r="B132" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="88"/>
+      <c r="H132" s="89"/>
+      <c r="I132" s="89"/>
+      <c r="J132" s="89"/>
+      <c r="K132" s="89"/>
+      <c r="L132" s="89"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
       <c r="A133" s="7"/>
       <c r="B133" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -4447,7 +4447,7 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="7"/>
       <c r="B134" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -4465,7 +4465,7 @@
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
       <c r="A135" s="7"/>
       <c r="B135" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -4482,7 +4482,7 @@
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="7"/>
       <c r="B136" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -4499,7 +4499,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="7"/>
       <c r="B137" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -4516,7 +4516,7 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="7"/>
       <c r="B138" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -4533,7 +4533,7 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="7"/>
       <c r="B139" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -4565,10 +4565,10 @@
     <row r="141" spans="1:14" ht="35.25" thickBot="1">
       <c r="A141" s="7"/>
       <c r="B141" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>1</v>
@@ -4590,7 +4590,7 @@
     <row r="142" spans="1:14" ht="15.75" thickBot="1">
       <c r="A142" s="7"/>
       <c r="B142" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -4607,7 +4607,7 @@
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
       <c r="A143" s="7"/>
       <c r="B143" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -4624,7 +4624,7 @@
     <row r="144" spans="1:14" ht="15.75" thickBot="1">
       <c r="A144" s="7"/>
       <c r="B144" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -4641,7 +4641,7 @@
     <row r="145" spans="1:13" ht="15.75" thickBot="1">
       <c r="A145" s="7"/>
       <c r="B145" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -4658,7 +4658,7 @@
     <row r="146" spans="1:13" ht="15.75" thickBot="1">
       <c r="A146" s="7"/>
       <c r="B146" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -4675,7 +4675,7 @@
     <row r="147" spans="1:13" ht="15.75" thickBot="1">
       <c r="A147" s="7"/>
       <c r="B147" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -4692,7 +4692,7 @@
     <row r="148" spans="1:13" ht="15.75" thickBot="1">
       <c r="A148" s="7"/>
       <c r="B148" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -4709,7 +4709,7 @@
     <row r="149" spans="1:13" ht="15.75" thickBot="1">
       <c r="A149" s="7"/>
       <c r="B149" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -4726,7 +4726,7 @@
     <row r="150" spans="1:13" ht="15.75" thickBot="1">
       <c r="A150" s="7"/>
       <c r="B150" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -4743,7 +4743,7 @@
     <row r="151" spans="1:13" ht="15.75" thickBot="1">
       <c r="A151" s="7"/>
       <c r="B151" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -4760,7 +4760,7 @@
     <row r="152" spans="1:13" ht="15.75" thickBot="1">
       <c r="A152" s="7"/>
       <c r="B152" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -4834,29 +4834,29 @@
     <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>237</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>238</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4868,7 +4868,7 @@
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4880,7 +4880,7 @@
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4892,7 +4892,7 @@
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4904,7 +4904,7 @@
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -4926,29 +4926,29 @@
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>249</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>250</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4960,7 +4960,7 @@
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4972,7 +4972,7 @@
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4984,7 +4984,7 @@
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4996,7 +4996,7 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5018,29 +5018,29 @@
     <row r="16" spans="1:8" ht="27" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>255</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5052,7 +5052,7 @@
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5064,7 +5064,7 @@
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5076,7 +5076,7 @@
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5088,7 +5088,7 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5110,29 +5110,29 @@
     <row r="23" spans="1:8" ht="45" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="F23" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="G23" s="45" t="s">
         <v>261</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5144,7 +5144,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5156,7 +5156,7 @@
     <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5168,7 +5168,7 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5180,7 +5180,7 @@
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5202,29 +5202,29 @@
     <row r="30" spans="1:8" ht="39.75" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="G30" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5236,7 +5236,7 @@
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5248,7 +5248,7 @@
     <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5260,7 +5260,7 @@
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5272,7 +5272,7 @@
     <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5294,29 +5294,29 @@
     <row r="37" spans="1:8" ht="35.25" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="E37" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="G37" s="45" t="s">
         <v>273</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>274</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5328,7 +5328,7 @@
     <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5340,7 +5340,7 @@
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5352,7 +5352,7 @@
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5364,7 +5364,7 @@
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5386,29 +5386,29 @@
     <row r="44" spans="1:8" ht="39.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="E44" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="F44" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>279</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>280</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5420,7 +5420,7 @@
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5432,7 +5432,7 @@
     <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5444,7 +5444,7 @@
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5456,7 +5456,7 @@
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5478,19 +5478,19 @@
     <row r="51" spans="1:8" ht="39.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>284</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>285</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -5498,7 +5498,7 @@
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5510,7 +5510,7 @@
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5522,7 +5522,7 @@
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5534,7 +5534,7 @@
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5546,7 +5546,7 @@
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -5683,10 +5683,10 @@
       </c>
       <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -5710,7 +5710,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -5729,7 +5729,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -5748,7 +5748,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -5767,7 +5767,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -5786,7 +5786,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -5805,7 +5805,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -5824,7 +5824,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -5843,7 +5843,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -5862,7 +5862,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5881,7 +5881,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5900,7 +5900,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -5919,7 +5919,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -5938,7 +5938,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -5949,7 +5949,7 @@
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -5957,7 +5957,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -5968,7 +5968,7 @@
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="58"/>
       <c r="B20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -5976,7 +5976,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -5987,7 +5987,7 @@
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="58"/>
       <c r="B21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -5995,7 +5995,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -6006,7 +6006,7 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="58"/>
       <c r="B22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -6014,7 +6014,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -6025,7 +6025,7 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="58"/>
       <c r="B23" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -6033,7 +6033,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -6044,7 +6044,7 @@
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" s="58"/>
       <c r="B24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -6052,7 +6052,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -6063,7 +6063,7 @@
     <row r="25" spans="1:13" ht="26.25" thickBot="1">
       <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -6071,7 +6071,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -6088,7 +6088,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -6099,10 +6099,10 @@
     <row r="27" spans="1:13" ht="18" thickBot="1">
       <c r="A27" s="58"/>
       <c r="B27" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -6126,7 +6126,7 @@
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="58"/>
       <c r="B28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -6134,7 +6134,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -6145,7 +6145,7 @@
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -6162,26 +6162,26 @@
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="H30" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -6198,7 +6198,7 @@
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -6230,10 +6230,10 @@
     <row r="34" spans="1:13" ht="18" thickBot="1">
       <c r="A34" s="58"/>
       <c r="B34" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -6255,7 +6255,7 @@
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="58"/>
       <c r="B35" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -6272,7 +6272,7 @@
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="A36" s="58"/>
       <c r="B36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -6289,7 +6289,7 @@
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
       <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -6306,7 +6306,7 @@
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
       <c r="A38" s="58"/>
       <c r="B38" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -6323,20 +6323,20 @@
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
       <c r="A39" s="58"/>
       <c r="B39" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
+      <c r="H39" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6357,10 +6357,10 @@
     <row r="41" spans="1:13" ht="18" thickBot="1">
       <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -6382,7 +6382,7 @@
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
       <c r="A42" s="58"/>
       <c r="B42" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
@@ -6399,7 +6399,7 @@
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="A43" s="58"/>
       <c r="B43" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -6416,7 +6416,7 @@
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
       <c r="A44" s="58"/>
       <c r="B44" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -6433,7 +6433,7 @@
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
       <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -6450,7 +6450,7 @@
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -6482,10 +6482,10 @@
     <row r="48" spans="1:13" ht="35.25" thickBot="1">
       <c r="A48" s="58"/>
       <c r="B48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -6497,19 +6497,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="92"/>
+      <c r="H48" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="93"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
       <c r="A49" s="58"/>
       <c r="B49" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -6526,7 +6526,7 @@
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -6543,7 +6543,7 @@
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -6560,7 +6560,7 @@
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" s="58"/>
       <c r="B52" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -6577,7 +6577,7 @@
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
       <c r="A53" s="58"/>
       <c r="B53" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -6594,7 +6594,7 @@
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
       <c r="A54" s="58"/>
       <c r="B54" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -6611,7 +6611,7 @@
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="58"/>
       <c r="B55" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -6628,7 +6628,7 @@
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="58"/>
       <c r="B56" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -6645,26 +6645,26 @@
     <row r="57" spans="1:13" ht="18" thickBot="1">
       <c r="A57" s="58"/>
       <c r="B57" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="92"/>
+      <c r="H57" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" s="58"/>
       <c r="B58" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -6681,7 +6681,7 @@
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
@@ -6698,7 +6698,7 @@
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -6715,7 +6715,7 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" s="58"/>
       <c r="B61" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -6732,7 +6732,7 @@
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
       <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -6749,7 +6749,7 @@
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -6766,7 +6766,7 @@
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -6783,7 +6783,7 @@
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="58"/>
       <c r="B65" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -6800,26 +6800,26 @@
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A66" s="58"/>
       <c r="B66" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="92"/>
+      <c r="H66" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="93"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -6836,7 +6836,7 @@
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="A68" s="58"/>
       <c r="B68" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -6853,7 +6853,7 @@
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
       <c r="A69" s="58"/>
       <c r="B69" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -6870,7 +6870,7 @@
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
       <c r="A70" s="58"/>
       <c r="B70" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -6887,7 +6887,7 @@
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
       <c r="A71" s="58"/>
       <c r="B71" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -6904,7 +6904,7 @@
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="58"/>
       <c r="B72" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -6921,7 +6921,7 @@
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
       <c r="A73" s="58"/>
       <c r="B73" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -6938,7 +6938,7 @@
     <row r="74" spans="1:13" ht="18" thickBot="1">
       <c r="A74" s="58"/>
       <c r="B74" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -6946,10 +6946,10 @@
       <c r="F74" s="20"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -6965,7 +6965,7 @@
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
       <c r="A75" s="58"/>
       <c r="B75" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -6973,7 +6973,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -6984,7 +6984,7 @@
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="A76" s="58"/>
       <c r="B76" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -6992,7 +6992,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -7003,7 +7003,7 @@
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
       <c r="A77" s="58"/>
       <c r="B77" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="41"/>
@@ -7011,7 +7011,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -7022,7 +7022,7 @@
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
       <c r="A78" s="58"/>
       <c r="B78" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -7030,7 +7030,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
@@ -7041,7 +7041,7 @@
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
       <c r="A79" s="58"/>
       <c r="B79" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -7049,7 +7049,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -7060,7 +7060,7 @@
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -7068,7 +7068,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -7079,7 +7079,7 @@
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
       <c r="A81" s="58"/>
       <c r="B81" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -7087,7 +7087,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -7098,7 +7098,7 @@
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
       <c r="A82" s="58"/>
       <c r="B82" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -7106,7 +7106,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -7117,7 +7117,7 @@
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
       <c r="A83" s="58"/>
       <c r="B83" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -7125,7 +7125,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -7136,7 +7136,7 @@
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
       <c r="A84" s="58"/>
       <c r="B84" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -7144,7 +7144,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -7155,7 +7155,7 @@
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="A85" s="58"/>
       <c r="B85" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -7163,7 +7163,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -7174,7 +7174,7 @@
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
       <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -7182,7 +7182,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -7193,7 +7193,7 @@
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" s="58"/>
       <c r="B87" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -7201,7 +7201,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -7212,7 +7212,7 @@
     <row r="88" spans="1:13" ht="26.25" thickBot="1">
       <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -7220,7 +7220,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -7231,7 +7231,7 @@
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
       <c r="A89" s="58"/>
       <c r="B89" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -7239,7 +7239,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -7250,7 +7250,7 @@
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
       <c r="A90" s="58"/>
       <c r="B90" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
@@ -7258,7 +7258,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -7269,7 +7269,7 @@
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
       <c r="A91" s="58"/>
       <c r="B91" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -7277,7 +7277,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -7288,7 +7288,7 @@
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
       <c r="A92" s="58"/>
       <c r="B92" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -7296,7 +7296,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -7307,7 +7307,7 @@
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
       <c r="A93" s="58"/>
       <c r="B93" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -7315,7 +7315,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -7326,7 +7326,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -7334,7 +7334,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -7345,7 +7345,7 @@
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="A95" s="58"/>
       <c r="B95" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -7353,7 +7353,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -7364,7 +7364,7 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
       <c r="A96" s="58"/>
       <c r="B96" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -7372,7 +7372,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7383,7 +7383,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -7391,7 +7391,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -7402,7 +7402,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -7410,7 +7410,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -7421,7 +7421,7 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -7429,7 +7429,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -7440,7 +7440,7 @@
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
@@ -7448,7 +7448,7 @@
       <c r="F100" s="41"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -7459,7 +7459,7 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -7467,7 +7467,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7478,7 +7478,7 @@
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
       <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -7486,7 +7486,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
@@ -7497,7 +7497,7 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -7505,7 +7505,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -7531,10 +7531,10 @@
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
       <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -7547,10 +7547,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -7566,7 +7566,7 @@
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
       <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -7574,7 +7574,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -7585,7 +7585,7 @@
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -7593,7 +7593,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -7604,7 +7604,7 @@
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -7612,7 +7612,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -7623,7 +7623,7 @@
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -7631,7 +7631,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -7642,7 +7642,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -7650,7 +7650,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -7661,7 +7661,7 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -7669,7 +7669,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -7680,7 +7680,7 @@
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -7688,7 +7688,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -7699,7 +7699,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -7707,7 +7707,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -7718,7 +7718,7 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -7726,7 +7726,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -7737,7 +7737,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -7745,7 +7745,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -7756,7 +7756,7 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -7764,7 +7764,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -7775,7 +7775,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
@@ -7783,7 +7783,7 @@
       <c r="F117" s="39"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -7794,7 +7794,7 @@
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -7802,7 +7802,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -7813,7 +7813,7 @@
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -7821,7 +7821,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -7832,7 +7832,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -7840,7 +7840,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -7851,7 +7851,7 @@
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -7859,7 +7859,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -7870,7 +7870,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -7878,7 +7878,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -7889,7 +7889,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -7897,7 +7897,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -7908,7 +7908,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -7916,7 +7916,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -7927,7 +7927,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -7935,7 +7935,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -7946,7 +7946,7 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -7954,7 +7954,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -7965,7 +7965,7 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -7973,7 +7973,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -7984,7 +7984,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
@@ -7992,7 +7992,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -8003,7 +8003,7 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -8011,7 +8011,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -8022,7 +8022,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -8030,7 +8030,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -8041,7 +8041,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
@@ -8049,7 +8049,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -8060,7 +8060,7 @@
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -8068,7 +8068,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -8079,7 +8079,7 @@
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
       <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -8087,7 +8087,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
@@ -8098,7 +8098,7 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -8116,7 +8116,7 @@
     <row r="135" spans="1:14" ht="52.5" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -8124,29 +8124,29 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>237</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>238</v>
       </c>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -8154,7 +8154,7 @@
       <c r="F136" s="40"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8166,7 +8166,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -8174,7 +8174,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -8186,7 +8186,7 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -8194,7 +8194,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8206,7 +8206,7 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -8214,7 +8214,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -8226,7 +8226,7 @@
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -8234,7 +8234,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -8246,7 +8246,7 @@
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -8264,7 +8264,7 @@
     <row r="142" spans="1:14" ht="52.5" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -8272,22 +8272,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>249</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>250</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -8300,7 +8300,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -8312,10 +8312,10 @@
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
       <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -8340,7 +8340,7 @@
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -8348,7 +8348,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -8360,7 +8360,7 @@
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
       <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -8368,7 +8368,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -8380,7 +8380,7 @@
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
       <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -8388,7 +8388,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -8400,7 +8400,7 @@
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
       <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -8418,7 +8418,7 @@
     <row r="149" spans="1:14" ht="52.5" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -8426,29 +8426,29 @@
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>255</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>256</v>
       </c>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
       <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -8456,7 +8456,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -8468,7 +8468,7 @@
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
       <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -8476,7 +8476,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -8488,7 +8488,7 @@
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -8496,7 +8496,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -8508,7 +8508,7 @@
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
       <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -8516,7 +8516,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -8528,7 +8528,7 @@
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
       <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -8536,7 +8536,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -8548,7 +8548,7 @@
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
       <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -8572,47 +8572,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>261</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>273</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>274</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8632,7 +8632,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8652,7 +8652,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8672,7 +8672,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8692,7 +8692,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8728,47 +8728,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="52.5" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>279</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>280</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8788,7 +8788,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8808,7 +8808,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8828,7 +8828,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8848,7 +8848,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8894,19 +8894,19 @@
     <row r="171" spans="1:14" ht="52.5" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>284</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>285</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -8920,7 +8920,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8938,7 +8938,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8956,7 +8956,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8974,7 +8974,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -8992,7 +8992,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9170,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9191,61 +9191,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="A1" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9268,7 +9268,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="71"/>
       <c r="P4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -9291,10 +9291,10 @@
       </c>
       <c r="G5" s="58"/>
       <c r="H5" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -9313,14 +9313,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
       <c r="F6" s="73"/>
       <c r="G6" s="58"/>
       <c r="H6" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -9339,7 +9339,7 @@
       <c r="F7" s="74"/>
       <c r="G7" s="58"/>
       <c r="H7" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="73"/>
@@ -9358,7 +9358,7 @@
       <c r="F8" s="73"/>
       <c r="G8" s="58"/>
       <c r="H8" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
@@ -9377,7 +9377,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
@@ -9396,7 +9396,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="58"/>
       <c r="H10" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="73"/>
@@ -9415,7 +9415,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="73"/>
       <c r="J11" s="20"/>
@@ -9434,7 +9434,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="73"/>
@@ -9449,11 +9449,11 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="73"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="73"/>
       <c r="G13" s="58"/>
       <c r="H13" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -9472,7 +9472,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
@@ -9486,12 +9486,12 @@
         <v>13</v>
       </c>
       <c r="C15" s="73"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="20"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="73"/>
@@ -9510,7 +9510,7 @@
       <c r="F16" s="73"/>
       <c r="G16" s="58"/>
       <c r="H16" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
@@ -9529,7 +9529,7 @@
       <c r="F17" s="73"/>
       <c r="G17" s="58"/>
       <c r="H17" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="73"/>
@@ -9540,7 +9540,7 @@
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="73"/>
@@ -9548,26 +9548,26 @@
       <c r="F18" s="20"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="73"/>
       <c r="K18" s="73"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="73"/>
       <c r="M18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="73"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="20"/>
       <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="73"/>
@@ -9578,15 +9578,15 @@
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="58"/>
       <c r="B20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="73"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="20"/>
       <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="73"/>
@@ -9597,7 +9597,7 @@
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="58"/>
       <c r="B21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -9605,37 +9605,37 @@
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="80"/>
       <c r="J21" s="73"/>
       <c r="K21" s="73"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="58"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="58"/>
       <c r="B22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="73"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="58"/>
       <c r="H22" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="58"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="58"/>
       <c r="B23" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="73"/>
@@ -9643,7 +9643,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="73"/>
@@ -9654,7 +9654,7 @@
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" s="58"/>
       <c r="B24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="73"/>
@@ -9662,7 +9662,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="73"/>
@@ -9670,10 +9670,10 @@
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="1:13" ht="26.25" thickBot="1">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="58"/>
       <c r="B25" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="73"/>
@@ -9681,7 +9681,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I25" s="73"/>
       <c r="J25" s="73"/>
@@ -9698,7 +9698,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="58"/>
       <c r="H26" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -9709,10 +9709,10 @@
     <row r="27" spans="1:13" ht="18" thickBot="1">
       <c r="A27" s="58"/>
       <c r="B27" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -9736,7 +9736,7 @@
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="58"/>
       <c r="B28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
@@ -9744,7 +9744,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="58"/>
       <c r="H28" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="73"/>
@@ -9755,7 +9755,7 @@
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -9772,28 +9772,28 @@
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="20"/>
+        <v>287</v>
+      </c>
+      <c r="D30" s="73"/>
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="H30" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -9801,7 +9801,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
       <c r="H31" s="76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
@@ -9812,15 +9812,15 @@
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="73"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="73"/>
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
       <c r="H32" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="63"/>
@@ -9837,7 +9837,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="58"/>
       <c r="H33" s="75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -9848,10 +9848,10 @@
     <row r="34" spans="1:13" ht="18" thickBot="1">
       <c r="A34" s="58"/>
       <c r="B34" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="G34" s="58"/>
       <c r="H34" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -9875,14 +9875,16 @@
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="58"/>
       <c r="B35" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="73"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="58"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="75" t="s">
+        <v>317</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -9892,7 +9894,7 @@
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="A36" s="58"/>
       <c r="B36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
@@ -9909,7 +9911,7 @@
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
       <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="73"/>
@@ -9926,7 +9928,7 @@
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
       <c r="A38" s="58"/>
       <c r="B38" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="73"/>
@@ -9943,20 +9945,20 @@
     <row r="39" spans="1:13" ht="23.25" customHeight="1" thickBot="1">
       <c r="A39" s="58"/>
       <c r="B39" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
+      <c r="H39" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -9968,7 +9970,7 @@
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
       <c r="H40" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I40" s="63"/>
       <c r="J40" s="63"/>
@@ -9979,10 +9981,10 @@
     <row r="41" spans="1:13" ht="18" thickBot="1">
       <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -9995,7 +9997,7 @@
       </c>
       <c r="G41" s="58"/>
       <c r="H41" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I41" s="63"/>
       <c r="J41" s="63"/>
@@ -10006,15 +10008,15 @@
     <row r="42" spans="1:13" ht="26.25" thickBot="1">
       <c r="A42" s="58"/>
       <c r="B42" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
       <c r="E42" s="74"/>
-      <c r="F42" s="39"/>
+      <c r="F42" s="74"/>
       <c r="G42" s="58"/>
       <c r="H42" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -10025,7 +10027,7 @@
     <row r="43" spans="1:13" ht="26.25" thickBot="1">
       <c r="A43" s="58"/>
       <c r="B43" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="73"/>
@@ -10033,7 +10035,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
       <c r="H43" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -10044,7 +10046,7 @@
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
       <c r="A44" s="58"/>
       <c r="B44" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="73"/>
@@ -10052,7 +10054,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="58"/>
       <c r="H44" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -10063,7 +10065,7 @@
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
       <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="73"/>
@@ -10071,7 +10073,7 @@
       <c r="F45" s="73"/>
       <c r="G45" s="58"/>
       <c r="H45" s="75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -10082,7 +10084,7 @@
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -10114,10 +10116,10 @@
     <row r="48" spans="1:13" ht="35.25" thickBot="1">
       <c r="A48" s="58"/>
       <c r="B48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -10129,19 +10131,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="92"/>
+      <c r="H48" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="93"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
       <c r="A49" s="58"/>
       <c r="B49" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
@@ -10149,7 +10151,7 @@
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
       <c r="H49" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
@@ -10160,7 +10162,7 @@
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
@@ -10168,7 +10170,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="58"/>
       <c r="H50" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I50" s="63"/>
       <c r="J50" s="63"/>
@@ -10179,7 +10181,7 @@
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
@@ -10187,7 +10189,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="58"/>
       <c r="H51" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -10198,7 +10200,7 @@
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" s="58"/>
       <c r="B52" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -10215,11 +10217,11 @@
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
       <c r="A53" s="58"/>
       <c r="B53" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="73"/>
       <c r="D53" s="73"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
       <c r="H53" s="20"/>
@@ -10232,12 +10234,12 @@
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
       <c r="A54" s="58"/>
       <c r="B54" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="73"/>
       <c r="G54" s="58"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -10249,7 +10251,7 @@
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="58"/>
       <c r="B55" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="73"/>
@@ -10266,7 +10268,7 @@
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="58"/>
       <c r="B56" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="73"/>
@@ -10283,26 +10285,26 @@
     <row r="57" spans="1:13" ht="18" thickBot="1">
       <c r="A57" s="58"/>
       <c r="B57" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="74"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="92"/>
+      <c r="H57" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" s="58"/>
       <c r="B58" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="73"/>
@@ -10319,7 +10321,7 @@
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="74"/>
@@ -10336,7 +10338,7 @@
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="20"/>
@@ -10353,7 +10355,7 @@
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" s="58"/>
       <c r="B61" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
@@ -10370,7 +10372,7 @@
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
       <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="73"/>
       <c r="D62" s="73"/>
@@ -10387,7 +10389,7 @@
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
@@ -10404,7 +10406,7 @@
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="73"/>
@@ -10421,7 +10423,7 @@
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="58"/>
       <c r="B65" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="73"/>
       <c r="D65" s="73"/>
@@ -10438,26 +10440,26 @@
     <row r="66" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A66" s="58"/>
       <c r="B66" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="80"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="92"/>
+      <c r="H66" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="93"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="73"/>
       <c r="D67" s="73"/>
@@ -10465,20 +10467,20 @@
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="L67" s="97"/>
+      <c r="K67" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="L67" s="100"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="A68" s="58"/>
       <c r="B68" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="73"/>
@@ -10486,20 +10488,20 @@
       <c r="F68" s="73"/>
       <c r="G68" s="58"/>
       <c r="H68" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="L68" s="97"/>
+      <c r="K68" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="L68" s="100"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
       <c r="A69" s="58"/>
       <c r="B69" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="73"/>
@@ -10507,20 +10509,20 @@
       <c r="F69" s="73"/>
       <c r="G69" s="58"/>
       <c r="H69" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="L69" s="99"/>
+      <c r="K69" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="L69" s="95"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
       <c r="A70" s="58"/>
       <c r="B70" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="73"/>
@@ -10530,16 +10532,16 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="L70" s="99"/>
+      <c r="K70" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="L70" s="95"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
       <c r="A71" s="58"/>
       <c r="B71" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -10549,16 +10551,16 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="L71" s="99"/>
+      <c r="K71" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="L71" s="95"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="58"/>
       <c r="B72" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
@@ -10568,14 +10570,14 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="94"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="97"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
       <c r="A73" s="58"/>
       <c r="B73" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="73"/>
@@ -10592,7 +10594,7 @@
     <row r="74" spans="1:13" ht="18" thickBot="1">
       <c r="A74" s="58"/>
       <c r="B74" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="73"/>
@@ -10600,10 +10602,10 @@
       <c r="F74" s="73"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -10619,7 +10621,7 @@
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
       <c r="A75" s="58"/>
       <c r="B75" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="73"/>
@@ -10627,7 +10629,7 @@
       <c r="F75" s="73"/>
       <c r="G75" s="58"/>
       <c r="H75" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="73"/>
@@ -10638,7 +10640,7 @@
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="A76" s="58"/>
       <c r="B76" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="73"/>
@@ -10646,10 +10648,10 @@
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="J76" s="73"/>
       <c r="K76" s="73"/>
       <c r="L76" s="20"/>
       <c r="M76" s="58"/>
@@ -10657,7 +10659,7 @@
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
       <c r="A77" s="58"/>
       <c r="B77" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="83"/>
       <c r="D77" s="83"/>
@@ -10665,7 +10667,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="73"/>
@@ -10676,26 +10678,26 @@
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
       <c r="A78" s="58"/>
       <c r="B78" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="73"/>
-      <c r="E78" s="20"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="20"/>
       <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="73"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="73"/>
       <c r="L78" s="73"/>
       <c r="M78" s="58"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
       <c r="A79" s="58"/>
       <c r="B79" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="73"/>
@@ -10703,18 +10705,18 @@
       <c r="F79" s="73"/>
       <c r="G79" s="58"/>
       <c r="H79" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="73"/>
       <c r="K79" s="73"/>
-      <c r="L79" s="20"/>
+      <c r="L79" s="73"/>
       <c r="M79" s="58"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="73"/>
@@ -10722,10 +10724,10 @@
       <c r="F80" s="20"/>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="J80" s="73"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
       <c r="M80" s="58"/>
@@ -10733,7 +10735,7 @@
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
       <c r="A81" s="58"/>
       <c r="B81" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="73"/>
@@ -10741,7 +10743,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I81" s="73"/>
       <c r="J81" s="73"/>
@@ -10752,7 +10754,7 @@
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
       <c r="A82" s="58"/>
       <c r="B82" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="20"/>
@@ -10760,7 +10762,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I82" s="73"/>
       <c r="J82" s="73"/>
@@ -10771,7 +10773,7 @@
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
       <c r="A83" s="58"/>
       <c r="B83" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="73"/>
@@ -10779,18 +10781,18 @@
       <c r="F83" s="20"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="73"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="73"/>
       <c r="L83" s="20"/>
       <c r="M83" s="58"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
       <c r="A84" s="58"/>
       <c r="B84" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="20"/>
@@ -10798,7 +10800,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="73"/>
@@ -10809,7 +10811,7 @@
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="A85" s="58"/>
       <c r="B85" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="73"/>
@@ -10817,10 +10819,10 @@
       <c r="F85" s="73"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="J85" s="73"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
       <c r="M85" s="58"/>
@@ -10828,26 +10830,26 @@
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
       <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="73"/>
       <c r="K86" s="73"/>
-      <c r="L86" s="20"/>
+      <c r="L86" s="73"/>
       <c r="M86" s="58"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" s="58"/>
       <c r="B87" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
@@ -10855,18 +10857,18 @@
       <c r="F87" s="20"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="73"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="73"/>
       <c r="L87" s="20"/>
       <c r="M87" s="58"/>
     </row>
-    <row r="88" spans="1:13" ht="26.25" thickBot="1">
+    <row r="88" spans="1:13" ht="15.75" thickBot="1">
       <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="80"/>
@@ -10874,18 +10876,18 @@
       <c r="F88" s="20"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="73"/>
       <c r="L88" s="20"/>
       <c r="M88" s="58"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
       <c r="A89" s="58"/>
       <c r="B89" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="78"/>
@@ -10893,7 +10895,7 @@
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
       <c r="H89" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="73"/>
@@ -10904,7 +10906,7 @@
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
       <c r="A90" s="58"/>
       <c r="B90" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
@@ -10912,7 +10914,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -10923,7 +10925,7 @@
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
       <c r="A91" s="58"/>
       <c r="B91" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="73"/>
@@ -10931,7 +10933,7 @@
       <c r="F91" s="73"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I91" s="73"/>
       <c r="J91" s="73"/>
@@ -10942,7 +10944,7 @@
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
       <c r="A92" s="58"/>
       <c r="B92" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="73"/>
@@ -10950,18 +10952,18 @@
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I92" s="73"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
+      <c r="L92" s="73"/>
       <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
       <c r="A93" s="58"/>
       <c r="B93" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="73"/>
       <c r="D93" s="20"/>
@@ -10969,7 +10971,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="73"/>
@@ -10980,7 +10982,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
@@ -10988,10 +10990,10 @@
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
+      <c r="J94" s="73"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="58"/>
@@ -10999,15 +11001,15 @@
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="A95" s="58"/>
       <c r="B95" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="73"/>
       <c r="F95" s="73"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
@@ -11018,15 +11020,15 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
       <c r="A96" s="58"/>
       <c r="B96" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="73"/>
       <c r="D96" s="73"/>
       <c r="E96" s="73"/>
-      <c r="F96" s="20"/>
+      <c r="F96" s="73"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -11037,7 +11039,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C97" s="73"/>
       <c r="D97" s="73"/>
@@ -11045,18 +11047,18 @@
       <c r="F97" s="73"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="73"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="73"/>
       <c r="L97" s="20"/>
       <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="73"/>
@@ -11064,7 +11066,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -11075,34 +11077,34 @@
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="73"/>
       <c r="D99" s="73"/>
       <c r="E99" s="73"/>
-      <c r="F99" s="20"/>
+      <c r="F99" s="73"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="73"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="73"/>
       <c r="L99" s="20"/>
       <c r="M99" s="58"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
       <c r="A100" s="58"/>
       <c r="B100" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
       <c r="E100" s="39"/>
-      <c r="F100" s="41"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I100" s="73"/>
       <c r="J100" s="73"/>
@@ -11113,7 +11115,7 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="73"/>
@@ -11121,7 +11123,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="73"/>
@@ -11132,7 +11134,7 @@
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
       <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="73"/>
@@ -11140,7 +11142,7 @@
       <c r="F102" s="73"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I102" s="72"/>
       <c r="J102" s="73"/>
@@ -11151,19 +11153,19 @@
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
       <c r="A103" s="58"/>
       <c r="B103" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="62"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="87"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="73"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="73"/>
       <c r="L103" s="62"/>
       <c r="M103" s="58"/>
     </row>
@@ -11185,10 +11187,10 @@
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
       <c r="A105" s="58"/>
       <c r="B105" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -11201,10 +11203,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -11220,7 +11222,7 @@
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
       <c r="A106" s="58"/>
       <c r="B106" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="73"/>
@@ -11228,56 +11230,56 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="73"/>
       <c r="K106" s="73"/>
-      <c r="L106" s="20"/>
+      <c r="L106" s="73"/>
       <c r="M106" s="58"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
       <c r="A107" s="58"/>
       <c r="B107" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="73"/>
       <c r="E107" s="73"/>
-      <c r="F107" s="20"/>
+      <c r="F107" s="73"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="73"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="73"/>
       <c r="L107" s="20"/>
       <c r="M107" s="58"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="73"/>
       <c r="E108" s="73"/>
-      <c r="F108" s="20"/>
+      <c r="F108" s="73"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I108" s="72"/>
       <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="73"/>
       <c r="L108" s="20"/>
       <c r="M108" s="58"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
       <c r="A109" s="58"/>
       <c r="B109" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="73"/>
@@ -11285,7 +11287,7 @@
       <c r="F109" s="73"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -11296,7 +11298,7 @@
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
       <c r="A110" s="58"/>
       <c r="B110" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
@@ -11304,7 +11306,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="81"/>
@@ -11315,26 +11317,26 @@
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="E111" s="73"/>
       <c r="F111" s="20"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
       <c r="L111" s="20"/>
       <c r="M111" s="58"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="73"/>
@@ -11342,7 +11344,7 @@
       <c r="F112" s="73"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="73"/>
@@ -11353,7 +11355,7 @@
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="73"/>
@@ -11361,7 +11363,7 @@
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I113" s="73"/>
       <c r="J113" s="20"/>
@@ -11372,17 +11374,17 @@
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I114" s="73"/>
       <c r="J114" s="73"/>
@@ -11393,7 +11395,7 @@
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
       <c r="A115" s="58"/>
       <c r="B115" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="73"/>
@@ -11401,7 +11403,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="73"/>
@@ -11412,49 +11414,49 @@
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
-      <c r="F116" s="20"/>
+      <c r="F116" s="73"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J116" s="73"/>
       <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
+      <c r="L116" s="73"/>
       <c r="M116" s="58"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
       <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="74"/>
-      <c r="F117" s="39"/>
+      <c r="F117" s="74"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I117" s="73"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
+      <c r="J117" s="73"/>
+      <c r="K117" s="73"/>
       <c r="L117" s="20"/>
       <c r="M117" s="58"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
       <c r="A118" s="58"/>
       <c r="B118" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="73"/>
@@ -11462,18 +11464,18 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
       <c r="K118" s="73"/>
-      <c r="L118" s="20"/>
+      <c r="L118" s="73"/>
       <c r="M118" s="58"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
       <c r="A119" s="58"/>
       <c r="B119" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="73"/>
@@ -11481,7 +11483,7 @@
       <c r="F119" s="73"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I119" s="80"/>
       <c r="J119" s="73"/>
@@ -11492,7 +11494,7 @@
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="73"/>
       <c r="D120" s="73"/>
@@ -11500,18 +11502,18 @@
       <c r="F120" s="73"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I120" s="80"/>
       <c r="J120" s="73"/>
       <c r="K120" s="42"/>
-      <c r="L120" s="20"/>
+      <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
       <c r="A121" s="58"/>
       <c r="B121" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="73"/>
@@ -11519,10 +11521,10 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I121" s="73"/>
-      <c r="J121" s="20"/>
+      <c r="J121" s="73"/>
       <c r="K121" s="20"/>
       <c r="L121" s="73"/>
       <c r="M121" s="58"/>
@@ -11530,7 +11532,7 @@
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
       <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="73"/>
@@ -11538,10 +11540,10 @@
       <c r="F122" s="73"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I122" s="73"/>
-      <c r="J122" s="20"/>
+      <c r="J122" s="73"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="58"/>
@@ -11549,7 +11551,7 @@
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
       <c r="A123" s="58"/>
       <c r="B123" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
@@ -11557,7 +11559,7 @@
       <c r="F123" s="73"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -11568,7 +11570,7 @@
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
@@ -11576,7 +11578,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I124" s="73"/>
       <c r="J124" s="73"/>
@@ -11587,7 +11589,7 @@
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
       <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="73"/>
       <c r="D125" s="73"/>
@@ -11595,7 +11597,7 @@
       <c r="F125" s="73"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
@@ -11606,15 +11608,15 @@
     <row r="126" spans="1:13" ht="15.75" thickBot="1">
       <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="73"/>
-      <c r="E126" s="20"/>
+      <c r="E126" s="73"/>
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -11625,15 +11627,15 @@
     <row r="127" spans="1:13" ht="15.75" thickBot="1">
       <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="73"/>
       <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
+      <c r="F127" s="73"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="73"/>
@@ -11644,7 +11646,7 @@
     <row r="128" spans="1:13" ht="15.75" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="83"/>
       <c r="D128" s="82"/>
@@ -11652,7 +11654,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="73"/>
@@ -11663,15 +11665,15 @@
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
       <c r="A129" s="58"/>
       <c r="B129" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="73"/>
       <c r="D129" s="73"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="73"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="73"/>
@@ -11682,7 +11684,7 @@
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
       <c r="A130" s="58"/>
       <c r="B130" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="73"/>
@@ -11690,7 +11692,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
@@ -11701,7 +11703,7 @@
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="86"/>
       <c r="D131" s="74"/>
@@ -11709,10 +11711,10 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
+      <c r="J131" s="73"/>
       <c r="K131" s="73"/>
       <c r="L131" s="20"/>
       <c r="M131" s="58"/>
@@ -11720,7 +11722,7 @@
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
@@ -11728,7 +11730,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="73"/>
@@ -11739,7 +11741,7 @@
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
       <c r="A133" s="58"/>
       <c r="B133" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="73"/>
       <c r="D133" s="20"/>
@@ -11747,7 +11749,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I133" s="73"/>
       <c r="J133" s="73"/>
@@ -11758,11 +11760,11 @@
     <row r="134" spans="1:14" ht="15.75" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="73"/>
       <c r="D134" s="73"/>
-      <c r="E134" s="20"/>
+      <c r="E134" s="73"/>
       <c r="F134" s="20"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -11776,37 +11778,37 @@
     <row r="135" spans="1:14" ht="27" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="43"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="20"/>
+      <c r="D135" s="88"/>
+      <c r="E135" s="73"/>
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>237</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>238</v>
       </c>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="73"/>
       <c r="D136" s="73"/>
@@ -11814,7 +11816,7 @@
       <c r="F136" s="77"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -11826,7 +11828,7 @@
     <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" s="58"/>
       <c r="B137" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -11834,7 +11836,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -11846,15 +11848,15 @@
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" s="58"/>
       <c r="B138" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="73"/>
       <c r="D138" s="73"/>
       <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
+      <c r="F138" s="73"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -11866,15 +11868,15 @@
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
       <c r="A139" s="58"/>
       <c r="B139" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="73"/>
       <c r="E139" s="73"/>
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -11886,15 +11888,15 @@
     <row r="140" spans="1:14" ht="15.75" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
+      <c r="F140" s="73"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -11906,7 +11908,7 @@
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="73"/>
@@ -11924,30 +11926,30 @@
     <row r="142" spans="1:14" ht="27" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
+      <c r="D142" s="73"/>
       <c r="E142" s="73"/>
-      <c r="F142" s="62"/>
+      <c r="F142" s="87"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>249</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>250</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -11960,7 +11962,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -11972,10 +11974,10 @@
     <row r="144" spans="1:14" ht="35.25" thickBot="1">
       <c r="A144" s="58"/>
       <c r="B144" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -11988,7 +11990,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -12000,7 +12002,7 @@
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" s="58"/>
       <c r="B145" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -12008,7 +12010,7 @@
       <c r="F145" s="73"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -12020,7 +12022,7 @@
     <row r="146" spans="1:14" ht="15.75" thickBot="1">
       <c r="A146" s="58"/>
       <c r="B146" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="73"/>
@@ -12028,7 +12030,7 @@
       <c r="F146" s="73"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -12040,7 +12042,7 @@
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
       <c r="A147" s="58"/>
       <c r="B147" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="73"/>
@@ -12048,7 +12050,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -12060,7 +12062,7 @@
     <row r="148" spans="1:14" ht="15.75" thickBot="1">
       <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="73"/>
       <c r="D148" s="73"/>
@@ -12078,7 +12080,7 @@
     <row r="149" spans="1:14" ht="27" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
@@ -12086,29 +12088,29 @@
       <c r="F149" s="73"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>255</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>256</v>
       </c>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
       <c r="A150" s="58"/>
       <c r="B150" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="73"/>
       <c r="D150" s="73"/>
@@ -12116,7 +12118,7 @@
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -12128,15 +12130,15 @@
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
       <c r="A151" s="58"/>
       <c r="B151" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="20"/>
       <c r="E151" s="73"/>
-      <c r="F151" s="20"/>
+      <c r="F151" s="73"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -12148,7 +12150,7 @@
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" s="58"/>
       <c r="B152" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
@@ -12156,7 +12158,7 @@
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -12168,15 +12170,15 @@
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
       <c r="A153" s="58"/>
       <c r="B153" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="73"/>
       <c r="E153" s="73"/>
-      <c r="F153" s="20"/>
+      <c r="F153" s="73"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -12188,7 +12190,7 @@
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
       <c r="A154" s="58"/>
       <c r="B154" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="73"/>
@@ -12196,7 +12198,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -12208,11 +12210,11 @@
     <row r="155" spans="1:14" ht="15.75" thickBot="1">
       <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
-      <c r="E155" s="20"/>
+      <c r="E155" s="73"/>
       <c r="F155" s="87"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -12232,47 +12234,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>261</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
       <c r="A157" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>273</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>274</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -12283,7 +12285,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12292,7 +12294,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -12303,7 +12305,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12312,7 +12314,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -12323,7 +12325,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12332,7 +12334,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -12343,7 +12345,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12352,7 +12354,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -12363,7 +12365,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12388,47 +12390,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>267</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="39.75" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>279</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>280</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -12439,7 +12441,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -12448,7 +12450,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -12459,7 +12461,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -12468,7 +12470,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -12479,7 +12481,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -12488,7 +12490,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -12499,7 +12501,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -12508,7 +12510,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -12519,7 +12521,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12554,19 +12556,19 @@
     <row r="171" spans="1:14" ht="27" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>284</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>285</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -12580,7 +12582,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -12598,7 +12600,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -12616,7 +12618,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -12634,7 +12636,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -12652,7 +12654,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="323">
   <si>
     <t>ARMOR</t>
   </si>
@@ -971,6 +971,21 @@
   </si>
   <si>
     <t>Orc Torque Torc</t>
+  </si>
+  <si>
+    <t>Hanabigami</t>
+  </si>
+  <si>
+    <t>Niradyahk</t>
+  </si>
+  <si>
+    <t>Katamari</t>
+  </si>
+  <si>
+    <t>Borgin's Vigil</t>
+  </si>
+  <si>
+    <t>Asheara's Cateye</t>
   </si>
 </sst>
 </file>
@@ -9170,14 +9185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -9436,10 +9451,10 @@
       <c r="H12" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="73"/>
       <c r="K12" s="73"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
@@ -9458,7 +9473,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="73"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
@@ -9618,7 +9633,7 @@
       <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="73"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -10091,7 +10106,9 @@
       <c r="E46" s="20"/>
       <c r="F46" s="62"/>
       <c r="G46" s="58"/>
-      <c r="H46" s="20"/>
+      <c r="H46" s="75" t="s">
+        <v>319</v>
+      </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
@@ -10207,7 +10224,9 @@
       <c r="E52" s="73"/>
       <c r="F52" s="73"/>
       <c r="G52" s="58"/>
-      <c r="H52" s="20"/>
+      <c r="H52" s="75" t="s">
+        <v>320</v>
+      </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
@@ -10224,7 +10243,9 @@
       <c r="E53" s="73"/>
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="20"/>
+      <c r="H53" s="75" t="s">
+        <v>321</v>
+      </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
@@ -10241,7 +10262,9 @@
       <c r="E54" s="73"/>
       <c r="F54" s="73"/>
       <c r="G54" s="58"/>
-      <c r="H54" s="20"/>
+      <c r="H54" s="75" t="s">
+        <v>322</v>
+      </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
@@ -10529,7 +10552,9 @@
       <c r="E70" s="77"/>
       <c r="F70" s="20"/>
       <c r="G70" s="58"/>
-      <c r="H70" s="20"/>
+      <c r="H70" s="75" t="s">
+        <v>318</v>
+      </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="94" t="s">
@@ -10663,15 +10688,15 @@
       </c>
       <c r="C77" s="83"/>
       <c r="D77" s="83"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
       <c r="G77" s="58"/>
       <c r="H77" s="19" t="s">
         <v>178</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="73"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="73"/>
       <c r="L77" s="73"/>
       <c r="M77" s="58"/>
     </row>
@@ -10775,7 +10800,7 @@
       <c r="B83" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="73"/>
       <c r="E83" s="73"/>
       <c r="F83" s="20"/>
@@ -10823,7 +10848,7 @@
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="73"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="73"/>
       <c r="L85" s="20"/>
       <c r="M85" s="58"/>
     </row>
@@ -10975,7 +11000,7 @@
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="73"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="73"/>
       <c r="L93" s="20"/>
       <c r="M93" s="58"/>
     </row>
@@ -10986,7 +11011,7 @@
       </c>
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
-      <c r="E94" s="20"/>
+      <c r="E94" s="73"/>
       <c r="F94" s="20"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
@@ -11232,7 +11257,7 @@
       <c r="H106" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I106" s="20"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="73"/>
       <c r="K106" s="73"/>
       <c r="L106" s="73"/>
@@ -11273,7 +11298,7 @@
       <c r="I108" s="72"/>
       <c r="J108" s="20"/>
       <c r="K108" s="73"/>
-      <c r="L108" s="20"/>
+      <c r="L108" s="73"/>
       <c r="M108" s="58"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
@@ -11322,7 +11347,7 @@
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
       <c r="E111" s="73"/>
-      <c r="F111" s="20"/>
+      <c r="F111" s="73"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
         <v>209</v>
@@ -11852,7 +11877,7 @@
       </c>
       <c r="C138" s="73"/>
       <c r="D138" s="73"/>
-      <c r="E138" s="20"/>
+      <c r="E138" s="73"/>
       <c r="F138" s="73"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
@@ -12047,7 +12072,7 @@
       <c r="C147" s="20"/>
       <c r="D147" s="73"/>
       <c r="E147" s="73"/>
-      <c r="F147" s="20"/>
+      <c r="F147" s="73"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
         <v>242</v>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="324">
   <si>
     <t>ARMOR</t>
   </si>
@@ -607,9 +607,6 @@
     <t>Demon Head</t>
   </si>
   <si>
-    <t>Zombie Heard</t>
-  </si>
-  <si>
     <t>Unraveller Head</t>
   </si>
   <si>
@@ -986,6 +983,12 @@
   </si>
   <si>
     <t>Asheara's Cateye</t>
+  </si>
+  <si>
+    <t>Zombie Head</t>
+  </si>
+  <si>
+    <t>Beads of the Snake Queen</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1643,6 +1646,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1941,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="F77" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>1</v>
@@ -1998,7 +2004,7 @@
         <v>146</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>1</v>
@@ -2261,7 +2267,7 @@
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2414,7 +2420,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>1</v>
@@ -2545,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>1</v>
@@ -2672,7 +2678,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1</v>
@@ -2797,7 +2803,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>1</v>
@@ -3261,7 +3267,7 @@
         <v>175</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>1</v>
@@ -3665,7 +3671,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="7"/>
       <c r="H92" s="19" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -3684,7 +3690,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="7"/>
       <c r="H93" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
@@ -3695,7 +3701,7 @@
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="7"/>
       <c r="B94" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -3703,7 +3709,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="7"/>
       <c r="H94" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -3741,7 +3747,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="7"/>
       <c r="H96" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -3760,7 +3766,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="7"/>
       <c r="H97" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -3779,7 +3785,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="7"/>
       <c r="H98" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -3798,7 +3804,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="7"/>
       <c r="H99" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -3817,7 +3823,7 @@
       <c r="F100" s="29"/>
       <c r="G100" s="7"/>
       <c r="H100" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -3846,7 +3852,7 @@
         <v>96</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -3859,10 +3865,10 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J102" s="14" t="s">
         <v>1</v>
@@ -3886,7 +3892,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="7"/>
       <c r="H103" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -3905,7 +3911,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="7"/>
       <c r="H104" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
@@ -3924,7 +3930,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="7"/>
       <c r="H105" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
@@ -3943,7 +3949,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="7"/>
       <c r="H106" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -3962,7 +3968,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="7"/>
       <c r="H107" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -3981,7 +3987,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="7"/>
       <c r="H108" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -4000,7 +4006,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="7"/>
       <c r="H109" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -4019,7 +4025,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="7"/>
       <c r="H110" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -4038,7 +4044,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="7"/>
       <c r="H111" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -4057,7 +4063,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="7"/>
       <c r="H112" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -4076,7 +4082,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="7"/>
       <c r="H113" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -4095,7 +4101,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="7"/>
       <c r="H114" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -4114,7 +4120,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="7"/>
       <c r="H115" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -4133,7 +4139,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="7"/>
       <c r="H116" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -4152,7 +4158,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="7"/>
       <c r="H117" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -4171,7 +4177,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="7"/>
       <c r="H118" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -4190,7 +4196,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="7"/>
       <c r="H119" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -4209,7 +4215,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="7"/>
       <c r="H120" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -4228,7 +4234,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="7"/>
       <c r="H121" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -4247,7 +4253,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="7"/>
       <c r="H122" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -4266,7 +4272,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="7"/>
       <c r="H123" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -4285,7 +4291,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="7"/>
       <c r="H124" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -4304,7 +4310,7 @@
       <c r="F125" s="39"/>
       <c r="G125" s="7"/>
       <c r="H125" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -4323,7 +4329,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="7"/>
       <c r="H126" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -4342,7 +4348,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="7"/>
       <c r="H127" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -4361,7 +4367,7 @@
       <c r="F128" s="41"/>
       <c r="G128" s="7"/>
       <c r="H128" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -4380,7 +4386,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="7"/>
       <c r="H129" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -4399,7 +4405,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="7"/>
       <c r="H130" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -4583,7 +4589,7 @@
         <v>134</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>1</v>
@@ -4849,29 +4855,29 @@
     <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>237</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4883,7 +4889,7 @@
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4895,7 +4901,7 @@
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4907,7 +4913,7 @@
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4919,7 +4925,7 @@
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -4941,29 +4947,29 @@
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="D9" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>248</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>249</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4975,7 +4981,7 @@
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4987,7 +4993,7 @@
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4999,7 +5005,7 @@
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5011,7 +5017,7 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5033,29 +5039,29 @@
     <row r="16" spans="1:8" ht="27" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>254</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5067,7 +5073,7 @@
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5079,7 +5085,7 @@
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5091,7 +5097,7 @@
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5103,7 +5109,7 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5125,29 +5131,29 @@
     <row r="23" spans="1:8" ht="45" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="F23" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="G23" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5159,7 +5165,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5171,7 +5177,7 @@
     <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5183,7 +5189,7 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5195,7 +5201,7 @@
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5217,29 +5223,29 @@
     <row r="30" spans="1:8" ht="39.75" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="G30" s="45" t="s">
         <v>266</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>267</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5251,7 +5257,7 @@
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5263,7 +5269,7 @@
     <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5275,7 +5281,7 @@
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5287,7 +5293,7 @@
     <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5309,29 +5315,29 @@
     <row r="37" spans="1:8" ht="35.25" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="E37" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="F37" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="G37" s="45" t="s">
         <v>272</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>273</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5343,7 +5349,7 @@
     <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5355,7 +5361,7 @@
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5367,7 +5373,7 @@
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5379,7 +5385,7 @@
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5401,29 +5407,29 @@
     <row r="44" spans="1:8" ht="39.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="E44" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="F44" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>279</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5435,7 +5441,7 @@
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5447,7 +5453,7 @@
     <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5459,7 +5465,7 @@
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5471,7 +5477,7 @@
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5493,19 +5499,19 @@
     <row r="51" spans="1:8" ht="39.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>283</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>284</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -5513,7 +5519,7 @@
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5525,7 +5531,7 @@
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5537,7 +5543,7 @@
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5549,7 +5555,7 @@
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5561,7 +5567,7 @@
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5589,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="E91" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5685,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -5701,7 +5707,7 @@
         <v>146</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -5964,7 +5970,7 @@
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -6117,7 +6123,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -6248,7 +6254,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -6375,7 +6381,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -6500,7 +6506,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -6964,7 +6970,7 @@
         <v>175</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -7368,7 +7374,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
@@ -7387,7 +7393,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -7398,7 +7404,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -7406,7 +7412,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -7444,7 +7450,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -7463,7 +7469,7 @@
       <c r="F100" s="41"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -7482,7 +7488,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7501,7 +7507,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
@@ -7520,7 +7526,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -7549,7 +7555,7 @@
         <v>96</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -7562,10 +7568,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -7589,7 +7595,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -7608,7 +7614,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -7627,7 +7633,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -7646,7 +7652,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
@@ -7665,7 +7671,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
@@ -7684,7 +7690,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
@@ -7703,7 +7709,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
@@ -7722,7 +7728,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
@@ -7741,7 +7747,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -7760,7 +7766,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -7779,7 +7785,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
@@ -7798,7 +7804,7 @@
       <c r="F117" s="39"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -7817,7 +7823,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -7836,7 +7842,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
@@ -7855,7 +7861,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
@@ -7874,7 +7880,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
@@ -7893,7 +7899,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
@@ -7912,7 +7918,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
@@ -7931,7 +7937,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
@@ -7950,7 +7956,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
@@ -7969,7 +7975,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -7988,7 +7994,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
@@ -8007,7 +8013,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -8026,7 +8032,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
@@ -8045,7 +8051,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
@@ -8064,7 +8070,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
@@ -8083,7 +8089,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
@@ -8102,7 +8108,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
@@ -8139,22 +8145,22 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>237</v>
       </c>
       <c r="N135" s="4"/>
     </row>
@@ -8169,7 +8175,7 @@
       <c r="F136" s="40"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8189,7 +8195,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -8209,7 +8215,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8229,7 +8235,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -8249,7 +8255,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -8287,22 +8293,22 @@
       <c r="F142" s="62"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>248</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>249</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -8315,7 +8321,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -8330,7 +8336,7 @@
         <v>134</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -8343,7 +8349,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -8363,7 +8369,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -8383,7 +8389,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -8403,7 +8409,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -8441,22 +8447,22 @@
       <c r="F149" s="20"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>254</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="N149" s="4"/>
     </row>
@@ -8471,7 +8477,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -8491,7 +8497,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -8511,7 +8517,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -8531,7 +8537,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -8551,7 +8557,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -8587,47 +8593,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>261</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="39.75" thickBot="1">
       <c r="A157" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>272</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>273</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -8638,7 +8644,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8647,7 +8653,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8658,7 +8664,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8667,7 +8673,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8678,7 +8684,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8687,7 +8693,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8698,7 +8704,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8707,7 +8713,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -8718,7 +8724,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8743,47 +8749,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>266</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>267</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="52.5" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>279</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8794,7 +8800,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8803,7 +8809,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8814,7 +8820,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8823,7 +8829,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8834,7 +8840,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8843,7 +8849,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8854,7 +8860,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -8863,7 +8869,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -8874,7 +8880,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8909,19 +8915,19 @@
     <row r="171" spans="1:14" ht="52.5" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>283</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>284</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -8935,7 +8941,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8953,7 +8959,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8971,7 +8977,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8989,7 +8995,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9007,7 +9013,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9185,8 +9191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="G29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9207,7 +9213,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -9243,7 +9249,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -9283,7 +9289,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="71"/>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -9293,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -9309,7 +9315,7 @@
         <v>146</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>1</v>
@@ -9328,7 +9334,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
@@ -9386,7 +9392,7 @@
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="20"/>
@@ -9413,7 +9419,7 @@
       <c r="H10" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="73"/>
       <c r="K10" s="73"/>
       <c r="L10" s="73"/>
@@ -9424,7 +9430,7 @@
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="20"/>
@@ -9555,7 +9561,7 @@
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="73"/>
@@ -9574,7 +9580,7 @@
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="73"/>
@@ -9727,7 +9733,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>1</v>
@@ -9790,7 +9796,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
@@ -9816,7 +9822,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
       <c r="H31" s="76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
@@ -9835,7 +9841,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="58"/>
       <c r="H32" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="63"/>
@@ -9852,7 +9858,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="58"/>
       <c r="H33" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -9866,7 +9872,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>1</v>
@@ -9879,7 +9885,7 @@
       </c>
       <c r="G34" s="58"/>
       <c r="H34" s="75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -9898,7 +9904,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="58"/>
       <c r="H35" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -9976,7 +9982,7 @@
       <c r="L39" s="93"/>
       <c r="M39" s="58"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1">
+    <row r="40" spans="1:13" ht="30.75" thickBot="1">
       <c r="A40" s="58"/>
       <c r="B40" s="64"/>
       <c r="C40" s="65"/>
@@ -9985,9 +9991,11 @@
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
       <c r="H40" s="76" t="s">
-        <v>303</v>
-      </c>
-      <c r="I40" s="63"/>
+        <v>302</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>323</v>
+      </c>
       <c r="J40" s="63"/>
       <c r="K40" s="63"/>
       <c r="L40" s="63"/>
@@ -9999,7 +10007,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1</v>
@@ -10012,7 +10020,7 @@
       </c>
       <c r="G41" s="58"/>
       <c r="H41" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I41" s="63"/>
       <c r="J41" s="63"/>
@@ -10031,7 +10039,7 @@
       <c r="F42" s="74"/>
       <c r="G42" s="58"/>
       <c r="H42" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -10050,7 +10058,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
       <c r="H43" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -10069,7 +10077,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="58"/>
       <c r="H44" s="75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -10077,7 +10085,7 @@
       <c r="L44" s="20"/>
       <c r="M44" s="58"/>
     </row>
-    <row r="45" spans="1:13" ht="26.25" thickBot="1">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1">
       <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
         <v>39</v>
@@ -10088,7 +10096,7 @@
       <c r="F45" s="73"/>
       <c r="G45" s="58"/>
       <c r="H45" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -10107,7 +10115,7 @@
       <c r="F46" s="62"/>
       <c r="G46" s="58"/>
       <c r="H46" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -10136,7 +10144,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1</v>
@@ -10168,7 +10176,7 @@
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
       <c r="H49" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
@@ -10187,7 +10195,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="58"/>
       <c r="H50" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I50" s="63"/>
       <c r="J50" s="63"/>
@@ -10206,7 +10214,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="58"/>
       <c r="H51" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -10225,7 +10233,7 @@
       <c r="F52" s="73"/>
       <c r="G52" s="58"/>
       <c r="H52" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -10244,7 +10252,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="58"/>
       <c r="H53" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -10263,7 +10271,7 @@
       <c r="F54" s="73"/>
       <c r="G54" s="58"/>
       <c r="H54" s="75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -10490,12 +10498,12 @@
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
       <c r="H67" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
       <c r="K67" s="99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L67" s="100"/>
       <c r="M67" s="58"/>
@@ -10511,12 +10519,12 @@
       <c r="F68" s="73"/>
       <c r="G68" s="58"/>
       <c r="H68" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
       <c r="K68" s="99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L68" s="100"/>
       <c r="M68" s="58"/>
@@ -10532,12 +10540,12 @@
       <c r="F69" s="73"/>
       <c r="G69" s="58"/>
       <c r="H69" s="75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L69" s="95"/>
       <c r="M69" s="58"/>
@@ -10547,18 +10555,18 @@
       <c r="B70" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="E70" s="77"/>
       <c r="F70" s="20"/>
       <c r="G70" s="58"/>
       <c r="H70" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L70" s="95"/>
       <c r="M70" s="58"/>
@@ -10577,7 +10585,7 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="94" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L71" s="95"/>
       <c r="M71" s="58"/>
@@ -10630,7 +10638,7 @@
         <v>175</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>1</v>
@@ -10713,7 +10721,7 @@
       <c r="H78" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="73"/>
       <c r="K78" s="73"/>
       <c r="L78" s="73"/>
@@ -10732,7 +10740,7 @@
       <c r="H79" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I79" s="20"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="73"/>
       <c r="K79" s="73"/>
       <c r="L79" s="73"/>
@@ -10743,7 +10751,7 @@
       <c r="B80" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="20"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
       <c r="F80" s="20"/>
@@ -10762,7 +10770,7 @@
       <c r="B81" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="20"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="73"/>
       <c r="E81" s="73"/>
       <c r="F81" s="20"/>
@@ -10971,7 +10979,7 @@
       <c r="B92" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="20"/>
+      <c r="C92" s="73"/>
       <c r="D92" s="73"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -11034,12 +11042,12 @@
       <c r="F95" s="73"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="20"/>
+      <c r="L95" s="73"/>
       <c r="M95" s="58"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
@@ -11053,7 +11061,7 @@
       <c r="F96" s="73"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -11064,7 +11072,7 @@
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C97" s="73"/>
       <c r="D97" s="73"/>
@@ -11072,7 +11080,7 @@
       <c r="F97" s="73"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="73"/>
@@ -11110,7 +11118,7 @@
       <c r="F99" s="73"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="73"/>
@@ -11129,7 +11137,7 @@
       <c r="F100" s="83"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I100" s="73"/>
       <c r="J100" s="73"/>
@@ -11140,7 +11148,7 @@
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="73"/>
@@ -11148,7 +11156,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="73"/>
@@ -11167,7 +11175,7 @@
       <c r="F102" s="73"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I102" s="72"/>
       <c r="J102" s="73"/>
@@ -11186,7 +11194,7 @@
       <c r="F103" s="87"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="73"/>
@@ -11215,7 +11223,7 @@
         <v>96</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -11228,10 +11236,10 @@
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I105" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>1</v>
@@ -11255,7 +11263,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I106" s="73"/>
       <c r="J106" s="73"/>
@@ -11274,7 +11282,7 @@
       <c r="F107" s="73"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="73"/>
@@ -11293,7 +11301,7 @@
       <c r="F108" s="73"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" s="72"/>
       <c r="J108" s="20"/>
@@ -11312,9 +11320,9 @@
       <c r="F109" s="73"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="I109" s="20"/>
+        <v>206</v>
+      </c>
+      <c r="I109" s="73"/>
       <c r="J109" s="20"/>
       <c r="K109" s="73"/>
       <c r="L109" s="20"/>
@@ -11331,11 +11339,11 @@
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="81"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="73"/>
       <c r="L110" s="73"/>
       <c r="M110" s="58"/>
     </row>
@@ -11350,7 +11358,7 @@
       <c r="F111" s="73"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="73"/>
@@ -11369,7 +11377,7 @@
       <c r="F112" s="73"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="73"/>
@@ -11388,7 +11396,7 @@
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I113" s="73"/>
       <c r="J113" s="20"/>
@@ -11402,14 +11410,14 @@
         <v>105</v>
       </c>
       <c r="C114" s="73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I114" s="73"/>
       <c r="J114" s="73"/>
@@ -11428,7 +11436,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="73"/>
@@ -11447,10 +11455,10 @@
       <c r="F116" s="73"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J116" s="73"/>
       <c r="K116" s="20"/>
@@ -11463,14 +11471,14 @@
         <v>108</v>
       </c>
       <c r="C117" s="84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="74"/>
       <c r="F117" s="74"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I117" s="73"/>
       <c r="J117" s="73"/>
@@ -11489,7 +11497,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -11508,7 +11516,7 @@
       <c r="F119" s="73"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I119" s="80"/>
       <c r="J119" s="73"/>
@@ -11527,11 +11535,11 @@
       <c r="F120" s="73"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I120" s="80"/>
       <c r="J120" s="73"/>
-      <c r="K120" s="42"/>
+      <c r="K120" s="101"/>
       <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>
@@ -11546,7 +11554,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I121" s="73"/>
       <c r="J121" s="73"/>
@@ -11565,11 +11573,11 @@
       <c r="F122" s="73"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="73"/>
       <c r="L122" s="20"/>
       <c r="M122" s="58"/>
     </row>
@@ -11584,9 +11592,9 @@
       <c r="F123" s="73"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I123" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="I123" s="73"/>
       <c r="J123" s="20"/>
       <c r="K123" s="73"/>
       <c r="L123" s="20"/>
@@ -11603,7 +11611,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I124" s="73"/>
       <c r="J124" s="73"/>
@@ -11622,7 +11630,7 @@
       <c r="F125" s="73"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
@@ -11641,7 +11649,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -11660,7 +11668,7 @@
       <c r="F127" s="73"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="73"/>
@@ -11679,7 +11687,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="73"/>
@@ -11698,7 +11706,7 @@
       <c r="F129" s="73"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="73"/>
@@ -11711,18 +11719,18 @@
       <c r="B130" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="20"/>
+      <c r="C130" s="73"/>
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="20"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
       <c r="K130" s="85"/>
-      <c r="L130" s="20"/>
+      <c r="L130" s="73"/>
       <c r="M130" s="58"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" thickBot="1">
@@ -11736,7 +11744,7 @@
       <c r="F131" s="41"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="73"/>
@@ -11755,7 +11763,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I132" s="20"/>
       <c r="J132" s="73"/>
@@ -11774,7 +11782,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I133" s="73"/>
       <c r="J133" s="73"/>
@@ -11811,22 +11819,22 @@
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="J135" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="K135" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="L135" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="L135" s="45" t="s">
+      <c r="M135" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>237</v>
       </c>
       <c r="N135" s="4"/>
     </row>
@@ -11841,7 +11849,7 @@
       <c r="F136" s="77"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -11861,7 +11869,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -11881,7 +11889,7 @@
       <c r="F138" s="73"/>
       <c r="G138" s="4"/>
       <c r="H138" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -11901,7 +11909,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -11921,7 +11929,7 @@
       <c r="F140" s="73"/>
       <c r="G140" s="4"/>
       <c r="H140" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -11959,22 +11967,22 @@
       <c r="F142" s="87"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I142" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="I142" s="45" t="s">
+      <c r="J142" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="J142" s="45" t="s">
+      <c r="K142" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="L142" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="L142" s="45" t="s">
+      <c r="M142" s="45" t="s">
         <v>248</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>249</v>
       </c>
       <c r="N142" s="4"/>
     </row>
@@ -11987,7 +11995,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -12002,7 +12010,7 @@
         <v>134</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>1</v>
@@ -12015,7 +12023,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -12035,7 +12043,7 @@
       <c r="F145" s="73"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -12055,7 +12063,7 @@
       <c r="F146" s="73"/>
       <c r="G146" s="4"/>
       <c r="H146" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -12075,7 +12083,7 @@
       <c r="F147" s="73"/>
       <c r="G147" s="4"/>
       <c r="H147" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -12113,22 +12121,22 @@
       <c r="F149" s="73"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I149" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="I149" s="45" t="s">
+      <c r="J149" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="K149" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="L149" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="L149" s="45" t="s">
+      <c r="M149" s="45" t="s">
         <v>254</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="N149" s="4"/>
     </row>
@@ -12143,7 +12151,7 @@
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -12163,7 +12171,7 @@
       <c r="F151" s="73"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -12183,7 +12191,7 @@
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -12203,7 +12211,7 @@
       <c r="F153" s="73"/>
       <c r="G153" s="4"/>
       <c r="H153" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -12223,7 +12231,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="4"/>
       <c r="H154" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -12259,47 +12267,47 @@
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
       <c r="H156" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="J156" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="K156" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="L156" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="L156" s="45" t="s">
+      <c r="M156" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>261</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
       <c r="A157" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="C157" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="D157" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="E157" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="F157" s="45" t="s">
         <v>272</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>273</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -12310,7 +12318,7 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12319,7 +12327,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -12330,7 +12338,7 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12339,7 +12347,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -12350,7 +12358,7 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" thickBot="1">
       <c r="A160" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12359,7 +12367,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
       <c r="H160" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -12370,7 +12378,7 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
       <c r="A161" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12379,7 +12387,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
       <c r="H161" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -12390,7 +12398,7 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1">
       <c r="A162" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12415,47 +12423,47 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="I163" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="J163" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="K163" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="L163" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="L163" s="45" t="s">
+      <c r="M163" s="45" t="s">
         <v>266</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>267</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="39.75" thickBot="1">
       <c r="A164" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D164" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="E164" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="F164" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>279</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -12466,7 +12474,7 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1">
       <c r="A165" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -12475,7 +12483,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -12486,7 +12494,7 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1">
       <c r="A166" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -12495,7 +12503,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -12506,7 +12514,7 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1">
       <c r="A167" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -12515,7 +12523,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
       <c r="H167" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -12526,7 +12534,7 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
       <c r="A168" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -12535,7 +12543,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
       <c r="H168" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -12546,7 +12554,7 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">
       <c r="A169" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12581,19 +12589,19 @@
     <row r="171" spans="1:14" ht="27" thickBot="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="D171" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="E171" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="F171" s="45" t="s">
         <v>283</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>284</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -12607,7 +12615,7 @@
     <row r="172" spans="1:14" ht="15.75" thickBot="1">
       <c r="A172" s="4"/>
       <c r="B172" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -12625,7 +12633,7 @@
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="A173" s="4"/>
       <c r="B173" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -12643,7 +12651,7 @@
     <row r="174" spans="1:14" ht="15.75" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -12661,7 +12669,7 @@
     <row r="175" spans="1:14" ht="15.75" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -12679,7 +12687,7 @@
     <row r="176" spans="1:14" ht="15.75" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="326">
   <si>
     <t>ARMOR</t>
   </si>
@@ -989,6 +989,12 @@
   </si>
   <si>
     <t>Beads of the Snake Queen</t>
+  </si>
+  <si>
+    <t>Dyers Eve</t>
+  </si>
+  <si>
+    <t>Adrenaline Rush</t>
   </si>
 </sst>
 </file>
@@ -1612,6 +1618,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,9 +1655,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2487,13 +2493,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="90" t="s">
+      <c r="H27" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2648,13 +2654,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2815,13 +2821,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="90" t="s">
+      <c r="H45" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -2970,13 +2976,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="90" t="s">
+      <c r="H54" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3125,13 +3131,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="90" t="s">
+      <c r="H63" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4440,11 +4446,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="89"/>
-      <c r="I132" s="89"/>
-      <c r="J132" s="89"/>
-      <c r="K132" s="89"/>
-      <c r="L132" s="89"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+      <c r="J132" s="90"/>
+      <c r="K132" s="90"/>
+      <c r="L132" s="90"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6190,13 +6196,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="91" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6351,13 +6357,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="91" t="s">
+      <c r="H39" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6518,13 +6524,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6673,13 +6679,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6828,13 +6834,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="91" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9191,8 +9197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9212,40 +9218,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9254,19 +9260,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9566,7 +9572,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="58"/>
       <c r="H18" s="19" t="s">
         <v>159</v>
@@ -9802,13 +9808,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="91" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9922,7 +9928,9 @@
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="58"/>
-      <c r="H36" s="20"/>
+      <c r="H36" s="75" t="s">
+        <v>325</v>
+      </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -9973,13 +9981,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="91" t="s">
+      <c r="H39" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10022,7 +10030,9 @@
       <c r="H41" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="63"/>
+      <c r="I41" s="76" t="s">
+        <v>324</v>
+      </c>
       <c r="J41" s="63"/>
       <c r="K41" s="63"/>
       <c r="L41" s="63"/>
@@ -10156,13 +10166,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10323,13 +10333,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10478,13 +10488,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="91" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10502,10 +10512,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="99" t="s">
+      <c r="K67" s="100" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="100"/>
+      <c r="L67" s="101"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10523,10 +10533,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="99" t="s">
+      <c r="K68" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="100"/>
+      <c r="L68" s="101"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10544,10 +10554,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="94" t="s">
+      <c r="K69" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="95"/>
+      <c r="L69" s="96"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10565,10 +10575,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="94" t="s">
+      <c r="K70" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="95"/>
+      <c r="L70" s="96"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10584,10 +10594,10 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="94" t="s">
+      <c r="K71" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="95"/>
+      <c r="L71" s="96"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10603,8 +10613,8 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -11539,7 +11549,7 @@
       </c>
       <c r="I120" s="80"/>
       <c r="J120" s="73"/>
-      <c r="K120" s="101"/>
+      <c r="K120" s="89"/>
       <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="327">
   <si>
     <t>ARMOR</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>Adrenaline Rush</t>
+  </si>
+  <si>
+    <t>Suicide Note</t>
   </si>
 </sst>
 </file>
@@ -9197,8 +9200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="G36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9806,7 +9809,7 @@
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="58"/>
       <c r="H30" s="92" t="s">
         <v>170</v>
@@ -10299,7 +10302,9 @@
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="58"/>
-      <c r="H55" s="20"/>
+      <c r="H55" s="75" t="s">
+        <v>326</v>
+      </c>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="328">
   <si>
     <t>ARMOR</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>Suicide Note</t>
+  </si>
+  <si>
+    <t>In For The Kill</t>
   </si>
 </sst>
 </file>
@@ -9200,8 +9203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9499,7 +9502,7 @@
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
         <v>155</v>
@@ -9618,7 +9621,7 @@
       <c r="H20" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
       <c r="L20" s="73"/>
@@ -10054,7 +10057,9 @@
       <c r="H42" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="75" t="s">
+        <v>327</v>
+      </c>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -10087,7 +10092,7 @@
       <c r="C44" s="73"/>
       <c r="D44" s="73"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="58"/>
       <c r="H44" s="75" t="s">
         <v>309</v>
@@ -10124,8 +10129,8 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="62"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="87"/>
       <c r="G46" s="58"/>
       <c r="H46" s="75" t="s">
         <v>318</v>
@@ -10927,7 +10932,7 @@
         <v>189</v>
       </c>
       <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="J88" s="73"/>
       <c r="K88" s="73"/>
       <c r="L88" s="20"/>
       <c r="M88" s="58"/>
@@ -11110,7 +11115,7 @@
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="73"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="73"/>
       <c r="F98" s="20"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
@@ -11165,7 +11170,7 @@
       <c r="B101" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="20"/>
+      <c r="C101" s="73"/>
       <c r="D101" s="73"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -11563,10 +11568,10 @@
       <c r="B121" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="20"/>
+      <c r="C121" s="73"/>
       <c r="D121" s="73"/>
       <c r="E121" s="73"/>
-      <c r="F121" s="20"/>
+      <c r="F121" s="73"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
         <v>218</v>
@@ -11582,7 +11587,7 @@
       <c r="B122" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="20"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="73"/>
       <c r="E122" s="20"/>
       <c r="F122" s="73"/>
@@ -11658,7 +11663,7 @@
       <c r="B126" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="20"/>
+      <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
       <c r="F126" s="20"/>
@@ -12220,7 +12225,7 @@
       <c r="B153" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="20"/>
+      <c r="C153" s="73"/>
       <c r="D153" s="73"/>
       <c r="E153" s="73"/>
       <c r="F153" s="73"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="335">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1001,6 +1001,27 @@
   </si>
   <si>
     <t>In For The Kill</t>
+  </si>
+  <si>
+    <t>Plague Gland</t>
+  </si>
+  <si>
+    <t>Phase Crystal</t>
+  </si>
+  <si>
+    <t>Farsight Globe</t>
+  </si>
+  <si>
+    <t>Xepera Xeper Xeperu</t>
+  </si>
+  <si>
+    <t>The Seal of Kharos</t>
+  </si>
+  <si>
+    <t>Bucket of Love</t>
+  </si>
+  <si>
+    <t>Scarab of Death</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1648,12 +1669,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1661,6 +1676,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9203,8 +9221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9224,40 +9242,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9266,19 +9284,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9385,7 +9403,7 @@
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
@@ -9461,7 +9479,7 @@
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="20"/>
@@ -9557,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="73"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="58"/>
@@ -9597,7 +9615,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="58"/>
       <c r="H19" s="19" t="s">
         <v>160</v>
@@ -9736,7 +9754,7 @@
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1">
@@ -9829,7 +9847,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="20"/>
       <c r="G31" s="58"/>
@@ -9943,17 +9961,19 @@
       <c r="L36" s="20"/>
       <c r="M36" s="58"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1">
+    <row r="37" spans="1:13" ht="26.25" thickBot="1">
       <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="20"/>
       <c r="G37" s="58"/>
-      <c r="H37" s="20"/>
+      <c r="H37" s="75" t="s">
+        <v>332</v>
+      </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -10078,7 +10098,9 @@
       <c r="H43" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="75" t="s">
+        <v>334</v>
+      </c>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -10196,7 +10218,9 @@
       <c r="H49" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="63"/>
+      <c r="I49" s="76" t="s">
+        <v>329</v>
+      </c>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
@@ -10215,13 +10239,15 @@
       <c r="H50" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="63"/>
+      <c r="I50" s="76" t="s">
+        <v>330</v>
+      </c>
       <c r="J50" s="63"/>
       <c r="K50" s="63"/>
       <c r="L50" s="63"/>
       <c r="M50" s="58"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1">
+    <row r="51" spans="1:13" ht="26.25" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
         <v>44</v>
@@ -10234,7 +10260,9 @@
       <c r="H51" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="75" t="s">
+        <v>331</v>
+      </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -10459,7 +10487,7 @@
       <c r="B64" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
       <c r="F64" s="20"/>
@@ -10494,7 +10522,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="80"/>
+      <c r="D66" s="73"/>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
@@ -10522,10 +10550,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="100" t="s">
+      <c r="K67" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="101"/>
+      <c r="L67" s="99"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10533,7 +10561,7 @@
       <c r="B68" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="20"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
@@ -10543,10 +10571,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="100" t="s">
+      <c r="K68" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="101"/>
+      <c r="L68" s="99"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10601,7 +10629,9 @@
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
-      <c r="H71" s="20"/>
+      <c r="H71" s="75" t="s">
+        <v>333</v>
+      </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="95" t="s">
@@ -10623,8 +10653,10 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="97"/>
-      <c r="L72" s="98"/>
+      <c r="K72" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="L72" s="96"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10697,7 +10729,7 @@
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="73"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="20"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
@@ -10706,7 +10738,7 @@
       <c r="I76" s="20"/>
       <c r="J76" s="73"/>
       <c r="K76" s="73"/>
-      <c r="L76" s="20"/>
+      <c r="L76" s="73"/>
       <c r="M76" s="58"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
@@ -10722,7 +10754,7 @@
       <c r="H77" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I77" s="20"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="73"/>
       <c r="K77" s="73"/>
       <c r="L77" s="73"/>
@@ -10779,9 +10811,9 @@
       <c r="H80" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="20"/>
+      <c r="I80" s="100"/>
       <c r="J80" s="73"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="73"/>
       <c r="L80" s="20"/>
       <c r="M80" s="58"/>
     </row>
@@ -10855,7 +10887,7 @@
       <c r="H84" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I84" s="20"/>
+      <c r="I84" s="100"/>
       <c r="J84" s="73"/>
       <c r="K84" s="20"/>
       <c r="L84" s="73"/>
@@ -10907,7 +10939,7 @@
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
       <c r="E87" s="73"/>
-      <c r="F87" s="20"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="58"/>
       <c r="H87" s="19" t="s">
         <v>188</v>
@@ -10982,7 +11014,7 @@
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="73"/>
-      <c r="E91" s="20"/>
+      <c r="E91" s="73"/>
       <c r="F91" s="73"/>
       <c r="G91" s="58"/>
       <c r="H91" s="19" t="s">
@@ -11001,7 +11033,7 @@
       </c>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
-      <c r="E92" s="20"/>
+      <c r="E92" s="73"/>
       <c r="F92" s="20"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
@@ -11056,7 +11088,7 @@
       <c r="B95" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="20"/>
+      <c r="C95" s="73"/>
       <c r="D95" s="73"/>
       <c r="E95" s="73"/>
       <c r="F95" s="73"/>
@@ -11140,7 +11172,7 @@
       <c r="H99" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="I99" s="20"/>
+      <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
       <c r="L99" s="20"/>
@@ -11189,7 +11221,7 @@
       <c r="B102" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="20"/>
+      <c r="C102" s="73"/>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="73"/>
@@ -11280,7 +11312,7 @@
       <c r="C106" s="20"/>
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
-      <c r="F106" s="20"/>
+      <c r="F106" s="73"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
         <v>203</v>
@@ -11324,7 +11356,7 @@
         <v>205</v>
       </c>
       <c r="I108" s="72"/>
-      <c r="J108" s="20"/>
+      <c r="J108" s="73"/>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
       <c r="M108" s="58"/>
@@ -11336,7 +11368,7 @@
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="73"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="73"/>
       <c r="F109" s="73"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
@@ -11355,7 +11387,7 @@
       </c>
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
-      <c r="E110" s="20"/>
+      <c r="E110" s="73"/>
       <c r="F110" s="20"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
@@ -11433,7 +11465,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="73"/>
-      <c r="E114" s="20"/>
+      <c r="E114" s="73"/>
       <c r="F114" s="20"/>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
@@ -11450,7 +11482,7 @@
       <c r="B115" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="20"/>
+      <c r="C115" s="100"/>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
       <c r="F115" s="20"/>
@@ -11481,7 +11513,7 @@
         <v>286</v>
       </c>
       <c r="J116" s="73"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="73"/>
       <c r="L116" s="73"/>
       <c r="M116" s="58"/>
     </row>
@@ -11514,7 +11546,7 @@
       <c r="C118" s="20"/>
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
-      <c r="F118" s="20"/>
+      <c r="F118" s="73"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
         <v>215</v>
@@ -11578,7 +11610,7 @@
       </c>
       <c r="I121" s="73"/>
       <c r="J121" s="73"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="73"/>
       <c r="L121" s="73"/>
       <c r="M121" s="58"/>
     </row>
@@ -11682,7 +11714,7 @@
       <c r="B127" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="20"/>
+      <c r="C127" s="100"/>
       <c r="D127" s="73"/>
       <c r="E127" s="20"/>
       <c r="F127" s="73"/>
@@ -11728,7 +11760,7 @@
       <c r="H129" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="I129" s="20"/>
+      <c r="I129" s="73"/>
       <c r="J129" s="73"/>
       <c r="K129" s="73"/>
       <c r="L129" s="20"/>
@@ -11797,7 +11829,7 @@
         <v>124</v>
       </c>
       <c r="C133" s="73"/>
-      <c r="D133" s="20"/>
+      <c r="D133" s="73"/>
       <c r="E133" s="73"/>
       <c r="F133" s="20"/>
       <c r="G133" s="58"/>
@@ -11943,7 +11975,7 @@
       <c r="B140" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="20"/>
+      <c r="C140" s="100"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20"/>
       <c r="F140" s="73"/>
@@ -12137,7 +12169,7 @@
       </c>
       <c r="C149" s="73"/>
       <c r="D149" s="73"/>
-      <c r="E149" s="20"/>
+      <c r="E149" s="73"/>
       <c r="F149" s="73"/>
       <c r="G149" s="4"/>
       <c r="H149" s="44" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="337">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1022,6 +1022,12 @@
   </si>
   <si>
     <t>Scarab of Death</t>
+  </si>
+  <si>
+    <t>Ras Algethi</t>
+  </si>
+  <si>
+    <t>The Idiot Ball</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1648,6 +1654,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,7 +1687,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2517,13 +2526,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2678,13 +2687,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2845,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3000,13 +3009,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="91" t="s">
+      <c r="H54" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3155,13 +3164,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="91" t="s">
+      <c r="H63" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4470,11 +4479,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="90"/>
-      <c r="K132" s="90"/>
-      <c r="L132" s="90"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6220,13 +6229,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6381,13 +6390,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6548,13 +6557,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6703,13 +6712,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="95"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6858,13 +6867,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="95"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9221,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9242,40 +9251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9284,19 +9293,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9384,7 +9393,7 @@
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -9394,7 +9403,7 @@
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="73"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="73"/>
       <c r="M7" s="58"/>
     </row>
@@ -9403,7 +9412,7 @@
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
@@ -9726,7 +9735,7 @@
       <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="80"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="73"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -9808,7 +9817,7 @@
       <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="20"/>
       <c r="E29" s="73"/>
       <c r="F29" s="20"/>
@@ -9832,13 +9841,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9846,7 +9855,7 @@
       <c r="B31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="20"/>
@@ -9854,7 +9863,9 @@
       <c r="H31" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="76" t="s">
+        <v>335</v>
+      </c>
       <c r="J31" s="63"/>
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
@@ -9873,7 +9884,9 @@
       <c r="H32" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="76" t="s">
+        <v>336</v>
+      </c>
       <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
@@ -9928,7 +9941,7 @@
       <c r="B35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -9966,7 +9979,7 @@
       <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="100"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="20"/>
@@ -10007,13 +10020,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10125,14 +10138,14 @@
       <c r="L44" s="20"/>
       <c r="M44" s="58"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1">
+    <row r="45" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="73"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="73"/>
       <c r="G45" s="58"/>
       <c r="H45" s="75" t="s">
@@ -10196,13 +10209,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10371,13 +10384,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="95"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10526,13 +10539,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="95"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10550,10 +10563,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="98" t="s">
+      <c r="K67" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="99"/>
+      <c r="L67" s="100"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10571,10 +10584,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="98" t="s">
+      <c r="K68" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="99"/>
+      <c r="L68" s="100"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10592,10 +10605,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="95" t="s">
+      <c r="K69" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="96"/>
+      <c r="L69" s="97"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10613,10 +10626,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="95" t="s">
+      <c r="K70" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="96"/>
+      <c r="L70" s="97"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10634,10 +10647,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="95" t="s">
+      <c r="K71" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="96"/>
+      <c r="L71" s="97"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10653,10 +10666,10 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="95" t="s">
+      <c r="K72" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="96"/>
+      <c r="L72" s="97"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10683,7 +10696,7 @@
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="73"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="73"/>
       <c r="G74" s="58"/>
       <c r="H74" s="13" t="s">
@@ -10735,7 +10748,7 @@
       <c r="H76" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="73"/>
       <c r="K76" s="73"/>
       <c r="L76" s="73"/>
@@ -10811,7 +10824,7 @@
       <c r="H80" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="100"/>
+      <c r="I80" s="90"/>
       <c r="J80" s="73"/>
       <c r="K80" s="73"/>
       <c r="L80" s="20"/>
@@ -10887,7 +10900,7 @@
       <c r="H84" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I84" s="100"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="73"/>
       <c r="K84" s="20"/>
       <c r="L84" s="73"/>
@@ -10898,7 +10911,7 @@
       <c r="B85" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="20"/>
+      <c r="C85" s="73"/>
       <c r="D85" s="73"/>
       <c r="E85" s="20"/>
       <c r="F85" s="73"/>
@@ -11001,7 +11014,7 @@
       <c r="H90" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I90" s="20"/>
+      <c r="I90" s="90"/>
       <c r="J90" s="20"/>
       <c r="K90" s="73"/>
       <c r="L90" s="20"/>
@@ -11431,7 +11444,7 @@
       <c r="H112" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="I112" s="20"/>
+      <c r="I112" s="90"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
       <c r="L112" s="20"/>
@@ -11442,7 +11455,7 @@
       <c r="B113" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="20"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20"/>
       <c r="F113" s="73"/>
@@ -11482,7 +11495,7 @@
       <c r="B115" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="100"/>
+      <c r="C115" s="73"/>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
       <c r="F115" s="20"/>
@@ -11543,7 +11556,7 @@
       <c r="B118" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="20"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="73"/>
@@ -11551,7 +11564,7 @@
       <c r="H118" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I118" s="20"/>
+      <c r="I118" s="90"/>
       <c r="J118" s="20"/>
       <c r="K118" s="73"/>
       <c r="L118" s="73"/>
@@ -11714,7 +11727,7 @@
       <c r="B127" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="100"/>
+      <c r="C127" s="73"/>
       <c r="D127" s="73"/>
       <c r="E127" s="20"/>
       <c r="F127" s="73"/>
@@ -11955,7 +11968,7 @@
       <c r="B139" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C139" s="20"/>
+      <c r="C139" s="73"/>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
       <c r="F139" s="20"/>
@@ -11975,7 +11988,7 @@
       <c r="B140" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="100"/>
+      <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20"/>
       <c r="F140" s="73"/>
@@ -12109,7 +12122,7 @@
       <c r="B146" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="20"/>
+      <c r="C146" s="90"/>
       <c r="D146" s="73"/>
       <c r="E146" s="73"/>
       <c r="F146" s="73"/>
@@ -12129,7 +12142,7 @@
       <c r="B147" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="20"/>
+      <c r="C147" s="90"/>
       <c r="D147" s="73"/>
       <c r="E147" s="73"/>
       <c r="F147" s="73"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="356">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1028,13 +1028,70 @@
   </si>
   <si>
     <t>The Idiot Ball</t>
+  </si>
+  <si>
+    <t>Elemental Band</t>
+  </si>
+  <si>
+    <t>Evenstar</t>
+  </si>
+  <si>
+    <t>Ten Pin Striker</t>
+  </si>
+  <si>
+    <t>Solitude</t>
+  </si>
+  <si>
+    <t>Marksman's Eye</t>
+  </si>
+  <si>
+    <t>Essence of Itherael</t>
+  </si>
+  <si>
+    <t>Heart of Frost</t>
+  </si>
+  <si>
+    <t>Periapt of Life</t>
+  </si>
+  <si>
+    <t>Wrathspirit</t>
+  </si>
+  <si>
+    <t>Larzuk's Round Shot</t>
+  </si>
+  <si>
+    <t>Farnham's Lost Marble</t>
+  </si>
+  <si>
+    <t>The Moon Crystal</t>
+  </si>
+  <si>
+    <t>The Demon Core</t>
+  </si>
+  <si>
+    <t>Uldyssian's Spirit</t>
+  </si>
+  <si>
+    <t>Relic of Yaerius</t>
+  </si>
+  <si>
+    <t>Nor Tiraj's Flaming Sphere</t>
+  </si>
+  <si>
+    <t>Crystal of Tears</t>
+  </si>
+  <si>
+    <t>Zayl's Soul Orb</t>
+  </si>
+  <si>
+    <t>The Endless Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1253,19 @@
       <color rgb="FF111111"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1395,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1657,6 +1727,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,7 +1760,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2526,13 +2602,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2687,13 +2763,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2854,13 +2930,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3009,13 +3085,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="92" t="s">
+      <c r="H54" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3164,13 +3240,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="92" t="s">
+      <c r="H63" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4479,11 +4555,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
+      <c r="H132" s="92"/>
+      <c r="I132" s="92"/>
+      <c r="J132" s="92"/>
+      <c r="K132" s="92"/>
+      <c r="L132" s="92"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6229,13 +6305,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6390,13 +6466,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="96"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6557,13 +6633,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6712,13 +6788,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="96"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6867,13 +6943,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9230,8 +9306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" topLeftCell="G48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9251,40 +9327,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9293,19 +9369,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9393,7 +9469,7 @@
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -9667,7 +9743,7 @@
       <c r="H21" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I21" s="80"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="73"/>
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
@@ -9726,7 +9802,7 @@
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="73"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="20"/>
       <c r="M24" s="58"/>
     </row>
@@ -9737,7 +9813,7 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="20"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
@@ -9841,13 +9917,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9903,7 +9979,9 @@
       <c r="H33" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="75" t="s">
+        <v>337</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -9943,7 +10021,7 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="20"/>
       <c r="G35" s="58"/>
       <c r="H35" s="75" t="s">
@@ -10020,13 +10098,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="96"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10132,7 +10210,9 @@
       <c r="H44" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="75" t="s">
+        <v>338</v>
+      </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
@@ -10209,13 +10289,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10260,7 +10340,7 @@
       <c r="L50" s="63"/>
       <c r="M50" s="58"/>
     </row>
-    <row r="51" spans="1:13" ht="26.25" thickBot="1">
+    <row r="51" spans="1:13" ht="23.25" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="19" t="s">
         <v>44</v>
@@ -10273,7 +10353,7 @@
       <c r="H51" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="102" t="s">
         <v>331</v>
       </c>
       <c r="J51" s="20"/>
@@ -10384,13 +10464,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="96"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10398,19 +10478,25 @@
       <c r="B58" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
       <c r="F58" s="20"/>
       <c r="G58" s="58"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
+      <c r="H58" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="I58" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="J58" s="76" t="s">
+        <v>353</v>
+      </c>
       <c r="K58" s="63"/>
       <c r="L58" s="63"/>
       <c r="M58" s="58"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1">
+    <row r="59" spans="1:13" ht="24.75" thickBot="1">
       <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
         <v>52</v>
@@ -10420,14 +10506,20 @@
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
+      <c r="H59" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="I59" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>354</v>
+      </c>
       <c r="K59" s="63"/>
       <c r="L59" s="63"/>
       <c r="M59" s="58"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1">
+    <row r="60" spans="1:13" ht="23.25" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>53</v>
@@ -10437,9 +10529,15 @@
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="58"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="I60" s="102" t="s">
+        <v>348</v>
+      </c>
+      <c r="J60" s="102" t="s">
+        <v>355</v>
+      </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="58"/>
@@ -10454,8 +10552,12 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="H61" s="102" t="s">
+        <v>342</v>
+      </c>
+      <c r="I61" s="75" t="s">
+        <v>349</v>
+      </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -10471,8 +10573,12 @@
       <c r="E62" s="73"/>
       <c r="F62" s="73"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="I62" s="75" t="s">
+        <v>350</v>
+      </c>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -10488,14 +10594,18 @@
       <c r="E63" s="73"/>
       <c r="F63" s="20"/>
       <c r="G63" s="58"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="I63" s="75" t="s">
+        <v>351</v>
+      </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
       <c r="M63" s="58"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1">
+    <row r="64" spans="1:13" ht="23.25" thickBot="1">
       <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
         <v>57</v>
@@ -10505,8 +10615,12 @@
       <c r="E64" s="73"/>
       <c r="F64" s="20"/>
       <c r="G64" s="58"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" s="102" t="s">
+        <v>352</v>
+      </c>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
@@ -10539,13 +10653,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10563,10 +10677,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="99" t="s">
+      <c r="K67" s="100" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="100"/>
+      <c r="L67" s="101"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10584,10 +10698,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="99" t="s">
+      <c r="K68" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="100"/>
+      <c r="L68" s="101"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10605,10 +10719,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="96" t="s">
+      <c r="K69" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="97"/>
+      <c r="L69" s="98"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10626,10 +10740,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="96" t="s">
+      <c r="K70" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="97"/>
+      <c r="L70" s="98"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10647,10 +10761,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="96" t="s">
+      <c r="K71" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="97"/>
+      <c r="L71" s="98"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10666,10 +10780,10 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="96" t="s">
+      <c r="K72" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="97"/>
+      <c r="L72" s="98"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10876,7 +10990,7 @@
       <c r="C83" s="73"/>
       <c r="D83" s="73"/>
       <c r="E83" s="73"/>
-      <c r="F83" s="20"/>
+      <c r="F83" s="73"/>
       <c r="G83" s="58"/>
       <c r="H83" s="19" t="s">
         <v>184</v>
@@ -10976,7 +11090,7 @@
       <c r="H88" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="I88" s="20"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="73"/>
       <c r="K88" s="73"/>
       <c r="L88" s="20"/>
@@ -10998,7 +11112,7 @@
       <c r="I89" s="20"/>
       <c r="J89" s="73"/>
       <c r="K89" s="73"/>
-      <c r="L89" s="20"/>
+      <c r="L89" s="73"/>
       <c r="M89" s="58"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
@@ -11014,7 +11128,7 @@
       <c r="H90" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I90" s="90"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="20"/>
       <c r="K90" s="73"/>
       <c r="L90" s="20"/>
@@ -11085,7 +11199,7 @@
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
-      <c r="F94" s="20"/>
+      <c r="F94" s="73"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
         <v>195</v>
@@ -11130,7 +11244,7 @@
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="73"/>
       <c r="L96" s="20"/>
       <c r="M96" s="58"/>
     </row>
@@ -11161,7 +11275,7 @@
       <c r="C98" s="20"/>
       <c r="D98" s="73"/>
       <c r="E98" s="73"/>
-      <c r="F98" s="20"/>
+      <c r="F98" s="73"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
         <v>195</v>
@@ -11217,7 +11331,7 @@
       </c>
       <c r="C101" s="73"/>
       <c r="D101" s="73"/>
-      <c r="E101" s="20"/>
+      <c r="E101" s="73"/>
       <c r="F101" s="20"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
@@ -11390,7 +11504,7 @@
       <c r="I109" s="73"/>
       <c r="J109" s="20"/>
       <c r="K109" s="73"/>
-      <c r="L109" s="20"/>
+      <c r="L109" s="73"/>
       <c r="M109" s="58"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
@@ -11444,7 +11558,7 @@
       <c r="H112" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="I112" s="90"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
       <c r="L112" s="20"/>
@@ -11455,7 +11569,7 @@
       <c r="B113" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="90"/>
+      <c r="C113" s="73"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20"/>
       <c r="F113" s="73"/>
@@ -11503,7 +11617,7 @@
       <c r="H115" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="I115" s="20"/>
+      <c r="I115" s="73"/>
       <c r="J115" s="73"/>
       <c r="K115" s="73"/>
       <c r="L115" s="73"/>
@@ -11548,7 +11662,7 @@
       <c r="I117" s="73"/>
       <c r="J117" s="73"/>
       <c r="K117" s="73"/>
-      <c r="L117" s="20"/>
+      <c r="L117" s="73"/>
       <c r="M117" s="58"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
@@ -11556,7 +11670,7 @@
       <c r="B118" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="90"/>
+      <c r="C118" s="73"/>
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="73"/>
@@ -11564,7 +11678,7 @@
       <c r="H118" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I118" s="90"/>
+      <c r="I118" s="73"/>
       <c r="J118" s="20"/>
       <c r="K118" s="73"/>
       <c r="L118" s="73"/>
@@ -11583,7 +11697,7 @@
       <c r="H119" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I119" s="80"/>
+      <c r="I119" s="73"/>
       <c r="J119" s="73"/>
       <c r="K119" s="20"/>
       <c r="L119" s="73"/>
@@ -11717,7 +11831,7 @@
         <v>222</v>
       </c>
       <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
+      <c r="J126" s="73"/>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="58"/>
@@ -11749,7 +11863,7 @@
       <c r="C128" s="83"/>
       <c r="D128" s="82"/>
       <c r="E128" s="74"/>
-      <c r="F128" s="39"/>
+      <c r="F128" s="74"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
         <v>224</v>
@@ -11787,7 +11901,7 @@
       <c r="C130" s="73"/>
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
-      <c r="F130" s="20"/>
+      <c r="F130" s="73"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
         <v>226</v>
@@ -11814,7 +11928,7 @@
       <c r="I131" s="20"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
-      <c r="L131" s="20"/>
+      <c r="L131" s="73"/>
       <c r="M131" s="58"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
@@ -11844,7 +11958,7 @@
       <c r="C133" s="73"/>
       <c r="D133" s="73"/>
       <c r="E133" s="73"/>
-      <c r="F133" s="20"/>
+      <c r="F133" s="73"/>
       <c r="G133" s="58"/>
       <c r="H133" s="19" t="s">
         <v>229</v>
@@ -12122,7 +12236,7 @@
       <c r="B146" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="90"/>
+      <c r="C146" s="73"/>
       <c r="D146" s="73"/>
       <c r="E146" s="73"/>
       <c r="F146" s="73"/>
@@ -12142,7 +12256,7 @@
       <c r="B147" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="90"/>
+      <c r="C147" s="73"/>
       <c r="D147" s="73"/>
       <c r="E147" s="73"/>
       <c r="F147" s="73"/>
@@ -12231,7 +12345,7 @@
         <v>141</v>
       </c>
       <c r="C151" s="73"/>
-      <c r="D151" s="20"/>
+      <c r="D151" s="73"/>
       <c r="E151" s="73"/>
       <c r="F151" s="73"/>
       <c r="G151" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="358">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>The Endless Light</t>
+  </si>
+  <si>
+    <t>Inarius' Rock</t>
+  </si>
+  <si>
+    <t>Vizjerei's Necklace</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1724,10 +1730,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,12 +1764,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9306,8 +9306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9469,7 +9469,7 @@
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -9477,7 +9477,7 @@
       <c r="H7" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="73"/>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
@@ -9510,7 +9510,7 @@
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="58"/>
       <c r="H9" s="19" t="s">
         <v>150</v>
@@ -9567,7 +9567,7 @@
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="58"/>
       <c r="H12" s="19" t="s">
         <v>153</v>
@@ -9624,7 +9624,7 @@
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="58"/>
       <c r="H15" s="19" t="s">
         <v>156</v>
@@ -9641,7 +9641,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="73"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="58"/>
@@ -9719,7 +9719,7 @@
       <c r="C20" s="20"/>
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="58"/>
       <c r="H20" s="19" t="s">
         <v>161</v>
@@ -9795,7 +9795,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="58"/>
       <c r="H24" s="19" t="s">
         <v>165</v>
@@ -9814,14 +9814,14 @@
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="58"/>
       <c r="H25" s="19" t="s">
         <v>166</v>
       </c>
       <c r="I25" s="73"/>
       <c r="J25" s="73"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="73"/>
       <c r="M25" s="58"/>
     </row>
@@ -9934,7 +9934,7 @@
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="58"/>
       <c r="H31" s="76" t="s">
         <v>294</v>
@@ -10022,7 +10022,7 @@
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="58"/>
       <c r="H35" s="75" t="s">
         <v>316</v>
@@ -10041,7 +10041,7 @@
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="58"/>
       <c r="H36" s="75" t="s">
         <v>325</v>
@@ -10231,7 +10231,9 @@
       <c r="H45" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="75" t="s">
+        <v>357</v>
+      </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -10353,7 +10355,7 @@
       <c r="H51" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="102" t="s">
+      <c r="I51" s="90" t="s">
         <v>331</v>
       </c>
       <c r="J51" s="20"/>
@@ -10374,7 +10376,9 @@
       <c r="H52" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="75" t="s">
+        <v>356</v>
+      </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -10486,7 +10490,7 @@
       <c r="H58" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="103" t="s">
+      <c r="I58" s="91" t="s">
         <v>346</v>
       </c>
       <c r="J58" s="76" t="s">
@@ -10509,7 +10513,7 @@
       <c r="H59" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="103" t="s">
+      <c r="I59" s="91" t="s">
         <v>347</v>
       </c>
       <c r="J59" s="76" t="s">
@@ -10532,10 +10536,10 @@
       <c r="H60" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="102" t="s">
+      <c r="I60" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="102" t="s">
+      <c r="J60" s="90" t="s">
         <v>355</v>
       </c>
       <c r="K60" s="20"/>
@@ -10552,7 +10556,7 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="102" t="s">
+      <c r="H61" s="90" t="s">
         <v>342</v>
       </c>
       <c r="I61" s="75" t="s">
@@ -10618,7 +10622,7 @@
       <c r="H64" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="102" t="s">
+      <c r="I64" s="90" t="s">
         <v>352</v>
       </c>
       <c r="J64" s="20"/>
@@ -10938,7 +10942,7 @@
       <c r="H80" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="90"/>
+      <c r="I80" s="73"/>
       <c r="J80" s="73"/>
       <c r="K80" s="73"/>
       <c r="L80" s="20"/>
@@ -10952,7 +10956,7 @@
       <c r="C81" s="73"/>
       <c r="D81" s="73"/>
       <c r="E81" s="73"/>
-      <c r="F81" s="20"/>
+      <c r="F81" s="73"/>
       <c r="G81" s="58"/>
       <c r="H81" s="19" t="s">
         <v>182</v>
@@ -10998,7 +11002,7 @@
       <c r="I83" s="20"/>
       <c r="J83" s="73"/>
       <c r="K83" s="73"/>
-      <c r="L83" s="20"/>
+      <c r="L83" s="73"/>
       <c r="M83" s="58"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
@@ -11085,7 +11089,7 @@
       <c r="C88" s="73"/>
       <c r="D88" s="80"/>
       <c r="E88" s="73"/>
-      <c r="F88" s="20"/>
+      <c r="F88" s="73"/>
       <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
         <v>189</v>
@@ -11093,7 +11097,7 @@
       <c r="I88" s="73"/>
       <c r="J88" s="73"/>
       <c r="K88" s="73"/>
-      <c r="L88" s="20"/>
+      <c r="L88" s="73"/>
       <c r="M88" s="58"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
@@ -11242,7 +11246,7 @@
       <c r="H96" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="I96" s="20"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="20"/>
       <c r="K96" s="73"/>
       <c r="L96" s="20"/>
@@ -11264,7 +11268,7 @@
       <c r="I97" s="20"/>
       <c r="J97" s="73"/>
       <c r="K97" s="73"/>
-      <c r="L97" s="20"/>
+      <c r="L97" s="73"/>
       <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
@@ -11337,7 +11341,7 @@
       <c r="H101" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="I101" s="20"/>
+      <c r="I101" s="73"/>
       <c r="J101" s="73"/>
       <c r="K101" s="73"/>
       <c r="L101" s="73"/>
@@ -11436,7 +11440,7 @@
       <c r="B106" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="20"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="73"/>
@@ -11515,12 +11519,12 @@
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
       <c r="E110" s="73"/>
-      <c r="F110" s="20"/>
+      <c r="F110" s="73"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="I110" s="20"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="81"/>
       <c r="K110" s="73"/>
       <c r="L110" s="73"/>
@@ -11689,7 +11693,7 @@
       <c r="B119" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="20"/>
+      <c r="C119" s="73"/>
       <c r="D119" s="73"/>
       <c r="E119" s="73"/>
       <c r="F119" s="73"/>
@@ -11920,12 +11924,12 @@
       <c r="C131" s="86"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
-      <c r="F131" s="41"/>
+      <c r="F131" s="83"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I131" s="20"/>
+      <c r="I131" s="73"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
       <c r="L131" s="73"/>
@@ -11944,7 +11948,7 @@
       <c r="H132" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="I132" s="20"/>
+      <c r="I132" s="73"/>
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
       <c r="L132" s="20"/>
@@ -12042,7 +12046,7 @@
       <c r="B137" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C137" s="20"/>
+      <c r="C137" s="73"/>
       <c r="D137" s="20"/>
       <c r="E137" s="73"/>
       <c r="F137" s="20"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="381">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1091,6 +1091,75 @@
   </si>
   <si>
     <t>Vizjerei's Necklace</t>
+  </si>
+  <si>
+    <t>Quiv tsin's talisman</t>
+  </si>
+  <si>
+    <t>Der Nebelring</t>
+  </si>
+  <si>
+    <t>Ring of Truth</t>
+  </si>
+  <si>
+    <t>Teganze Pendant</t>
+  </si>
+  <si>
+    <t>Angel Heart</t>
+  </si>
+  <si>
+    <t>Empyrean Band</t>
+  </si>
+  <si>
+    <t>Zakarum Stoning Rock</t>
+  </si>
+  <si>
+    <t>Earth Rouser</t>
+  </si>
+  <si>
+    <t>Eye of the Storm</t>
+  </si>
+  <si>
+    <t>Xorine's Ring</t>
+  </si>
+  <si>
+    <t>Ring of Disengagement</t>
+  </si>
+  <si>
+    <t>Pandemonium</t>
+  </si>
+  <si>
+    <t>Sigil of Tur Dulra</t>
+  </si>
+  <si>
+    <t>Warbringer</t>
+  </si>
+  <si>
+    <t>Explorer's Globe</t>
+  </si>
+  <si>
+    <t>Athulua's Oracle</t>
+  </si>
+  <si>
+    <t>Ripstar</t>
+  </si>
+  <si>
+    <t>The Dreamcatcher</t>
+  </si>
+  <si>
+    <t>Witchmoon</t>
+  </si>
+  <si>
+    <t>Fren Slairea</t>
+  </si>
+  <si>
+    <t>The Boulder</t>
+  </si>
+  <si>
+    <t>Bloodbond</t>
+  </si>
+  <si>
+    <t>Felblood</t>
   </si>
 </sst>
 </file>
@@ -1718,9 +1787,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1764,6 +1830,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2602,13 +2671,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2763,13 +2832,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2930,13 +2999,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="93" t="s">
+      <c r="H45" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3085,13 +3154,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="93" t="s">
+      <c r="H54" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3240,13 +3309,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="93" t="s">
+      <c r="H63" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="93"/>
-      <c r="J63" s="93"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="93"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4555,11 +4624,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="92"/>
-      <c r="I132" s="92"/>
-      <c r="J132" s="92"/>
-      <c r="K132" s="92"/>
-      <c r="L132" s="92"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6305,13 +6374,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="94" t="s">
+      <c r="H30" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6466,13 +6535,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="96"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6633,13 +6702,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="96"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6788,13 +6857,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="94" t="s">
+      <c r="H57" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="96"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="95"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -6943,13 +7012,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="94" t="s">
+      <c r="H66" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="96"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="95"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9306,8 +9375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9327,40 +9396,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9369,19 +9438,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9548,14 +9617,14 @@
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="58"/>
       <c r="H11" s="19" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="73"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="73"/>
       <c r="M11" s="58"/>
     </row>
@@ -9583,7 +9652,7 @@
       <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -9592,7 +9661,7 @@
         <v>154</v>
       </c>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
       <c r="M13" s="58"/>
@@ -9629,7 +9698,7 @@
       <c r="H15" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="73"/>
       <c r="K15" s="73"/>
       <c r="L15" s="73"/>
@@ -9716,7 +9785,7 @@
       <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -9736,7 +9805,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="20"/>
       <c r="G21" s="58"/>
@@ -9775,13 +9844,13 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="73"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
       <c r="L23" s="20"/>
@@ -9792,7 +9861,7 @@
       <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
@@ -9800,7 +9869,7 @@
       <c r="H24" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
       <c r="L24" s="20"/>
@@ -9894,7 +9963,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="73"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="73"/>
       <c r="F29" s="20"/>
       <c r="G29" s="58"/>
@@ -9917,13 +9986,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="94" t="s">
+      <c r="H30" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -9942,12 +10011,14 @@
       <c r="I31" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="J31" s="63"/>
+      <c r="J31" s="76" t="s">
+        <v>367</v>
+      </c>
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
       <c r="M31" s="58"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="30.75" thickBot="1">
       <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>28</v>
@@ -9955,7 +10026,7 @@
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="58"/>
       <c r="H32" s="76" t="s">
         <v>308</v>
@@ -9963,7 +10034,9 @@
       <c r="I32" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="63"/>
+      <c r="J32" s="76" t="s">
+        <v>368</v>
+      </c>
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
       <c r="M32" s="58"/>
@@ -9982,7 +10055,9 @@
       <c r="I33" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="89" t="s">
+        <v>332</v>
+      </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="58"/>
@@ -10008,8 +10083,12 @@
       <c r="H34" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="I34" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="J34" s="75" t="s">
+        <v>374</v>
+      </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="58"/>
@@ -10027,8 +10106,12 @@
       <c r="H35" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="I35" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>379</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="58"/>
@@ -10046,7 +10129,9 @@
       <c r="H36" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="75" t="s">
+        <v>363</v>
+      </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -10065,7 +10150,9 @@
       <c r="H37" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="75" t="s">
+        <v>365</v>
+      </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -10076,7 +10163,7 @@
       <c r="B38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="73"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
@@ -10096,15 +10183,15 @@
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
-      <c r="F39" s="62"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="96"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10121,8 +10208,12 @@
       <c r="I40" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
+      <c r="J40" s="76" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" s="76" t="s">
+        <v>377</v>
+      </c>
       <c r="L40" s="63"/>
       <c r="M40" s="58"/>
     </row>
@@ -10150,8 +10241,12 @@
       <c r="I41" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
+      <c r="J41" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" s="76" t="s">
+        <v>380</v>
+      </c>
       <c r="L41" s="63"/>
       <c r="M41" s="58"/>
     </row>
@@ -10171,7 +10266,9 @@
       <c r="I42" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="75" t="s">
+        <v>369</v>
+      </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
@@ -10181,9 +10278,9 @@
       <c r="B43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="73"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="20"/>
       <c r="G43" s="58"/>
       <c r="H43" s="75" t="s">
@@ -10192,7 +10289,9 @@
       <c r="I43" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="75" t="s">
+        <v>370</v>
+      </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="58"/>
@@ -10204,7 +10303,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="73"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="73"/>
       <c r="G44" s="58"/>
       <c r="H44" s="75" t="s">
@@ -10213,7 +10312,9 @@
       <c r="I44" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="20"/>
+      <c r="J44" s="89" t="s">
+        <v>373</v>
+      </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="58"/>
@@ -10234,12 +10335,14 @@
       <c r="I45" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="75" t="s">
+        <v>375</v>
+      </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="58"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1">
+    <row r="46" spans="1:13" ht="26.25" thickBot="1">
       <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
         <v>40</v>
@@ -10247,13 +10350,17 @@
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
       <c r="E46" s="73"/>
-      <c r="F46" s="87"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="58"/>
       <c r="H46" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>376</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="58"/>
@@ -10291,13 +10398,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="96"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10329,7 +10436,7 @@
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="73"/>
       <c r="G50" s="58"/>
       <c r="H50" s="76" t="s">
         <v>304</v>
@@ -10350,12 +10457,12 @@
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="58"/>
       <c r="H51" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="90" t="s">
+      <c r="I51" s="89" t="s">
         <v>331</v>
       </c>
       <c r="J51" s="20"/>
@@ -10384,7 +10491,7 @@
       <c r="L52" s="20"/>
       <c r="M52" s="58"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1">
+    <row r="53" spans="1:13" ht="23.25" thickBot="1">
       <c r="A53" s="58"/>
       <c r="B53" s="19" t="s">
         <v>46</v>
@@ -10392,12 +10499,14 @@
       <c r="C53" s="73"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="73"/>
       <c r="G53" s="58"/>
       <c r="H53" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="89" t="s">
+        <v>364</v>
+      </c>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -10416,7 +10525,9 @@
       <c r="H54" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="75" t="s">
+        <v>366</v>
+      </c>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -10429,13 +10540,15 @@
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="73"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
       <c r="G55" s="58"/>
       <c r="H55" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="75" t="s">
+        <v>378</v>
+      </c>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -10446,7 +10559,7 @@
       <c r="B56" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="20"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
       <c r="F56" s="20"/>
@@ -10468,13 +10581,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="94" t="s">
+      <c r="H57" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="96"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="95"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10490,7 +10603,7 @@
       <c r="H58" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="91" t="s">
+      <c r="I58" s="90" t="s">
         <v>346</v>
       </c>
       <c r="J58" s="76" t="s">
@@ -10513,7 +10626,7 @@
       <c r="H59" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="91" t="s">
+      <c r="I59" s="90" t="s">
         <v>347</v>
       </c>
       <c r="J59" s="76" t="s">
@@ -10529,17 +10642,17 @@
         <v>53</v>
       </c>
       <c r="C60" s="73"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="58"/>
       <c r="H60" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="90" t="s">
+      <c r="I60" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="90" t="s">
+      <c r="J60" s="89" t="s">
         <v>355</v>
       </c>
       <c r="K60" s="20"/>
@@ -10556,13 +10669,15 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="89" t="s">
         <v>342</v>
       </c>
       <c r="I61" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="75" t="s">
+        <v>371</v>
+      </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="58"/>
@@ -10583,7 +10698,9 @@
       <c r="I62" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="89" t="s">
+        <v>372</v>
+      </c>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="58"/>
@@ -10622,7 +10739,7 @@
       <c r="H64" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="90" t="s">
+      <c r="I64" s="89" t="s">
         <v>352</v>
       </c>
       <c r="J64" s="20"/>
@@ -10657,13 +10774,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="94" t="s">
+      <c r="H66" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="96"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="95"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10681,10 +10798,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="100" t="s">
+      <c r="K67" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="101"/>
+      <c r="L67" s="100"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10702,10 +10819,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="100" t="s">
+      <c r="K68" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="101"/>
+      <c r="L68" s="100"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10713,7 +10830,7 @@
       <c r="B69" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
       <c r="F69" s="73"/>
@@ -10723,10 +10840,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="98"/>
+      <c r="L69" s="97"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10744,10 +10861,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="97" t="s">
+      <c r="K70" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="98"/>
+      <c r="L70" s="97"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10765,10 +10882,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="97" t="s">
+      <c r="K71" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="98"/>
+      <c r="L71" s="97"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10784,10 +10901,10 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="97" t="s">
+      <c r="K72" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="98"/>
+      <c r="L72" s="97"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10847,7 +10964,7 @@
       <c r="H75" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="73"/>
       <c r="K75" s="73"/>
       <c r="L75" s="73"/>
@@ -10858,7 +10975,7 @@
       <c r="B76" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="73"/>
       <c r="D76" s="73"/>
       <c r="E76" s="73"/>
       <c r="F76" s="20"/>
@@ -10899,7 +11016,7 @@
       <c r="C78" s="20"/>
       <c r="D78" s="73"/>
       <c r="E78" s="73"/>
-      <c r="F78" s="20"/>
+      <c r="F78" s="73"/>
       <c r="G78" s="58"/>
       <c r="H78" s="19" t="s">
         <v>179</v>
@@ -10945,7 +11062,7 @@
       <c r="I80" s="73"/>
       <c r="J80" s="73"/>
       <c r="K80" s="73"/>
-      <c r="L80" s="20"/>
+      <c r="L80" s="73"/>
       <c r="M80" s="58"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
@@ -10973,7 +11090,7 @@
         <v>75</v>
       </c>
       <c r="C82" s="73"/>
-      <c r="D82" s="20"/>
+      <c r="D82" s="73"/>
       <c r="E82" s="73"/>
       <c r="F82" s="20"/>
       <c r="G82" s="58"/>
@@ -11011,7 +11128,7 @@
         <v>77</v>
       </c>
       <c r="C84" s="73"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="73"/>
       <c r="F84" s="20"/>
       <c r="G84" s="58"/>
@@ -11020,7 +11137,7 @@
       </c>
       <c r="I84" s="73"/>
       <c r="J84" s="73"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="73"/>
       <c r="L84" s="73"/>
       <c r="M84" s="58"/>
     </row>
@@ -11031,7 +11148,7 @@
       </c>
       <c r="C85" s="73"/>
       <c r="D85" s="73"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="73"/>
       <c r="F85" s="73"/>
       <c r="G85" s="58"/>
       <c r="H85" s="19" t="s">
@@ -11075,7 +11192,7 @@
       <c r="H87" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
       <c r="L87" s="20"/>
@@ -11105,7 +11222,7 @@
       <c r="B89" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="20"/>
+      <c r="C89" s="73"/>
       <c r="D89" s="78"/>
       <c r="E89" s="73"/>
       <c r="F89" s="73"/>
@@ -11154,7 +11271,7 @@
       <c r="I91" s="73"/>
       <c r="J91" s="73"/>
       <c r="K91" s="73"/>
-      <c r="L91" s="20"/>
+      <c r="L91" s="73"/>
       <c r="M91" s="58"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
@@ -11184,7 +11301,7 @@
       <c r="C93" s="73"/>
       <c r="D93" s="20"/>
       <c r="E93" s="73"/>
-      <c r="F93" s="20"/>
+      <c r="F93" s="73"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
         <v>194</v>
@@ -11208,7 +11325,7 @@
       <c r="H94" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I94" s="20"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="73"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -11247,7 +11364,7 @@
         <v>196</v>
       </c>
       <c r="I96" s="73"/>
-      <c r="J96" s="20"/>
+      <c r="J96" s="73"/>
       <c r="K96" s="73"/>
       <c r="L96" s="20"/>
       <c r="M96" s="58"/>
@@ -11276,7 +11393,7 @@
       <c r="B98" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="20"/>
+      <c r="C98" s="73"/>
       <c r="D98" s="73"/>
       <c r="E98" s="73"/>
       <c r="F98" s="73"/>
@@ -11284,7 +11401,7 @@
       <c r="H98" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I98" s="20"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="20"/>
       <c r="K98" s="73"/>
       <c r="L98" s="20"/>
@@ -11374,7 +11491,7 @@
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
-      <c r="F103" s="87"/>
+      <c r="F103" s="86"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
         <v>202</v>
@@ -11467,10 +11584,10 @@
       <c r="H107" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I107" s="20"/>
+      <c r="I107" s="73"/>
       <c r="J107" s="73"/>
       <c r="K107" s="73"/>
-      <c r="L107" s="20"/>
+      <c r="L107" s="73"/>
       <c r="M107" s="58"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
@@ -11535,7 +11652,7 @@
       <c r="B111" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C111" s="20"/>
+      <c r="C111" s="73"/>
       <c r="D111" s="20"/>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
@@ -11554,7 +11671,7 @@
       <c r="B112" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="20"/>
+      <c r="C112" s="73"/>
       <c r="D112" s="73"/>
       <c r="E112" s="73"/>
       <c r="F112" s="73"/>
@@ -11565,7 +11682,7 @@
       <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
-      <c r="L112" s="20"/>
+      <c r="L112" s="73"/>
       <c r="M112" s="58"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
@@ -11640,7 +11757,7 @@
       <c r="H116" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I116" s="75" t="s">
+      <c r="I116" s="72" t="s">
         <v>286</v>
       </c>
       <c r="J116" s="73"/>
@@ -11656,7 +11773,7 @@
       <c r="C117" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="41"/>
+      <c r="D117" s="83"/>
       <c r="E117" s="74"/>
       <c r="F117" s="74"/>
       <c r="G117" s="58"/>
@@ -11683,7 +11800,7 @@
         <v>215</v>
       </c>
       <c r="I118" s="73"/>
-      <c r="J118" s="20"/>
+      <c r="J118" s="73"/>
       <c r="K118" s="73"/>
       <c r="L118" s="73"/>
       <c r="M118" s="58"/>
@@ -11703,7 +11820,7 @@
       </c>
       <c r="I119" s="73"/>
       <c r="J119" s="73"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="73"/>
       <c r="L119" s="73"/>
       <c r="M119" s="58"/>
     </row>
@@ -11720,9 +11837,9 @@
       <c r="H120" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="I120" s="80"/>
+      <c r="I120" s="73"/>
       <c r="J120" s="73"/>
-      <c r="K120" s="89"/>
+      <c r="K120" s="88"/>
       <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>
@@ -11761,7 +11878,7 @@
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
-      <c r="L122" s="20"/>
+      <c r="L122" s="73"/>
       <c r="M122" s="58"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
@@ -11778,7 +11895,7 @@
         <v>220</v>
       </c>
       <c r="I123" s="73"/>
-      <c r="J123" s="20"/>
+      <c r="J123" s="73"/>
       <c r="K123" s="73"/>
       <c r="L123" s="20"/>
       <c r="M123" s="58"/>
@@ -11798,8 +11915,8 @@
       </c>
       <c r="I124" s="73"/>
       <c r="J124" s="73"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="K124" s="73"/>
+      <c r="L124" s="73"/>
       <c r="M124" s="58"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1">
@@ -11834,9 +11951,9 @@
       <c r="H126" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I126" s="20"/>
+      <c r="I126" s="73"/>
       <c r="J126" s="73"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="73"/>
       <c r="L126" s="20"/>
       <c r="M126" s="58"/>
     </row>
@@ -11847,13 +11964,13 @@
       </c>
       <c r="C127" s="73"/>
       <c r="D127" s="73"/>
-      <c r="E127" s="20"/>
+      <c r="E127" s="73"/>
       <c r="F127" s="73"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="I127" s="20"/>
+      <c r="I127" s="73"/>
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
       <c r="L127" s="73"/>
@@ -11872,7 +11989,7 @@
       <c r="H128" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="I128" s="20"/>
+      <c r="I128" s="73"/>
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
       <c r="L128" s="20"/>
@@ -11912,7 +12029,7 @@
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
-      <c r="K130" s="85"/>
+      <c r="K130" s="73"/>
       <c r="L130" s="73"/>
       <c r="M130" s="58"/>
     </row>
@@ -11921,7 +12038,7 @@
       <c r="B131" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="86"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="83"/>
@@ -11997,7 +12114,7 @@
         <v>126</v>
       </c>
       <c r="C135" s="43"/>
-      <c r="D135" s="88"/>
+      <c r="D135" s="87"/>
       <c r="E135" s="73"/>
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
@@ -12047,9 +12164,9 @@
         <v>128</v>
       </c>
       <c r="C137" s="73"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="73"/>
       <c r="E137" s="73"/>
-      <c r="F137" s="20"/>
+      <c r="F137" s="73"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
         <v>238</v>
@@ -12126,7 +12243,7 @@
       <c r="B141" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C141" s="20"/>
+      <c r="C141" s="73"/>
       <c r="D141" s="73"/>
       <c r="E141" s="20"/>
       <c r="F141" s="73"/>
@@ -12144,10 +12261,10 @@
       <c r="B142" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="20"/>
+      <c r="C142" s="73"/>
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
-      <c r="F142" s="87"/>
+      <c r="F142" s="86"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>243</v>
@@ -12370,7 +12487,7 @@
       </c>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
-      <c r="E152" s="20"/>
+      <c r="E152" s="73"/>
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
@@ -12431,7 +12548,7 @@
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="73"/>
-      <c r="F155" s="87"/>
+      <c r="F155" s="86"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1540,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1784,9 +1784,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1830,9 +1827,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2671,13 +2665,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2832,13 +2826,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2999,13 +2993,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3154,13 +3148,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="92" t="s">
+      <c r="H54" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3309,13 +3303,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="92" t="s">
+      <c r="H63" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4624,11 +4618,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+      <c r="J132" s="90"/>
+      <c r="K132" s="90"/>
+      <c r="L132" s="90"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6374,13 +6368,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6535,13 +6529,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6702,13 +6696,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="95"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6857,13 +6851,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="95"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7012,13 +7006,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9375,8 +9369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="B116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9396,40 +9390,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9438,19 +9432,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9660,7 +9654,7 @@
       <c r="H13" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="73"/>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
@@ -9736,10 +9730,10 @@
       <c r="H17" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="73"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="L17" s="73"/>
       <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
@@ -9755,7 +9749,7 @@
       <c r="H18" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="80"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="73"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
@@ -9766,7 +9760,7 @@
       <c r="B19" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -9774,7 +9768,7 @@
       <c r="H19" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
       <c r="L19" s="20"/>
@@ -9804,7 +9798,7 @@
       <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="20"/>
@@ -9842,9 +9836,9 @@
       <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="80"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="73"/>
-      <c r="E23" s="80"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="58"/>
       <c r="H23" s="19" t="s">
@@ -9951,10 +9945,10 @@
       <c r="H28" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="73"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="62"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
@@ -9986,13 +9980,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10055,7 +10049,7 @@
       <c r="I33" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="89" t="s">
+      <c r="J33" s="88" t="s">
         <v>332</v>
       </c>
       <c r="K33" s="20"/>
@@ -10183,15 +10177,15 @@
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
-      <c r="F39" s="86"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="95"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10312,7 +10306,7 @@
       <c r="I44" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="89" t="s">
+      <c r="J44" s="88" t="s">
         <v>373</v>
       </c>
       <c r="K44" s="20"/>
@@ -10350,7 +10344,7 @@
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
       <c r="E46" s="73"/>
-      <c r="F46" s="86"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="58"/>
       <c r="H46" s="75" t="s">
         <v>318</v>
@@ -10398,13 +10392,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="95"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10462,7 +10456,7 @@
       <c r="H51" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="89" t="s">
+      <c r="I51" s="88" t="s">
         <v>331</v>
       </c>
       <c r="J51" s="20"/>
@@ -10504,7 +10498,7 @@
       <c r="H53" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="89" t="s">
+      <c r="I53" s="88" t="s">
         <v>364</v>
       </c>
       <c r="J53" s="20"/>
@@ -10562,7 +10556,7 @@
       <c r="C56" s="73"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="73"/>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
       <c r="I56" s="58"/>
@@ -10581,13 +10575,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="95"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -10603,7 +10597,7 @@
       <c r="H58" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="90" t="s">
+      <c r="I58" s="89" t="s">
         <v>346</v>
       </c>
       <c r="J58" s="76" t="s">
@@ -10618,7 +10612,7 @@
       <c r="B59" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="39"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="74"/>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
@@ -10626,7 +10620,7 @@
       <c r="H59" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="90" t="s">
+      <c r="I59" s="89" t="s">
         <v>347</v>
       </c>
       <c r="J59" s="76" t="s">
@@ -10649,10 +10643,10 @@
       <c r="H60" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="89" t="s">
+      <c r="I60" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="89" t="s">
+      <c r="J60" s="88" t="s">
         <v>355</v>
       </c>
       <c r="K60" s="20"/>
@@ -10669,7 +10663,7 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="89" t="s">
+      <c r="H61" s="88" t="s">
         <v>342</v>
       </c>
       <c r="I61" s="75" t="s">
@@ -10698,7 +10692,7 @@
       <c r="I62" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="J62" s="89" t="s">
+      <c r="J62" s="88" t="s">
         <v>372</v>
       </c>
       <c r="K62" s="20"/>
@@ -10734,12 +10728,12 @@
       <c r="C64" s="73"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
-      <c r="F64" s="20"/>
+      <c r="F64" s="73"/>
       <c r="G64" s="58"/>
       <c r="H64" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="89" t="s">
+      <c r="I64" s="88" t="s">
         <v>352</v>
       </c>
       <c r="J64" s="20"/>
@@ -10774,13 +10768,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10798,10 +10792,10 @@
       </c>
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
-      <c r="K67" s="99" t="s">
+      <c r="K67" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="100"/>
+      <c r="L67" s="99"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10819,10 +10813,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="99" t="s">
+      <c r="K68" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="100"/>
+      <c r="L68" s="99"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10840,10 +10834,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="96" t="s">
+      <c r="K69" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="97"/>
+      <c r="L69" s="96"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10854,17 +10848,17 @@
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="20"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="58"/>
       <c r="H70" s="75" t="s">
         <v>317</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="96" t="s">
+      <c r="K70" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="97"/>
+      <c r="L70" s="96"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10882,10 +10876,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="96" t="s">
+      <c r="K71" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="97"/>
+      <c r="L71" s="96"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -10896,15 +10890,15 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="85"/>
+      <c r="F72" s="80"/>
       <c r="G72" s="58"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="96" t="s">
+      <c r="K72" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="97"/>
+      <c r="L72" s="96"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -10956,7 +10950,7 @@
       <c r="B75" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="73"/>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
       <c r="F75" s="73"/>
@@ -10978,7 +10972,7 @@
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
       <c r="E76" s="73"/>
-      <c r="F76" s="20"/>
+      <c r="F76" s="73"/>
       <c r="G76" s="58"/>
       <c r="H76" s="19" t="s">
         <v>177</v>
@@ -11013,7 +11007,7 @@
       <c r="B78" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="20"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="73"/>
       <c r="E78" s="73"/>
       <c r="F78" s="73"/>
@@ -11032,7 +11026,7 @@
       <c r="B79" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="73"/>
       <c r="E79" s="73"/>
       <c r="F79" s="73"/>
@@ -11116,7 +11110,7 @@
       <c r="H83" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="I83" s="20"/>
+      <c r="I83" s="73"/>
       <c r="J83" s="73"/>
       <c r="K83" s="73"/>
       <c r="L83" s="73"/>
@@ -11154,7 +11148,7 @@
       <c r="H85" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I85" s="20"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
       <c r="L85" s="20"/>
@@ -11173,7 +11167,7 @@
       <c r="H86" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I86" s="20"/>
+      <c r="I86" s="73"/>
       <c r="J86" s="73"/>
       <c r="K86" s="73"/>
       <c r="L86" s="73"/>
@@ -11230,7 +11224,7 @@
       <c r="H89" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="I89" s="20"/>
+      <c r="I89" s="73"/>
       <c r="J89" s="73"/>
       <c r="K89" s="73"/>
       <c r="L89" s="73"/>
@@ -11260,7 +11254,7 @@
       <c r="B91" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="20"/>
+      <c r="C91" s="73"/>
       <c r="D91" s="73"/>
       <c r="E91" s="73"/>
       <c r="F91" s="73"/>
@@ -11299,14 +11293,14 @@
         <v>86</v>
       </c>
       <c r="C93" s="73"/>
-      <c r="D93" s="20"/>
+      <c r="D93" s="73"/>
       <c r="E93" s="73"/>
       <c r="F93" s="73"/>
       <c r="G93" s="58"/>
       <c r="H93" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I93" s="20"/>
+      <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
       <c r="L93" s="20"/>
@@ -11382,7 +11376,7 @@
       <c r="H97" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I97" s="20"/>
+      <c r="I97" s="73"/>
       <c r="J97" s="73"/>
       <c r="K97" s="73"/>
       <c r="L97" s="73"/>
@@ -11433,7 +11427,7 @@
       </c>
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
-      <c r="E100" s="39"/>
+      <c r="E100" s="74"/>
       <c r="F100" s="83"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
@@ -11453,7 +11447,7 @@
       <c r="C101" s="73"/>
       <c r="D101" s="73"/>
       <c r="E101" s="73"/>
-      <c r="F101" s="20"/>
+      <c r="F101" s="73"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
         <v>200</v>
@@ -11491,12 +11485,12 @@
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
-      <c r="F103" s="86"/>
+      <c r="F103" s="85"/>
       <c r="G103" s="58"/>
       <c r="H103" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="I103" s="20"/>
+      <c r="I103" s="73"/>
       <c r="J103" s="73"/>
       <c r="K103" s="73"/>
       <c r="L103" s="62"/>
@@ -11576,7 +11570,7 @@
       <c r="B107" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="20"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="73"/>
       <c r="E107" s="73"/>
       <c r="F107" s="73"/>
@@ -11595,7 +11589,7 @@
       <c r="B108" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="20"/>
+      <c r="C108" s="73"/>
       <c r="D108" s="73"/>
       <c r="E108" s="73"/>
       <c r="F108" s="73"/>
@@ -11614,7 +11608,7 @@
       <c r="B109" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C109" s="20"/>
+      <c r="C109" s="73"/>
       <c r="D109" s="73"/>
       <c r="E109" s="73"/>
       <c r="F109" s="73"/>
@@ -11660,10 +11654,10 @@
       <c r="H111" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="I111" s="20"/>
+      <c r="I111" s="73"/>
       <c r="J111" s="73"/>
       <c r="K111" s="73"/>
-      <c r="L111" s="20"/>
+      <c r="L111" s="73"/>
       <c r="M111" s="58"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
@@ -11699,7 +11693,7 @@
         <v>210</v>
       </c>
       <c r="I113" s="73"/>
-      <c r="J113" s="20"/>
+      <c r="J113" s="73"/>
       <c r="K113" s="73"/>
       <c r="L113" s="20"/>
       <c r="M113" s="58"/>
@@ -11733,7 +11727,7 @@
       <c r="C115" s="73"/>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
-      <c r="F115" s="20"/>
+      <c r="F115" s="73"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
         <v>212</v>
@@ -11749,7 +11743,7 @@
       <c r="B116" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="20"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="73"/>
@@ -11839,7 +11833,7 @@
       </c>
       <c r="I120" s="73"/>
       <c r="J120" s="73"/>
-      <c r="K120" s="88"/>
+      <c r="K120" s="87"/>
       <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>
@@ -11908,7 +11902,7 @@
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
       <c r="E124" s="73"/>
-      <c r="F124" s="20"/>
+      <c r="F124" s="73"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
         <v>221</v>
@@ -11946,7 +11940,7 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
-      <c r="F126" s="20"/>
+      <c r="F126" s="80"/>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
         <v>222</v>
@@ -12038,7 +12032,7 @@
       <c r="B131" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="101"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
       <c r="F131" s="83"/>
@@ -12113,8 +12107,8 @@
       <c r="B135" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="87"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="86"/>
       <c r="E135" s="73"/>
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
@@ -12206,7 +12200,7 @@
       <c r="C139" s="73"/>
       <c r="D139" s="73"/>
       <c r="E139" s="73"/>
-      <c r="F139" s="20"/>
+      <c r="F139" s="73"/>
       <c r="G139" s="4"/>
       <c r="H139" s="52" t="s">
         <v>240</v>
@@ -12245,7 +12239,7 @@
       </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
-      <c r="E141" s="20"/>
+      <c r="E141" s="73"/>
       <c r="F141" s="73"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -12264,7 +12258,7 @@
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
-      <c r="F142" s="86"/>
+      <c r="F142" s="85"/>
       <c r="G142" s="4"/>
       <c r="H142" s="44" t="s">
         <v>243</v>
@@ -12525,7 +12519,7 @@
       <c r="B154" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C154" s="20"/>
+      <c r="C154" s="73"/>
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="20"/>
@@ -12548,7 +12542,7 @@
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="73"/>
-      <c r="F155" s="86"/>
+      <c r="F155" s="85"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="454">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1160,13 +1160,244 @@
   </si>
   <si>
     <t>Felblood</t>
+  </si>
+  <si>
+    <r>
+      <t>Amulets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(All done)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ouroboros</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>Witchcraft</t>
+  </si>
+  <si>
+    <t>Bad Mood Ring</t>
+  </si>
+  <si>
+    <t>Assur's bane</t>
+  </si>
+  <si>
+    <t>Sigil of the 7 deadly sin</t>
+  </si>
+  <si>
+    <t>Zann Esu's Stone</t>
+  </si>
+  <si>
+    <t>kekeke</t>
+  </si>
+  <si>
+    <t>Arkenstone</t>
+  </si>
+  <si>
+    <t>Bag of tricks</t>
+  </si>
+  <si>
+    <t>Arrowsider</t>
+  </si>
+  <si>
+    <t>Devils's dance</t>
+  </si>
+  <si>
+    <t>Idol of stars</t>
+  </si>
+  <si>
+    <t>Vizjun's Ball Bearing</t>
+  </si>
+  <si>
+    <t>Nagapearl</t>
+  </si>
+  <si>
+    <t>Auriel's Focus</t>
+  </si>
+  <si>
+    <t>orb of annihilation</t>
+  </si>
+  <si>
+    <t>Lodestone</t>
+  </si>
+  <si>
+    <t>Kara's Trinket</t>
+  </si>
+  <si>
+    <t>Monsterball</t>
+  </si>
+  <si>
+    <t>Eye of malic</t>
+  </si>
+  <si>
+    <t>Apple of discord</t>
+  </si>
+  <si>
+    <t>The perfect sphere</t>
+  </si>
+  <si>
+    <t>Wizard's Cloak</t>
+  </si>
+  <si>
+    <t>Lunar Eclipse</t>
+  </si>
+  <si>
+    <t>Titan's Steps</t>
+  </si>
+  <si>
+    <t>Frigid Chopper</t>
+  </si>
+  <si>
+    <t>Klonk</t>
+  </si>
+  <si>
+    <t>Heaven's Bite</t>
+  </si>
+  <si>
+    <t>The Dark Descent</t>
+  </si>
+  <si>
+    <t>Gonnagal's Dirk</t>
+  </si>
+  <si>
+    <t>Scream of Nature</t>
+  </si>
+  <si>
+    <t>Gladiator's Rage</t>
+  </si>
+  <si>
+    <t>The Might of the Ancients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeid's Battlesong </t>
+  </si>
+  <si>
+    <t>Peace Warder</t>
+  </si>
+  <si>
+    <t>Dark Talon</t>
+  </si>
+  <si>
+    <t>Feltongue</t>
+  </si>
+  <si>
+    <t>Roflchopper</t>
+  </si>
+  <si>
+    <t>Hellslayer</t>
+  </si>
+  <si>
+    <t>Staff of Shadows</t>
+  </si>
+  <si>
+    <t>Hovering Dame</t>
+  </si>
+  <si>
+    <t>Dragonclaw</t>
+  </si>
+  <si>
+    <t>Chober Chaber</t>
+  </si>
+  <si>
+    <t>Plague Bolter</t>
+  </si>
+  <si>
+    <t>Mons Meg</t>
+  </si>
+  <si>
+    <t>Ranger's Path</t>
+  </si>
+  <si>
+    <t>Dragonfly</t>
+  </si>
+  <si>
+    <t>Wrath of Nature</t>
+  </si>
+  <si>
+    <t>Washi Bai Ron</t>
+  </si>
+  <si>
+    <t>Golden Chariot</t>
+  </si>
+  <si>
+    <t>Soul Harvest</t>
+  </si>
+  <si>
+    <t>Uldyssian's Awakening</t>
+  </si>
+  <si>
+    <t>Gathering Storm</t>
+  </si>
+  <si>
+    <t>Eerie Flash</t>
+  </si>
+  <si>
+    <t>Dark Guardian</t>
+  </si>
+  <si>
+    <t>Sentry of Death</t>
+  </si>
+  <si>
+    <t>Sinwar</t>
+  </si>
+  <si>
+    <t>Grim Silhouette</t>
+  </si>
+  <si>
+    <t>Mark of the Que-Hagan</t>
+  </si>
+  <si>
+    <t>Phoenix Ash</t>
+  </si>
+  <si>
+    <t>Tobio's Key</t>
+  </si>
+  <si>
+    <t>The Vanquisher</t>
+  </si>
+  <si>
+    <t>Sculptor of Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironhood </t>
+  </si>
+  <si>
+    <t>Warlock's Brilliance</t>
+  </si>
+  <si>
+    <t>Wolf Teeth</t>
+  </si>
+  <si>
+    <t>Lilith's Legion</t>
+  </si>
+  <si>
+    <t>Wisdom of Scosglen</t>
+  </si>
+  <si>
+    <t>Forest Defender</t>
+  </si>
+  <si>
+    <t>Blessed Wrath</t>
+  </si>
+  <si>
+    <t>Fauztin's Shadow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1569,25 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1540,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1797,6 +2047,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2665,13 +2924,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -2826,13 +3085,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2993,13 +3252,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3148,13 +3407,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="91" t="s">
+      <c r="H54" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3303,13 +3562,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="91" t="s">
+      <c r="H63" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4618,11 +4877,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="90"/>
-      <c r="K132" s="90"/>
-      <c r="L132" s="90"/>
+      <c r="H132" s="93"/>
+      <c r="I132" s="93"/>
+      <c r="J132" s="93"/>
+      <c r="K132" s="93"/>
+      <c r="L132" s="93"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6368,13 +6627,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6529,13 +6788,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="97"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6696,13 +6955,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="97"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -6851,13 +7110,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7006,13 +7265,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="97"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9369,8 +9628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="H92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9390,40 +9649,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9432,19 +9691,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9660,7 +9919,7 @@
       <c r="L13" s="73"/>
       <c r="M13" s="58"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="26.25" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="19" t="s">
         <v>12</v>
@@ -9676,7 +9935,9 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="20" t="s">
+        <v>426</v>
+      </c>
       <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
@@ -9732,7 +9993,9 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20" t="s">
+        <v>427</v>
+      </c>
       <c r="L17" s="73"/>
       <c r="M17" s="58"/>
     </row>
@@ -9755,7 +10018,7 @@
       <c r="L18" s="73"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="26.25" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
         <v>315</v>
@@ -9771,7 +10034,9 @@
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="20"/>
+      <c r="L19" s="20" t="s">
+        <v>428</v>
+      </c>
       <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
@@ -9793,7 +10058,7 @@
       <c r="L20" s="73"/>
       <c r="M20" s="58"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+    <row r="21" spans="1:13" ht="26.25" thickBot="1">
       <c r="A21" s="58"/>
       <c r="B21" s="19" t="s">
         <v>18</v>
@@ -9801,7 +10066,9 @@
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>405</v>
+      </c>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
         <v>162</v>
@@ -9847,10 +10114,12 @@
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="20"/>
+      <c r="L23" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="M23" s="58"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+    <row r="24" spans="1:13" ht="26.25" thickBot="1">
       <c r="A24" s="58"/>
       <c r="B24" s="19" t="s">
         <v>21</v>
@@ -9866,7 +10135,9 @@
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="20"/>
+      <c r="L24" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="M24" s="58"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
@@ -9932,7 +10203,7 @@
       <c r="L27" s="73"/>
       <c r="M27" s="58"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+    <row r="28" spans="1:13" ht="26.25" thickBot="1">
       <c r="A28" s="58"/>
       <c r="B28" s="19" t="s">
         <v>24</v>
@@ -9947,11 +10218,13 @@
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="20" t="s">
+        <v>431</v>
+      </c>
       <c r="L28" s="85"/>
       <c r="M28" s="58"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="26.25" thickBot="1">
       <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
         <v>25</v>
@@ -9959,7 +10232,9 @@
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
@@ -9980,13 +10255,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10008,7 +10283,9 @@
       <c r="J31" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="K31" s="63"/>
+      <c r="K31" s="76" t="s">
+        <v>383</v>
+      </c>
       <c r="L31" s="63"/>
       <c r="M31" s="58"/>
     </row>
@@ -10031,7 +10308,9 @@
       <c r="J32" s="76" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="63"/>
+      <c r="K32" s="92" t="s">
+        <v>384</v>
+      </c>
       <c r="L32" s="63"/>
       <c r="M32" s="58"/>
     </row>
@@ -10052,11 +10331,13 @@
       <c r="J33" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="91" t="s">
+        <v>385</v>
+      </c>
       <c r="L33" s="20"/>
       <c r="M33" s="58"/>
     </row>
-    <row r="34" spans="1:13" ht="18" thickBot="1">
+    <row r="34" spans="1:13" ht="26.25" thickBot="1">
       <c r="A34" s="58"/>
       <c r="B34" s="33" t="s">
         <v>29</v>
@@ -10083,11 +10364,13 @@
       <c r="J34" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="91" t="s">
+        <v>386</v>
+      </c>
       <c r="L34" s="20"/>
       <c r="M34" s="58"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1">
+    <row r="35" spans="1:13" ht="26.25" thickBot="1">
       <c r="A35" s="58"/>
       <c r="B35" s="19" t="s">
         <v>30</v>
@@ -10106,18 +10389,20 @@
       <c r="J35" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="91" t="s">
+        <v>387</v>
+      </c>
       <c r="L35" s="20"/>
       <c r="M35" s="58"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1">
+    <row r="36" spans="1:13" ht="26.25" thickBot="1">
       <c r="A36" s="58"/>
       <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="58"/>
       <c r="H36" s="75" t="s">
@@ -10126,7 +10411,9 @@
       <c r="I36" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="J36" s="20"/>
+      <c r="J36" s="91" t="s">
+        <v>370</v>
+      </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="58"/>
@@ -10139,7 +10426,7 @@
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="58"/>
       <c r="H37" s="75" t="s">
         <v>332</v>
@@ -10147,7 +10434,9 @@
       <c r="I37" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="91" t="s">
+        <v>382</v>
+      </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="58"/>
@@ -10179,13 +10468,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="85"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="H39" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="97"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10263,7 +10552,7 @@
       <c r="J42" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="20"/>
+      <c r="K42" s="90"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
     </row>
@@ -10275,7 +10564,9 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="20" t="s">
+        <v>407</v>
+      </c>
       <c r="G43" s="58"/>
       <c r="H43" s="75" t="s">
         <v>307</v>
@@ -10392,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="97"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10417,7 +10708,9 @@
       <c r="I49" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="63"/>
+      <c r="J49" s="92" t="s">
+        <v>388</v>
+      </c>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
       <c r="M49" s="58"/>
@@ -10438,7 +10731,9 @@
       <c r="I50" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="63"/>
+      <c r="J50" s="92" t="s">
+        <v>389</v>
+      </c>
       <c r="K50" s="63"/>
       <c r="L50" s="63"/>
       <c r="M50" s="58"/>
@@ -10459,7 +10754,9 @@
       <c r="I51" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="J51" s="20"/>
+      <c r="J51" s="91" t="s">
+        <v>390</v>
+      </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="58"/>
@@ -10575,16 +10872,16 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97"/>
       <c r="M57" s="58"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1">
+    <row r="58" spans="1:13" ht="30.75" thickBot="1">
       <c r="A58" s="58"/>
       <c r="B58" s="19" t="s">
         <v>51</v>
@@ -10592,7 +10889,9 @@
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="20"/>
+      <c r="F58" s="20" t="s">
+        <v>408</v>
+      </c>
       <c r="G58" s="58"/>
       <c r="H58" s="76" t="s">
         <v>339</v>
@@ -10603,11 +10902,15 @@
       <c r="J58" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
+      <c r="K58" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" s="63" t="s">
+        <v>403</v>
+      </c>
       <c r="M58" s="58"/>
     </row>
-    <row r="59" spans="1:13" ht="24.75" thickBot="1">
+    <row r="59" spans="1:13" ht="45.75" thickBot="1">
       <c r="A59" s="58"/>
       <c r="B59" s="38" t="s">
         <v>52</v>
@@ -10626,19 +10929,27 @@
       <c r="J59" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
+      <c r="K59" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="L59" s="63" t="s">
+        <v>404</v>
+      </c>
       <c r="M59" s="58"/>
     </row>
-    <row r="60" spans="1:13" ht="23.25" thickBot="1">
+    <row r="60" spans="1:13" ht="26.25" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>410</v>
+      </c>
       <c r="G60" s="58"/>
       <c r="H60" s="75" t="s">
         <v>341</v>
@@ -10649,7 +10960,9 @@
       <c r="J60" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>398</v>
+      </c>
       <c r="L60" s="20"/>
       <c r="M60" s="58"/>
     </row>
@@ -10672,11 +10985,13 @@
       <c r="J61" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>399</v>
+      </c>
       <c r="L61" s="20"/>
       <c r="M61" s="58"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1">
+    <row r="62" spans="1:13" ht="26.25" thickBot="1">
       <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
         <v>55</v>
@@ -10695,11 +11010,13 @@
       <c r="J62" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="L62" s="20"/>
       <c r="M62" s="58"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1">
+    <row r="63" spans="1:13" ht="26.25" thickBot="1">
       <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
         <v>56</v>
@@ -10707,7 +11024,9 @@
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
-      <c r="F63" s="20"/>
+      <c r="F63" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="G63" s="58"/>
       <c r="H63" s="75" t="s">
         <v>344</v>
@@ -10715,12 +11034,16 @@
       <c r="I63" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="J63" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>401</v>
+      </c>
       <c r="L63" s="20"/>
       <c r="M63" s="58"/>
     </row>
-    <row r="64" spans="1:13" ht="23.25" thickBot="1">
+    <row r="64" spans="1:13" ht="26.25" thickBot="1">
       <c r="A64" s="58"/>
       <c r="B64" s="19" t="s">
         <v>57</v>
@@ -10736,8 +11059,12 @@
       <c r="I64" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
+      <c r="J64" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>402</v>
+      </c>
       <c r="L64" s="20"/>
       <c r="M64" s="58"/>
     </row>
@@ -10768,13 +11095,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="97"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10790,12 +11117,16 @@
       <c r="H67" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="98" t="s">
+      <c r="I67" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="J67" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="99"/>
+      <c r="L67" s="102"/>
       <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -10813,10 +11144,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="98" t="s">
+      <c r="K68" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="99"/>
+      <c r="L68" s="102"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -10834,10 +11165,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="95" t="s">
+      <c r="K69" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="96"/>
+      <c r="L69" s="99"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -10855,10 +11186,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="95" t="s">
+      <c r="K70" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="96"/>
+      <c r="L70" s="99"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -10876,13 +11207,13 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="95" t="s">
+      <c r="K71" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="96"/>
+      <c r="L71" s="99"/>
       <c r="M71" s="58"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1">
+    <row r="72" spans="1:13" ht="26.25" thickBot="1">
       <c r="A72" s="58"/>
       <c r="B72" s="19" t="s">
         <v>65</v>
@@ -10890,15 +11221,19 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="80"/>
+      <c r="F72" s="80" t="s">
+        <v>412</v>
+      </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="20"/>
+      <c r="H72" s="91" t="s">
+        <v>391</v>
+      </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="95" t="s">
+      <c r="K72" s="98" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="96"/>
+      <c r="L72" s="99"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -11040,7 +11375,7 @@
       <c r="L79" s="73"/>
       <c r="M79" s="58"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1">
+    <row r="80" spans="1:13" ht="26.25" thickBot="1">
       <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
         <v>73</v>
@@ -11048,7 +11383,9 @@
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
-      <c r="F80" s="20"/>
+      <c r="F80" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
         <v>181</v>
@@ -11078,7 +11415,7 @@
       <c r="L81" s="73"/>
       <c r="M81" s="58"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" thickBot="1">
+    <row r="82" spans="1:13" ht="26.25" thickBot="1">
       <c r="A82" s="58"/>
       <c r="B82" s="19" t="s">
         <v>75</v>
@@ -11086,7 +11423,9 @@
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="20"/>
+      <c r="F82" s="20" t="s">
+        <v>414</v>
+      </c>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
         <v>183</v>
@@ -11116,7 +11455,7 @@
       <c r="L83" s="73"/>
       <c r="M83" s="58"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" thickBot="1">
+    <row r="84" spans="1:13" ht="39" thickBot="1">
       <c r="A84" s="58"/>
       <c r="B84" s="19" t="s">
         <v>77</v>
@@ -11124,7 +11463,9 @@
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="20"/>
+      <c r="F84" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
         <v>185</v>
@@ -11135,7 +11476,7 @@
       <c r="L84" s="73"/>
       <c r="M84" s="58"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1">
+    <row r="85" spans="1:13" ht="26.25" thickBot="1">
       <c r="A85" s="58"/>
       <c r="B85" s="19" t="s">
         <v>78</v>
@@ -11151,16 +11492,20 @@
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
-      <c r="L85" s="20"/>
+      <c r="L85" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="M85" s="58"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" thickBot="1">
+    <row r="86" spans="1:13" ht="26.25" thickBot="1">
       <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="73"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="58"/>
@@ -11173,7 +11518,7 @@
       <c r="L86" s="73"/>
       <c r="M86" s="58"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1">
+    <row r="87" spans="1:13" ht="26.25" thickBot="1">
       <c r="A87" s="58"/>
       <c r="B87" s="19" t="s">
         <v>80</v>
@@ -11189,16 +11534,20 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
-      <c r="L87" s="20"/>
+      <c r="L87" s="20" t="s">
+        <v>433</v>
+      </c>
       <c r="M87" s="58"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" thickBot="1">
+    <row r="88" spans="1:13" ht="26.25" thickBot="1">
       <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="80"/>
+      <c r="D88" s="80" t="s">
+        <v>417</v>
+      </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
       <c r="G88" s="58"/>
@@ -11230,7 +11579,7 @@
       <c r="L89" s="73"/>
       <c r="M89" s="58"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" thickBot="1">
+    <row r="90" spans="1:13" ht="26.25" thickBot="1">
       <c r="A90" s="58"/>
       <c r="B90" s="38" t="s">
         <v>83</v>
@@ -11238,15 +11587,21 @@
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
-      <c r="F90" s="41"/>
+      <c r="F90" s="41" t="s">
+        <v>418</v>
+      </c>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
         <v>191</v>
       </c>
       <c r="I90" s="73"/>
-      <c r="J90" s="20"/>
+      <c r="J90" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="K90" s="73"/>
-      <c r="L90" s="20"/>
+      <c r="L90" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="M90" s="58"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
@@ -11276,7 +11631,7 @@
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
       <c r="E92" s="73"/>
-      <c r="F92" s="20"/>
+      <c r="F92" s="73"/>
       <c r="G92" s="58"/>
       <c r="H92" s="19" t="s">
         <v>193</v>
@@ -11287,7 +11642,7 @@
       <c r="L92" s="73"/>
       <c r="M92" s="58"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75" thickBot="1">
+    <row r="93" spans="1:13" ht="26.25" thickBot="1">
       <c r="A93" s="58"/>
       <c r="B93" s="19" t="s">
         <v>86</v>
@@ -11303,10 +11658,12 @@
       <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
-      <c r="L93" s="20"/>
+      <c r="L93" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="M93" s="58"/>
     </row>
-    <row r="94" spans="1:13" ht="15.75" thickBot="1">
+    <row r="94" spans="1:13" ht="26.25" thickBot="1">
       <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
         <v>87</v>
@@ -11317,15 +11674,17 @@
       <c r="F94" s="73"/>
       <c r="G94" s="58"/>
       <c r="H94" s="19" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="K94" s="73"/>
+      <c r="L94" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="M94" s="58"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" thickBot="1">
+    <row r="95" spans="1:13" ht="26.25" thickBot="1">
       <c r="A95" s="58"/>
       <c r="B95" s="19" t="s">
         <v>88</v>
@@ -11336,12 +11695,14 @@
       <c r="F95" s="73"/>
       <c r="G95" s="58"/>
       <c r="H95" s="19" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="73"/>
+      <c r="L95" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="M95" s="58"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
@@ -11355,15 +11716,15 @@
       <c r="F96" s="73"/>
       <c r="G96" s="58"/>
       <c r="H96" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I96" s="73"/>
       <c r="J96" s="73"/>
       <c r="K96" s="73"/>
-      <c r="L96" s="20"/>
+      <c r="L96" s="73"/>
       <c r="M96" s="58"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1">
+    <row r="97" spans="1:13" ht="39" thickBot="1">
       <c r="A97" s="58"/>
       <c r="B97" s="19" t="s">
         <v>293</v>
@@ -11374,15 +11735,19 @@
       <c r="F97" s="73"/>
       <c r="G97" s="58"/>
       <c r="H97" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
+      <c r="J97" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="K97" s="73"/>
-      <c r="L97" s="73"/>
+      <c r="L97" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="M97" s="58"/>
     </row>
-    <row r="98" spans="1:13" ht="15.75" thickBot="1">
+    <row r="98" spans="1:13" ht="39" thickBot="1">
       <c r="A98" s="58"/>
       <c r="B98" s="19" t="s">
         <v>90</v>
@@ -11393,15 +11758,17 @@
       <c r="F98" s="73"/>
       <c r="G98" s="58"/>
       <c r="H98" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I98" s="73"/>
-      <c r="J98" s="20"/>
+      <c r="J98" s="73"/>
       <c r="K98" s="73"/>
-      <c r="L98" s="20"/>
+      <c r="L98" s="20" t="s">
+        <v>441</v>
+      </c>
       <c r="M98" s="58"/>
     </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1">
+    <row r="99" spans="1:13" ht="26.25" thickBot="1">
       <c r="A99" s="58"/>
       <c r="B99" s="19" t="s">
         <v>91</v>
@@ -11412,12 +11779,14 @@
       <c r="F99" s="73"/>
       <c r="G99" s="58"/>
       <c r="H99" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
-      <c r="L99" s="20"/>
+      <c r="L99" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="M99" s="58"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
@@ -11431,15 +11800,15 @@
       <c r="F100" s="83"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I100" s="73"/>
       <c r="J100" s="73"/>
       <c r="K100" s="73"/>
-      <c r="L100" s="20"/>
+      <c r="L100" s="73"/>
       <c r="M100" s="58"/>
     </row>
-    <row r="101" spans="1:13" ht="15.75" thickBot="1">
+    <row r="101" spans="1:13" ht="39" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
         <v>297</v>
@@ -11450,15 +11819,19 @@
       <c r="F101" s="73"/>
       <c r="G101" s="58"/>
       <c r="H101" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="I101" s="73"/>
+        <v>201</v>
+      </c>
+      <c r="I101" s="72"/>
       <c r="J101" s="73"/>
-      <c r="K101" s="73"/>
-      <c r="L101" s="73"/>
+      <c r="K101" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="L101" s="20" t="s">
+        <v>444</v>
+      </c>
       <c r="M101" s="58"/>
     </row>
-    <row r="102" spans="1:13" ht="15.75" thickBot="1">
+    <row r="102" spans="1:13" ht="30.75" thickBot="1">
       <c r="A102" s="58"/>
       <c r="B102" s="19" t="s">
         <v>94</v>
@@ -11469,12 +11842,14 @@
       <c r="F102" s="73"/>
       <c r="G102" s="58"/>
       <c r="H102" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="I102" s="72"/>
+        <v>202</v>
+      </c>
+      <c r="I102" s="73"/>
       <c r="J102" s="73"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="62" t="s">
+        <v>445</v>
+      </c>
       <c r="M102" s="58"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
@@ -11487,16 +11862,14 @@
       <c r="E103" s="73"/>
       <c r="F103" s="85"/>
       <c r="G103" s="58"/>
-      <c r="H103" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
-      <c r="K103" s="73"/>
-      <c r="L103" s="62"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
       <c r="M103" s="58"/>
     </row>
-    <row r="104" spans="1:13" ht="15.75" thickBot="1">
+    <row r="104" spans="1:13" ht="18" thickBot="1">
       <c r="A104" s="58"/>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
@@ -11504,11 +11877,21 @@
       <c r="E104" s="58"/>
       <c r="F104" s="58"/>
       <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
+      <c r="H104" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I104" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="M104" s="58"/>
     </row>
     <row r="105" spans="1:13" ht="35.25" thickBot="1">
@@ -11529,21 +11912,13 @@
         <v>3</v>
       </c>
       <c r="G105" s="58"/>
-      <c r="H105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I105" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="J105" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L105" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="H105" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
       <c r="M105" s="58"/>
     </row>
     <row r="106" spans="1:13" ht="26.25" thickBot="1">
@@ -11557,7 +11932,7 @@
       <c r="F106" s="73"/>
       <c r="G106" s="58"/>
       <c r="H106" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I106" s="73"/>
       <c r="J106" s="73"/>
@@ -11576,9 +11951,9 @@
       <c r="F107" s="73"/>
       <c r="G107" s="58"/>
       <c r="H107" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I107" s="73"/>
+        <v>205</v>
+      </c>
+      <c r="I107" s="72"/>
       <c r="J107" s="73"/>
       <c r="K107" s="73"/>
       <c r="L107" s="73"/>
@@ -11595,10 +11970,12 @@
       <c r="F108" s="73"/>
       <c r="G108" s="58"/>
       <c r="H108" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108" s="72"/>
-      <c r="J108" s="73"/>
+        <v>206</v>
+      </c>
+      <c r="I108" s="73"/>
+      <c r="J108" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
       <c r="M108" s="58"/>
@@ -11614,10 +11991,10 @@
       <c r="F109" s="73"/>
       <c r="G109" s="58"/>
       <c r="H109" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I109" s="73"/>
-      <c r="J109" s="20"/>
+      <c r="J109" s="81"/>
       <c r="K109" s="73"/>
       <c r="L109" s="73"/>
       <c r="M109" s="58"/>
@@ -11633,10 +12010,10 @@
       <c r="F110" s="73"/>
       <c r="G110" s="58"/>
       <c r="H110" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I110" s="73"/>
-      <c r="J110" s="81"/>
+      <c r="J110" s="73"/>
       <c r="K110" s="73"/>
       <c r="L110" s="73"/>
       <c r="M110" s="58"/>
@@ -11647,12 +12024,14 @@
         <v>102</v>
       </c>
       <c r="C111" s="73"/>
-      <c r="D111" s="20"/>
+      <c r="D111" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
       <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I111" s="73"/>
       <c r="J111" s="73"/>
@@ -11660,7 +12039,7 @@
       <c r="L111" s="73"/>
       <c r="M111" s="58"/>
     </row>
-    <row r="112" spans="1:13" ht="15.75" thickBot="1">
+    <row r="112" spans="1:13" ht="26.25" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="19" t="s">
         <v>103</v>
@@ -11671,12 +12050,14 @@
       <c r="F112" s="73"/>
       <c r="G112" s="58"/>
       <c r="H112" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
-      <c r="L112" s="73"/>
+      <c r="L112" s="20" t="s">
+        <v>447</v>
+      </c>
       <c r="M112" s="58"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
@@ -11686,16 +12067,18 @@
       </c>
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
-      <c r="E113" s="20"/>
+      <c r="E113" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I113" s="73"/>
       <c r="J113" s="73"/>
       <c r="K113" s="73"/>
-      <c r="L113" s="20"/>
+      <c r="L113" s="73"/>
       <c r="M113" s="58"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
@@ -11708,10 +12091,12 @@
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
-      <c r="F114" s="20"/>
+      <c r="F114" s="20" t="s">
+        <v>421</v>
+      </c>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I114" s="73"/>
       <c r="J114" s="73"/>
@@ -11730,9 +12115,11 @@
       <c r="F115" s="73"/>
       <c r="G115" s="58"/>
       <c r="H115" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I115" s="73"/>
+        <v>213</v>
+      </c>
+      <c r="I115" s="72" t="s">
+        <v>286</v>
+      </c>
       <c r="J115" s="73"/>
       <c r="K115" s="73"/>
       <c r="L115" s="73"/>
@@ -11749,11 +12136,9 @@
       <c r="F116" s="73"/>
       <c r="G116" s="58"/>
       <c r="H116" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="I116" s="72" t="s">
-        <v>286</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I116" s="73"/>
       <c r="J116" s="73"/>
       <c r="K116" s="73"/>
       <c r="L116" s="73"/>
@@ -11772,7 +12157,7 @@
       <c r="F117" s="74"/>
       <c r="G117" s="58"/>
       <c r="H117" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I117" s="73"/>
       <c r="J117" s="73"/>
@@ -11791,7 +12176,7 @@
       <c r="F118" s="73"/>
       <c r="G118" s="58"/>
       <c r="H118" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I118" s="73"/>
       <c r="J118" s="73"/>
@@ -11810,11 +12195,11 @@
       <c r="F119" s="73"/>
       <c r="G119" s="58"/>
       <c r="H119" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I119" s="73"/>
       <c r="J119" s="73"/>
-      <c r="K119" s="73"/>
+      <c r="K119" s="87"/>
       <c r="L119" s="73"/>
       <c r="M119" s="58"/>
     </row>
@@ -11829,11 +12214,11 @@
       <c r="F120" s="73"/>
       <c r="G120" s="58"/>
       <c r="H120" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I120" s="73"/>
       <c r="J120" s="73"/>
-      <c r="K120" s="87"/>
+      <c r="K120" s="73"/>
       <c r="L120" s="73"/>
       <c r="M120" s="58"/>
     </row>
@@ -11848,7 +12233,7 @@
       <c r="F121" s="73"/>
       <c r="G121" s="58"/>
       <c r="H121" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I121" s="73"/>
       <c r="J121" s="73"/>
@@ -11856,23 +12241,25 @@
       <c r="L121" s="73"/>
       <c r="M121" s="58"/>
     </row>
-    <row r="122" spans="1:13" ht="15.75" thickBot="1">
+    <row r="122" spans="1:13" ht="26.25" thickBot="1">
       <c r="A122" s="58"/>
       <c r="B122" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C122" s="73"/>
       <c r="D122" s="73"/>
-      <c r="E122" s="20"/>
+      <c r="E122" s="73"/>
       <c r="F122" s="73"/>
       <c r="G122" s="58"/>
       <c r="H122" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
-      <c r="L122" s="73"/>
+      <c r="L122" s="20" t="s">
+        <v>448</v>
+      </c>
       <c r="M122" s="58"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
@@ -11886,12 +12273,12 @@
       <c r="F123" s="73"/>
       <c r="G123" s="58"/>
       <c r="H123" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I123" s="73"/>
       <c r="J123" s="73"/>
       <c r="K123" s="73"/>
-      <c r="L123" s="20"/>
+      <c r="L123" s="73"/>
       <c r="M123" s="58"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1">
@@ -11905,7 +12292,7 @@
       <c r="F124" s="73"/>
       <c r="G124" s="58"/>
       <c r="H124" s="19" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="I124" s="73"/>
       <c r="J124" s="73"/>
@@ -11913,7 +12300,7 @@
       <c r="L124" s="73"/>
       <c r="M124" s="58"/>
     </row>
-    <row r="125" spans="1:13" ht="15.75" thickBot="1">
+    <row r="125" spans="1:13" ht="26.25" thickBot="1">
       <c r="A125" s="58"/>
       <c r="B125" s="19" t="s">
         <v>116</v>
@@ -11924,15 +12311,17 @@
       <c r="F125" s="73"/>
       <c r="G125" s="58"/>
       <c r="H125" s="19" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
-      <c r="L125" s="20"/>
+      <c r="L125" s="20" t="s">
+        <v>449</v>
+      </c>
       <c r="M125" s="58"/>
     </row>
-    <row r="126" spans="1:13" ht="15.75" thickBot="1">
+    <row r="126" spans="1:13" ht="26.25" thickBot="1">
       <c r="A126" s="58"/>
       <c r="B126" s="19" t="s">
         <v>117</v>
@@ -11940,18 +12329,20 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
-      <c r="F126" s="80"/>
+      <c r="F126" s="80" t="s">
+        <v>422</v>
+      </c>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I126" s="73"/>
       <c r="J126" s="73"/>
       <c r="K126" s="73"/>
-      <c r="L126" s="20"/>
+      <c r="L126" s="73"/>
       <c r="M126" s="58"/>
     </row>
-    <row r="127" spans="1:13" ht="15.75" thickBot="1">
+    <row r="127" spans="1:13" ht="39" thickBot="1">
       <c r="A127" s="58"/>
       <c r="B127" s="19" t="s">
         <v>118</v>
@@ -11962,15 +12353,17 @@
       <c r="F127" s="73"/>
       <c r="G127" s="58"/>
       <c r="H127" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I127" s="73"/>
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
+      <c r="L127" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="M127" s="58"/>
     </row>
-    <row r="128" spans="1:13" ht="15.75" thickBot="1">
+    <row r="128" spans="1:13" ht="26.25" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="38" t="s">
         <v>119</v>
@@ -11981,12 +12374,14 @@
       <c r="F128" s="74"/>
       <c r="G128" s="58"/>
       <c r="H128" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I128" s="73"/>
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
-      <c r="L128" s="20"/>
+      <c r="L128" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="M128" s="58"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" thickBot="1">
@@ -12000,12 +12395,12 @@
       <c r="F129" s="73"/>
       <c r="G129" s="58"/>
       <c r="H129" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I129" s="73"/>
       <c r="J129" s="73"/>
       <c r="K129" s="73"/>
-      <c r="L129" s="20"/>
+      <c r="L129" s="73"/>
       <c r="M129" s="58"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" thickBot="1">
@@ -12019,7 +12414,7 @@
       <c r="F130" s="73"/>
       <c r="G130" s="58"/>
       <c r="H130" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I130" s="73"/>
       <c r="J130" s="73"/>
@@ -12027,7 +12422,7 @@
       <c r="L130" s="73"/>
       <c r="M130" s="58"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" thickBot="1">
+    <row r="131" spans="1:14" ht="26.25" thickBot="1">
       <c r="A131" s="58"/>
       <c r="B131" s="38" t="s">
         <v>122</v>
@@ -12038,15 +12433,17 @@
       <c r="F131" s="83"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I131" s="73"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
-      <c r="L131" s="73"/>
+      <c r="L131" s="20" t="s">
+        <v>452</v>
+      </c>
       <c r="M131" s="58"/>
     </row>
-    <row r="132" spans="1:14" ht="15.75" thickBot="1">
+    <row r="132" spans="1:14" ht="30.75" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="19" t="s">
         <v>123</v>
@@ -12054,15 +12451,19 @@
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
-      <c r="F132" s="20"/>
+      <c r="F132" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I132" s="73"/>
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
-      <c r="L132" s="20"/>
+      <c r="L132" s="62" t="s">
+        <v>453</v>
+      </c>
       <c r="M132" s="58"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" thickBot="1">
@@ -12075,16 +12476,14 @@
       <c r="E133" s="73"/>
       <c r="F133" s="73"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="73"/>
-      <c r="L133" s="62"/>
-      <c r="M133" s="58"/>
-    </row>
-    <row r="134" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:14" ht="27" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
         <v>125</v>
@@ -12092,17 +12491,31 @@
       <c r="C134" s="73"/>
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
-      <c r="F134" s="20"/>
+      <c r="F134" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
+      <c r="H134" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I134" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="J134" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="K134" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="L134" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="M134" s="45" t="s">
+        <v>236</v>
+      </c>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="1:14" ht="27" thickBot="1">
+    <row r="135" spans="1:14" ht="15.75" thickBot="1">
       <c r="A135" s="58"/>
       <c r="B135" s="19" t="s">
         <v>126</v>
@@ -12110,26 +12523,16 @@
       <c r="C135" s="86"/>
       <c r="D135" s="86"/>
       <c r="E135" s="73"/>
-      <c r="F135" s="20"/>
+      <c r="F135" s="73"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="I135" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="J135" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="K135" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="L135" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="M135" s="45" t="s">
-        <v>236</v>
-      </c>
+      <c r="H135" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" thickBot="1">
@@ -12143,7 +12546,7 @@
       <c r="F136" s="77"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -12163,7 +12566,7 @@
       <c r="F137" s="73"/>
       <c r="G137" s="4"/>
       <c r="H137" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -12182,14 +12585,14 @@
       <c r="E138" s="73"/>
       <c r="F138" s="73"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
+      <c r="H138" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="54"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="54"/>
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -12202,8 +12605,8 @@
       <c r="E139" s="73"/>
       <c r="F139" s="73"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="52" t="s">
-        <v>240</v>
+      <c r="H139" s="53" t="s">
+        <v>241</v>
       </c>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -12212,27 +12615,27 @@
       <c r="M139" s="54"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" thickBot="1">
+    <row r="140" spans="1:14" ht="26.25" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
-      <c r="E140" s="20"/>
+      <c r="E140" s="20" t="s">
+        <v>425</v>
+      </c>
       <c r="F140" s="73"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" thickBot="1">
+    <row r="141" spans="1:14" ht="27" thickBot="1">
       <c r="A141" s="58"/>
       <c r="B141" s="19" t="s">
         <v>132</v>
@@ -12242,15 +12645,27 @@
       <c r="E141" s="73"/>
       <c r="F141" s="73"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="H141" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I141" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J141" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="K141" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="L141" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="M141" s="45" t="s">
+        <v>248</v>
+      </c>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="1:14" ht="27" thickBot="1">
+    <row r="142" spans="1:14" ht="15.75" thickBot="1">
       <c r="A142" s="58"/>
       <c r="B142" s="19" t="s">
         <v>133</v>
@@ -12260,24 +12675,14 @@
       <c r="E142" s="73"/>
       <c r="F142" s="85"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="I142" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="J142" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="K142" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="L142" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="M142" s="45" t="s">
-        <v>248</v>
-      </c>
+      <c r="H142" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1">
@@ -12289,7 +12694,7 @@
       <c r="F143" s="58"/>
       <c r="G143" s="4"/>
       <c r="H143" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -12317,7 +12722,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -12337,7 +12742,7 @@
       <c r="F145" s="73"/>
       <c r="G145" s="4"/>
       <c r="H145" s="51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -12356,14 +12761,14 @@
       <c r="E146" s="73"/>
       <c r="F146" s="73"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
+      <c r="H146" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" thickBot="1">
@@ -12376,17 +12781,15 @@
       <c r="E147" s="73"/>
       <c r="F147" s="73"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" thickBot="1">
+    <row r="148" spans="1:14" ht="27" thickBot="1">
       <c r="A148" s="58"/>
       <c r="B148" s="19" t="s">
         <v>138</v>
@@ -12396,15 +12799,27 @@
       <c r="E148" s="73"/>
       <c r="F148" s="73"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
+      <c r="H148" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I148" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J148" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="K148" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="L148" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M148" s="45" t="s">
+        <v>254</v>
+      </c>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="1:14" ht="27" thickBot="1">
+    <row r="149" spans="1:14" ht="15.75" thickBot="1">
       <c r="A149" s="58"/>
       <c r="B149" s="19" t="s">
         <v>139</v>
@@ -12414,24 +12829,14 @@
       <c r="E149" s="73"/>
       <c r="F149" s="73"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="I149" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="J149" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="K149" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="L149" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="M149" s="45" t="s">
-        <v>254</v>
-      </c>
+      <c r="H149" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
@@ -12445,7 +12850,7 @@
       <c r="F150" s="73"/>
       <c r="G150" s="4"/>
       <c r="H150" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -12465,7 +12870,7 @@
       <c r="F151" s="73"/>
       <c r="G151" s="4"/>
       <c r="H151" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -12485,7 +12890,7 @@
       <c r="F152" s="73"/>
       <c r="G152" s="4"/>
       <c r="H152" s="51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -12504,14 +12909,14 @@
       <c r="E153" s="73"/>
       <c r="F153" s="73"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
+      <c r="H153" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
@@ -12522,19 +12927,17 @@
       <c r="C154" s="73"/>
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
-      <c r="F154" s="20"/>
+      <c r="F154" s="73"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" thickBot="1">
+    <row r="155" spans="1:14" ht="27" thickBot="1">
       <c r="A155" s="58"/>
       <c r="B155" s="19" t="s">
         <v>145</v>
@@ -12544,15 +12947,27 @@
       <c r="E155" s="73"/>
       <c r="F155" s="85"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
+      <c r="H155" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I155" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="J155" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="K155" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L155" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="M155" s="45" t="s">
+        <v>260</v>
+      </c>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14" ht="27" thickBot="1">
+    <row r="156" spans="1:14" ht="15.75" thickBot="1">
       <c r="A156" s="58"/>
       <c r="B156" s="58"/>
       <c r="C156" s="58"/>
@@ -12560,24 +12975,14 @@
       <c r="E156" s="58"/>
       <c r="F156" s="58"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="I156" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="J156" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="K156" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="L156" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>260</v>
-      </c>
+      <c r="H156" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
@@ -12601,7 +13006,7 @@
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -12621,7 +13026,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4"/>
       <c r="H158" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -12641,7 +13046,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4"/>
       <c r="H159" s="51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -12660,14 +13065,14 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3"/>
+      <c r="H160" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
       <c r="N160" s="4"/>
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1">
@@ -12680,17 +13085,15 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="1:14" ht="15.75" thickBot="1">
+    <row r="162" spans="1:14" ht="39.75" thickBot="1">
       <c r="A162" s="57" t="s">
         <v>241</v>
       </c>
@@ -12700,15 +13103,27 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
+      <c r="H162" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="I162" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J162" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K162" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="L162" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M162" s="45" t="s">
+        <v>266</v>
+      </c>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14" ht="39.75" thickBot="1">
+    <row r="163" spans="1:14" ht="15.75" thickBot="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -12716,24 +13131,14 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="I163" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="J163" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="K163" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="L163" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="M163" s="45" t="s">
-        <v>266</v>
-      </c>
+      <c r="H163" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" ht="39.75" thickBot="1">
@@ -12757,7 +13162,7 @@
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -12777,7 +13182,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="4"/>
       <c r="H165" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -12797,7 +13202,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="4"/>
       <c r="H166" s="51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -12816,14 +13221,14 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
+      <c r="H167" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
       <c r="N167" s="4"/>
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1">
@@ -12836,14 +13241,6 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
       <c r="N168" s="4"/>
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="453">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1247,9 +1247,6 @@
   </si>
   <si>
     <t>Wizard's Cloak</t>
-  </si>
-  <si>
-    <t>Lunar Eclipse</t>
   </si>
   <si>
     <t>Titan's Steps</t>
@@ -9628,8 +9625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9936,7 +9933,7 @@
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
       <c r="L14" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M14" s="58"/>
     </row>
@@ -9994,7 +9991,7 @@
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
       <c r="K17" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L17" s="73"/>
       <c r="M17" s="58"/>
@@ -10035,7 +10032,7 @@
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
       <c r="L19" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M19" s="58"/>
     </row>
@@ -10115,7 +10112,7 @@
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
       <c r="L23" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M23" s="58"/>
     </row>
@@ -10136,7 +10133,7 @@
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
       <c r="L24" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M24" s="58"/>
     </row>
@@ -10219,12 +10216,12 @@
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
       <c r="K28" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L28" s="85"/>
       <c r="M28" s="58"/>
     </row>
-    <row r="29" spans="1:13" ht="26.25" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="58"/>
       <c r="B29" s="19" t="s">
         <v>25</v>
@@ -10232,9 +10229,7 @@
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
-      <c r="F29" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="F29" s="73"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
@@ -10364,7 +10359,7 @@
       <c r="J34" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="91" t="s">
+      <c r="K34" s="75" t="s">
         <v>386</v>
       </c>
       <c r="L34" s="20"/>
@@ -10411,7 +10406,7 @@
       <c r="I36" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="J36" s="91" t="s">
+      <c r="J36" s="75" t="s">
         <v>370</v>
       </c>
       <c r="K36" s="20"/>
@@ -10565,7 +10560,7 @@
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
       <c r="F43" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G43" s="58"/>
       <c r="H43" s="75" t="s">
@@ -10890,7 +10885,7 @@
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
       <c r="F58" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="76" t="s">
@@ -10945,10 +10940,10 @@
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
       <c r="E60" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F60" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="75" t="s">
@@ -10960,7 +10955,7 @@
       <c r="J60" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="75" t="s">
         <v>398</v>
       </c>
       <c r="L60" s="20"/>
@@ -11025,7 +11020,7 @@
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
       <c r="F63" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="75" t="s">
@@ -11117,7 +11112,7 @@
       <c r="H67" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="I67" s="92" t="s">
+      <c r="I67" s="76" t="s">
         <v>392</v>
       </c>
       <c r="J67" s="92" t="s">
@@ -11222,7 +11217,7 @@
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
       <c r="F72" s="80" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G72" s="58"/>
       <c r="H72" s="91" t="s">
@@ -11384,7 +11379,7 @@
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
       <c r="F80" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
@@ -11424,7 +11419,7 @@
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
       <c r="F82" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
@@ -11464,7 +11459,7 @@
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
       <c r="F84" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
@@ -11493,7 +11488,7 @@
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
       <c r="L85" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M85" s="58"/>
     </row>
@@ -11504,7 +11499,7 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
@@ -11535,7 +11530,7 @@
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
       <c r="L87" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M87" s="58"/>
     </row>
@@ -11546,7 +11541,7 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
@@ -11588,7 +11583,7 @@
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
       <c r="F90" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
@@ -11596,11 +11591,11 @@
       </c>
       <c r="I90" s="73"/>
       <c r="J90" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K90" s="73"/>
       <c r="L90" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M90" s="58"/>
     </row>
@@ -11659,7 +11654,7 @@
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
       <c r="L93" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M93" s="58"/>
     </row>
@@ -11680,7 +11675,7 @@
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
       <c r="L94" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M94" s="58"/>
     </row>
@@ -11701,7 +11696,7 @@
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
       <c r="L95" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M95" s="58"/>
     </row>
@@ -11739,11 +11734,11 @@
       </c>
       <c r="I97" s="73"/>
       <c r="J97" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K97" s="73"/>
       <c r="L97" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M97" s="58"/>
     </row>
@@ -11764,7 +11759,7 @@
       <c r="J98" s="73"/>
       <c r="K98" s="73"/>
       <c r="L98" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M98" s="58"/>
     </row>
@@ -11785,7 +11780,7 @@
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
       <c r="L99" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M99" s="58"/>
     </row>
@@ -11824,10 +11819,10 @@
       <c r="I101" s="72"/>
       <c r="J101" s="73"/>
       <c r="K101" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="L101" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="M101" s="58"/>
     </row>
@@ -11848,7 +11843,7 @@
       <c r="J102" s="73"/>
       <c r="K102" s="73"/>
       <c r="L102" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M102" s="58"/>
     </row>
@@ -11974,7 +11969,7 @@
       </c>
       <c r="I108" s="73"/>
       <c r="J108" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
@@ -12025,7 +12020,7 @@
       </c>
       <c r="C111" s="73"/>
       <c r="D111" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
@@ -12056,7 +12051,7 @@
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
       <c r="L112" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M112" s="58"/>
     </row>
@@ -12068,7 +12063,7 @@
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
@@ -12092,7 +12087,7 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
@@ -12258,7 +12253,7 @@
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
       <c r="L122" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M122" s="58"/>
     </row>
@@ -12317,7 +12312,7 @@
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
       <c r="L125" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M125" s="58"/>
     </row>
@@ -12330,7 +12325,7 @@
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
       <c r="F126" s="80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
@@ -12359,7 +12354,7 @@
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
       <c r="L127" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M127" s="58"/>
     </row>
@@ -12380,7 +12375,7 @@
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
       <c r="L128" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M128" s="58"/>
     </row>
@@ -12439,7 +12434,7 @@
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
       <c r="L131" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M131" s="58"/>
     </row>
@@ -12452,7 +12447,7 @@
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
       <c r="F132" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
@@ -12462,7 +12457,7 @@
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
       <c r="L132" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M132" s="58"/>
     </row>
@@ -12492,7 +12487,7 @@
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
       <c r="F134" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="44" t="s">
@@ -12623,7 +12618,7 @@
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F140" s="73"/>
       <c r="G140" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="452">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1253,9 +1253,6 @@
   </si>
   <si>
     <t>Frigid Chopper</t>
-  </si>
-  <si>
-    <t>Klonk</t>
   </si>
   <si>
     <t>Heaven's Bite</t>
@@ -9625,8 +9622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9933,7 +9930,7 @@
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
       <c r="L14" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M14" s="58"/>
     </row>
@@ -9991,7 +9988,7 @@
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
       <c r="K17" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L17" s="73"/>
       <c r="M17" s="58"/>
@@ -10032,7 +10029,7 @@
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
       <c r="L19" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M19" s="58"/>
     </row>
@@ -10112,7 +10109,7 @@
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
       <c r="L23" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M23" s="58"/>
     </row>
@@ -10133,7 +10130,7 @@
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
       <c r="L24" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M24" s="58"/>
     </row>
@@ -10216,7 +10213,7 @@
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
       <c r="K28" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L28" s="85"/>
       <c r="M28" s="58"/>
@@ -10939,11 +10936,9 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="73"/>
+      <c r="F60" s="20" t="s">
         <v>408</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="75" t="s">
@@ -11020,7 +11015,7 @@
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
       <c r="F63" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="75" t="s">
@@ -11217,7 +11212,7 @@
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
       <c r="F72" s="80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G72" s="58"/>
       <c r="H72" s="91" t="s">
@@ -11379,7 +11374,7 @@
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
       <c r="F80" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
@@ -11419,7 +11414,7 @@
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
       <c r="F82" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
@@ -11459,7 +11454,7 @@
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
       <c r="F84" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
@@ -11488,7 +11483,7 @@
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
       <c r="L85" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M85" s="58"/>
     </row>
@@ -11499,7 +11494,7 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
@@ -11530,7 +11525,7 @@
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
       <c r="L87" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M87" s="58"/>
     </row>
@@ -11541,7 +11536,7 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
@@ -11583,7 +11578,7 @@
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
       <c r="F90" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
@@ -11591,11 +11586,11 @@
       </c>
       <c r="I90" s="73"/>
       <c r="J90" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K90" s="73"/>
       <c r="L90" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M90" s="58"/>
     </row>
@@ -11654,7 +11649,7 @@
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
       <c r="L93" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M93" s="58"/>
     </row>
@@ -11675,7 +11670,7 @@
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
       <c r="L94" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M94" s="58"/>
     </row>
@@ -11696,7 +11691,7 @@
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
       <c r="L95" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M95" s="58"/>
     </row>
@@ -11734,11 +11729,11 @@
       </c>
       <c r="I97" s="73"/>
       <c r="J97" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K97" s="73"/>
       <c r="L97" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M97" s="58"/>
     </row>
@@ -11759,7 +11754,7 @@
       <c r="J98" s="73"/>
       <c r="K98" s="73"/>
       <c r="L98" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M98" s="58"/>
     </row>
@@ -11780,7 +11775,7 @@
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
       <c r="L99" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M99" s="58"/>
     </row>
@@ -11819,10 +11814,10 @@
       <c r="I101" s="72"/>
       <c r="J101" s="73"/>
       <c r="K101" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="L101" s="20" t="s">
         <v>442</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>443</v>
       </c>
       <c r="M101" s="58"/>
     </row>
@@ -11843,7 +11838,7 @@
       <c r="J102" s="73"/>
       <c r="K102" s="73"/>
       <c r="L102" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M102" s="58"/>
     </row>
@@ -11969,7 +11964,7 @@
       </c>
       <c r="I108" s="73"/>
       <c r="J108" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
@@ -12020,7 +12015,7 @@
       </c>
       <c r="C111" s="73"/>
       <c r="D111" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
@@ -12051,7 +12046,7 @@
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
       <c r="L112" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M112" s="58"/>
     </row>
@@ -12063,7 +12058,7 @@
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
@@ -12087,7 +12082,7 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
@@ -12253,7 +12248,7 @@
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
       <c r="L122" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M122" s="58"/>
     </row>
@@ -12312,7 +12307,7 @@
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
       <c r="L125" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M125" s="58"/>
     </row>
@@ -12325,7 +12320,7 @@
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
       <c r="F126" s="80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
@@ -12354,7 +12349,7 @@
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
       <c r="L127" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M127" s="58"/>
     </row>
@@ -12375,7 +12370,7 @@
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
       <c r="L128" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M128" s="58"/>
     </row>
@@ -12434,7 +12429,7 @@
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
       <c r="L131" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M131" s="58"/>
     </row>
@@ -12447,7 +12442,7 @@
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
       <c r="F132" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
@@ -12457,7 +12452,7 @@
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
       <c r="L132" s="62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M132" s="58"/>
     </row>
@@ -12487,7 +12482,7 @@
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
       <c r="F134" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="44" t="s">
@@ -12618,7 +12613,7 @@
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F140" s="73"/>
       <c r="G140" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="474" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank checklist (SU-TU)" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Blank full" sheetId="4" r:id="rId3"/>
     <sheet name="Text arrangement" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="465">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1255,9 +1255,6 @@
     <t>Frigid Chopper</t>
   </si>
   <si>
-    <t>Klonk</t>
-  </si>
-  <si>
     <t>Heaven's Bite</t>
   </si>
   <si>
@@ -1276,9 +1273,6 @@
     <t>The Might of the Ancients</t>
   </si>
   <si>
-    <t xml:space="preserve">Skeid's Battlesong </t>
-  </si>
-  <si>
     <t>Peace Warder</t>
   </si>
   <si>
@@ -1388,18 +1382,68 @@
   </si>
   <si>
     <t>Fauztin's Shadow</t>
+  </si>
+  <si>
+    <t>check mf</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>stats ok, check order</t>
+  </si>
+  <si>
+    <t>difference, read text to the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeld's Battlesong </t>
+  </si>
+  <si>
+    <t>proc Demonrend?</t>
+  </si>
+  <si>
+    <t>oskill Arcane Strike?</t>
+  </si>
+  <si>
+    <t>oskill Cold Blood?</t>
+  </si>
+  <si>
+    <t>death-skill Elemental Rain (820)?</t>
+  </si>
+  <si>
+    <t>oskill Ball Lightning?</t>
+  </si>
+  <si>
+    <t>add heal-melee 50-75?</t>
+  </si>
+  <si>
+    <t>proc forked lightning?</t>
+  </si>
+  <si>
+    <t>oskill?</t>
+  </si>
+  <si>
+    <t>check searing glow, check +2 skills when apple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1578,19 +1622,156 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF00B050"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,8 +1796,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1783,23 +2137,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1809,10 +2311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1821,10 +2320,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1834,33 +2333,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1869,22 +2368,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,28 +2398,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1927,43 +2429,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1982,44 +2484,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2028,25 +2530,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2055,39 +2548,106 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2921,13 +3481,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -3082,13 +3642,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -3249,13 +3809,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3404,13 +3964,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="94" t="s">
+      <c r="H54" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -3559,13 +4119,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="94" t="s">
+      <c r="H63" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -4874,11 +5434,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="93"/>
-      <c r="I132" s="93"/>
-      <c r="J132" s="93"/>
-      <c r="K132" s="93"/>
-      <c r="L132" s="93"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+      <c r="J132" s="90"/>
+      <c r="K132" s="90"/>
+      <c r="L132" s="90"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -6029,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="E91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -6624,13 +7184,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -6785,13 +7345,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="97"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -6952,13 +7512,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="97"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -7107,13 +7667,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="95" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="97"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7262,13 +7822,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="95" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="97"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -9625,8 +10185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9646,40 +10206,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -9688,19 +10248,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9782,6 +10342,12 @@
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="58"/>
+      <c r="O6" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="P6" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="58"/>
@@ -9820,6 +10386,12 @@
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
       <c r="M8" s="58"/>
+      <c r="O8" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="P8" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="A9" s="58"/>
@@ -9932,8 +10504,8 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="20" t="s">
-        <v>425</v>
+      <c r="L14" s="89" t="s">
+        <v>423</v>
       </c>
       <c r="M14" s="58"/>
     </row>
@@ -9990,11 +10562,13 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="20" t="s">
-        <v>426</v>
+      <c r="K17" s="75" t="s">
+        <v>424</v>
       </c>
       <c r="L17" s="73"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="58" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
@@ -10031,8 +10605,8 @@
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="20" t="s">
-        <v>427</v>
+      <c r="L19" s="89" t="s">
+        <v>425</v>
       </c>
       <c r="M19" s="58"/>
     </row>
@@ -10063,7 +10637,7 @@
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="89" t="s">
         <v>405</v>
       </c>
       <c r="G21" s="58"/>
@@ -10111,8 +10685,8 @@
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="20" t="s">
-        <v>428</v>
+      <c r="L23" s="89" t="s">
+        <v>426</v>
       </c>
       <c r="M23" s="58"/>
     </row>
@@ -10132,10 +10706,12 @@
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="M24" s="58"/>
+      <c r="L24" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="58"/>
@@ -10215,8 +10791,8 @@
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
-      <c r="K28" s="20" t="s">
-        <v>430</v>
+      <c r="K28" s="89" t="s">
+        <v>428</v>
       </c>
       <c r="L28" s="85"/>
       <c r="M28" s="58"/>
@@ -10250,13 +10826,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10269,16 +10845,16 @@
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="J31" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="101" t="s">
         <v>383</v>
       </c>
       <c r="L31" s="63"/>
@@ -10294,16 +10870,16 @@
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="76" t="s">
+      <c r="H32" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="I32" s="76" t="s">
+      <c r="I32" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="76" t="s">
+      <c r="J32" s="101" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="92" t="s">
+      <c r="K32" s="105" t="s">
         <v>384</v>
       </c>
       <c r="L32" s="63"/>
@@ -10317,16 +10893,16 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="58"/>
-      <c r="H33" s="75" t="s">
+      <c r="H33" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="100" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="89" t="s">
         <v>385</v>
       </c>
       <c r="L33" s="20"/>
@@ -10350,16 +10926,16 @@
         <v>3</v>
       </c>
       <c r="G34" s="58"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="75" t="s">
+      <c r="K34" s="72" t="s">
         <v>386</v>
       </c>
       <c r="L34" s="20"/>
@@ -10375,16 +10951,16 @@
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="58"/>
-      <c r="H35" s="75" t="s">
+      <c r="H35" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="J35" s="75" t="s">
+      <c r="J35" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="89" t="s">
         <v>387</v>
       </c>
       <c r="L35" s="20"/>
@@ -10400,13 +10976,13 @@
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="58"/>
-      <c r="H36" s="75" t="s">
+      <c r="H36" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="72" t="s">
         <v>370</v>
       </c>
       <c r="K36" s="20"/>
@@ -10423,13 +10999,13 @@
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
       <c r="G37" s="58"/>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="J37" s="91" t="s">
+      <c r="J37" s="89" t="s">
         <v>382</v>
       </c>
       <c r="K37" s="20"/>
@@ -10463,13 +11039,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="85"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="97"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -10480,16 +11056,16 @@
       <c r="E40" s="65"/>
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
-      <c r="H40" s="76" t="s">
+      <c r="H40" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="76" t="s">
+      <c r="J40" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="101" t="s">
         <v>377</v>
       </c>
       <c r="L40" s="63"/>
@@ -10513,16 +11089,16 @@
         <v>3</v>
       </c>
       <c r="G41" s="58"/>
-      <c r="H41" s="76" t="s">
+      <c r="H41" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="J41" s="76" t="s">
+      <c r="J41" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="K41" s="76" t="s">
+      <c r="K41" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L41" s="63"/>
@@ -10538,16 +11114,16 @@
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
       <c r="G42" s="58"/>
-      <c r="H42" s="75" t="s">
+      <c r="H42" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="I42" s="75" t="s">
+      <c r="I42" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="75" t="s">
+      <c r="J42" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="90"/>
+      <c r="K42" s="88"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
     </row>
@@ -10559,17 +11135,17 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="89" t="s">
         <v>406</v>
       </c>
       <c r="G43" s="58"/>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="I43" s="75" t="s">
+      <c r="I43" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="J43" s="75" t="s">
+      <c r="J43" s="72" t="s">
         <v>370</v>
       </c>
       <c r="K43" s="20"/>
@@ -10586,13 +11162,13 @@
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="75" t="s">
+      <c r="H44" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="75" t="s">
+      <c r="I44" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="88" t="s">
+      <c r="J44" s="100" t="s">
         <v>373</v>
       </c>
       <c r="K44" s="20"/>
@@ -10609,13 +11185,13 @@
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
       <c r="G45" s="58"/>
-      <c r="H45" s="75" t="s">
+      <c r="H45" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="I45" s="75" t="s">
+      <c r="I45" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="J45" s="75" t="s">
+      <c r="J45" s="72" t="s">
         <v>375</v>
       </c>
       <c r="K45" s="20"/>
@@ -10632,13 +11208,13 @@
       <c r="E46" s="73"/>
       <c r="F46" s="85"/>
       <c r="G46" s="58"/>
-      <c r="H46" s="75" t="s">
+      <c r="H46" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="I46" s="75" t="s">
+      <c r="I46" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="J46" s="75" t="s">
+      <c r="J46" s="72" t="s">
         <v>376</v>
       </c>
       <c r="K46" s="20"/>
@@ -10678,13 +11254,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="97"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -10697,13 +11273,13 @@
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="76" t="s">
+      <c r="H49" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="76" t="s">
+      <c r="I49" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="92" t="s">
+      <c r="J49" s="105" t="s">
         <v>388</v>
       </c>
       <c r="K49" s="63"/>
@@ -10720,13 +11296,13 @@
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="76" t="s">
+      <c r="H50" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="76" t="s">
+      <c r="I50" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="92" t="s">
+      <c r="J50" s="105" t="s">
         <v>389</v>
       </c>
       <c r="K50" s="63"/>
@@ -10743,13 +11319,13 @@
       <c r="E51" s="73"/>
       <c r="F51" s="73"/>
       <c r="G51" s="58"/>
-      <c r="H51" s="75" t="s">
+      <c r="H51" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="88" t="s">
+      <c r="I51" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="J51" s="91" t="s">
+      <c r="J51" s="89" t="s">
         <v>390</v>
       </c>
       <c r="K51" s="20"/>
@@ -10766,10 +11342,10 @@
       <c r="E52" s="73"/>
       <c r="F52" s="73"/>
       <c r="G52" s="58"/>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="I52" s="75" t="s">
+      <c r="I52" s="72" t="s">
         <v>356</v>
       </c>
       <c r="J52" s="20"/>
@@ -10787,10 +11363,10 @@
       <c r="E53" s="73"/>
       <c r="F53" s="73"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="75" t="s">
+      <c r="H53" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="100" t="s">
         <v>364</v>
       </c>
       <c r="J53" s="20"/>
@@ -10808,10 +11384,10 @@
       <c r="E54" s="73"/>
       <c r="F54" s="73"/>
       <c r="G54" s="58"/>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="75" t="s">
+      <c r="I54" s="72" t="s">
         <v>366</v>
       </c>
       <c r="J54" s="20"/>
@@ -10829,10 +11405,10 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="58"/>
-      <c r="H55" s="75" t="s">
+      <c r="H55" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="I55" s="75" t="s">
+      <c r="I55" s="72" t="s">
         <v>378</v>
       </c>
       <c r="J55" s="20"/>
@@ -10867,13 +11443,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="95" t="s">
+      <c r="H57" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="97"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="30.75" thickBot="1">
@@ -10884,17 +11460,17 @@
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="89" t="s">
         <v>407</v>
       </c>
       <c r="G58" s="58"/>
-      <c r="H58" s="76" t="s">
+      <c r="H58" s="101" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="89" t="s">
+      <c r="I58" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="J58" s="76" t="s">
+      <c r="J58" s="101" t="s">
         <v>353</v>
       </c>
       <c r="K58" s="63" t="s">
@@ -10915,13 +11491,13 @@
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="76" t="s">
+      <c r="H59" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="89" t="s">
+      <c r="I59" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="101" t="s">
         <v>354</v>
       </c>
       <c r="K59" s="63" t="s">
@@ -10932,30 +11508,30 @@
       </c>
       <c r="M59" s="58"/>
     </row>
-    <row r="60" spans="1:13" ht="26.25" thickBot="1">
+    <row r="60" spans="1:13" ht="60.75" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="73"/>
+      <c r="F60" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="F60" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="75" t="s">
+      <c r="G60" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="H60" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="88" t="s">
+      <c r="I60" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="88" t="s">
+      <c r="J60" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="K60" s="75" t="s">
+      <c r="K60" s="72" t="s">
         <v>398</v>
       </c>
       <c r="L60" s="20"/>
@@ -10971,13 +11547,13 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="88" t="s">
+      <c r="H61" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="I61" s="75" t="s">
+      <c r="I61" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="J61" s="75" t="s">
+      <c r="J61" s="72" t="s">
         <v>371</v>
       </c>
       <c r="K61" s="20" t="s">
@@ -10996,13 +11572,13 @@
       <c r="E62" s="73"/>
       <c r="F62" s="73"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="75" t="s">
+      <c r="H62" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="I62" s="75" t="s">
+      <c r="I62" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="J62" s="88" t="s">
+      <c r="J62" s="100" t="s">
         <v>372</v>
       </c>
       <c r="K62" s="20" t="s">
@@ -11011,7 +11587,7 @@
       <c r="L62" s="20"/>
       <c r="M62" s="58"/>
     </row>
-    <row r="63" spans="1:13" ht="26.25" thickBot="1">
+    <row r="63" spans="1:13" ht="45.75" thickBot="1">
       <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
         <v>56</v>
@@ -11019,14 +11595,16 @@
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
-      <c r="F63" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="75" t="s">
+      <c r="F63" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="H63" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="I63" s="75" t="s">
+      <c r="I63" s="72" t="s">
         <v>351</v>
       </c>
       <c r="J63" s="20" t="s">
@@ -11048,10 +11626,10 @@
       <c r="E64" s="73"/>
       <c r="F64" s="73"/>
       <c r="G64" s="58"/>
-      <c r="H64" s="75" t="s">
+      <c r="H64" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="88" t="s">
+      <c r="I64" s="100" t="s">
         <v>352</v>
       </c>
       <c r="J64" s="20" t="s">
@@ -11090,16 +11668,16 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="95" t="s">
+      <c r="H66" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="97"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="94"/>
       <c r="M66" s="58"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" thickBot="1">
+    <row r="67" spans="1:13" ht="30.75" thickBot="1">
       <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
         <v>60</v>
@@ -11109,20 +11687,22 @@
       <c r="E67" s="73"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
-      <c r="H67" s="76" t="s">
+      <c r="H67" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="I67" s="76" t="s">
+      <c r="I67" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="J67" s="92" t="s">
+      <c r="J67" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="K67" s="101" t="s">
+      <c r="K67" s="107" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="102"/>
-      <c r="M67" s="58"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="58" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="A68" s="58"/>
@@ -11134,15 +11714,15 @@
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="76" t="s">
+      <c r="H68" s="101" t="s">
         <v>289</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="101" t="s">
+      <c r="K68" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="102"/>
+      <c r="L68" s="106"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -11155,15 +11735,15 @@
       <c r="E69" s="73"/>
       <c r="F69" s="73"/>
       <c r="G69" s="58"/>
-      <c r="H69" s="75" t="s">
+      <c r="H69" s="72" t="s">
         <v>311</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="98" t="s">
+      <c r="K69" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="99"/>
+      <c r="L69" s="102"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -11176,15 +11756,15 @@
       <c r="E70" s="77"/>
       <c r="F70" s="73"/>
       <c r="G70" s="58"/>
-      <c r="H70" s="75" t="s">
+      <c r="H70" s="72" t="s">
         <v>317</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="98" t="s">
+      <c r="K70" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="99"/>
+      <c r="L70" s="102"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -11197,15 +11777,15 @@
       <c r="E71" s="73"/>
       <c r="F71" s="73"/>
       <c r="G71" s="58"/>
-      <c r="H71" s="75" t="s">
+      <c r="H71" s="72" t="s">
         <v>333</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="98" t="s">
+      <c r="K71" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="99"/>
+      <c r="L71" s="102"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="26.25" thickBot="1">
@@ -11216,19 +11796,19 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="80" t="s">
-        <v>411</v>
+      <c r="F72" s="96" t="s">
+        <v>410</v>
       </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="91" t="s">
+      <c r="H72" s="89" t="s">
         <v>391</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="98" t="s">
+      <c r="K72" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="99"/>
+      <c r="L72" s="102"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -11370,7 +11950,7 @@
       <c r="L79" s="73"/>
       <c r="M79" s="58"/>
     </row>
-    <row r="80" spans="1:13" ht="26.25" thickBot="1">
+    <row r="80" spans="1:13" ht="75.75" thickBot="1">
       <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
         <v>73</v>
@@ -11378,10 +11958,12 @@
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
-      <c r="F80" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="G80" s="58"/>
+      <c r="F80" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>459</v>
+      </c>
       <c r="H80" s="19" t="s">
         <v>181</v>
       </c>
@@ -11418,8 +12000,8 @@
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="20" t="s">
-        <v>413</v>
+      <c r="F82" s="89" t="s">
+        <v>412</v>
       </c>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
@@ -11458,8 +12040,8 @@
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="20" t="s">
-        <v>414</v>
+      <c r="F84" s="89" t="s">
+        <v>413</v>
       </c>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
@@ -11487,23 +12069,25 @@
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
-      <c r="L85" s="20" t="s">
-        <v>431</v>
+      <c r="L85" s="89" t="s">
+        <v>429</v>
       </c>
       <c r="M85" s="58"/>
     </row>
-    <row r="86" spans="1:13" ht="26.25" thickBot="1">
+    <row r="86" spans="1:13" ht="45.75" thickBot="1">
       <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="73"/>
-      <c r="D86" s="20" t="s">
-        <v>415</v>
+      <c r="D86" s="75" t="s">
+        <v>455</v>
       </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
-      <c r="G86" s="58"/>
+      <c r="G86" s="58" t="s">
+        <v>458</v>
+      </c>
       <c r="H86" s="19" t="s">
         <v>187</v>
       </c>
@@ -11529,23 +12113,25 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
-      <c r="L87" s="20" t="s">
-        <v>432</v>
+      <c r="L87" s="89" t="s">
+        <v>430</v>
       </c>
       <c r="M87" s="58"/>
     </row>
-    <row r="88" spans="1:13" ht="26.25" thickBot="1">
+    <row r="88" spans="1:13" ht="45.75" thickBot="1">
       <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="80" t="s">
-        <v>416</v>
+      <c r="D88" s="97" t="s">
+        <v>414</v>
       </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
-      <c r="G88" s="58"/>
+      <c r="G88" s="58" t="s">
+        <v>457</v>
+      </c>
       <c r="H88" s="19" t="s">
         <v>189</v>
       </c>
@@ -11582,20 +12168,20 @@
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
-      <c r="F90" s="41" t="s">
-        <v>417</v>
+      <c r="F90" s="103" t="s">
+        <v>415</v>
       </c>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
         <v>191</v>
       </c>
       <c r="I90" s="73"/>
-      <c r="J90" s="20" t="s">
-        <v>433</v>
+      <c r="J90" s="89" t="s">
+        <v>431</v>
       </c>
       <c r="K90" s="73"/>
-      <c r="L90" s="20" t="s">
-        <v>434</v>
+      <c r="L90" s="89" t="s">
+        <v>432</v>
       </c>
       <c r="M90" s="58"/>
     </row>
@@ -11653,8 +12239,8 @@
       <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
-      <c r="L93" s="20" t="s">
-        <v>435</v>
+      <c r="L93" s="89" t="s">
+        <v>433</v>
       </c>
       <c r="M93" s="58"/>
     </row>
@@ -11674,8 +12260,8 @@
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
-      <c r="L94" s="20" t="s">
-        <v>436</v>
+      <c r="L94" s="89" t="s">
+        <v>434</v>
       </c>
       <c r="M94" s="58"/>
     </row>
@@ -11695,8 +12281,8 @@
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="20" t="s">
-        <v>437</v>
+      <c r="L95" s="89" t="s">
+        <v>435</v>
       </c>
       <c r="M95" s="58"/>
     </row>
@@ -11733,14 +12319,16 @@
         <v>195</v>
       </c>
       <c r="I97" s="73"/>
-      <c r="J97" s="20" t="s">
-        <v>438</v>
+      <c r="J97" s="89" t="s">
+        <v>436</v>
       </c>
       <c r="K97" s="73"/>
-      <c r="L97" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="M97" s="58"/>
+      <c r="L97" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="M97" s="58" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="39" thickBot="1">
       <c r="A98" s="58"/>
@@ -11758,8 +12346,8 @@
       <c r="I98" s="73"/>
       <c r="J98" s="73"/>
       <c r="K98" s="73"/>
-      <c r="L98" s="20" t="s">
-        <v>440</v>
+      <c r="L98" s="89" t="s">
+        <v>438</v>
       </c>
       <c r="M98" s="58"/>
     </row>
@@ -11779,8 +12367,8 @@
       <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
-      <c r="L99" s="20" t="s">
-        <v>441</v>
+      <c r="L99" s="89" t="s">
+        <v>439</v>
       </c>
       <c r="M99" s="58"/>
     </row>
@@ -11803,7 +12391,7 @@
       <c r="L100" s="73"/>
       <c r="M100" s="58"/>
     </row>
-    <row r="101" spans="1:13" ht="39" thickBot="1">
+    <row r="101" spans="1:13" ht="60.75" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
         <v>297</v>
@@ -11818,13 +12406,15 @@
       </c>
       <c r="I101" s="72"/>
       <c r="J101" s="73"/>
-      <c r="K101" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="M101" s="58"/>
+      <c r="K101" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="L101" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="M101" s="58" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="102" spans="1:13" ht="30.75" thickBot="1">
       <c r="A102" s="58"/>
@@ -11842,8 +12432,8 @@
       <c r="I102" s="73"/>
       <c r="J102" s="73"/>
       <c r="K102" s="73"/>
-      <c r="L102" s="62" t="s">
-        <v>444</v>
+      <c r="L102" s="109" t="s">
+        <v>442</v>
       </c>
       <c r="M102" s="58"/>
     </row>
@@ -11969,7 +12559,7 @@
       </c>
       <c r="I108" s="73"/>
       <c r="J108" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
@@ -12020,7 +12610,7 @@
       </c>
       <c r="C111" s="73"/>
       <c r="D111" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
@@ -12051,7 +12641,7 @@
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
       <c r="L112" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M112" s="58"/>
     </row>
@@ -12063,7 +12653,7 @@
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
       <c r="E113" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F113" s="73"/>
       <c r="G113" s="58"/>
@@ -12087,7 +12677,7 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
@@ -12253,7 +12843,7 @@
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
       <c r="L122" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M122" s="58"/>
     </row>
@@ -12312,7 +12902,7 @@
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
       <c r="L125" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M125" s="58"/>
     </row>
@@ -12325,7 +12915,7 @@
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
       <c r="F126" s="80" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
@@ -12354,7 +12944,7 @@
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
       <c r="L127" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M127" s="58"/>
     </row>
@@ -12375,7 +12965,7 @@
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
       <c r="L128" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M128" s="58"/>
     </row>
@@ -12434,7 +13024,7 @@
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
       <c r="L131" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M131" s="58"/>
     </row>
@@ -12447,7 +13037,7 @@
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
       <c r="F132" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
@@ -12457,7 +13047,7 @@
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
       <c r="L132" s="62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M132" s="58"/>
     </row>
@@ -12487,7 +13077,7 @@
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
       <c r="F134" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="44" t="s">
@@ -12618,7 +13208,7 @@
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F140" s="73"/>
       <c r="G140" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="473">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1384,9 +1384,6 @@
     <t>Fauztin's Shadow</t>
   </si>
   <si>
-    <t>check mf</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1420,22 +1417,61 @@
     <t>proc forked lightning?</t>
   </si>
   <si>
-    <t>oskill?</t>
-  </si>
-  <si>
     <t>check searing glow, check +2 skills when apple</t>
+  </si>
+  <si>
+    <t>oskill fireboltbarrage</t>
+  </si>
+  <si>
+    <t>proc chickenlickin</t>
+  </si>
+  <si>
+    <t>kill-skill Mon Spinning Mind Flay
+ (535)</t>
+  </si>
+  <si>
+    <t>proc elementalrain (820)</t>
+  </si>
+  <si>
+    <t>pagan2 apple all skills 2</t>
+  </si>
+  <si>
+    <t>Blackguard Helm</t>
+  </si>
+  <si>
+    <t>Demonstring</t>
+  </si>
+  <si>
+    <t>absorb fire,cold,light, magic?</t>
+  </si>
+  <si>
+    <t>skill solistice and equinox?</t>
+  </si>
+  <si>
+    <t>3% Faster Cast Rate
++5% Bonus to Summoned Minion Attack Rating
++1 to Maximum Necromancer Minions
+3% Crushing Blow to Darklings?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2245,63 +2281,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2311,10 +2373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2323,10 +2382,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2336,33 +2395,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2371,22 +2430,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,28 +2460,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2429,43 +2491,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2484,44 +2546,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,94 +2589,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="68">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="43" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 3" xfId="53" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 3" xfId="58" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="48" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 3" xfId="60" customBuiltin="1"/>
     <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="51" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 3" xfId="62" customBuiltin="1"/>
     <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="54" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 3" xfId="64" customBuiltin="1"/>
     <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="56" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 3" xfId="66" customBuiltin="1"/>
     <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="44" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 3" xfId="50" customBuiltin="1"/>
     <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 3" xfId="59" customBuiltin="1"/>
     <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="49" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 3" xfId="61" customBuiltin="1"/>
     <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="52" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 3" xfId="63" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="55" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 3" xfId="65" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="57" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 3" xfId="67" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
@@ -2643,7 +2729,9 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="41"/>
+    <cellStyle name="Note 3" xfId="42" customBuiltin="1"/>
+    <cellStyle name="Note 4" xfId="45" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -3481,13 +3569,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -3642,13 +3730,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -3809,13 +3897,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -3964,13 +4052,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="91" t="s">
+      <c r="H54" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -4119,13 +4207,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="91" t="s">
+      <c r="H63" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -5434,11 +5522,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90"/>
-      <c r="J132" s="90"/>
-      <c r="K132" s="90"/>
-      <c r="L132" s="90"/>
+      <c r="H132" s="95"/>
+      <c r="I132" s="95"/>
+      <c r="J132" s="95"/>
+      <c r="K132" s="95"/>
+      <c r="L132" s="95"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -7184,13 +7272,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -7345,13 +7433,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="99"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -7512,13 +7600,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="99"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -7667,13 +7755,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7822,13 +7910,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="99"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10185,8 +10273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10206,40 +10294,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -10248,19 +10336,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -10342,11 +10430,11 @@
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="58"/>
-      <c r="O6" s="99" t="s">
+      <c r="O6" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="P6" t="s">
         <v>452</v>
-      </c>
-      <c r="P6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -10386,11 +10474,11 @@
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
       <c r="M8" s="58"/>
-      <c r="O8" s="98" t="s">
-        <v>452</v>
+      <c r="O8" s="90" t="s">
+        <v>451</v>
       </c>
       <c r="P8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
@@ -10504,7 +10592,7 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="105" t="s">
         <v>423</v>
       </c>
       <c r="M14" s="58"/>
@@ -10547,7 +10635,7 @@
       <c r="L16" s="73"/>
       <c r="M16" s="58"/>
     </row>
-    <row r="17" spans="1:13" ht="26.25" thickBot="1">
+    <row r="17" spans="1:13" ht="45.75" thickBot="1">
       <c r="A17" s="58"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
@@ -10562,12 +10650,14 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="105" t="s">
         <v>424</v>
       </c>
-      <c r="L17" s="73"/>
+      <c r="L17" s="89" t="s">
+        <v>469</v>
+      </c>
       <c r="M17" s="58" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
@@ -10605,7 +10695,7 @@
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="89" t="s">
+      <c r="L19" s="105" t="s">
         <v>425</v>
       </c>
       <c r="M19" s="58"/>
@@ -10637,7 +10727,7 @@
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="105" t="s">
         <v>405</v>
       </c>
       <c r="G21" s="58"/>
@@ -10685,7 +10775,7 @@
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="89" t="s">
+      <c r="L23" s="105" t="s">
         <v>426</v>
       </c>
       <c r="M23" s="58"/>
@@ -10706,12 +10796,10 @@
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="M24" s="58" t="s">
-        <v>451</v>
-      </c>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="58"/>
@@ -10791,10 +10879,10 @@
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
-      <c r="K28" s="89" t="s">
+      <c r="K28" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
@@ -10826,13 +10914,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10845,16 +10933,16 @@
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="101" t="s">
+      <c r="H31" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="I31" s="101" t="s">
+      <c r="I31" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="J31" s="101" t="s">
+      <c r="J31" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="K31" s="101" t="s">
+      <c r="K31" s="93" t="s">
         <v>383</v>
       </c>
       <c r="L31" s="63"/>
@@ -10870,16 +10958,16 @@
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="101" t="s">
+      <c r="H32" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="I32" s="101" t="s">
+      <c r="I32" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="101" t="s">
+      <c r="J32" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="105" t="s">
+      <c r="K32" s="108" t="s">
         <v>384</v>
       </c>
       <c r="L32" s="63"/>
@@ -10899,10 +10987,10 @@
       <c r="I33" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="100" t="s">
+      <c r="J33" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="89" t="s">
+      <c r="K33" s="105" t="s">
         <v>385</v>
       </c>
       <c r="L33" s="20"/>
@@ -10960,7 +11048,7 @@
       <c r="J35" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="89" t="s">
+      <c r="K35" s="105" t="s">
         <v>387</v>
       </c>
       <c r="L35" s="20"/>
@@ -11005,7 +11093,7 @@
       <c r="I37" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="105" t="s">
         <v>382</v>
       </c>
       <c r="K37" s="20"/>
@@ -11037,15 +11125,15 @@
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
-      <c r="F39" s="85"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="99"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -11056,16 +11144,16 @@
       <c r="E40" s="65"/>
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="I40" s="101" t="s">
+      <c r="I40" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="K40" s="101" t="s">
+      <c r="K40" s="93" t="s">
         <v>377</v>
       </c>
       <c r="L40" s="63"/>
@@ -11089,16 +11177,16 @@
         <v>3</v>
       </c>
       <c r="G41" s="58"/>
-      <c r="H41" s="101" t="s">
+      <c r="H41" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="101" t="s">
+      <c r="I41" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="J41" s="101" t="s">
+      <c r="J41" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="K41" s="101" t="s">
+      <c r="K41" s="93" t="s">
         <v>380</v>
       </c>
       <c r="L41" s="63"/>
@@ -11123,7 +11211,7 @@
       <c r="J42" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="88"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
     </row>
@@ -11135,7 +11223,7 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="105" t="s">
         <v>406</v>
       </c>
       <c r="G43" s="58"/>
@@ -11168,7 +11256,7 @@
       <c r="I44" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="100" t="s">
+      <c r="J44" s="92" t="s">
         <v>373</v>
       </c>
       <c r="K44" s="20"/>
@@ -11206,7 +11294,7 @@
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
       <c r="E46" s="73"/>
-      <c r="F46" s="85"/>
+      <c r="F46" s="84"/>
       <c r="G46" s="58"/>
       <c r="H46" s="72" t="s">
         <v>318</v>
@@ -11254,13 +11342,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="99"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -11273,13 +11361,13 @@
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="101" t="s">
+      <c r="H49" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="101" t="s">
+      <c r="I49" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="105" t="s">
+      <c r="J49" s="108" t="s">
         <v>388</v>
       </c>
       <c r="K49" s="63"/>
@@ -11296,13 +11384,13 @@
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="101" t="s">
+      <c r="H50" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="101" t="s">
+      <c r="I50" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="105" t="s">
+      <c r="J50" s="108" t="s">
         <v>389</v>
       </c>
       <c r="K50" s="63"/>
@@ -11322,10 +11410,10 @@
       <c r="H51" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="100" t="s">
+      <c r="I51" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="J51" s="89" t="s">
+      <c r="J51" s="88" t="s">
         <v>390</v>
       </c>
       <c r="K51" s="20"/>
@@ -11366,7 +11454,7 @@
       <c r="H53" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="100" t="s">
+      <c r="I53" s="92" t="s">
         <v>364</v>
       </c>
       <c r="J53" s="20"/>
@@ -11443,13 +11531,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="92" t="s">
+      <c r="H57" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="30.75" thickBot="1">
@@ -11460,23 +11548,23 @@
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="105" t="s">
         <v>407</v>
       </c>
       <c r="G58" s="58"/>
-      <c r="H58" s="101" t="s">
+      <c r="H58" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="108" t="s">
+      <c r="I58" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="J58" s="101" t="s">
+      <c r="J58" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="K58" s="63" t="s">
+      <c r="K58" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="L58" s="63" t="s">
+      <c r="L58" s="108" t="s">
         <v>403</v>
       </c>
       <c r="M58" s="58"/>
@@ -11491,19 +11579,19 @@
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="101" t="s">
+      <c r="H59" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="108" t="s">
+      <c r="I59" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="J59" s="101" t="s">
+      <c r="J59" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="K59" s="63" t="s">
+      <c r="K59" s="108" t="s">
         <v>397</v>
       </c>
-      <c r="L59" s="63" t="s">
+      <c r="L59" s="108" t="s">
         <v>404</v>
       </c>
       <c r="M59" s="58"/>
@@ -11520,15 +11608,15 @@
         <v>408</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H60" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="100" t="s">
+      <c r="I60" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="100" t="s">
+      <c r="J60" s="92" t="s">
         <v>355</v>
       </c>
       <c r="K60" s="72" t="s">
@@ -11547,7 +11635,7 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="92" t="s">
         <v>342</v>
       </c>
       <c r="I61" s="72" t="s">
@@ -11556,13 +11644,13 @@
       <c r="J61" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="105" t="s">
         <v>399</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="58"/>
     </row>
-    <row r="62" spans="1:13" ht="26.25" thickBot="1">
+    <row r="62" spans="1:13" ht="195.75" thickBot="1">
       <c r="A62" s="58"/>
       <c r="B62" s="19" t="s">
         <v>55</v>
@@ -11578,14 +11666,16 @@
       <c r="I62" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="J62" s="100" t="s">
+      <c r="J62" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="75" t="s">
         <v>400</v>
       </c>
       <c r="L62" s="20"/>
-      <c r="M62" s="58"/>
+      <c r="M62" s="58" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="45.75" thickBot="1">
       <c r="A63" s="58"/>
@@ -11599,7 +11689,7 @@
         <v>409</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H63" s="72" t="s">
         <v>344</v>
@@ -11607,10 +11697,10 @@
       <c r="I63" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="105" t="s">
         <v>394</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="105" t="s">
         <v>401</v>
       </c>
       <c r="L63" s="20"/>
@@ -11629,13 +11719,13 @@
       <c r="H64" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="100" t="s">
+      <c r="I64" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="105" t="s">
         <v>402</v>
       </c>
       <c r="L64" s="20"/>
@@ -11668,13 +11758,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="94"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="99"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="30.75" thickBot="1">
@@ -11687,21 +11777,21 @@
       <c r="E67" s="73"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
-      <c r="H67" s="101" t="s">
+      <c r="H67" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="I67" s="101" t="s">
+      <c r="I67" s="93" t="s">
         <v>392</v>
       </c>
       <c r="J67" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="K67" s="107" t="s">
+      <c r="K67" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="106"/>
+      <c r="L67" s="104"/>
       <c r="M67" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -11714,15 +11804,15 @@
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="101" t="s">
+      <c r="H68" s="93" t="s">
         <v>289</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="107" t="s">
+      <c r="K68" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="106"/>
+      <c r="L68" s="104"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -11740,10 +11830,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="104" t="s">
+      <c r="K69" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="102"/>
+      <c r="L69" s="101"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -11761,10 +11851,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="104" t="s">
+      <c r="K70" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="102"/>
+      <c r="L70" s="101"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -11782,10 +11872,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="104" t="s">
+      <c r="K71" s="100" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="102"/>
+      <c r="L71" s="101"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="26.25" thickBot="1">
@@ -11796,19 +11886,19 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="96" t="s">
+      <c r="F72" s="105" t="s">
         <v>410</v>
       </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="89" t="s">
+      <c r="H72" s="105" t="s">
         <v>391</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="104" t="s">
+      <c r="K72" s="100" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="102"/>
+      <c r="L72" s="101"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -11898,8 +11988,8 @@
       <c r="B77" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="74"/>
       <c r="F77" s="74"/>
       <c r="G77" s="58"/>
@@ -11962,7 +12052,7 @@
         <v>411</v>
       </c>
       <c r="G80" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>181</v>
@@ -12000,7 +12090,7 @@
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="89" t="s">
+      <c r="F82" s="105" t="s">
         <v>412</v>
       </c>
       <c r="G82" s="58"/>
@@ -12040,7 +12130,7 @@
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="89" t="s">
+      <c r="F84" s="105" t="s">
         <v>413</v>
       </c>
       <c r="G84" s="58"/>
@@ -12069,7 +12159,7 @@
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
-      <c r="L85" s="89" t="s">
+      <c r="L85" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M85" s="58"/>
@@ -12081,12 +12171,12 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
       <c r="G86" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>187</v>
@@ -12113,7 +12203,7 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
-      <c r="L87" s="89" t="s">
+      <c r="L87" s="105" t="s">
         <v>430</v>
       </c>
       <c r="M87" s="58"/>
@@ -12124,13 +12214,13 @@
         <v>81</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="89" t="s">
         <v>414</v>
       </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
       <c r="G88" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>189</v>
@@ -12168,7 +12258,7 @@
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
-      <c r="F90" s="103" t="s">
+      <c r="F90" s="106" t="s">
         <v>415</v>
       </c>
       <c r="G90" s="58"/>
@@ -12176,11 +12266,11 @@
         <v>191</v>
       </c>
       <c r="I90" s="73"/>
-      <c r="J90" s="89" t="s">
+      <c r="J90" s="105" t="s">
         <v>431</v>
       </c>
       <c r="K90" s="73"/>
-      <c r="L90" s="89" t="s">
+      <c r="L90" s="105" t="s">
         <v>432</v>
       </c>
       <c r="M90" s="58"/>
@@ -12239,7 +12329,7 @@
       <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
-      <c r="L93" s="89" t="s">
+      <c r="L93" s="105" t="s">
         <v>433</v>
       </c>
       <c r="M93" s="58"/>
@@ -12260,7 +12350,7 @@
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
-      <c r="L94" s="89" t="s">
+      <c r="L94" s="105" t="s">
         <v>434</v>
       </c>
       <c r="M94" s="58"/>
@@ -12281,7 +12371,7 @@
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="89" t="s">
+      <c r="L95" s="105" t="s">
         <v>435</v>
       </c>
       <c r="M95" s="58"/>
@@ -12319,7 +12409,7 @@
         <v>195</v>
       </c>
       <c r="I97" s="73"/>
-      <c r="J97" s="89" t="s">
+      <c r="J97" s="105" t="s">
         <v>436</v>
       </c>
       <c r="K97" s="73"/>
@@ -12327,7 +12417,7 @@
         <v>437</v>
       </c>
       <c r="M97" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="39" thickBot="1">
@@ -12346,10 +12436,12 @@
       <c r="I98" s="73"/>
       <c r="J98" s="73"/>
       <c r="K98" s="73"/>
-      <c r="L98" s="89" t="s">
+      <c r="L98" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="M98" s="58"/>
+      <c r="M98" s="58" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="26.25" thickBot="1">
       <c r="A99" s="58"/>
@@ -12367,7 +12459,7 @@
       <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
-      <c r="L99" s="89" t="s">
+      <c r="L99" s="105" t="s">
         <v>439</v>
       </c>
       <c r="M99" s="58"/>
@@ -12380,7 +12472,7 @@
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
       <c r="E100" s="74"/>
-      <c r="F100" s="83"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
         <v>200</v>
@@ -12409,11 +12501,11 @@
       <c r="K101" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="L101" s="89" t="s">
+      <c r="L101" s="105" t="s">
         <v>441</v>
       </c>
       <c r="M101" s="58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30.75" thickBot="1">
@@ -12445,7 +12537,7 @@
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
-      <c r="F103" s="85"/>
+      <c r="F103" s="84"/>
       <c r="G103" s="58"/>
       <c r="H103" s="58"/>
       <c r="I103" s="58"/>
@@ -12558,7 +12650,7 @@
         <v>206</v>
       </c>
       <c r="I108" s="73"/>
-      <c r="J108" s="20" t="s">
+      <c r="J108" s="105" t="s">
         <v>443</v>
       </c>
       <c r="K108" s="73"/>
@@ -12579,7 +12671,7 @@
         <v>207</v>
       </c>
       <c r="I109" s="73"/>
-      <c r="J109" s="81"/>
+      <c r="J109" s="80"/>
       <c r="K109" s="73"/>
       <c r="L109" s="73"/>
       <c r="M109" s="58"/>
@@ -12603,18 +12695,20 @@
       <c r="L110" s="73"/>
       <c r="M110" s="58"/>
     </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1">
+    <row r="111" spans="1:13" ht="45.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C111" s="73"/>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="75" t="s">
         <v>416</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
-      <c r="G111" s="58"/>
+      <c r="G111" s="58" t="s">
+        <v>463</v>
+      </c>
       <c r="H111" s="19" t="s">
         <v>209</v>
       </c>
@@ -12640,23 +12734,25 @@
       <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
-      <c r="L112" s="20" t="s">
+      <c r="L112" s="105" t="s">
         <v>444</v>
       </c>
       <c r="M112" s="58"/>
     </row>
-    <row r="113" spans="1:13" ht="15.75" thickBot="1">
+    <row r="113" spans="1:13" ht="45.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="75" t="s">
         <v>417</v>
       </c>
       <c r="F113" s="73"/>
-      <c r="G113" s="58"/>
+      <c r="G113" s="58" t="s">
+        <v>464</v>
+      </c>
       <c r="H113" s="19" t="s">
         <v>211</v>
       </c>
@@ -12666,7 +12762,7 @@
       <c r="L113" s="73"/>
       <c r="M113" s="58"/>
     </row>
-    <row r="114" spans="1:13" ht="15.75" thickBot="1">
+    <row r="114" spans="1:13" ht="90.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
         <v>105</v>
@@ -12676,10 +12772,12 @@
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
-      <c r="F114" s="20" t="s">
+      <c r="F114" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="G114" s="58"/>
+      <c r="G114" s="58" t="s">
+        <v>465</v>
+      </c>
       <c r="H114" s="19" t="s">
         <v>212</v>
       </c>
@@ -12734,10 +12832,10 @@
       <c r="B117" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="84" t="s">
+      <c r="C117" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="83"/>
+      <c r="D117" s="82"/>
       <c r="E117" s="74"/>
       <c r="F117" s="74"/>
       <c r="G117" s="58"/>
@@ -12784,7 +12882,7 @@
       </c>
       <c r="I119" s="73"/>
       <c r="J119" s="73"/>
-      <c r="K119" s="87"/>
+      <c r="K119" s="86"/>
       <c r="L119" s="73"/>
       <c r="M119" s="58"/>
     </row>
@@ -12842,7 +12940,7 @@
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
-      <c r="L122" s="20" t="s">
+      <c r="L122" s="105" t="s">
         <v>445</v>
       </c>
       <c r="M122" s="58"/>
@@ -12901,7 +12999,7 @@
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
-      <c r="L125" s="20" t="s">
+      <c r="L125" s="105" t="s">
         <v>446</v>
       </c>
       <c r="M125" s="58"/>
@@ -12914,7 +13012,7 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
-      <c r="F126" s="80" t="s">
+      <c r="F126" s="105" t="s">
         <v>419</v>
       </c>
       <c r="G126" s="58"/>
@@ -12943,7 +13041,7 @@
       <c r="I127" s="73"/>
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
-      <c r="L127" s="20" t="s">
+      <c r="L127" s="105" t="s">
         <v>447</v>
       </c>
       <c r="M127" s="58"/>
@@ -12953,8 +13051,8 @@
       <c r="B128" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="83"/>
-      <c r="D128" s="82"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="81"/>
       <c r="E128" s="74"/>
       <c r="F128" s="74"/>
       <c r="G128" s="58"/>
@@ -12964,7 +13062,7 @@
       <c r="I128" s="73"/>
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
-      <c r="L128" s="20" t="s">
+      <c r="L128" s="105" t="s">
         <v>448</v>
       </c>
       <c r="M128" s="58"/>
@@ -13015,7 +13113,7 @@
       <c r="C131" s="74"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
-      <c r="F131" s="83"/>
+      <c r="F131" s="82"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
         <v>228</v>
@@ -13023,7 +13121,7 @@
       <c r="I131" s="73"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
-      <c r="L131" s="20" t="s">
+      <c r="L131" s="105" t="s">
         <v>449</v>
       </c>
       <c r="M131" s="58"/>
@@ -13036,17 +13134,17 @@
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
-      <c r="F132" s="20" t="s">
+      <c r="F132" s="105" t="s">
         <v>420</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>229</v>
+        <v>468</v>
       </c>
       <c r="I132" s="73"/>
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
-      <c r="L132" s="62" t="s">
+      <c r="L132" s="109" t="s">
         <v>450</v>
       </c>
       <c r="M132" s="58"/>
@@ -13068,7 +13166,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:14" ht="27" thickBot="1">
+    <row r="134" spans="1:14" ht="60.75" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
         <v>125</v>
@@ -13076,10 +13174,12 @@
       <c r="C134" s="73"/>
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
-      <c r="F134" s="20" t="s">
+      <c r="F134" s="75" t="s">
         <v>421</v>
       </c>
-      <c r="G134" s="4"/>
+      <c r="G134" s="107" t="s">
+        <v>466</v>
+      </c>
       <c r="H134" s="44" t="s">
         <v>231</v>
       </c>
@@ -13105,8 +13205,8 @@
       <c r="B135" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="86"/>
-      <c r="D135" s="86"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
       <c r="E135" s="73"/>
       <c r="F135" s="73"/>
       <c r="G135" s="4"/>
@@ -13200,18 +13300,20 @@
       <c r="M139" s="54"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="1:14" ht="26.25" thickBot="1">
+    <row r="140" spans="1:14" ht="45.75" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="75" t="s">
         <v>422</v>
       </c>
       <c r="F140" s="73"/>
-      <c r="G140" s="4"/>
+      <c r="G140" s="107" t="s">
+        <v>467</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -13258,7 +13360,7 @@
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
-      <c r="F142" s="85"/>
+      <c r="F142" s="84"/>
       <c r="G142" s="4"/>
       <c r="H142" s="51" t="s">
         <v>237</v>
@@ -13530,7 +13632,7 @@
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="73"/>
-      <c r="F155" s="85"/>
+      <c r="F155" s="84"/>
       <c r="G155" s="4"/>
       <c r="H155" s="44" t="s">
         <v>255</v>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="469">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1405,9 +1405,6 @@
     <t>oskill Cold Blood?</t>
   </si>
   <si>
-    <t>death-skill Elemental Rain (820)?</t>
-  </si>
-  <si>
     <t>oskill Ball Lightning?</t>
   </si>
   <si>
@@ -1415,9 +1412,6 @@
   </si>
   <si>
     <t>proc forked lightning?</t>
-  </si>
-  <si>
-    <t>check searing glow, check +2 skills when apple</t>
   </si>
   <si>
     <t>oskill fireboltbarrage</t>
@@ -1428,12 +1422,6 @@
   <si>
     <t>kill-skill Mon Spinning Mind Flay
  (535)</t>
-  </si>
-  <si>
-    <t>proc elementalrain (820)</t>
-  </si>
-  <si>
-    <t>pagan2 apple all skills 2</t>
   </si>
   <si>
     <t>Blackguard Helm</t>
@@ -2621,6 +2609,21 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2651,59 +2654,44 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="43" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 3" xfId="53" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="43"/>
+    <cellStyle name="20% - Accent1 3" xfId="53"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 3" xfId="58" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="46"/>
+    <cellStyle name="20% - Accent2 3" xfId="58"/>
     <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="48" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 3" xfId="60" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="48"/>
+    <cellStyle name="20% - Accent3 3" xfId="60"/>
     <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="51" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 3" xfId="62" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="51"/>
+    <cellStyle name="20% - Accent4 3" xfId="62"/>
     <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="54" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 3" xfId="64" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="54"/>
+    <cellStyle name="20% - Accent5 3" xfId="64"/>
     <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="56" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 3" xfId="66" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="56"/>
+    <cellStyle name="20% - Accent6 3" xfId="66"/>
     <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="44" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 3" xfId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="44"/>
+    <cellStyle name="40% - Accent1 3" xfId="50"/>
     <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 3" xfId="59" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="47"/>
+    <cellStyle name="40% - Accent2 3" xfId="59"/>
     <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="49" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 3" xfId="61" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="49"/>
+    <cellStyle name="40% - Accent3 3" xfId="61"/>
     <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="52" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 3" xfId="63" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="52"/>
+    <cellStyle name="40% - Accent4 3" xfId="63"/>
     <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="55" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 3" xfId="65" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="55"/>
+    <cellStyle name="40% - Accent5 3" xfId="65"/>
     <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="57" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 3" xfId="67" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="57"/>
+    <cellStyle name="40% - Accent6 3" xfId="67"/>
     <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
@@ -2730,8 +2718,8 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note 2" xfId="41"/>
-    <cellStyle name="Note 3" xfId="42" customBuiltin="1"/>
-    <cellStyle name="Note 4" xfId="45" customBuiltin="1"/>
+    <cellStyle name="Note 3" xfId="42"/>
+    <cellStyle name="Note 4" xfId="45"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -3569,13 +3557,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -3730,13 +3718,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -3897,13 +3885,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="96" t="s">
+      <c r="H45" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -4052,13 +4040,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="96" t="s">
+      <c r="H54" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -4207,13 +4195,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="96" t="s">
+      <c r="H63" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -5522,11 +5510,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="95"/>
-      <c r="I132" s="95"/>
-      <c r="J132" s="95"/>
-      <c r="K132" s="95"/>
-      <c r="L132" s="95"/>
+      <c r="H132" s="100"/>
+      <c r="I132" s="100"/>
+      <c r="J132" s="100"/>
+      <c r="K132" s="100"/>
+      <c r="L132" s="100"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -7272,13 +7260,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="97" t="s">
+      <c r="H30" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -7433,13 +7421,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="97" t="s">
+      <c r="H39" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="99"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -7600,13 +7588,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="97" t="s">
+      <c r="H48" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="99"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -7755,13 +7743,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="97" t="s">
+      <c r="H57" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="99"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="104"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7910,13 +7898,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="97" t="s">
+      <c r="H66" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="99"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="104"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10273,8 +10261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10294,40 +10282,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -10336,19 +10324,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -10592,7 +10580,7 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="105" t="s">
+      <c r="L14" s="95" t="s">
         <v>423</v>
       </c>
       <c r="M14" s="58"/>
@@ -10650,14 +10638,14 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="105" t="s">
+      <c r="K17" s="95" t="s">
         <v>424</v>
       </c>
       <c r="L17" s="89" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
@@ -10695,7 +10683,7 @@
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="105" t="s">
+      <c r="L19" s="95" t="s">
         <v>425</v>
       </c>
       <c r="M19" s="58"/>
@@ -10727,7 +10715,7 @@
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="95" t="s">
         <v>405</v>
       </c>
       <c r="G21" s="58"/>
@@ -10775,7 +10763,7 @@
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="105" t="s">
+      <c r="L23" s="95" t="s">
         <v>426</v>
       </c>
       <c r="M23" s="58"/>
@@ -10796,7 +10784,7 @@
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="95" t="s">
         <v>427</v>
       </c>
       <c r="M24" s="58"/>
@@ -10879,7 +10867,7 @@
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
-      <c r="K28" s="105" t="s">
+      <c r="K28" s="95" t="s">
         <v>428</v>
       </c>
       <c r="L28" s="84"/>
@@ -10914,13 +10902,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="97" t="s">
+      <c r="H30" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10967,7 +10955,7 @@
       <c r="J32" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="98" t="s">
         <v>384</v>
       </c>
       <c r="L32" s="63"/>
@@ -10990,7 +10978,7 @@
       <c r="J33" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="105" t="s">
+      <c r="K33" s="95" t="s">
         <v>385</v>
       </c>
       <c r="L33" s="20"/>
@@ -11048,7 +11036,7 @@
       <c r="J35" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="105" t="s">
+      <c r="K35" s="95" t="s">
         <v>387</v>
       </c>
       <c r="L35" s="20"/>
@@ -11093,7 +11081,7 @@
       <c r="I37" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="J37" s="105" t="s">
+      <c r="J37" s="95" t="s">
         <v>382</v>
       </c>
       <c r="K37" s="20"/>
@@ -11127,13 +11115,13 @@
       <c r="E39" s="73"/>
       <c r="F39" s="84"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="97" t="s">
+      <c r="H39" s="102" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="99"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -11223,7 +11211,7 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="95" t="s">
         <v>406</v>
       </c>
       <c r="G43" s="58"/>
@@ -11342,13 +11330,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="97" t="s">
+      <c r="H48" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="99"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -11367,7 +11355,7 @@
       <c r="I49" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="108" t="s">
+      <c r="J49" s="98" t="s">
         <v>388</v>
       </c>
       <c r="K49" s="63"/>
@@ -11390,7 +11378,7 @@
       <c r="I50" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="108" t="s">
+      <c r="J50" s="98" t="s">
         <v>389</v>
       </c>
       <c r="K50" s="63"/>
@@ -11531,13 +11519,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="97" t="s">
+      <c r="H57" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="99"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="104"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="30.75" thickBot="1">
@@ -11548,7 +11536,7 @@
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="105" t="s">
+      <c r="F58" s="95" t="s">
         <v>407</v>
       </c>
       <c r="G58" s="58"/>
@@ -11561,10 +11549,10 @@
       <c r="J58" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="K58" s="108" t="s">
+      <c r="K58" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="L58" s="108" t="s">
+      <c r="L58" s="98" t="s">
         <v>403</v>
       </c>
       <c r="M58" s="58"/>
@@ -11588,10 +11576,10 @@
       <c r="J59" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="K59" s="108" t="s">
+      <c r="K59" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="L59" s="108" t="s">
+      <c r="L59" s="98" t="s">
         <v>404</v>
       </c>
       <c r="M59" s="58"/>
@@ -11608,7 +11596,7 @@
         <v>408</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H60" s="72" t="s">
         <v>341</v>
@@ -11644,7 +11632,7 @@
       <c r="J61" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="K61" s="105" t="s">
+      <c r="K61" s="95" t="s">
         <v>399</v>
       </c>
       <c r="L61" s="20"/>
@@ -11674,7 +11662,7 @@
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="45.75" thickBot="1">
@@ -11689,7 +11677,7 @@
         <v>409</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H63" s="72" t="s">
         <v>344</v>
@@ -11697,10 +11685,10 @@
       <c r="I63" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="105" t="s">
+      <c r="J63" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="K63" s="105" t="s">
+      <c r="K63" s="95" t="s">
         <v>401</v>
       </c>
       <c r="L63" s="20"/>
@@ -11722,10 +11710,10 @@
       <c r="I64" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="J64" s="105" t="s">
+      <c r="J64" s="95" t="s">
         <v>395</v>
       </c>
-      <c r="K64" s="105" t="s">
+      <c r="K64" s="95" t="s">
         <v>402</v>
       </c>
       <c r="L64" s="20"/>
@@ -11758,13 +11746,13 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="97" t="s">
+      <c r="H66" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="99"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="104"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="30.75" thickBot="1">
@@ -11786,12 +11774,12 @@
       <c r="J67" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="K67" s="103" t="s">
+      <c r="K67" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="104"/>
+      <c r="L67" s="109"/>
       <c r="M67" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -11809,10 +11797,10 @@
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="103" t="s">
+      <c r="K68" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="104"/>
+      <c r="L68" s="109"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -11830,10 +11818,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="100" t="s">
+      <c r="K69" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="101"/>
+      <c r="L69" s="106"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -11851,10 +11839,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="100" t="s">
+      <c r="K70" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="101"/>
+      <c r="L70" s="106"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -11872,10 +11860,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="100" t="s">
+      <c r="K71" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="101"/>
+      <c r="L71" s="106"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="26.25" thickBot="1">
@@ -11886,19 +11874,19 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="105" t="s">
+      <c r="F72" s="95" t="s">
         <v>410</v>
       </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="105" t="s">
+      <c r="H72" s="95" t="s">
         <v>391</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="100" t="s">
+      <c r="K72" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="101"/>
+      <c r="L72" s="106"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -12040,7 +12028,7 @@
       <c r="L79" s="73"/>
       <c r="M79" s="58"/>
     </row>
-    <row r="80" spans="1:13" ht="75.75" thickBot="1">
+    <row r="80" spans="1:13" ht="26.25" thickBot="1">
       <c r="A80" s="58"/>
       <c r="B80" s="19" t="s">
         <v>73</v>
@@ -12048,12 +12036,10 @@
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
-      <c r="F80" s="75" t="s">
+      <c r="F80" s="95" t="s">
         <v>411</v>
       </c>
-      <c r="G80" s="58" t="s">
-        <v>458</v>
-      </c>
+      <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
         <v>181</v>
       </c>
@@ -12090,7 +12076,7 @@
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="105" t="s">
+      <c r="F82" s="95" t="s">
         <v>412</v>
       </c>
       <c r="G82" s="58"/>
@@ -12130,7 +12116,7 @@
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="105" t="s">
+      <c r="F84" s="95" t="s">
         <v>413</v>
       </c>
       <c r="G84" s="58"/>
@@ -12159,7 +12145,7 @@
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
-      <c r="L85" s="105" t="s">
+      <c r="L85" s="95" t="s">
         <v>429</v>
       </c>
       <c r="M85" s="58"/>
@@ -12203,7 +12189,7 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
-      <c r="L87" s="105" t="s">
+      <c r="L87" s="95" t="s">
         <v>430</v>
       </c>
       <c r="M87" s="58"/>
@@ -12258,7 +12244,7 @@
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
-      <c r="F90" s="106" t="s">
+      <c r="F90" s="96" t="s">
         <v>415</v>
       </c>
       <c r="G90" s="58"/>
@@ -12266,11 +12252,11 @@
         <v>191</v>
       </c>
       <c r="I90" s="73"/>
-      <c r="J90" s="105" t="s">
+      <c r="J90" s="95" t="s">
         <v>431</v>
       </c>
       <c r="K90" s="73"/>
-      <c r="L90" s="105" t="s">
+      <c r="L90" s="95" t="s">
         <v>432</v>
       </c>
       <c r="M90" s="58"/>
@@ -12329,7 +12315,7 @@
       <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
-      <c r="L93" s="105" t="s">
+      <c r="L93" s="95" t="s">
         <v>433</v>
       </c>
       <c r="M93" s="58"/>
@@ -12350,7 +12336,7 @@
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
-      <c r="L94" s="105" t="s">
+      <c r="L94" s="95" t="s">
         <v>434</v>
       </c>
       <c r="M94" s="58"/>
@@ -12371,7 +12357,7 @@
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="105" t="s">
+      <c r="L95" s="95" t="s">
         <v>435</v>
       </c>
       <c r="M95" s="58"/>
@@ -12409,7 +12395,7 @@
         <v>195</v>
       </c>
       <c r="I97" s="73"/>
-      <c r="J97" s="105" t="s">
+      <c r="J97" s="95" t="s">
         <v>436</v>
       </c>
       <c r="K97" s="73"/>
@@ -12440,7 +12426,7 @@
         <v>438</v>
       </c>
       <c r="M98" s="58" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="26.25" thickBot="1">
@@ -12459,7 +12445,7 @@
       <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
-      <c r="L99" s="105" t="s">
+      <c r="L99" s="95" t="s">
         <v>439</v>
       </c>
       <c r="M99" s="58"/>
@@ -12483,7 +12469,7 @@
       <c r="L100" s="73"/>
       <c r="M100" s="58"/>
     </row>
-    <row r="101" spans="1:13" ht="60.75" thickBot="1">
+    <row r="101" spans="1:13" ht="39" thickBot="1">
       <c r="A101" s="58"/>
       <c r="B101" s="19" t="s">
         <v>297</v>
@@ -12498,15 +12484,13 @@
       </c>
       <c r="I101" s="72"/>
       <c r="J101" s="73"/>
-      <c r="K101" s="75" t="s">
+      <c r="K101" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="L101" s="105" t="s">
+      <c r="L101" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="M101" s="58" t="s">
-        <v>462</v>
-      </c>
+      <c r="M101" s="58"/>
     </row>
     <row r="102" spans="1:13" ht="30.75" thickBot="1">
       <c r="A102" s="58"/>
@@ -12524,7 +12508,7 @@
       <c r="I102" s="73"/>
       <c r="J102" s="73"/>
       <c r="K102" s="73"/>
-      <c r="L102" s="109" t="s">
+      <c r="L102" s="99" t="s">
         <v>442</v>
       </c>
       <c r="M102" s="58"/>
@@ -12650,7 +12634,7 @@
         <v>206</v>
       </c>
       <c r="I108" s="73"/>
-      <c r="J108" s="105" t="s">
+      <c r="J108" s="95" t="s">
         <v>443</v>
       </c>
       <c r="K108" s="73"/>
@@ -12707,7 +12691,7 @@
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
       <c r="G111" s="58" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>209</v>
@@ -12734,7 +12718,7 @@
       <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
-      <c r="L112" s="105" t="s">
+      <c r="L112" s="95" t="s">
         <v>444</v>
       </c>
       <c r="M112" s="58"/>
@@ -12751,7 +12735,7 @@
       </c>
       <c r="F113" s="73"/>
       <c r="G113" s="58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>211</v>
@@ -12776,7 +12760,7 @@
         <v>418</v>
       </c>
       <c r="G114" s="58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H114" s="19" t="s">
         <v>212</v>
@@ -12940,7 +12924,7 @@
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
-      <c r="L122" s="105" t="s">
+      <c r="L122" s="95" t="s">
         <v>445</v>
       </c>
       <c r="M122" s="58"/>
@@ -12999,7 +12983,7 @@
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
-      <c r="L125" s="105" t="s">
+      <c r="L125" s="95" t="s">
         <v>446</v>
       </c>
       <c r="M125" s="58"/>
@@ -13012,7 +12996,7 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
-      <c r="F126" s="105" t="s">
+      <c r="F126" s="95" t="s">
         <v>419</v>
       </c>
       <c r="G126" s="58"/>
@@ -13041,7 +13025,7 @@
       <c r="I127" s="73"/>
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
-      <c r="L127" s="105" t="s">
+      <c r="L127" s="95" t="s">
         <v>447</v>
       </c>
       <c r="M127" s="58"/>
@@ -13062,7 +13046,7 @@
       <c r="I128" s="73"/>
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
-      <c r="L128" s="105" t="s">
+      <c r="L128" s="95" t="s">
         <v>448</v>
       </c>
       <c r="M128" s="58"/>
@@ -13121,7 +13105,7 @@
       <c r="I131" s="73"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
-      <c r="L131" s="105" t="s">
+      <c r="L131" s="95" t="s">
         <v>449</v>
       </c>
       <c r="M131" s="58"/>
@@ -13134,17 +13118,17 @@
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
-      <c r="F132" s="105" t="s">
+      <c r="F132" s="95" t="s">
         <v>420</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I132" s="73"/>
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
-      <c r="L132" s="109" t="s">
+      <c r="L132" s="99" t="s">
         <v>450</v>
       </c>
       <c r="M132" s="58"/>
@@ -13166,7 +13150,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:14" ht="60.75" thickBot="1">
+    <row r="134" spans="1:14" ht="27" thickBot="1">
       <c r="A134" s="58"/>
       <c r="B134" s="19" t="s">
         <v>125</v>
@@ -13174,12 +13158,10 @@
       <c r="C134" s="73"/>
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
-      <c r="F134" s="75" t="s">
+      <c r="F134" s="95" t="s">
         <v>421</v>
       </c>
-      <c r="G134" s="107" t="s">
-        <v>466</v>
-      </c>
+      <c r="G134" s="97"/>
       <c r="H134" s="44" t="s">
         <v>231</v>
       </c>
@@ -13300,20 +13282,18 @@
       <c r="M139" s="54"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="1:14" ht="45.75" thickBot="1">
+    <row r="140" spans="1:14" ht="26.25" thickBot="1">
       <c r="A140" s="58"/>
       <c r="B140" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
-      <c r="E140" s="75" t="s">
+      <c r="E140" s="95" t="s">
         <v>422</v>
       </c>
       <c r="F140" s="73"/>
-      <c r="G140" s="107" t="s">
-        <v>467</v>
-      </c>
+      <c r="G140" s="97"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="458">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1210,9 +1210,6 @@
     <t>Arrowsider</t>
   </si>
   <si>
-    <t>Devils's dance</t>
-  </si>
-  <si>
     <t>Idol of stars</t>
   </si>
   <si>
@@ -1396,50 +1393,19 @@
     <t xml:space="preserve">Skeld's Battlesong </t>
   </si>
   <si>
-    <t>proc Demonrend?</t>
-  </si>
-  <si>
-    <t>oskill Arcane Strike?</t>
-  </si>
-  <si>
-    <t>oskill Cold Blood?</t>
-  </si>
-  <si>
-    <t>oskill Ball Lightning?</t>
-  </si>
-  <si>
-    <t>add heal-melee 50-75?</t>
-  </si>
-  <si>
-    <t>proc forked lightning?</t>
-  </si>
-  <si>
-    <t>oskill fireboltbarrage</t>
-  </si>
-  <si>
-    <t>proc chickenlickin</t>
-  </si>
-  <si>
-    <t>kill-skill Mon Spinning Mind Flay
- (535)</t>
-  </si>
-  <si>
     <t>Blackguard Helm</t>
   </si>
   <si>
     <t>Demonstring</t>
-  </si>
-  <si>
-    <t>absorb fire,cold,light, magic?</t>
-  </si>
-  <si>
-    <t>skill solistice and equinox?</t>
   </si>
   <si>
     <t>3% Faster Cast Rate
 +5% Bonus to Summoned Minion Attack Rating
 +1 to Maximum Necromancer Minions
 3% Crushing Blow to Darklings?</t>
+  </si>
+  <si>
+    <t>Devil's dance</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2305,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2556,9 +2522,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,9 +2556,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3557,13 +3517,13 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="101" t="s">
+      <c r="H27" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -3718,13 +3678,13 @@
       <c r="E36" s="20"/>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="101" t="s">
+      <c r="H36" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
@@ -3885,13 +3845,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="101" t="s">
+      <c r="H45" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -4040,13 +4000,13 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="101" t="s">
+      <c r="H54" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -4195,13 +4155,13 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="101" t="s">
+      <c r="H63" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -5510,11 +5470,11 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="100"/>
-      <c r="I132" s="100"/>
-      <c r="J132" s="100"/>
-      <c r="K132" s="100"/>
-      <c r="L132" s="100"/>
+      <c r="H132" s="98"/>
+      <c r="I132" s="98"/>
+      <c r="J132" s="98"/>
+      <c r="K132" s="98"/>
+      <c r="L132" s="98"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" spans="1:14" ht="18" thickBot="1">
@@ -7260,13 +7220,13 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="102" t="s">
+      <c r="H30" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -7421,13 +7381,13 @@
       <c r="E39" s="20"/>
       <c r="F39" s="62"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="104"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="102"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -7588,13 +7548,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="102" t="s">
+      <c r="H48" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -7743,13 +7703,13 @@
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="104"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="102"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -7898,13 +7858,13 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="102" t="s">
+      <c r="H66" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="104"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="102"/>
       <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -10261,8 +10221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10282,40 +10242,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
       <c r="N2" s="1"/>
       <c r="O2" s="69"/>
       <c r="P2" s="70" t="s">
@@ -10324,19 +10284,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -10418,11 +10378,11 @@
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="58"/>
-      <c r="O6" s="91" t="s">
+      <c r="O6" s="89" t="s">
+        <v>450</v>
+      </c>
+      <c r="P6" t="s">
         <v>451</v>
-      </c>
-      <c r="P6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -10462,11 +10422,11 @@
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
       <c r="M8" s="58"/>
-      <c r="O8" s="90" t="s">
-        <v>451</v>
+      <c r="O8" s="88" t="s">
+        <v>450</v>
       </c>
       <c r="P8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
@@ -10580,8 +10540,8 @@
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="95" t="s">
-        <v>423</v>
+      <c r="L14" s="93" t="s">
+        <v>422</v>
       </c>
       <c r="M14" s="58"/>
     </row>
@@ -10623,7 +10583,7 @@
       <c r="L16" s="73"/>
       <c r="M16" s="58"/>
     </row>
-    <row r="17" spans="1:13" ht="45.75" thickBot="1">
+    <row r="17" spans="1:13" ht="26.25" thickBot="1">
       <c r="A17" s="58"/>
       <c r="B17" s="19" t="s">
         <v>15</v>
@@ -10638,15 +10598,13 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="L17" s="89" t="s">
-        <v>465</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>466</v>
-      </c>
+      <c r="K17" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="58"/>
@@ -10683,8 +10641,8 @@
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="95" t="s">
-        <v>425</v>
+      <c r="L19" s="93" t="s">
+        <v>424</v>
       </c>
       <c r="M19" s="58"/>
     </row>
@@ -10715,8 +10673,8 @@
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="95" t="s">
-        <v>405</v>
+      <c r="F21" s="93" t="s">
+        <v>404</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="19" t="s">
@@ -10763,8 +10721,8 @@
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="95" t="s">
-        <v>426</v>
+      <c r="L23" s="93" t="s">
+        <v>425</v>
       </c>
       <c r="M23" s="58"/>
     </row>
@@ -10784,8 +10742,8 @@
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="95" t="s">
-        <v>427</v>
+      <c r="L24" s="93" t="s">
+        <v>426</v>
       </c>
       <c r="M24" s="58"/>
     </row>
@@ -10867,10 +10825,10 @@
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
-      <c r="K28" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="L28" s="84"/>
+      <c r="K28" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="L28" s="83"/>
       <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
@@ -10902,13 +10860,13 @@
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="102" t="s">
+      <c r="H30" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -10921,16 +10879,16 @@
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="I31" s="93" t="s">
+      <c r="I31" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="J31" s="93" t="s">
+      <c r="J31" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="K31" s="93" t="s">
+      <c r="K31" s="91" t="s">
         <v>383</v>
       </c>
       <c r="L31" s="63"/>
@@ -10946,16 +10904,16 @@
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="93" t="s">
+      <c r="H32" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="I32" s="93" t="s">
+      <c r="I32" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="93" t="s">
+      <c r="J32" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="98" t="s">
+      <c r="K32" s="96" t="s">
         <v>384</v>
       </c>
       <c r="L32" s="63"/>
@@ -10975,10 +10933,10 @@
       <c r="I33" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="92" t="s">
+      <c r="J33" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="95" t="s">
+      <c r="K33" s="93" t="s">
         <v>385</v>
       </c>
       <c r="L33" s="20"/>
@@ -11036,7 +10994,7 @@
       <c r="J35" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="K35" s="95" t="s">
+      <c r="K35" s="93" t="s">
         <v>387</v>
       </c>
       <c r="L35" s="20"/>
@@ -11081,7 +11039,7 @@
       <c r="I37" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="J37" s="95" t="s">
+      <c r="J37" s="93" t="s">
         <v>382</v>
       </c>
       <c r="K37" s="20"/>
@@ -11113,15 +11071,15 @@
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
-      <c r="F39" s="84"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="58"/>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="100" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="104"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="102"/>
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1">
@@ -11132,16 +11090,16 @@
       <c r="E40" s="65"/>
       <c r="F40" s="66"/>
       <c r="G40" s="58"/>
-      <c r="H40" s="93" t="s">
+      <c r="H40" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="I40" s="93" t="s">
+      <c r="I40" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="93" t="s">
+      <c r="J40" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="K40" s="93" t="s">
+      <c r="K40" s="91" t="s">
         <v>377</v>
       </c>
       <c r="L40" s="63"/>
@@ -11165,16 +11123,16 @@
         <v>3</v>
       </c>
       <c r="G41" s="58"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="93" t="s">
+      <c r="I41" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="J41" s="93" t="s">
+      <c r="J41" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="K41" s="93" t="s">
+      <c r="K41" s="91" t="s">
         <v>380</v>
       </c>
       <c r="L41" s="63"/>
@@ -11199,7 +11157,7 @@
       <c r="J42" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="87"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="20"/>
       <c r="M42" s="58"/>
     </row>
@@ -11211,8 +11169,8 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="95" t="s">
-        <v>406</v>
+      <c r="F43" s="93" t="s">
+        <v>405</v>
       </c>
       <c r="G43" s="58"/>
       <c r="H43" s="72" t="s">
@@ -11244,7 +11202,7 @@
       <c r="I44" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="92" t="s">
+      <c r="J44" s="90" t="s">
         <v>373</v>
       </c>
       <c r="K44" s="20"/>
@@ -11282,7 +11240,7 @@
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
       <c r="E46" s="73"/>
-      <c r="F46" s="84"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="58"/>
       <c r="H46" s="72" t="s">
         <v>318</v>
@@ -11330,13 +11288,13 @@
         <v>3</v>
       </c>
       <c r="G48" s="58"/>
-      <c r="H48" s="102" t="s">
+      <c r="H48" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -11349,13 +11307,13 @@
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="93" t="s">
+      <c r="H49" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="93" t="s">
+      <c r="I49" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="J49" s="98" t="s">
+      <c r="J49" s="96" t="s">
         <v>388</v>
       </c>
       <c r="K49" s="63"/>
@@ -11372,13 +11330,13 @@
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="93" t="s">
+      <c r="I50" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="98" t="s">
+      <c r="J50" s="96" t="s">
         <v>389</v>
       </c>
       <c r="K50" s="63"/>
@@ -11398,10 +11356,10 @@
       <c r="H51" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="92" t="s">
+      <c r="I51" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="J51" s="88" t="s">
+      <c r="J51" s="87" t="s">
         <v>390</v>
       </c>
       <c r="K51" s="20"/>
@@ -11442,7 +11400,7 @@
       <c r="H53" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="I53" s="92" t="s">
+      <c r="I53" s="90" t="s">
         <v>364</v>
       </c>
       <c r="J53" s="20"/>
@@ -11519,13 +11477,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="104"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="102"/>
       <c r="M57" s="58"/>
     </row>
     <row r="58" spans="1:13" ht="30.75" thickBot="1">
@@ -11536,24 +11494,24 @@
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="95" t="s">
-        <v>407</v>
+      <c r="F58" s="93" t="s">
+        <v>406</v>
       </c>
       <c r="G58" s="58"/>
-      <c r="H58" s="93" t="s">
+      <c r="H58" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="94" t="s">
+      <c r="I58" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="J58" s="93" t="s">
+      <c r="J58" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="K58" s="98" t="s">
-        <v>396</v>
-      </c>
-      <c r="L58" s="98" t="s">
-        <v>403</v>
+      <c r="K58" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" s="96" t="s">
+        <v>402</v>
       </c>
       <c r="M58" s="58"/>
     </row>
@@ -11567,24 +11525,24 @@
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="93" t="s">
+      <c r="H59" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="I59" s="94" t="s">
+      <c r="I59" s="92" t="s">
         <v>347</v>
       </c>
-      <c r="J59" s="93" t="s">
+      <c r="J59" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="K59" s="98" t="s">
-        <v>397</v>
-      </c>
-      <c r="L59" s="98" t="s">
-        <v>404</v>
+      <c r="K59" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="L59" s="96" t="s">
+        <v>403</v>
       </c>
       <c r="M59" s="58"/>
     </row>
-    <row r="60" spans="1:13" ht="60.75" thickBot="1">
+    <row r="60" spans="1:13" ht="26.25" thickBot="1">
       <c r="A60" s="58"/>
       <c r="B60" s="19" t="s">
         <v>53</v>
@@ -11592,23 +11550,21 @@
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
-      <c r="F60" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>460</v>
-      </c>
+      <c r="F60" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" s="58"/>
       <c r="H60" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="92" t="s">
+      <c r="I60" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="J60" s="92" t="s">
+      <c r="J60" s="90" t="s">
         <v>355</v>
       </c>
       <c r="K60" s="72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="58"/>
@@ -11623,7 +11579,7 @@
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
       <c r="G61" s="58"/>
-      <c r="H61" s="92" t="s">
+      <c r="H61" s="90" t="s">
         <v>342</v>
       </c>
       <c r="I61" s="72" t="s">
@@ -11632,8 +11588,8 @@
       <c r="J61" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="K61" s="95" t="s">
-        <v>399</v>
+      <c r="K61" s="93" t="s">
+        <v>398</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="58"/>
@@ -11654,18 +11610,18 @@
       <c r="I62" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="J62" s="92" t="s">
+      <c r="J62" s="90" t="s">
         <v>372</v>
       </c>
       <c r="K62" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="58" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="45.75" thickBot="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="26.25" thickBot="1">
       <c r="A63" s="58"/>
       <c r="B63" s="19" t="s">
         <v>56</v>
@@ -11673,23 +11629,21 @@
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
-      <c r="F63" s="75" t="s">
-        <v>409</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>459</v>
-      </c>
+      <c r="F63" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" s="58"/>
       <c r="H63" s="72" t="s">
         <v>344</v>
       </c>
       <c r="I63" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="J63" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="K63" s="95" t="s">
-        <v>401</v>
+      <c r="J63" s="93" t="s">
+        <v>393</v>
+      </c>
+      <c r="K63" s="93" t="s">
+        <v>400</v>
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="58"/>
@@ -11707,14 +11661,14 @@
       <c r="H64" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="I64" s="92" t="s">
+      <c r="I64" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="J64" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="K64" s="95" t="s">
-        <v>402</v>
+      <c r="J64" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="K64" s="93" t="s">
+        <v>401</v>
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="58"/>
@@ -11746,16 +11700,16 @@
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
       <c r="G66" s="58"/>
-      <c r="H66" s="102" t="s">
+      <c r="H66" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="104"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="102"/>
       <c r="M66" s="58"/>
     </row>
-    <row r="67" spans="1:13" ht="30.75" thickBot="1">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="58"/>
       <c r="B67" s="19" t="s">
         <v>60</v>
@@ -11765,22 +11719,20 @@
       <c r="E67" s="73"/>
       <c r="F67" s="73"/>
       <c r="G67" s="58"/>
-      <c r="H67" s="93" t="s">
+      <c r="H67" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="I67" s="93" t="s">
+      <c r="I67" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="J67" s="76" t="s">
-        <v>393</v>
-      </c>
-      <c r="K67" s="108" t="s">
+      <c r="J67" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="K67" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="L67" s="109"/>
-      <c r="M67" s="58" t="s">
-        <v>458</v>
-      </c>
+      <c r="L67" s="107"/>
+      <c r="M67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
       <c r="A68" s="58"/>
@@ -11792,15 +11744,15 @@
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
       <c r="G68" s="58"/>
-      <c r="H68" s="93" t="s">
+      <c r="H68" s="91" t="s">
         <v>289</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="63"/>
-      <c r="K68" s="108" t="s">
+      <c r="K68" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="L68" s="109"/>
+      <c r="L68" s="107"/>
       <c r="M68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -11818,10 +11770,10 @@
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="105" t="s">
+      <c r="K69" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="L69" s="106"/>
+      <c r="L69" s="104"/>
       <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -11831,7 +11783,7 @@
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
-      <c r="E70" s="77"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="73"/>
       <c r="G70" s="58"/>
       <c r="H70" s="72" t="s">
@@ -11839,10 +11791,10 @@
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
-      <c r="K70" s="105" t="s">
+      <c r="K70" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="L70" s="106"/>
+      <c r="L70" s="104"/>
       <c r="M70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -11860,10 +11812,10 @@
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
-      <c r="K71" s="105" t="s">
+      <c r="K71" s="103" t="s">
         <v>314</v>
       </c>
-      <c r="L71" s="106"/>
+      <c r="L71" s="104"/>
       <c r="M71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="26.25" thickBot="1">
@@ -11874,19 +11826,19 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="95" t="s">
-        <v>410</v>
+      <c r="F72" s="93" t="s">
+        <v>409</v>
       </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="95" t="s">
+      <c r="H72" s="93" t="s">
         <v>391</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
-      <c r="K72" s="105" t="s">
+      <c r="K72" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="L72" s="106"/>
+      <c r="L72" s="104"/>
       <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -11976,8 +11928,8 @@
       <c r="B77" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
       <c r="E77" s="74"/>
       <c r="F77" s="74"/>
       <c r="G77" s="58"/>
@@ -12036,8 +11988,8 @@
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
-      <c r="F80" s="95" t="s">
-        <v>411</v>
+      <c r="F80" s="93" t="s">
+        <v>410</v>
       </c>
       <c r="G80" s="58"/>
       <c r="H80" s="19" t="s">
@@ -12076,8 +12028,8 @@
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="95" t="s">
-        <v>412</v>
+      <c r="F82" s="93" t="s">
+        <v>411</v>
       </c>
       <c r="G82" s="58"/>
       <c r="H82" s="19" t="s">
@@ -12116,8 +12068,8 @@
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="95" t="s">
-        <v>413</v>
+      <c r="F84" s="93" t="s">
+        <v>412</v>
       </c>
       <c r="G84" s="58"/>
       <c r="H84" s="19" t="s">
@@ -12145,25 +12097,23 @@
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
       <c r="K85" s="73"/>
-      <c r="L85" s="95" t="s">
-        <v>429</v>
+      <c r="L85" s="93" t="s">
+        <v>428</v>
       </c>
       <c r="M85" s="58"/>
     </row>
-    <row r="86" spans="1:13" ht="45.75" thickBot="1">
+    <row r="86" spans="1:13" ht="26.25" thickBot="1">
       <c r="A86" s="58"/>
       <c r="B86" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="73"/>
-      <c r="D86" s="75" t="s">
-        <v>454</v>
+      <c r="D86" s="93" t="s">
+        <v>453</v>
       </c>
       <c r="E86" s="73"/>
       <c r="F86" s="73"/>
-      <c r="G86" s="58" t="s">
-        <v>457</v>
-      </c>
+      <c r="G86" s="58"/>
       <c r="H86" s="19" t="s">
         <v>187</v>
       </c>
@@ -12189,25 +12139,23 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
       <c r="K87" s="73"/>
-      <c r="L87" s="95" t="s">
-        <v>430</v>
+      <c r="L87" s="93" t="s">
+        <v>429</v>
       </c>
       <c r="M87" s="58"/>
     </row>
-    <row r="88" spans="1:13" ht="45.75" thickBot="1">
+    <row r="88" spans="1:13" ht="26.25" thickBot="1">
       <c r="A88" s="58"/>
       <c r="B88" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C88" s="73"/>
-      <c r="D88" s="89" t="s">
-        <v>414</v>
+      <c r="D88" s="93" t="s">
+        <v>413</v>
       </c>
       <c r="E88" s="73"/>
       <c r="F88" s="73"/>
-      <c r="G88" s="58" t="s">
-        <v>456</v>
-      </c>
+      <c r="G88" s="58"/>
       <c r="H88" s="19" t="s">
         <v>189</v>
       </c>
@@ -12223,7 +12171,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="73"/>
-      <c r="D89" s="78"/>
+      <c r="D89" s="77"/>
       <c r="E89" s="73"/>
       <c r="F89" s="73"/>
       <c r="G89" s="58"/>
@@ -12244,20 +12192,20 @@
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
       <c r="E90" s="74"/>
-      <c r="F90" s="96" t="s">
-        <v>415</v>
+      <c r="F90" s="94" t="s">
+        <v>414</v>
       </c>
       <c r="G90" s="58"/>
       <c r="H90" s="19" t="s">
         <v>191</v>
       </c>
       <c r="I90" s="73"/>
-      <c r="J90" s="95" t="s">
+      <c r="J90" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="K90" s="73"/>
+      <c r="L90" s="93" t="s">
         <v>431</v>
-      </c>
-      <c r="K90" s="73"/>
-      <c r="L90" s="95" t="s">
-        <v>432</v>
       </c>
       <c r="M90" s="58"/>
     </row>
@@ -12315,8 +12263,8 @@
       <c r="I93" s="73"/>
       <c r="J93" s="73"/>
       <c r="K93" s="73"/>
-      <c r="L93" s="95" t="s">
-        <v>433</v>
+      <c r="L93" s="93" t="s">
+        <v>432</v>
       </c>
       <c r="M93" s="58"/>
     </row>
@@ -12336,8 +12284,8 @@
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
       <c r="K94" s="73"/>
-      <c r="L94" s="95" t="s">
-        <v>434</v>
+      <c r="L94" s="93" t="s">
+        <v>433</v>
       </c>
       <c r="M94" s="58"/>
     </row>
@@ -12357,8 +12305,8 @@
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
       <c r="K95" s="73"/>
-      <c r="L95" s="95" t="s">
-        <v>435</v>
+      <c r="L95" s="93" t="s">
+        <v>434</v>
       </c>
       <c r="M95" s="58"/>
     </row>
@@ -12395,16 +12343,14 @@
         <v>195</v>
       </c>
       <c r="I97" s="73"/>
-      <c r="J97" s="95" t="s">
+      <c r="J97" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="K97" s="73"/>
+      <c r="L97" s="93" t="s">
         <v>436</v>
       </c>
-      <c r="K97" s="73"/>
-      <c r="L97" s="75" t="s">
-        <v>437</v>
-      </c>
-      <c r="M97" s="58" t="s">
-        <v>455</v>
-      </c>
+      <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="39" thickBot="1">
       <c r="A98" s="58"/>
@@ -12422,12 +12368,10 @@
       <c r="I98" s="73"/>
       <c r="J98" s="73"/>
       <c r="K98" s="73"/>
-      <c r="L98" s="75" t="s">
-        <v>438</v>
-      </c>
-      <c r="M98" s="58" t="s">
-        <v>467</v>
-      </c>
+      <c r="L98" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="M98" s="58"/>
     </row>
     <row r="99" spans="1:13" ht="26.25" thickBot="1">
       <c r="A99" s="58"/>
@@ -12445,8 +12389,8 @@
       <c r="I99" s="73"/>
       <c r="J99" s="73"/>
       <c r="K99" s="73"/>
-      <c r="L99" s="95" t="s">
-        <v>439</v>
+      <c r="L99" s="93" t="s">
+        <v>438</v>
       </c>
       <c r="M99" s="58"/>
     </row>
@@ -12458,7 +12402,7 @@
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
       <c r="E100" s="74"/>
-      <c r="F100" s="82"/>
+      <c r="F100" s="81"/>
       <c r="G100" s="58"/>
       <c r="H100" s="19" t="s">
         <v>200</v>
@@ -12484,11 +12428,11 @@
       </c>
       <c r="I101" s="72"/>
       <c r="J101" s="73"/>
-      <c r="K101" s="95" t="s">
+      <c r="K101" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="L101" s="93" t="s">
         <v>440</v>
-      </c>
-      <c r="L101" s="95" t="s">
-        <v>441</v>
       </c>
       <c r="M101" s="58"/>
     </row>
@@ -12508,8 +12452,8 @@
       <c r="I102" s="73"/>
       <c r="J102" s="73"/>
       <c r="K102" s="73"/>
-      <c r="L102" s="99" t="s">
-        <v>442</v>
+      <c r="L102" s="97" t="s">
+        <v>441</v>
       </c>
       <c r="M102" s="58"/>
     </row>
@@ -12521,7 +12465,7 @@
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
-      <c r="F103" s="84"/>
+      <c r="F103" s="83"/>
       <c r="G103" s="58"/>
       <c r="H103" s="58"/>
       <c r="I103" s="58"/>
@@ -12634,8 +12578,8 @@
         <v>206</v>
       </c>
       <c r="I108" s="73"/>
-      <c r="J108" s="95" t="s">
-        <v>443</v>
+      <c r="J108" s="93" t="s">
+        <v>442</v>
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73"/>
@@ -12655,7 +12599,7 @@
         <v>207</v>
       </c>
       <c r="I109" s="73"/>
-      <c r="J109" s="80"/>
+      <c r="J109" s="79"/>
       <c r="K109" s="73"/>
       <c r="L109" s="73"/>
       <c r="M109" s="58"/>
@@ -12679,20 +12623,18 @@
       <c r="L110" s="73"/>
       <c r="M110" s="58"/>
     </row>
-    <row r="111" spans="1:13" ht="45.75" thickBot="1">
+    <row r="111" spans="1:13" ht="15.75" thickBot="1">
       <c r="A111" s="58"/>
       <c r="B111" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C111" s="73"/>
-      <c r="D111" s="75" t="s">
-        <v>416</v>
+      <c r="D111" s="93" t="s">
+        <v>415</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="73"/>
-      <c r="G111" s="58" t="s">
-        <v>461</v>
-      </c>
+      <c r="G111" s="58"/>
       <c r="H111" s="19" t="s">
         <v>209</v>
       </c>
@@ -12718,25 +12660,23 @@
       <c r="I112" s="73"/>
       <c r="J112" s="73"/>
       <c r="K112" s="73"/>
-      <c r="L112" s="95" t="s">
-        <v>444</v>
+      <c r="L112" s="93" t="s">
+        <v>443</v>
       </c>
       <c r="M112" s="58"/>
     </row>
-    <row r="113" spans="1:13" ht="45.75" thickBot="1">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1">
       <c r="A113" s="58"/>
       <c r="B113" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
-      <c r="E113" s="75" t="s">
-        <v>417</v>
+      <c r="E113" s="93" t="s">
+        <v>416</v>
       </c>
       <c r="F113" s="73"/>
-      <c r="G113" s="58" t="s">
-        <v>462</v>
-      </c>
+      <c r="G113" s="58"/>
       <c r="H113" s="19" t="s">
         <v>211</v>
       </c>
@@ -12746,7 +12686,7 @@
       <c r="L113" s="73"/>
       <c r="M113" s="58"/>
     </row>
-    <row r="114" spans="1:13" ht="90.75" thickBot="1">
+    <row r="114" spans="1:13" ht="15.75" thickBot="1">
       <c r="A114" s="58"/>
       <c r="B114" s="19" t="s">
         <v>105</v>
@@ -12756,12 +12696,10 @@
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
-      <c r="F114" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="G114" s="58" t="s">
-        <v>463</v>
-      </c>
+      <c r="F114" s="93" t="s">
+        <v>417</v>
+      </c>
+      <c r="G114" s="58"/>
       <c r="H114" s="19" t="s">
         <v>212</v>
       </c>
@@ -12816,10 +12754,10 @@
       <c r="B117" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="83" t="s">
+      <c r="C117" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="82"/>
+      <c r="D117" s="81"/>
       <c r="E117" s="74"/>
       <c r="F117" s="74"/>
       <c r="G117" s="58"/>
@@ -12866,7 +12804,7 @@
       </c>
       <c r="I119" s="73"/>
       <c r="J119" s="73"/>
-      <c r="K119" s="86"/>
+      <c r="K119" s="85"/>
       <c r="L119" s="73"/>
       <c r="M119" s="58"/>
     </row>
@@ -12924,8 +12862,8 @@
       <c r="I122" s="73"/>
       <c r="J122" s="73"/>
       <c r="K122" s="73"/>
-      <c r="L122" s="95" t="s">
-        <v>445</v>
+      <c r="L122" s="93" t="s">
+        <v>444</v>
       </c>
       <c r="M122" s="58"/>
     </row>
@@ -12983,8 +12921,8 @@
       <c r="I125" s="73"/>
       <c r="J125" s="73"/>
       <c r="K125" s="73"/>
-      <c r="L125" s="95" t="s">
-        <v>446</v>
+      <c r="L125" s="93" t="s">
+        <v>445</v>
       </c>
       <c r="M125" s="58"/>
     </row>
@@ -12996,8 +12934,8 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="73"/>
-      <c r="F126" s="95" t="s">
-        <v>419</v>
+      <c r="F126" s="93" t="s">
+        <v>418</v>
       </c>
       <c r="G126" s="58"/>
       <c r="H126" s="19" t="s">
@@ -13025,8 +12963,8 @@
       <c r="I127" s="73"/>
       <c r="J127" s="73"/>
       <c r="K127" s="73"/>
-      <c r="L127" s="95" t="s">
-        <v>447</v>
+      <c r="L127" s="93" t="s">
+        <v>446</v>
       </c>
       <c r="M127" s="58"/>
     </row>
@@ -13035,8 +12973,8 @@
       <c r="B128" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="82"/>
-      <c r="D128" s="81"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="80"/>
       <c r="E128" s="74"/>
       <c r="F128" s="74"/>
       <c r="G128" s="58"/>
@@ -13046,8 +12984,8 @@
       <c r="I128" s="73"/>
       <c r="J128" s="73"/>
       <c r="K128" s="73"/>
-      <c r="L128" s="95" t="s">
-        <v>448</v>
+      <c r="L128" s="93" t="s">
+        <v>447</v>
       </c>
       <c r="M128" s="58"/>
     </row>
@@ -13097,7 +13035,7 @@
       <c r="C131" s="74"/>
       <c r="D131" s="74"/>
       <c r="E131" s="74"/>
-      <c r="F131" s="82"/>
+      <c r="F131" s="81"/>
       <c r="G131" s="58"/>
       <c r="H131" s="19" t="s">
         <v>228</v>
@@ -13105,8 +13043,8 @@
       <c r="I131" s="73"/>
       <c r="J131" s="73"/>
       <c r="K131" s="73"/>
-      <c r="L131" s="95" t="s">
-        <v>449</v>
+      <c r="L131" s="93" t="s">
+        <v>448</v>
       </c>
       <c r="M131" s="58"/>
     </row>
@@ -13118,18 +13056,18 @@
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
       <c r="E132" s="73"/>
-      <c r="F132" s="95" t="s">
-        <v>420</v>
+      <c r="F132" s="93" t="s">
+        <v>419</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="19" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="I132" s="73"/>
       <c r="J132" s="73"/>
       <c r="K132" s="73"/>
-      <c r="L132" s="99" t="s">
-        <v>450</v>
+      <c r="L132" s="97" t="s">
+        <v>449</v>
       </c>
       <c r="M132" s="58"/>
     </row>
@@ -13158,10 +13096,10 @@
       <c r="C134" s="73"/>
       <c r="D134" s="73"/>
       <c r="E134" s="73"/>
-      <c r="F134" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="G134" s="97"/>
+      <c r="F134" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="G134" s="95"/>
       <c r="H134" s="44" t="s">
         <v>231</v>
       </c>
@@ -13187,8 +13125,8 @@
       <c r="B135" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="85"/>
-      <c r="D135" s="85"/>
+      <c r="C135" s="84"/>
+      <c r="D135" s="84"/>
       <c r="E135" s="73"/>
       <c r="F135" s="73"/>
       <c r="G135" s="4"/>
@@ -13210,7 +13148,7 @@
       <c r="C136" s="73"/>
       <c r="D136" s="73"/>
       <c r="E136" s="73"/>
-      <c r="F136" s="77"/>
+      <c r="F136" s="76"/>
       <c r="G136" s="4"/>
       <c r="H136" s="51" t="s">
         <v>238</v>
@@ -13289,11 +13227,11 @@
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
-      <c r="E140" s="95" t="s">
-        <v>422</v>
+      <c r="E140" s="93" t="s">
+        <v>421</v>
       </c>
       <c r="F140" s="73"/>
-      <c r="G140" s="97"/>
+      <c r="G140" s="95"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -13340,7 +13278,7 @@
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
-      <c r="F142" s="84"/>
+      <c r="F142" s="83"/>
       <c r="G142" s="4"/>
       <c r="H142" s="51" t="s">
         <v>237</v>
@@ -13612,7 +13550,7 @@
       <c r="C155" s="73"/>
       <c r="D155" s="73"/>
       <c r="E155" s="73"/>
-      <c r="F155" s="84"/>
+      <c r="F155" s="83"/>
       <c r="G155" s="4"/>
       <c r="H155" s="44" t="s">
         <v>255</v>
@@ -13653,7 +13591,7 @@
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" ht="27" thickBot="1">
-      <c r="A157" s="79" t="s">
+      <c r="A157" s="78" t="s">
         <v>267</v>
       </c>
       <c r="B157" s="45" t="s">

--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="474" activeTab="3"/>
@@ -12,12 +12,46 @@
     <sheet name="Blank full" sheetId="4" r:id="rId3"/>
     <sheet name="Text arrangement" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check the max/min possible damage on it from docs, I have a spear with 1184 max damage while in docs it have 1124 as max possible</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="461">
   <si>
     <t>ARMOR</t>
   </si>
@@ -1407,12 +1441,21 @@
   <si>
     <t>Devil's dance</t>
   </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1759,6 +1802,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2305,7 +2361,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2613,6 +2669,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -10221,8 +10283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13437,11 +13499,13 @@
       <c r="H149" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="108" t="s">
+        <v>460</v>
+      </c>
+      <c r="K149" s="108"/>
+      <c r="L149" s="108"/>
+      <c r="M149" s="108"/>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1">
@@ -13457,11 +13521,13 @@
       <c r="H150" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
+      <c r="I150" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="J150" s="108"/>
+      <c r="K150" s="108"/>
+      <c r="L150" s="108"/>
+      <c r="M150" s="108"/>
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1">
@@ -13477,11 +13543,13 @@
       <c r="H151" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
+      <c r="I151" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" s="108"/>
+      <c r="K151" s="108"/>
+      <c r="L151" s="108"/>
+      <c r="M151" s="108"/>
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
@@ -13497,11 +13565,13 @@
       <c r="H152" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
+      <c r="I152" s="108" t="s">
+        <v>459</v>
+      </c>
+      <c r="J152" s="108"/>
+      <c r="K152" s="108"/>
+      <c r="L152" s="108"/>
+      <c r="M152" s="108"/>
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" ht="15.75" thickBot="1">
@@ -13517,11 +13587,11 @@
       <c r="H153" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="I153" s="109"/>
+      <c r="J153" s="109"/>
+      <c r="K153" s="109"/>
+      <c r="L153" s="109"/>
+      <c r="M153" s="109"/>
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1">
@@ -14161,5 +14231,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>